--- a/data/results_inventory_impairment.xlsx
+++ b/data/results_inventory_impairment.xlsx
@@ -525,17 +525,17 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>impairment_index</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>auto_arima_index</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>autoencoder_index</t>
-        </is>
-      </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>impairment_index</t>
+          <t>auto_encoder_index</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -607,19 +607,19 @@
         <v>0.0344806015037594</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2497104004473681</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.003753840698783373</v>
+        <v>0.006195009487724579</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.003252872331961587</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2534642411461515</v>
+        <v>0.003872373280734045</v>
       </c>
       <c r="V2" t="n">
-        <v>0.06405846728536801</v>
+        <v>0.06871756587906308</v>
       </c>
       <c r="W2" t="n">
         <v>0.0344806015037594</v>
@@ -678,19 +678,19 @@
         <v>0.07726739130434783</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.05106882714951422</v>
       </c>
       <c r="S3" t="n">
-        <v>0.07157707993087814</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05106882714951422</v>
+        <v>0.03044287405209389</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1226459070803924</v>
+        <v>0.03554975676704532</v>
       </c>
       <c r="V3" t="n">
-        <v>0.08155930230189945</v>
+        <v>0.07944423066233282</v>
       </c>
       <c r="W3" t="n">
         <v>0.07726739130434783</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00458010526284558</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.01317905776755279</v>
       </c>
       <c r="U4" t="n">
-        <v>0.00458010526284558</v>
+        <v>0.01317905776755279</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1116203246466756</v>
+        <v>0.1045656439266033</v>
       </c>
       <c r="W4" t="n">
         <v>0.0573232</v>
@@ -820,19 +820,19 @@
         <v>0.2393854166666667</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.007279220201414109</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004996957198200036</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.007279220201414109</v>
+        <v>0.01544643210344621</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01227617739961414</v>
+        <v>0.01617435412358762</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2819781461585059</v>
+        <v>0.2536426371682379</v>
       </c>
       <c r="W5" t="n">
         <v>0.2393854166666667</v>
@@ -891,19 +891,19 @@
         <v>0.05095547619047619</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2419888039965929</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002440426930942152</v>
+        <v>0.06256666707178077</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.02718360122800556</v>
       </c>
       <c r="U6" t="n">
-        <v>0.244429230927535</v>
+        <v>0.03344026793518363</v>
       </c>
       <c r="V6" t="n">
-        <v>0.06926930667207522</v>
+        <v>0.07418749902289949</v>
       </c>
       <c r="W6" t="n">
         <v>0.05095547619047619</v>
@@ -962,19 +962,19 @@
         <v>0.087325</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1373734921879399</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.05923332536101219</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02525216383304141</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1373734921879399</v>
+        <v>0.03117549636914263</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1055859981044676</v>
+        <v>0.1048636841217666</v>
       </c>
       <c r="W7" t="n">
         <v>0.087325</v>
@@ -1033,22 +1033,22 @@
         <v>0.0836490524643492</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2189964168877171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.004687766239933389</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2236841831276505</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.003613168656759026</v>
+        <v>0.005522531427412544</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.003613168656759026</v>
+        <v>0.005522531427412544</v>
       </c>
     </row>
     <row r="9">
@@ -1104,19 +1104,19 @@
         <v>0.0900512987012987</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5841271592835764</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.003979109591059293</v>
+        <v>0.006244839500184459</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.008085154991917198</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5881062688746357</v>
+        <v>0.008709638941935645</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1376884968102336</v>
+        <v>0.1795557836297065</v>
       </c>
       <c r="W9" t="n">
         <v>0.0900512987012987</v>
@@ -1175,22 +1175,22 @@
         <v>0.12307625</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5110079517080413</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.004146535784465222</v>
+        <v>0.006079915191484634</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.01514925369817322</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5151544874925065</v>
+        <v>0.01575724521732168</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1067973190176132</v>
+        <v>0.1541727751798062</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1067973190176132</v>
+        <v>0.12307625</v>
       </c>
     </row>
     <row r="11">
@@ -1249,16 +1249,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.002851260550807089</v>
+        <v>0.01620109366196119</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.01216902455166546</v>
       </c>
       <c r="U11" t="n">
-        <v>0.002851260550807089</v>
+        <v>0.01378913391786158</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1885962573646652</v>
+        <v>0.1731615887150229</v>
       </c>
       <c r="W11" t="n">
         <v>0.1230761904761905</v>
@@ -1320,16 +1320,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.004618806374950823</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.02916597587281156</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004618806374950823</v>
+        <v>0.02916597587281156</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1860105180110286</v>
+        <v>0.1682867032702743</v>
       </c>
       <c r="W12" t="n">
         <v>0.1274941176470588</v>
@@ -1388,19 +1388,19 @@
         <v>0.07149</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1993711260183014</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.02559129845198482</v>
+        <v>0.02828140798483216</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.02841427363081706</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2249624244702862</v>
+        <v>0.03124241442930027</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1101455362792693</v>
+        <v>0.1158111512469464</v>
       </c>
       <c r="W13" t="n">
         <v>0.07149</v>
@@ -1459,19 +1459,19 @@
         <v>0.07229000000000001</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2572523104212003</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.003051202365398797</v>
+        <v>0.002824721231939737</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.03407924253731509</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2603035127865991</v>
+        <v>0.03436171466050907</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1431753274307312</v>
+        <v>0.1512336558224059</v>
       </c>
       <c r="W14" t="n">
         <v>0.07229000000000001</v>
@@ -1530,19 +1530,19 @@
         <v>0.01909</v>
       </c>
       <c r="R15" t="n">
-        <v>0.05218857966752946</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.004774948226814235</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.02356367845172103</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0569635278943437</v>
+        <v>0.02356367845172103</v>
       </c>
       <c r="V15" t="n">
-        <v>0.03689033888535303</v>
+        <v>0.03534271818938556</v>
       </c>
       <c r="W15" t="n">
         <v>0.01909</v>
@@ -1604,16 +1604,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.001516615503322827</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.01246575847831854</v>
       </c>
       <c r="U16" t="n">
-        <v>0.001516615503322827</v>
+        <v>0.01246575847831854</v>
       </c>
       <c r="V16" t="n">
-        <v>0.049217374825487</v>
+        <v>0.04682314825886836</v>
       </c>
       <c r="W16" t="n">
         <v>0.01908986928104575</v>
@@ -1672,19 +1672,19 @@
         <v>0.01909</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2507132718266787</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.003063155408662421</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.03662672729947691</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2537764272353412</v>
+        <v>0.03662672729947691</v>
       </c>
       <c r="V17" t="n">
-        <v>0.02772334130928538</v>
+        <v>0.0296835052592339</v>
       </c>
       <c r="W17" t="n">
         <v>0.01909</v>
@@ -1743,19 +1743,19 @@
         <v>0.02312</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4486189408089082</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.004527612177743778</v>
+        <v>0.01165959166840453</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.03866608410335548</v>
       </c>
       <c r="U18" t="n">
-        <v>0.453146552986652</v>
+        <v>0.03983204327019593</v>
       </c>
       <c r="V18" t="n">
-        <v>0.02424760459816629</v>
+        <v>0.03115689993077076</v>
       </c>
       <c r="W18" t="n">
         <v>0.02312</v>
@@ -1814,19 +1814,19 @@
         <v>0.02312</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.335563321458004</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3214044608506696</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.335563321458004</v>
+        <v>0.2255177842563005</v>
       </c>
       <c r="U19" t="n">
-        <v>0.6569677823086737</v>
+        <v>0.2590741164021009</v>
       </c>
       <c r="V19" t="n">
-        <v>0.02803382920481256</v>
+        <v>0.03458659462853254</v>
       </c>
       <c r="W19" t="n">
         <v>0.02312</v>
@@ -1885,19 +1885,19 @@
         <v>0.01909</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1695773986084185</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.004655835732753522</v>
+        <v>0.007249308450760838</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.04763921848213215</v>
       </c>
       <c r="U20" t="n">
-        <v>0.174233234341172</v>
+        <v>0.04836414932720823</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02982985463372752</v>
+        <v>0.03004747164481696</v>
       </c>
       <c r="W20" t="n">
         <v>0.01909</v>
@@ -1956,19 +1956,19 @@
         <v>0.02669</v>
       </c>
       <c r="R21" t="n">
-        <v>0.488619080021702</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.004344638669323775</v>
+        <v>0.09613946469482695</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.4929637186910257</v>
+        <v>0.009613946469482696</v>
       </c>
       <c r="V21" t="n">
-        <v>0.03241007128998131</v>
+        <v>0.04225548426402813</v>
       </c>
       <c r="W21" t="n">
         <v>0.02669</v>
@@ -2030,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.00454859269424146</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.006134249433400907</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00454859269424146</v>
+        <v>0.006134249433400907</v>
       </c>
       <c r="V22" t="n">
-        <v>0.03157587100283547</v>
+        <v>0.02847835737792115</v>
       </c>
       <c r="W22" t="n">
         <v>0.02669</v>
@@ -2098,19 +2098,19 @@
         <v>0.02669</v>
       </c>
       <c r="R23" t="n">
-        <v>0.230287913601719</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.00486513937143962</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>0.04703463866332847</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2351530529731586</v>
+        <v>0.04703463866332847</v>
       </c>
       <c r="V23" t="n">
-        <v>0.02811103795799118</v>
+        <v>0.03007672598937438</v>
       </c>
       <c r="W23" t="n">
         <v>0.02669</v>
@@ -2172,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.004954661814344119</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>0.03041549416910727</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004954661814344119</v>
+        <v>0.03041549416910727</v>
       </c>
       <c r="V24" t="n">
-        <v>0.03423182474327999</v>
+        <v>0.03048574572843438</v>
       </c>
       <c r="W24" t="n">
         <v>0.02677101851851852</v>
@@ -2246,13 +2246,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.2531502199946929</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.2531502199946929</v>
       </c>
       <c r="V25" t="n">
-        <v>0.03396806347215684</v>
+        <v>0.0291011861059395</v>
       </c>
       <c r="W25" t="n">
         <v>0.01323888888888889</v>
@@ -2311,19 +2311,19 @@
         <v>0.01324</v>
       </c>
       <c r="R26" t="n">
-        <v>0.08720108287811132</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>0.0267006307596096</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08720108287811132</v>
+        <v>0.0267006307596096</v>
       </c>
       <c r="V26" t="n">
-        <v>0.02974531274876191</v>
+        <v>0.02903076181490562</v>
       </c>
       <c r="W26" t="n">
         <v>0.01324</v>
@@ -2382,19 +2382,19 @@
         <v>0.01323999653859467</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1362693639840967</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0.004363362317512998</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>0.0461971520476907</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1406327263016097</v>
+        <v>0.0461971520476907</v>
       </c>
       <c r="V27" t="n">
-        <v>0.03107658497114098</v>
+        <v>0.03081133512370334</v>
       </c>
       <c r="W27" t="n">
         <v>0.01323999653859467</v>
@@ -2453,19 +2453,19 @@
         <v>0.01323888888888889</v>
       </c>
       <c r="R28" t="n">
-        <v>0.3042807372977324</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.01512706981883249</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.02257142438063009</v>
       </c>
       <c r="U28" t="n">
-        <v>0.3042807372977324</v>
+        <v>0.02408413136251334</v>
       </c>
       <c r="V28" t="n">
-        <v>0.03088474562487129</v>
+        <v>0.03307878762638162</v>
       </c>
       <c r="W28" t="n">
         <v>0.01323888888888889</v>
@@ -2524,19 +2524,19 @@
         <v>0.030375</v>
       </c>
       <c r="R29" t="n">
-        <v>0.3038154856666636</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.004901249264376073</v>
+        <v>0.007412842701825432</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>0.03828329911588768</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3087167349310396</v>
+        <v>0.03902458338607023</v>
       </c>
       <c r="V29" t="n">
-        <v>0.03091760705614503</v>
+        <v>0.03563249339934447</v>
       </c>
       <c r="W29" t="n">
         <v>0.030375</v>
@@ -2595,22 +2595,22 @@
         <v>0.03046444444444445</v>
       </c>
       <c r="R30" t="n">
-        <v>0.5580089395463647</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0.004953324410902127</v>
+        <v>0.06028717640419708</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>0.04197913884045312</v>
       </c>
       <c r="U30" t="n">
-        <v>0.5629622639572668</v>
+        <v>0.04800785648087283</v>
       </c>
       <c r="V30" t="n">
-        <v>0.01727818907552212</v>
+        <v>0.02947873758769768</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01727818907552212</v>
+        <v>0.02947873758769768</v>
       </c>
     </row>
     <row r="31">
@@ -2669,16 +2669,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.1783771035527664</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.7503525382173829</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1783771035527664</v>
+        <v>0.7503525382173829</v>
       </c>
       <c r="V31" t="n">
-        <v>0.04614513309536637</v>
+        <v>0.03705736413715776</v>
       </c>
       <c r="W31" t="n">
         <v>0.01323888888888889</v>
@@ -2737,19 +2737,19 @@
         <v>0.2018904227782571</v>
       </c>
       <c r="R32" t="n">
-        <v>0.06095352417420238</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0.1033905643094417</v>
+        <v>0.002380800450143862</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>0.06977994308006807</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1643440884836441</v>
+        <v>0.07001802312508246</v>
       </c>
       <c r="V32" t="n">
-        <v>0.2302596658844877</v>
+        <v>0.2261928880660605</v>
       </c>
       <c r="W32" t="n">
         <v>0.2018904227782571</v>
@@ -2811,16 +2811,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0.08319042272021093</v>
+        <v>0.01640792269615274</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.1366930879574297</v>
       </c>
       <c r="U33" t="n">
-        <v>0.08319042272021093</v>
+        <v>0.138333880227045</v>
       </c>
       <c r="V33" t="n">
-        <v>0.04406192375753662</v>
+        <v>0.04073072417453902</v>
       </c>
       <c r="W33" t="n">
         <v>0.01964</v>
@@ -2879,19 +2879,19 @@
         <v>0.01964</v>
       </c>
       <c r="R34" t="n">
-        <v>0.6227477024953836</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0.003926114979666773</v>
+        <v>0.02716835545787156</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.006504144540891321</v>
       </c>
       <c r="U34" t="n">
-        <v>0.6266738174750504</v>
+        <v>0.009220980086678477</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0349981694127923</v>
+        <v>0.04487676106153655</v>
       </c>
       <c r="W34" t="n">
         <v>0.01964</v>
@@ -2950,19 +2950,19 @@
         <v>0.0167</v>
       </c>
       <c r="R35" t="n">
-        <v>0.3231802748445601</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.004804287514824868</v>
+        <v>0.02114597866329074</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>0.1167870240689617</v>
       </c>
       <c r="U35" t="n">
-        <v>0.327984562359385</v>
+        <v>0.1189016219352908</v>
       </c>
       <c r="V35" t="n">
-        <v>0.03347940232632392</v>
+        <v>0.03505944584814211</v>
       </c>
       <c r="W35" t="n">
         <v>0.0167</v>
@@ -3021,19 +3021,19 @@
         <v>0.0167</v>
       </c>
       <c r="R36" t="n">
-        <v>0.02447185595011619</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0.004350991335673626</v>
+        <v>0.02296294870449882</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>0.0298919872505754</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02882284728578982</v>
+        <v>0.03218828212102529</v>
       </c>
       <c r="V36" t="n">
-        <v>0.03912021196023038</v>
+        <v>0.03715236761521777</v>
       </c>
       <c r="W36" t="n">
         <v>0.0167</v>
@@ -3092,22 +3092,22 @@
         <v>0.0519075</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.7633734666409312</v>
       </c>
       <c r="S37" t="n">
-        <v>0.3148451656689706</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7633734666409312</v>
+        <v>0.3826197303170422</v>
       </c>
       <c r="U37" t="n">
-        <v>1.078218632309902</v>
+        <v>0.4589570769811354</v>
       </c>
       <c r="V37" t="n">
-        <v>0.004801140986641209</v>
+        <v>0.03100363169781615</v>
       </c>
       <c r="W37" t="n">
-        <v>0.004801140986641209</v>
+        <v>0.03100363169781615</v>
       </c>
     </row>
     <row r="38">
@@ -3163,22 +3163,22 @@
         <v>0.09330766666666666</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>0.3331143165235464</v>
       </c>
       <c r="S38" t="n">
-        <v>0.00496402363843873</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.3331143165235464</v>
+        <v>0.0346705768932456</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3380783401619851</v>
+        <v>0.06798200854560024</v>
       </c>
       <c r="V38" t="n">
-        <v>0.08739578165281237</v>
+        <v>0.1019169529672501</v>
       </c>
       <c r="W38" t="n">
-        <v>0.08739578165281237</v>
+        <v>0.09330766666666666</v>
       </c>
     </row>
     <row r="39">
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0.004020903448624491</v>
+        <v>0.02545350095144826</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004020903448624491</v>
+        <v>0.002545350095144827</v>
       </c>
       <c r="V39" t="n">
-        <v>0.08074095088805903</v>
+        <v>0.07500989507970687</v>
       </c>
       <c r="W39" t="n">
         <v>0.05072</v>
@@ -3308,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.3513726628300184</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.1985085964387485</v>
       </c>
       <c r="U40" t="n">
-        <v>0.3513726628300184</v>
+        <v>0.1985085964387485</v>
       </c>
       <c r="V40" t="n">
-        <v>0.05852396693012475</v>
+        <v>0.06009871777857705</v>
       </c>
       <c r="W40" t="n">
         <v>0.041015</v>
@@ -3376,19 +3376,19 @@
         <v>0.03506384615384615</v>
       </c>
       <c r="R41" t="n">
-        <v>0.1100782647489028</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.004960763717548611</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>0.004814503515159219</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1150390284664514</v>
+        <v>0.004814503515159219</v>
       </c>
       <c r="V41" t="n">
-        <v>0.0619654322104492</v>
+        <v>0.06181658509890352</v>
       </c>
       <c r="W41" t="n">
         <v>0.03506384615384615</v>
@@ -3447,19 +3447,19 @@
         <v>0.04348350877192982</v>
       </c>
       <c r="R42" t="n">
-        <v>0.0510351629919947</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0.00433318715235087</v>
+        <v>0.005197498408933626</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>0.01168383169016995</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05536835014434557</v>
+        <v>0.01220358153106332</v>
       </c>
       <c r="V42" t="n">
-        <v>0.07103749489307251</v>
+        <v>0.06793691255030208</v>
       </c>
       <c r="W42" t="n">
         <v>0.04348350877192982</v>
@@ -3518,22 +3518,22 @@
         <v>0.04019277777777778</v>
       </c>
       <c r="R43" t="n">
-        <v>0.2189964168877171</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.07386470851856197</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.4661242842227424</v>
       </c>
       <c r="U43" t="n">
-        <v>0.2928611254062791</v>
+        <v>0.4661242842227424</v>
       </c>
       <c r="V43" t="n">
-        <v>-0.004516515439818606</v>
+        <v>-0.01608129250117438</v>
       </c>
       <c r="W43" t="n">
-        <v>-0.004516515439818606</v>
+        <v>-0.01608129250117438</v>
       </c>
     </row>
     <row r="44">
@@ -3592,16 +3592,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.004187744528024284</v>
+        <v>0.03229428511502208</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.004187744528024284</v>
+        <v>0.003229428511502208</v>
       </c>
       <c r="V44" t="n">
-        <v>0.04380951620106995</v>
+        <v>0.03981476810832284</v>
       </c>
       <c r="W44" t="n">
         <v>0.03519253333333333</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0.00493928167476021</v>
+        <v>0.01302252848661862</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.02981349232629893</v>
       </c>
       <c r="U45" t="n">
-        <v>0.00493928167476021</v>
+        <v>0.03111574517496079</v>
       </c>
       <c r="V45" t="n">
-        <v>0.04645139061852051</v>
+        <v>0.04126823318916122</v>
       </c>
       <c r="W45" t="n">
         <v>0.0368525</v>
@@ -3734,16 +3734,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.002770431230276316</v>
+        <v>0.007919659332655871</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.01494417126294612</v>
       </c>
       <c r="U46" t="n">
-        <v>0.002770431230276316</v>
+        <v>0.0157361371962117</v>
       </c>
       <c r="V46" t="n">
-        <v>0.05526293614784797</v>
+        <v>0.04998201889678323</v>
       </c>
       <c r="W46" t="n">
         <v>0.04144</v>
@@ -3802,19 +3802,19 @@
         <v>0.06535780303030303</v>
       </c>
       <c r="R47" t="n">
-        <v>0.07235253792863167</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>0.004497186249436513</v>
+        <v>0.02679997743061536</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>0.0115346646653276</v>
       </c>
       <c r="U47" t="n">
-        <v>0.07684972417806818</v>
+        <v>0.01421466240838913</v>
       </c>
       <c r="V47" t="n">
-        <v>0.09938744514143563</v>
+        <v>0.09599965648493106</v>
       </c>
       <c r="W47" t="n">
         <v>0.06535780303030303</v>
@@ -3873,19 +3873,19 @@
         <v>0.06536090909090909</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1538472280163473</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>0.004603593410797302</v>
+        <v>0.003556440318645781</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>0.02842974148679001</v>
       </c>
       <c r="U48" t="n">
-        <v>0.1584508214271446</v>
+        <v>0.02878538551865458</v>
       </c>
       <c r="V48" t="n">
-        <v>0.09343436992490295</v>
+        <v>0.09442758645773462</v>
       </c>
       <c r="W48" t="n">
         <v>0.06536090909090909</v>
@@ -3944,19 +3944,19 @@
         <v>0.05782459893048128</v>
       </c>
       <c r="R49" t="n">
-        <v>0.3297478858549342</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0.004342298213300122</v>
+        <v>0.006781380993487429</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>0.3340901840682343</v>
+        <v>0.0006781380993487429</v>
       </c>
       <c r="V49" t="n">
-        <v>0.07372959037356028</v>
+        <v>0.0863898520515549</v>
       </c>
       <c r="W49" t="n">
         <v>0.05782459893048128</v>
@@ -4018,16 +4018,16 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>0.004504291205222444</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>0.0006937422299582163</v>
       </c>
       <c r="U50" t="n">
-        <v>0.004504291205222444</v>
+        <v>0.0006937422299582163</v>
       </c>
       <c r="V50" t="n">
-        <v>0.1233142024944467</v>
+        <v>0.1161877624495188</v>
       </c>
       <c r="W50" t="n">
         <v>0.0644</v>
@@ -4086,19 +4086,19 @@
         <v>0.0644</v>
       </c>
       <c r="R51" t="n">
-        <v>0.5467936440583635</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>0.04026411431354488</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>0.02651581654945034</v>
       </c>
       <c r="U51" t="n">
-        <v>0.5467936440583635</v>
+        <v>0.03054222798080483</v>
       </c>
       <c r="V51" t="n">
-        <v>0.08532885488009642</v>
+        <v>0.1112036066765563</v>
       </c>
       <c r="W51" t="n">
         <v>0.0644</v>
@@ -4157,19 +4157,19 @@
         <v>0.0644</v>
       </c>
       <c r="R52" t="n">
-        <v>0.1026689451057099</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>0.0003167974403437412</v>
+        <v>0.009009570282212808</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>0.01728941825304786</v>
       </c>
       <c r="U52" t="n">
-        <v>0.1029857425460537</v>
+        <v>0.01819037528126914</v>
       </c>
       <c r="V52" t="n">
-        <v>0.1117286356663253</v>
+        <v>0.1098176179192425</v>
       </c>
       <c r="W52" t="n">
         <v>0.0644</v>
@@ -4228,19 +4228,19 @@
         <v>0.0644</v>
       </c>
       <c r="R53" t="n">
-        <v>0.01454509791179617</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>0.03590501944647295</v>
+        <v>0.009978483517149275</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>0.04994081767175884</v>
       </c>
       <c r="U53" t="n">
-        <v>0.05045011735826913</v>
+        <v>0.05093866602347377</v>
       </c>
       <c r="V53" t="n">
-        <v>0.1369525952117592</v>
+        <v>0.1295492932787851</v>
       </c>
       <c r="W53" t="n">
         <v>0.0644</v>
@@ -4299,19 +4299,19 @@
         <v>0.06440000784252216</v>
       </c>
       <c r="R54" t="n">
-        <v>0.5035900662433886</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>0.004966949208468296</v>
+        <v>0.0606607053200113</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>0.02489142498512109</v>
       </c>
       <c r="U54" t="n">
-        <v>0.5085570154518569</v>
+        <v>0.03095749551712222</v>
       </c>
       <c r="V54" t="n">
-        <v>0.09384929271538331</v>
+        <v>0.1172348652481001</v>
       </c>
       <c r="W54" t="n">
         <v>0.06440000784252216</v>
@@ -4370,22 +4370,22 @@
         <v>0.06639009287925697</v>
       </c>
       <c r="R55" t="n">
-        <v>0.453625770215187</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>0.0594074608973536</v>
+        <v>0.02686988155174378</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>0.05539732610551829</v>
       </c>
       <c r="U55" t="n">
-        <v>0.5130332311125405</v>
+        <v>0.05808431426069266</v>
       </c>
       <c r="V55" t="n">
-        <v>0.06035457333156906</v>
+        <v>0.08295902972968906</v>
       </c>
       <c r="W55" t="n">
-        <v>0.06035457333156906</v>
+        <v>0.06639009287925697</v>
       </c>
     </row>
     <row r="56">
@@ -4441,19 +4441,19 @@
         <v>0.0698</v>
       </c>
       <c r="R56" t="n">
-        <v>0.2665415225664754</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>0.004627583085039522</v>
+        <v>0.0071870197711724</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>0.2711691056515149</v>
+        <v>0.00071870197711724</v>
       </c>
       <c r="V56" t="n">
-        <v>0.1527222812201861</v>
+        <v>0.1636097443959501</v>
       </c>
       <c r="W56" t="n">
         <v>0.0698</v>
@@ -4515,16 +4515,16 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>0.004125638855682512</v>
+        <v>0.03065244635669405</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>0.01304002485524447</v>
       </c>
       <c r="U57" t="n">
-        <v>0.004125638855682512</v>
+        <v>0.01610526949091387</v>
       </c>
       <c r="V57" t="n">
-        <v>0.1269301925413865</v>
+        <v>0.1181533031711113</v>
       </c>
       <c r="W57" t="n">
         <v>0.06941040596520298</v>
@@ -4583,22 +4583,22 @@
         <v>0.09116357647058823</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>0.5325324168274331</v>
       </c>
       <c r="S58" t="n">
-        <v>0.1693314081968036</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>0.5325324168274331</v>
+        <v>0.08268431306051527</v>
       </c>
       <c r="U58" t="n">
-        <v>0.7018638250242367</v>
+        <v>0.1359375547432586</v>
       </c>
       <c r="V58" t="n">
-        <v>0.07582079092532172</v>
+        <v>0.1169771996314036</v>
       </c>
       <c r="W58" t="n">
-        <v>0.07582079092532172</v>
+        <v>0.09116357647058823</v>
       </c>
     </row>
     <row r="59">
@@ -4654,22 +4654,22 @@
         <v>0.08800666666666666</v>
       </c>
       <c r="R59" t="n">
-        <v>0.3873855836780908</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>0.004444860339764878</v>
+        <v>0.006791469432082893</v>
       </c>
       <c r="T59" t="n">
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>0.3918304440178557</v>
+        <v>0.0006791469432082894</v>
       </c>
       <c r="V59" t="n">
-        <v>0.07858204355324432</v>
+        <v>0.1029318813229553</v>
       </c>
       <c r="W59" t="n">
-        <v>0.07858204355324432</v>
+        <v>0.08800666666666666</v>
       </c>
     </row>
     <row r="60">
@@ -4725,19 +4725,19 @@
         <v>0.08846352941176472</v>
       </c>
       <c r="R60" t="n">
-        <v>0.03260832897623214</v>
+        <v>0.05229389112198669</v>
       </c>
       <c r="S60" t="n">
-        <v>0.004995703382473016</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>0.05229389112198669</v>
+        <v>0.01934068708394032</v>
       </c>
       <c r="U60" t="n">
-        <v>0.08989792348069184</v>
+        <v>0.02457007619613899</v>
       </c>
       <c r="V60" t="n">
-        <v>0.1068769348718822</v>
+        <v>0.1025296858878434</v>
       </c>
       <c r="W60" t="n">
         <v>0.08846352941176472</v>
@@ -4796,22 +4796,22 @@
         <v>0.0884635294117647</v>
       </c>
       <c r="R61" t="n">
-        <v>0.6357796840638817</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>0.004772691358505776</v>
+        <v>0.02552242385678162</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>0.6405523754223875</v>
+        <v>0.002552242385678162</v>
       </c>
       <c r="V61" t="n">
-        <v>0.05604060249905309</v>
+        <v>0.1023539651089526</v>
       </c>
       <c r="W61" t="n">
-        <v>0.05604060249905309</v>
+        <v>0.0884635294117647</v>
       </c>
     </row>
     <row r="62">
@@ -4867,19 +4867,19 @@
         <v>0.0698</v>
       </c>
       <c r="R62" t="n">
-        <v>0.05225392318325484</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>0.003102274459343191</v>
+        <v>0.01554073448631824</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>0.0064900101207781</v>
       </c>
       <c r="U62" t="n">
-        <v>0.05535619764259803</v>
+        <v>0.008044083569409924</v>
       </c>
       <c r="V62" t="n">
-        <v>0.09667403943175201</v>
+        <v>0.09198644999335159</v>
       </c>
       <c r="W62" t="n">
         <v>0.0698</v>
@@ -4938,22 +4938,22 @@
         <v>0.0698</v>
       </c>
       <c r="R63" t="n">
-        <v>0.5054083879453999</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>0.005222021067463717</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>0.02335201773291895</v>
       </c>
       <c r="U63" t="n">
-        <v>0.5054083879453999</v>
+        <v>0.02387421983966532</v>
       </c>
       <c r="V63" t="n">
-        <v>0.06506498821396492</v>
+        <v>0.09068609814703625</v>
       </c>
       <c r="W63" t="n">
-        <v>0.06506498821396492</v>
+        <v>0.0698</v>
       </c>
     </row>
     <row r="64">
@@ -5009,19 +5009,19 @@
         <v>0.02723</v>
       </c>
       <c r="R64" t="n">
-        <v>0.5645419541611399</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>0.004803117286813041</v>
+        <v>0.04061588363089426</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>0.569345071447953</v>
+        <v>0.004061588363089426</v>
       </c>
       <c r="V64" t="n">
-        <v>0.0450839292786936</v>
+        <v>0.05735959251637087</v>
       </c>
       <c r="W64" t="n">
         <v>0.02723</v>
@@ -5083,16 +5083,16 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>0.003146659536077401</v>
+        <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>0.006526457367610927</v>
       </c>
       <c r="U65" t="n">
-        <v>0.003146659536077401</v>
+        <v>0.006526457367610927</v>
       </c>
       <c r="V65" t="n">
-        <v>0.08262505493030781</v>
+        <v>0.07941601702863159</v>
       </c>
       <c r="W65" t="n">
         <v>0.02723</v>
@@ -5154,19 +5154,19 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>0.004854189380757656</v>
+        <v>0.008840504951976129</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>0.2597621061530508</v>
       </c>
       <c r="U66" t="n">
-        <v>0.004854189380757656</v>
+        <v>0.2606461566482485</v>
       </c>
       <c r="V66" t="n">
-        <v>0.004782557860645423</v>
+        <v>-0.005299663414771916</v>
       </c>
       <c r="W66" t="n">
-        <v>0.004782557860645423</v>
+        <v>-0.005299663414771916</v>
       </c>
     </row>
     <row r="67">
@@ -5222,19 +5222,19 @@
         <v>0.03193</v>
       </c>
       <c r="R67" t="n">
-        <v>0.5965391777659016</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>0.004559375509493258</v>
+        <v>0.01531570160597776</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>0.005091591486812153</v>
       </c>
       <c r="U67" t="n">
-        <v>0.6010985532753949</v>
+        <v>0.006623161647409929</v>
       </c>
       <c r="V67" t="n">
-        <v>0.06957311775739497</v>
+        <v>0.08489970409269777</v>
       </c>
       <c r="W67" t="n">
         <v>0.03193</v>
@@ -5293,22 +5293,22 @@
         <v>0.059919375</v>
       </c>
       <c r="R68" t="n">
-        <v>0.5291242507631009</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>0.004902419492387677</v>
+        <v>0.06078014026645991</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>0.03753035233375734</v>
       </c>
       <c r="U68" t="n">
-        <v>0.5340266702554886</v>
+        <v>0.04360836636040333</v>
       </c>
       <c r="V68" t="n">
-        <v>0.05724629209858876</v>
+        <v>0.07977290611144054</v>
       </c>
       <c r="W68" t="n">
-        <v>0.05724629209858876</v>
+        <v>0.059919375</v>
       </c>
     </row>
     <row r="69">
@@ -5364,22 +5364,22 @@
         <v>0.05991805555555556</v>
       </c>
       <c r="R69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>0.004659847943079942</v>
+        <v>0.07269664068827095</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>0.01651424753992203</v>
       </c>
       <c r="U69" t="n">
-        <v>1.00465984794308</v>
+        <v>0.02378391160874913</v>
       </c>
       <c r="V69" t="n">
-        <v>0.02904733368386648</v>
+        <v>0.08096071932137228</v>
       </c>
       <c r="W69" t="n">
-        <v>0.02904733368386648</v>
+        <v>0.05991805555555556</v>
       </c>
     </row>
     <row r="70">
@@ -5435,19 +5435,19 @@
         <v>0.162639375</v>
       </c>
       <c r="R70" t="n">
-        <v>0.2709824640573615</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>0.004916629403959982</v>
+        <v>0.0685372963410706</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
+        <v>0.03708711825398137</v>
       </c>
       <c r="U70" t="n">
-        <v>0.2758990934613215</v>
+        <v>0.04394084788808843</v>
       </c>
       <c r="V70" t="n">
-        <v>0.1737326932381693</v>
+        <v>0.1928409802987817</v>
       </c>
       <c r="W70" t="n">
         <v>0.162639375</v>
@@ -5506,19 +5506,19 @@
         <v>0.064339375</v>
       </c>
       <c r="R71" t="n">
-        <v>0.08794291153367187</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>0.002677230927906171</v>
+        <v>0.01785844758499477</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>0.02324045359932114</v>
       </c>
       <c r="U71" t="n">
-        <v>0.09062014246157804</v>
+        <v>0.02502629835782062</v>
       </c>
       <c r="V71" t="n">
-        <v>0.09098335803102305</v>
+        <v>0.08783872528239681</v>
       </c>
       <c r="W71" t="n">
         <v>0.064339375</v>
@@ -5580,16 +5580,16 @@
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>0.2620774949229867</v>
+        <v>0.0667516151017573</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>0.1645804766322032</v>
       </c>
       <c r="U72" t="n">
-        <v>0.2620774949229867</v>
+        <v>0.1712556381423789</v>
       </c>
       <c r="V72" t="n">
-        <v>0.0733756991345013</v>
+        <v>0.07185422095399568</v>
       </c>
       <c r="W72" t="n">
         <v>0.064339375</v>
@@ -5648,19 +5648,19 @@
         <v>0.06410286458333334</v>
       </c>
       <c r="R73" t="n">
-        <v>0.1056043029866657</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>0.00442571875300013</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>0.01692103437286518</v>
       </c>
       <c r="U73" t="n">
-        <v>0.1100300217396658</v>
+        <v>0.01692103437286518</v>
       </c>
       <c r="V73" t="n">
-        <v>0.08124079170339597</v>
+        <v>0.07987151807230965</v>
       </c>
       <c r="W73" t="n">
         <v>0.06410286458333334</v>
@@ -5719,19 +5719,19 @@
         <v>0.161557169117647</v>
       </c>
       <c r="R74" t="n">
-        <v>0.3348812792441107</v>
+        <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>0.004880435923308557</v>
+        <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>0.1310648329849362</v>
       </c>
       <c r="U74" t="n">
-        <v>0.3397617151674192</v>
+        <v>0.1310648329849362</v>
       </c>
       <c r="V74" t="n">
-        <v>0.232023689687557</v>
+        <v>0.2472467897778514</v>
       </c>
       <c r="W74" t="n">
         <v>0.161557169117647</v>
@@ -5790,19 +5790,19 @@
         <v>0.178345</v>
       </c>
       <c r="R75" t="n">
-        <v>0.3518875943025285</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>0.1111556122818942</v>
+        <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>0.07143411471193128</v>
       </c>
       <c r="U75" t="n">
-        <v>0.4630432065844227</v>
+        <v>0.07143411471193128</v>
       </c>
       <c r="V75" t="n">
-        <v>0.2114278576544403</v>
+        <v>0.2608543082002931</v>
       </c>
       <c r="W75" t="n">
         <v>0.178345</v>
@@ -5861,22 +5861,22 @@
         <v>0.3232087626128518</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>0.7132213210764483</v>
       </c>
       <c r="S76" t="n">
-        <v>0.1559624726265907</v>
+        <v>0.03243389487769542</v>
       </c>
       <c r="T76" t="n">
-        <v>0.7132213210764483</v>
+        <v>0.4085967498834355</v>
       </c>
       <c r="U76" t="n">
-        <v>0.869183793703039</v>
+        <v>0.4831622714788499</v>
       </c>
       <c r="V76" t="n">
-        <v>0.1460635231996643</v>
+        <v>0.233831498225537</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1460635231996643</v>
+        <v>0.233831498225537</v>
       </c>
     </row>
     <row r="77">
@@ -5932,19 +5932,19 @@
         <v>0.05163</v>
       </c>
       <c r="R77" t="n">
-        <v>0.0535276382915704</v>
+        <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>0.004599748375901269</v>
+        <v>0</v>
       </c>
       <c r="T77" t="n">
         <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>0.05812738666747166</v>
+        <v>0</v>
       </c>
       <c r="V77" t="n">
-        <v>0.08969090508158935</v>
+        <v>0.08678195888493573</v>
       </c>
       <c r="W77" t="n">
         <v>0.05163</v>
@@ -6006,16 +6006,16 @@
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>0.004882442028471656</v>
+        <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>0.006339065181456105</v>
       </c>
       <c r="U78" t="n">
-        <v>0.004882442028471656</v>
+        <v>0.006339065181456105</v>
       </c>
       <c r="V78" t="n">
-        <v>0.4929192326613978</v>
+        <v>0.4470507214018015</v>
       </c>
       <c r="W78" t="n">
         <v>0.39567</v>
@@ -6074,19 +6074,19 @@
         <v>0.39567</v>
       </c>
       <c r="R79" t="n">
-        <v>0.2141144596683706</v>
+        <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>0.0726236817120236</v>
+        <v>0.03925136787780661</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>0.03937289400473909</v>
       </c>
       <c r="U79" t="n">
-        <v>0.2867381413803942</v>
+        <v>0.04329803079251975</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4097316230715001</v>
+        <v>0.4607614024511495</v>
       </c>
       <c r="W79" t="n">
         <v>0.39567</v>
@@ -6148,19 +6148,19 @@
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>0.3775318562185979</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>0.5433976923559012</v>
       </c>
       <c r="U80" t="n">
-        <v>0.3775318562185979</v>
+        <v>0.5433976923559012</v>
       </c>
       <c r="V80" t="n">
-        <v>0.1361142318876774</v>
+        <v>0.1042655828504841</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1136090909090909</v>
+        <v>0.1042655828504841</v>
       </c>
     </row>
     <row r="81">
@@ -6216,19 +6216,19 @@
         <v>0.1247427272727273</v>
       </c>
       <c r="R81" t="n">
-        <v>0.1907536714941846</v>
+        <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>0.1101808959357606</v>
+        <v>0.04525994252246823</v>
       </c>
       <c r="T81" t="n">
-        <v>0</v>
+        <v>0.08019327708308244</v>
       </c>
       <c r="U81" t="n">
-        <v>0.3009345674299453</v>
+        <v>0.08471927133532926</v>
       </c>
       <c r="V81" t="n">
-        <v>0.1388326215028405</v>
+        <v>0.1515246626250849</v>
       </c>
       <c r="W81" t="n">
         <v>0.1247427272727273</v>
@@ -6287,22 +6287,22 @@
         <v>0.1247427272727273</v>
       </c>
       <c r="R82" t="n">
-        <v>0.1254076735160534</v>
+        <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>0.004916295053099429</v>
+        <v>0.04543593670996864</v>
       </c>
       <c r="T82" t="n">
-        <v>0</v>
+        <v>0.2596753439264441</v>
       </c>
       <c r="U82" t="n">
-        <v>0.1303239685691528</v>
+        <v>0.264218937597441</v>
       </c>
       <c r="V82" t="n">
-        <v>0.1440601354577095</v>
+        <v>0.1130784672623452</v>
       </c>
       <c r="W82" t="n">
-        <v>0.1247427272727273</v>
+        <v>0.1130784672623452</v>
       </c>
     </row>
     <row r="83">
@@ -6361,16 +6361,16 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>0.003520714561285221</v>
+        <v>0.02115847208035751</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
+        <v>0.003879320498864969</v>
       </c>
       <c r="U83" t="n">
-        <v>0.003520714561285221</v>
+        <v>0.005995167706900719</v>
       </c>
       <c r="V83" t="n">
-        <v>0.138432220235162</v>
+        <v>0.1284159658617683</v>
       </c>
       <c r="W83" t="n">
         <v>0.08565</v>
@@ -6429,19 +6429,19 @@
         <v>0.08565005753739931</v>
       </c>
       <c r="R84" t="n">
-        <v>0.1006859572025448</v>
+        <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>0.001338573670095489</v>
+        <v>0.007929511040684333</v>
       </c>
       <c r="T84" t="n">
-        <v>0</v>
+        <v>0.02617472365653017</v>
       </c>
       <c r="U84" t="n">
-        <v>0.1020245308726403</v>
+        <v>0.02696767476059861</v>
       </c>
       <c r="V84" t="n">
-        <v>0.1451681666751691</v>
+        <v>0.1417924666719896</v>
       </c>
       <c r="W84" t="n">
         <v>0.08565005753739931</v>
@@ -6500,19 +6500,19 @@
         <v>0.08564999999999999</v>
       </c>
       <c r="R85" t="n">
-        <v>0.1664521972417589</v>
+        <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>0.003527735929356179</v>
+        <v>0.00466648542948596</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
+        <v>0.004497234676266171</v>
       </c>
       <c r="U85" t="n">
-        <v>0.1699799331711151</v>
+        <v>0.004963883219214767</v>
       </c>
       <c r="V85" t="n">
-        <v>0.1391136262103262</v>
+        <v>0.1434429334272348</v>
       </c>
       <c r="W85" t="n">
         <v>0.08564999999999999</v>
@@ -6571,19 +6571,19 @@
         <v>0.08565</v>
       </c>
       <c r="R86" t="n">
-        <v>0.07164541834857086</v>
+        <v>0.08871114709914871</v>
       </c>
       <c r="S86" t="n">
-        <v>0.004785313103490285</v>
+        <v>0.02614167974843966</v>
       </c>
       <c r="T86" t="n">
-        <v>0.08871114709914871</v>
+        <v>0.2509000914292521</v>
       </c>
       <c r="U86" t="n">
-        <v>0.1651418785512098</v>
+        <v>0.2623853741140109</v>
       </c>
       <c r="V86" t="n">
-        <v>0.1440478833825561</v>
+        <v>0.1259146605261306</v>
       </c>
       <c r="W86" t="n">
         <v>0.08565</v>
@@ -6642,19 +6642,19 @@
         <v>0.08564999999999999</v>
       </c>
       <c r="R87" t="n">
-        <v>0.1107696914206803</v>
+        <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>0.004156566310280718</v>
+        <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>0.0020270891939691</v>
       </c>
       <c r="U87" t="n">
-        <v>0.114926257730961</v>
+        <v>0.0020270891939691</v>
       </c>
       <c r="V87" t="n">
-        <v>0.1350610742059528</v>
+        <v>0.1349265705296745</v>
       </c>
       <c r="W87" t="n">
         <v>0.08564999999999999</v>
@@ -6713,22 +6713,22 @@
         <v>0.1247427272727273</v>
       </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>0.3521901584264623</v>
       </c>
       <c r="S88" t="n">
-        <v>0.4792527559183133</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T88" t="n">
-        <v>0.3521901584264623</v>
+        <v>0.4449514562675263</v>
       </c>
       <c r="U88" t="n">
-        <v>0.8314429143447756</v>
+        <v>0.5801704721101725</v>
       </c>
       <c r="V88" t="n">
-        <v>0.05438833403050902</v>
+        <v>0.07145349917265392</v>
       </c>
       <c r="W88" t="n">
-        <v>0.05438833403050902</v>
+        <v>0.07145349917265392</v>
       </c>
     </row>
     <row r="89">
@@ -6787,19 +6787,19 @@
         <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>0.004656253671329269</v>
+        <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>0.006307240512270607</v>
       </c>
       <c r="U89" t="n">
-        <v>0.004656253671329269</v>
+        <v>0.006307240512270607</v>
       </c>
       <c r="V89" t="n">
-        <v>0.02193401023852053</v>
+        <v>0.007448781858568569</v>
       </c>
       <c r="W89" t="n">
-        <v>0.02193401023852053</v>
+        <v>0.007448781858568569</v>
       </c>
     </row>
     <row r="90">
@@ -6858,16 +6858,16 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>0.004507969064688311</v>
+        <v>0.03489604848853785</v>
       </c>
       <c r="T90" t="n">
         <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>0.004507969064688311</v>
+        <v>0.003489604848853786</v>
       </c>
       <c r="V90" t="n">
-        <v>0.1618909762916155</v>
+        <v>0.1477387652305774</v>
       </c>
       <c r="W90" t="n">
         <v>0.1247427272727273</v>
@@ -6926,22 +6926,22 @@
         <v>0.1247431818181818</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>0.4930856130372367</v>
       </c>
       <c r="S91" t="n">
-        <v>0.004979069427162308</v>
+        <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>0.4930856130372367</v>
+        <v>0.1422544044497644</v>
       </c>
       <c r="U91" t="n">
-        <v>0.4980646824643991</v>
+        <v>0.1915629657534881</v>
       </c>
       <c r="V91" t="n">
-        <v>0.09259136620307734</v>
+        <v>0.1165460689560368</v>
       </c>
       <c r="W91" t="n">
-        <v>0.09259136620307734</v>
+        <v>0.1165460689560368</v>
       </c>
     </row>
     <row r="92">
@@ -7000,19 +7000,19 @@
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>0.7395017277789686</v>
+        <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>0.4025953995573881</v>
       </c>
       <c r="U92" t="n">
-        <v>0.7395017277789686</v>
+        <v>0.4025953995573881</v>
       </c>
       <c r="V92" t="n">
-        <v>0.05461616384322324</v>
+        <v>0.07988700333323881</v>
       </c>
       <c r="W92" t="n">
-        <v>0.05461616384322324</v>
+        <v>0.07988700333323881</v>
       </c>
     </row>
     <row r="93">
@@ -7068,19 +7068,19 @@
         <v>0.3920727272727273</v>
       </c>
       <c r="R93" t="n">
-        <v>0.413910740515477</v>
+        <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>0.004984001102354974</v>
+        <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>0.01852835795818963</v>
       </c>
       <c r="U93" t="n">
-        <v>0.418894741617832</v>
+        <v>0.01852835795818963</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4147782581123262</v>
+        <v>0.5268706070969112</v>
       </c>
       <c r="W93" t="n">
         <v>0.3920727272727273</v>
@@ -7142,16 +7142,16 @@
         <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>0.108242747585036</v>
+        <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>0</v>
+        <v>0.1023302680606109</v>
       </c>
       <c r="U94" t="n">
-        <v>0.108242747585036</v>
+        <v>0.1023302680606109</v>
       </c>
       <c r="V94" t="n">
-        <v>0.1500979606164756</v>
+        <v>0.140800047026271</v>
       </c>
       <c r="W94" t="n">
         <v>0.08564999999999999</v>
@@ -7210,19 +7210,19 @@
         <v>0.2272499780412824</v>
       </c>
       <c r="R95" t="n">
-        <v>0.1087692109766848</v>
+        <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>0.004198527343276082</v>
+        <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>0</v>
+        <v>0.01438368372323739</v>
       </c>
       <c r="U95" t="n">
-        <v>0.1129677383199609</v>
+        <v>0.01438368372323739</v>
       </c>
       <c r="V95" t="n">
-        <v>0.37195882194021</v>
+        <v>0.3683488421214829</v>
       </c>
       <c r="W95" t="n">
         <v>0.2272499780412824</v>
@@ -7281,19 +7281,19 @@
         <v>0.22725</v>
       </c>
       <c r="R96" t="n">
-        <v>0.1512667499592008</v>
+        <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>0.004164757906363503</v>
+        <v>0.004071715505251533</v>
       </c>
       <c r="T96" t="n">
-        <v>0</v>
+        <v>0.0006681402614512333</v>
       </c>
       <c r="U96" t="n">
-        <v>0.1554315078655643</v>
+        <v>0.001075311811976387</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4004345597339728</v>
+        <v>0.4094987987124929</v>
       </c>
       <c r="W96" t="n">
         <v>0.22725</v>
@@ -7355,16 +7355,16 @@
         <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>0.004936105341585284</v>
+        <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>0</v>
+        <v>0.003748377097439137</v>
       </c>
       <c r="U97" t="n">
-        <v>0.004936105341585284</v>
+        <v>0.003748377097439137</v>
       </c>
       <c r="V97" t="n">
-        <v>0.3961979229068477</v>
+        <v>0.3704546205220092</v>
       </c>
       <c r="W97" t="n">
         <v>0.2272500622665006</v>
@@ -7423,19 +7423,19 @@
         <v>0.22725</v>
       </c>
       <c r="R98" t="n">
-        <v>0.1020433618578025</v>
+        <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>0.004735244062127331</v>
+        <v>0.06003025866227112</v>
       </c>
       <c r="T98" t="n">
-        <v>0</v>
+        <v>0.08634806142872331</v>
       </c>
       <c r="U98" t="n">
-        <v>0.1067786059199299</v>
+        <v>0.09235108729495042</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4451331284504869</v>
+        <v>0.4223985754833557</v>
       </c>
       <c r="W98" t="n">
         <v>0.22725</v>
@@ -7494,19 +7494,19 @@
         <v>0.22725</v>
       </c>
       <c r="R99" t="n">
-        <v>0.004025086875133144</v>
+        <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>0.1080550095768535</v>
+        <v>0.06482089825786419</v>
       </c>
       <c r="T99" t="n">
-        <v>0</v>
+        <v>0.06736162380485267</v>
       </c>
       <c r="U99" t="n">
-        <v>0.1120800964519867</v>
+        <v>0.07384371363063909</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4081661066625609</v>
+        <v>0.3908421180840544</v>
       </c>
       <c r="W99" t="n">
         <v>0.22725</v>
@@ -7568,19 +7568,19 @@
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>0.4326254387257955</v>
+        <v>0</v>
       </c>
       <c r="T100" t="n">
-        <v>0</v>
+        <v>0.2079911033159438</v>
       </c>
       <c r="U100" t="n">
-        <v>0.4326254387257955</v>
+        <v>0.2079911033159438</v>
       </c>
       <c r="V100" t="n">
-        <v>0.2049348523207759</v>
+        <v>0.230128435750524</v>
       </c>
       <c r="W100" t="n">
-        <v>0.2049348523207759</v>
+        <v>0.22869</v>
       </c>
     </row>
     <row r="101">
@@ -7636,19 +7636,19 @@
         <v>0.1360181818181818</v>
       </c>
       <c r="R101" t="n">
-        <v>0.3299816733488217</v>
+        <v>0</v>
       </c>
       <c r="S101" t="n">
         <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>0.3604694938766404</v>
       </c>
       <c r="U101" t="n">
-        <v>0.3299816733488217</v>
+        <v>0.3604694938766404</v>
       </c>
       <c r="V101" t="n">
-        <v>0.1887064230720634</v>
+        <v>0.1689895842913828</v>
       </c>
       <c r="W101" t="n">
         <v>0.1360181818181818</v>
@@ -7707,19 +7707,19 @@
         <v>0.1282636363636364</v>
       </c>
       <c r="R102" t="n">
-        <v>0.4092266007255326</v>
+        <v>0</v>
       </c>
       <c r="S102" t="n">
-        <v>0</v>
+        <v>0.007253864969032776</v>
       </c>
       <c r="T102" t="n">
-        <v>0</v>
+        <v>0.2446473439957828</v>
       </c>
       <c r="U102" t="n">
-        <v>0.4092266007255326</v>
+        <v>0.2453727304926861</v>
       </c>
       <c r="V102" t="n">
-        <v>0.129517333691432</v>
+        <v>0.1358515454291294</v>
       </c>
       <c r="W102" t="n">
         <v>0.1282636363636364</v>
@@ -7778,22 +7778,22 @@
         <v>0.1277536363636363</v>
       </c>
       <c r="R103" t="n">
-        <v>0.6707827700679995</v>
+        <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>0.004322069986238741</v>
+        <v>0.01883628588893898</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>0.01682556036530802</v>
       </c>
       <c r="U103" t="n">
-        <v>0.6751048400542382</v>
+        <v>0.01870918895420192</v>
       </c>
       <c r="V103" t="n">
-        <v>0.1164074862468408</v>
+        <v>0.1856405155510251</v>
       </c>
       <c r="W103" t="n">
-        <v>0.1164074862468408</v>
+        <v>0.1277536363636363</v>
       </c>
     </row>
     <row r="104">
@@ -7849,19 +7849,19 @@
         <v>0.09383337169159954</v>
       </c>
       <c r="R104" t="n">
-        <v>0.3837541920269523</v>
+        <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>0.004606686156257034</v>
+        <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>0</v>
+        <v>0.3011790684350397</v>
       </c>
       <c r="U104" t="n">
-        <v>0.3883608781832093</v>
+        <v>0.3011790684350397</v>
       </c>
       <c r="V104" t="n">
-        <v>0.1120326796538786</v>
+        <v>0.1094721784280815</v>
       </c>
       <c r="W104" t="n">
         <v>0.09383337169159954</v>
@@ -7920,19 +7920,19 @@
         <v>0.08334999999999999</v>
       </c>
       <c r="R105" t="n">
-        <v>0.2516349073311354</v>
+        <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>0.04650527912842772</v>
+        <v>0.01718349782208015</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>0.02495703002942018</v>
       </c>
       <c r="U105" t="n">
-        <v>0.2981401864595631</v>
+        <v>0.02667537981162819</v>
       </c>
       <c r="V105" t="n">
-        <v>0.1139888408502313</v>
+        <v>0.1270743950013984</v>
       </c>
       <c r="W105" t="n">
         <v>0.08334999999999999</v>
@@ -7991,19 +7991,19 @@
         <v>0.09023</v>
       </c>
       <c r="R106" t="n">
-        <v>0</v>
+        <v>0.493119562332472</v>
       </c>
       <c r="S106" t="n">
-        <v>0.004759066560939385</v>
+        <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>0.493119562332472</v>
+        <v>0.3127870720726527</v>
       </c>
       <c r="U106" t="n">
-        <v>0.4978786288934113</v>
+        <v>0.3620990283058999</v>
       </c>
       <c r="V106" t="n">
-        <v>0.1031553399102761</v>
+        <v>0.1050781452438665</v>
       </c>
       <c r="W106" t="n">
         <v>0.09023</v>
@@ -8062,19 +8062,19 @@
         <v>0.09022999999999999</v>
       </c>
       <c r="R107" t="n">
-        <v>0.2747457178179989</v>
+        <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>0.1103993106353958</v>
+        <v>0</v>
       </c>
       <c r="T107" t="n">
-        <v>0</v>
+        <v>0.09867389803749349</v>
       </c>
       <c r="U107" t="n">
-        <v>0.3851450284533947</v>
+        <v>0.09867389803749349</v>
       </c>
       <c r="V107" t="n">
-        <v>0.1183539593446455</v>
+        <v>0.1338736614146515</v>
       </c>
       <c r="W107" t="n">
         <v>0.09022999999999999</v>
@@ -8133,19 +8133,19 @@
         <v>0.08335000000000001</v>
       </c>
       <c r="R108" t="n">
-        <v>0.2361129044421776</v>
+        <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>0.004380748562260006</v>
+        <v>0.01531008508076474</v>
       </c>
       <c r="T108" t="n">
         <v>0</v>
       </c>
       <c r="U108" t="n">
-        <v>0.2404936530044376</v>
+        <v>0.001531008508076474</v>
       </c>
       <c r="V108" t="n">
-        <v>0.1365090625554785</v>
+        <v>0.146885561491312</v>
       </c>
       <c r="W108" t="n">
         <v>0.08335000000000001</v>
@@ -8204,19 +8204,19 @@
         <v>0.08335000000000001</v>
       </c>
       <c r="R109" t="n">
-        <v>0.2631132049831034</v>
+        <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>0.110868655655852</v>
+        <v>0</v>
       </c>
       <c r="T109" t="n">
-        <v>0</v>
+        <v>0.08854538593411854</v>
       </c>
       <c r="U109" t="n">
-        <v>0.3739818606389554</v>
+        <v>0.08854538593411854</v>
       </c>
       <c r="V109" t="n">
-        <v>0.111992437307379</v>
+        <v>0.1262425299910889</v>
       </c>
       <c r="W109" t="n">
         <v>0.08335000000000001</v>
@@ -8275,19 +8275,19 @@
         <v>0.2382300653594771</v>
       </c>
       <c r="R110" t="n">
-        <v>0.1005765196000148</v>
+        <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>0</v>
+        <v>0.02651221987373751</v>
       </c>
       <c r="T110" t="n">
-        <v>0</v>
+        <v>0.05483514954705404</v>
       </c>
       <c r="U110" t="n">
-        <v>0.1005765196000148</v>
+        <v>0.05748637153442779</v>
       </c>
       <c r="V110" t="n">
-        <v>0.3802589200318334</v>
+        <v>0.3632541990419125</v>
       </c>
       <c r="W110" t="n">
         <v>0.2382300653594771</v>
@@ -8346,19 +8346,19 @@
         <v>0.23823</v>
       </c>
       <c r="R111" t="n">
-        <v>0.2382288541048034</v>
+        <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>0.1085495144995641</v>
+        <v>0</v>
       </c>
       <c r="T111" t="n">
-        <v>0</v>
+        <v>0.07790332323329752</v>
       </c>
       <c r="U111" t="n">
-        <v>0.3467783686043675</v>
+        <v>0.07790332323329752</v>
       </c>
       <c r="V111" t="n">
-        <v>0.3165550759066427</v>
+        <v>0.3533390956671278</v>
       </c>
       <c r="W111" t="n">
         <v>0.23823</v>
@@ -8417,19 +8417,19 @@
         <v>0.01338</v>
       </c>
       <c r="R112" t="n">
-        <v>0.204717041169486</v>
+        <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>0.004511981275014509</v>
+        <v>0</v>
       </c>
       <c r="T112" t="n">
-        <v>0</v>
+        <v>0.05166139440943684</v>
       </c>
       <c r="U112" t="n">
-        <v>0.2092290224445005</v>
+        <v>0.05166139440943684</v>
       </c>
       <c r="V112" t="n">
-        <v>0.01671184787199227</v>
+        <v>0.01728850007737239</v>
       </c>
       <c r="W112" t="n">
         <v>0.01338</v>
@@ -8488,19 +8488,19 @@
         <v>0.01338</v>
       </c>
       <c r="R113" t="n">
-        <v>0.1721942454430261</v>
+        <v>0</v>
       </c>
       <c r="S113" t="n">
-        <v>2.92557002956606e-05</v>
+        <v>0</v>
       </c>
       <c r="T113" t="n">
-        <v>0</v>
+        <v>0.04867840949548574</v>
       </c>
       <c r="U113" t="n">
-        <v>0.1722235011433217</v>
+        <v>0.04867840949548574</v>
       </c>
       <c r="V113" t="n">
-        <v>0.01614632314303192</v>
+        <v>0.01626775381155094</v>
       </c>
       <c r="W113" t="n">
         <v>0.01338</v>
@@ -8559,19 +8559,19 @@
         <v>0.01338</v>
       </c>
       <c r="R114" t="n">
-        <v>0.1417151604908134</v>
+        <v>0</v>
       </c>
       <c r="S114" t="n">
-        <v>0.004864721432864094</v>
+        <v>0.008243764894132265</v>
       </c>
       <c r="T114" t="n">
-        <v>0</v>
+        <v>0.1040526227127687</v>
       </c>
       <c r="U114" t="n">
-        <v>0.1465798819236775</v>
+        <v>0.1048769992021819</v>
       </c>
       <c r="V114" t="n">
-        <v>0.01984451189546869</v>
+        <v>0.01887089380855328</v>
       </c>
       <c r="W114" t="n">
         <v>0.01338</v>
@@ -8630,19 +8630,19 @@
         <v>0.01338</v>
       </c>
       <c r="R115" t="n">
-        <v>0.1573898962250733</v>
+        <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>0.004770936016488037</v>
+        <v>0.01490329904142571</v>
       </c>
       <c r="T115" t="n">
-        <v>0</v>
+        <v>0.08616004697250057</v>
       </c>
       <c r="U115" t="n">
-        <v>0.1621608322415614</v>
+        <v>0.08765037687664314</v>
       </c>
       <c r="V115" t="n">
-        <v>0.01705662307667478</v>
+        <v>0.01652197031172836</v>
       </c>
       <c r="W115" t="n">
         <v>0.01338</v>
@@ -8701,19 +8701,19 @@
         <v>0.01338</v>
       </c>
       <c r="R116" t="n">
-        <v>0.1339226586601007</v>
+        <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>0.004320816170511721</v>
+        <v>0.00279358348665857</v>
       </c>
       <c r="T116" t="n">
-        <v>0</v>
+        <v>0.04144754241103876</v>
       </c>
       <c r="U116" t="n">
-        <v>0.1382434748306124</v>
+        <v>0.04172690075970462</v>
       </c>
       <c r="V116" t="n">
-        <v>0.01733658576919699</v>
+        <v>0.01709637487253671</v>
       </c>
       <c r="W116" t="n">
         <v>0.01338</v>
@@ -8772,19 +8772,19 @@
         <v>0.01443</v>
       </c>
       <c r="R117" t="n">
-        <v>0.1056133509284754</v>
+        <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>0.004819918417554359</v>
+        <v>0.01058488607732698</v>
       </c>
       <c r="T117" t="n">
-        <v>0</v>
+        <v>0.1330472965254663</v>
       </c>
       <c r="U117" t="n">
-        <v>0.1104332693460297</v>
+        <v>0.134105785133199</v>
       </c>
       <c r="V117" t="n">
-        <v>0.01866067806861278</v>
+        <v>0.01666728797439661</v>
       </c>
       <c r="W117" t="n">
         <v>0.01443</v>
@@ -8843,19 +8843,19 @@
         <v>0.01443</v>
       </c>
       <c r="R118" t="n">
-        <v>0.3707575584885156</v>
+        <v>0</v>
       </c>
       <c r="S118" t="n">
-        <v>0.003947429847025008</v>
+        <v>0.06793571104327958</v>
       </c>
       <c r="T118" t="n">
-        <v>0</v>
+        <v>0.03010133668055359</v>
       </c>
       <c r="U118" t="n">
-        <v>0.3747049883355406</v>
+        <v>0.03689490778488155</v>
       </c>
       <c r="V118" t="n">
-        <v>0.01598997492955158</v>
+        <v>0.01921277870049028</v>
       </c>
       <c r="W118" t="n">
         <v>0.01443</v>
@@ -8914,19 +8914,19 @@
         <v>0.01443</v>
       </c>
       <c r="R119" t="n">
-        <v>0.2728211344510437</v>
+        <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>0.004685425783909736</v>
+        <v>0.09321470745488747</v>
       </c>
       <c r="T119" t="n">
-        <v>0</v>
+        <v>0.04130762054149062</v>
       </c>
       <c r="U119" t="n">
-        <v>0.2775065602349534</v>
+        <v>0.05062909128697936</v>
       </c>
       <c r="V119" t="n">
-        <v>0.01766254824704305</v>
+        <v>0.019284594432555</v>
       </c>
       <c r="W119" t="n">
         <v>0.01443</v>
@@ -8985,19 +8985,19 @@
         <v>0.01443</v>
       </c>
       <c r="R120" t="n">
-        <v>0.2306734061102813</v>
+        <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>0</v>
+        <v>0.007090393015077145</v>
       </c>
       <c r="T120" t="n">
-        <v>0</v>
+        <v>0.1266655613964984</v>
       </c>
       <c r="U120" t="n">
-        <v>0.2306734061102813</v>
+        <v>0.1273746006980061</v>
       </c>
       <c r="V120" t="n">
-        <v>0.01652153954995096</v>
+        <v>0.01636034562064278</v>
       </c>
       <c r="W120" t="n">
         <v>0.01443</v>
@@ -9056,19 +9056,19 @@
         <v>0.01459</v>
       </c>
       <c r="R121" t="n">
-        <v>0.3587421117545223</v>
+        <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>0.00389677569165614</v>
+        <v>0</v>
       </c>
       <c r="T121" t="n">
-        <v>0</v>
+        <v>0.001197869880662061</v>
       </c>
       <c r="U121" t="n">
-        <v>0.3626388874461784</v>
+        <v>0.001197869880662061</v>
       </c>
       <c r="V121" t="n">
-        <v>0.01512495847485879</v>
+        <v>0.01872827210079091</v>
       </c>
       <c r="W121" t="n">
         <v>0.01459</v>
@@ -9127,22 +9127,22 @@
         <v>0.01459</v>
       </c>
       <c r="R122" t="n">
-        <v>0.2189964168877171</v>
+        <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T122" t="n">
-        <v>0</v>
+        <v>0.4233017027531449</v>
       </c>
       <c r="U122" t="n">
-        <v>1.218996416887717</v>
+        <v>0.4233017027531449</v>
       </c>
       <c r="V122" t="n">
-        <v>-0.01515181144208024</v>
+        <v>-0.005212736383205594</v>
       </c>
       <c r="W122" t="n">
-        <v>-0.01515181144208024</v>
+        <v>-0.005212736383205594</v>
       </c>
     </row>
     <row r="123">
@@ -9198,22 +9198,22 @@
         <v>0.01112</v>
       </c>
       <c r="R123" t="n">
-        <v>0.3798225971490749</v>
+        <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>0.003848879930886451</v>
+        <v>0</v>
       </c>
       <c r="T123" t="n">
-        <v>0</v>
+        <v>0.001468468464464134</v>
       </c>
       <c r="U123" t="n">
-        <v>0.3836714770799614</v>
+        <v>0.001468468464464134</v>
       </c>
       <c r="V123" t="n">
-        <v>0.009630331733611039</v>
+        <v>0.01260752772798437</v>
       </c>
       <c r="W123" t="n">
-        <v>0.009630331733611039</v>
+        <v>0.01112</v>
       </c>
     </row>
     <row r="124">
@@ -9269,19 +9269,19 @@
         <v>0.01112</v>
       </c>
       <c r="R124" t="n">
-        <v>0.07543181923736941</v>
+        <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>0.004805792093697248</v>
+        <v>0.02663654192383648</v>
       </c>
       <c r="T124" t="n">
-        <v>0</v>
+        <v>0.09229082947266609</v>
       </c>
       <c r="U124" t="n">
-        <v>0.08023761133106666</v>
+        <v>0.09495448366504974</v>
       </c>
       <c r="V124" t="n">
-        <v>0.01311211501898886</v>
+        <v>0.01167556193720397</v>
       </c>
       <c r="W124" t="n">
         <v>0.01112</v>
@@ -9340,19 +9340,19 @@
         <v>0.012</v>
       </c>
       <c r="R125" t="n">
-        <v>0.1127320525656978</v>
+        <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>0.004246590279475937</v>
+        <v>0.05810665377217365</v>
       </c>
       <c r="T125" t="n">
         <v>0</v>
       </c>
       <c r="U125" t="n">
-        <v>0.1169786428451738</v>
+        <v>0.005810665377217365</v>
       </c>
       <c r="V125" t="n">
-        <v>0.01607078109638412</v>
+        <v>0.0160311621553906</v>
       </c>
       <c r="W125" t="n">
         <v>0.012</v>
@@ -9411,19 +9411,19 @@
         <v>0.01156</v>
       </c>
       <c r="R126" t="n">
-        <v>0.1093675656786965</v>
+        <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>0</v>
+        <v>0.008096214916105826</v>
       </c>
       <c r="T126" t="n">
-        <v>0</v>
+        <v>0.2805766843406181</v>
       </c>
       <c r="U126" t="n">
-        <v>0.1093675656786965</v>
+        <v>0.2813863058322287</v>
       </c>
       <c r="V126" t="n">
-        <v>0.0164191560978281</v>
+        <v>0.01310735139563328</v>
       </c>
       <c r="W126" t="n">
         <v>0.01156</v>
@@ -9482,22 +9482,22 @@
         <v>0.01306</v>
       </c>
       <c r="R127" t="n">
-        <v>0.2189964168877171</v>
+        <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>0.479930401524874</v>
+        <v>0</v>
       </c>
       <c r="T127" t="n">
-        <v>0</v>
+        <v>0.2295519611063428</v>
       </c>
       <c r="U127" t="n">
-        <v>0.6989268184125911</v>
+        <v>0.2295519611063428</v>
       </c>
       <c r="V127" t="n">
-        <v>-0.00677078737246646</v>
+        <v>-0.002135724135892973</v>
       </c>
       <c r="W127" t="n">
-        <v>-0.00677078737246646</v>
+        <v>-0.002135724135892973</v>
       </c>
     </row>
     <row r="128">
@@ -9556,19 +9556,19 @@
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>0.5537121074423117</v>
+        <v>0.7637658305497388</v>
       </c>
       <c r="T128" t="n">
-        <v>0</v>
+        <v>0.4509083587315825</v>
       </c>
       <c r="U128" t="n">
-        <v>0.5537121074423117</v>
+        <v>0.5272849417865564</v>
       </c>
       <c r="V128" t="n">
-        <v>0.01253971675280539</v>
+        <v>0.01138988313642344</v>
       </c>
       <c r="W128" t="n">
-        <v>0.01253971675280539</v>
+        <v>0.01138988313642344</v>
       </c>
     </row>
     <row r="129">
@@ -9624,22 +9624,22 @@
         <v>0.01306</v>
       </c>
       <c r="R129" t="n">
-        <v>0.6306261520855875</v>
+        <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>0.01074160650823996</v>
+        <v>0.06309786742165871</v>
       </c>
       <c r="T129" t="n">
         <v>0</v>
       </c>
       <c r="U129" t="n">
-        <v>0.6413677585938274</v>
+        <v>0.006309786742165872</v>
       </c>
       <c r="V129" t="n">
-        <v>0.01083908209691474</v>
+        <v>0.01763796680945133</v>
       </c>
       <c r="W129" t="n">
-        <v>0.01083908209691474</v>
+        <v>0.01306</v>
       </c>
     </row>
     <row r="130">
@@ -9695,19 +9695,19 @@
         <v>0.01306</v>
       </c>
       <c r="R130" t="n">
-        <v>0.2751789226054432</v>
+        <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>0.003713300656945195</v>
+        <v>0.02783382276553903</v>
       </c>
       <c r="T130" t="n">
-        <v>0</v>
+        <v>0.002626246373610197</v>
       </c>
       <c r="U130" t="n">
-        <v>0.2788922232623884</v>
+        <v>0.005409628650164099</v>
       </c>
       <c r="V130" t="n">
-        <v>0.01573082935247589</v>
+        <v>0.01780753963826542</v>
       </c>
       <c r="W130" t="n">
         <v>0.01306</v>
@@ -9766,19 +9766,19 @@
         <v>0.01306</v>
       </c>
       <c r="R131" t="n">
-        <v>0.3561733910699014</v>
+        <v>0</v>
       </c>
       <c r="S131" t="n">
-        <v>0.004408165332822733</v>
+        <v>0.03428692595756071</v>
       </c>
       <c r="T131" t="n">
-        <v>0</v>
+        <v>0.008071287258975879</v>
       </c>
       <c r="U131" t="n">
-        <v>0.3605815564027242</v>
+        <v>0.01149997985473195</v>
       </c>
       <c r="V131" t="n">
-        <v>0.01447355730493796</v>
+        <v>0.01753759029480862</v>
       </c>
       <c r="W131" t="n">
         <v>0.01306</v>
@@ -9837,19 +9837,19 @@
         <v>0.01306</v>
       </c>
       <c r="R132" t="n">
-        <v>0.3010263788522262</v>
+        <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>0.004169689581556169</v>
+        <v>0</v>
       </c>
       <c r="T132" t="n">
         <v>0</v>
       </c>
       <c r="U132" t="n">
-        <v>0.3051960684337824</v>
+        <v>0</v>
       </c>
       <c r="V132" t="n">
-        <v>0.01513931640518361</v>
+        <v>0.01763020465908269</v>
       </c>
       <c r="W132" t="n">
         <v>0.01306</v>
@@ -9908,19 +9908,19 @@
         <v>0.01306</v>
       </c>
       <c r="R133" t="n">
-        <v>0.2104235742580218</v>
+        <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>0.004094794988799499</v>
+        <v>0.0564600137134214</v>
       </c>
       <c r="T133" t="n">
-        <v>0</v>
+        <v>0.0018800556665024</v>
       </c>
       <c r="U133" t="n">
-        <v>0.2145183692468213</v>
+        <v>0.007526057037844541</v>
       </c>
       <c r="V133" t="n">
-        <v>0.01528259947363849</v>
+        <v>0.01649094667124161</v>
       </c>
       <c r="W133" t="n">
         <v>0.01306</v>
@@ -9979,22 +9979,22 @@
         <v>0.01306</v>
       </c>
       <c r="R134" t="n">
-        <v>0.6559095140218636</v>
+        <v>0</v>
       </c>
       <c r="S134" t="n">
-        <v>0.003996328660376136</v>
+        <v>0.04764293406231317</v>
       </c>
       <c r="T134" t="n">
-        <v>0</v>
+        <v>0.00481610363819085</v>
       </c>
       <c r="U134" t="n">
-        <v>0.6599058426822397</v>
+        <v>0.009580397044422168</v>
       </c>
       <c r="V134" t="n">
-        <v>0.009882982676562718</v>
+        <v>0.0168812605967465</v>
       </c>
       <c r="W134" t="n">
-        <v>0.009882982676562718</v>
+        <v>0.01306</v>
       </c>
     </row>
     <row r="135">
@@ -10050,19 +10050,19 @@
         <v>0.01306</v>
       </c>
       <c r="R135" t="n">
-        <v>0.294906453693336</v>
+        <v>0</v>
       </c>
       <c r="S135" t="n">
-        <v>0.004014801545419999</v>
+        <v>0.07577133082993451</v>
       </c>
       <c r="T135" t="n">
-        <v>0</v>
+        <v>0.04995468540469994</v>
       </c>
       <c r="U135" t="n">
-        <v>0.298921255238756</v>
+        <v>0.05753181848769339</v>
       </c>
       <c r="V135" t="n">
-        <v>0.01466548286322899</v>
+        <v>0.01632305650735175</v>
       </c>
       <c r="W135" t="n">
         <v>0.01306</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>0.004403568008490621</v>
+        <v>0</v>
       </c>
       <c r="T136" t="n">
         <v>0</v>
       </c>
       <c r="U136" t="n">
-        <v>0.004403568008490621</v>
+        <v>0</v>
       </c>
       <c r="V136" t="n">
-        <v>0.0203821638926679</v>
+        <v>0.01884564270192464</v>
       </c>
       <c r="W136" t="n">
         <v>0.01396</v>
@@ -10192,22 +10192,22 @@
         <v>0.01396</v>
       </c>
       <c r="R137" t="n">
-        <v>0.4467692492423115</v>
+        <v>0</v>
       </c>
       <c r="S137" t="n">
-        <v>0.004908103457016644</v>
+        <v>0.01334751311649006</v>
       </c>
       <c r="T137" t="n">
-        <v>0</v>
+        <v>0.07056800367317129</v>
       </c>
       <c r="U137" t="n">
-        <v>0.4516773526993282</v>
+        <v>0.07190275498482029</v>
       </c>
       <c r="V137" t="n">
-        <v>0.01319218519850601</v>
+        <v>0.01689584358245875</v>
       </c>
       <c r="W137" t="n">
-        <v>0.01319218519850601</v>
+        <v>0.01396</v>
       </c>
     </row>
     <row r="138">
@@ -10266,16 +10266,16 @@
         <v>0</v>
       </c>
       <c r="S138" t="n">
-        <v>0.004498440065163312</v>
+        <v>0.0346536211162646</v>
       </c>
       <c r="T138" t="n">
-        <v>0</v>
+        <v>0.01159724725501121</v>
       </c>
       <c r="U138" t="n">
-        <v>0.004498440065163312</v>
+        <v>0.01506260936663767</v>
       </c>
       <c r="V138" t="n">
-        <v>0.01950224177760734</v>
+        <v>0.01775677097401696</v>
       </c>
       <c r="W138" t="n">
         <v>0.01396</v>
@@ -10337,16 +10337,16 @@
         <v>0</v>
       </c>
       <c r="S139" t="n">
-        <v>0.004356508124872205</v>
+        <v>0</v>
       </c>
       <c r="T139" t="n">
-        <v>0</v>
+        <v>0.001677551207270644</v>
       </c>
       <c r="U139" t="n">
-        <v>0.004356508124872205</v>
+        <v>0.001677551207270644</v>
       </c>
       <c r="V139" t="n">
-        <v>0.01957598899023614</v>
+        <v>0.01801539222866406</v>
       </c>
       <c r="W139" t="n">
         <v>0.01396</v>
@@ -10405,19 +10405,19 @@
         <v>0.01396</v>
       </c>
       <c r="R140" t="n">
-        <v>0.09016533578832112</v>
+        <v>0</v>
       </c>
       <c r="S140" t="n">
-        <v>0.004010789335093579</v>
+        <v>0.007355744386271713</v>
       </c>
       <c r="T140" t="n">
-        <v>0</v>
+        <v>0.01634392333277179</v>
       </c>
       <c r="U140" t="n">
-        <v>0.09417612512341469</v>
+        <v>0.01707949777139896</v>
       </c>
       <c r="V140" t="n">
-        <v>0.02092015858993816</v>
+        <v>0.0203984325076305</v>
       </c>
       <c r="W140" t="n">
         <v>0.01396</v>
@@ -10476,19 +10476,19 @@
         <v>0.01397</v>
       </c>
       <c r="R141" t="n">
-        <v>0.2703057479988145</v>
+        <v>0</v>
       </c>
       <c r="S141" t="n">
-        <v>0.004917381693396061</v>
+        <v>0.00827623381905636</v>
       </c>
       <c r="T141" t="n">
-        <v>0</v>
+        <v>0.07530570128280978</v>
       </c>
       <c r="U141" t="n">
-        <v>0.2752231296922106</v>
+        <v>0.07613332466471541</v>
       </c>
       <c r="V141" t="n">
-        <v>0.02159990881166697</v>
+        <v>0.02278205369220044</v>
       </c>
       <c r="W141" t="n">
         <v>0.01397</v>
@@ -10547,19 +10547,19 @@
         <v>0.01397</v>
       </c>
       <c r="R142" t="n">
-        <v>0.4593417498302169</v>
+        <v>0</v>
       </c>
       <c r="S142" t="n">
-        <v>0.004890382861409082</v>
+        <v>0.0113697736325531</v>
       </c>
       <c r="T142" t="n">
-        <v>0</v>
+        <v>0.08438373261588561</v>
       </c>
       <c r="U142" t="n">
-        <v>0.464232132691626</v>
+        <v>0.08552070997914092</v>
       </c>
       <c r="V142" t="n">
-        <v>0.01904945303976513</v>
+        <v>0.02274091191935792</v>
       </c>
       <c r="W142" t="n">
         <v>0.01397</v>
@@ -10618,19 +10618,19 @@
         <v>0.01397</v>
       </c>
       <c r="R143" t="n">
-        <v>0.451591128483367</v>
+        <v>0</v>
       </c>
       <c r="S143" t="n">
-        <v>0</v>
+        <v>0.01160344936576794</v>
       </c>
       <c r="T143" t="n">
-        <v>0</v>
+        <v>0.02366386393264919</v>
       </c>
       <c r="U143" t="n">
-        <v>0.451591128483367</v>
+        <v>0.02482420886922598</v>
       </c>
       <c r="V143" t="n">
-        <v>0.01589271453522118</v>
+        <v>0.0202555087065301</v>
       </c>
       <c r="W143" t="n">
         <v>0.01397</v>
@@ -10689,19 +10689,19 @@
         <v>0.01397</v>
       </c>
       <c r="R144" t="n">
-        <v>0.04421791116090906</v>
+        <v>0</v>
       </c>
       <c r="S144" t="n">
-        <v>0.004700137221772538</v>
+        <v>0.03461050254425514</v>
       </c>
       <c r="T144" t="n">
-        <v>0</v>
+        <v>0.175037902914313</v>
       </c>
       <c r="U144" t="n">
-        <v>0.0489180483826816</v>
+        <v>0.1784989531687385</v>
       </c>
       <c r="V144" t="n">
-        <v>0.02154805746422775</v>
+        <v>0.01813867252866591</v>
       </c>
       <c r="W144" t="n">
         <v>0.01397</v>
@@ -10760,19 +10760,19 @@
         <v>0.01397</v>
       </c>
       <c r="R145" t="n">
-        <v>0.05621546204793723</v>
+        <v>0</v>
       </c>
       <c r="S145" t="n">
-        <v>0.004744522298506748</v>
+        <v>0.02111881315787539</v>
       </c>
       <c r="T145" t="n">
-        <v>0</v>
+        <v>0.0435739281286962</v>
       </c>
       <c r="U145" t="n">
-        <v>0.06095998434644398</v>
+        <v>0.04568580944448374</v>
       </c>
       <c r="V145" t="n">
-        <v>0.01638111367009604</v>
+        <v>0.0149953541977758</v>
       </c>
       <c r="W145" t="n">
         <v>0.01397</v>
@@ -10831,19 +10831,19 @@
         <v>0.01397</v>
       </c>
       <c r="R146" t="n">
-        <v>0</v>
+        <v>0.3718743913092659</v>
       </c>
       <c r="S146" t="n">
-        <v>0.193171961955386</v>
+        <v>0.03600852375314537</v>
       </c>
       <c r="T146" t="n">
-        <v>0.3718743913092659</v>
+        <v>0.3361332226877889</v>
       </c>
       <c r="U146" t="n">
-        <v>0.5650463532646519</v>
+        <v>0.37692151419403</v>
       </c>
       <c r="V146" t="n">
-        <v>0.01700774504502663</v>
+        <v>0.01803670935114259</v>
       </c>
       <c r="W146" t="n">
         <v>0.01397</v>
@@ -10902,19 +10902,19 @@
         <v>0.01397</v>
       </c>
       <c r="R147" t="n">
-        <v>0.008826144080354731</v>
+        <v>0</v>
       </c>
       <c r="S147" t="n">
-        <v>0.004911697728767317</v>
+        <v>0.01995613829288603</v>
       </c>
       <c r="T147" t="n">
-        <v>0</v>
+        <v>0.04551443288750656</v>
       </c>
       <c r="U147" t="n">
-        <v>0.01373784180912205</v>
+        <v>0.04751004671679517</v>
       </c>
       <c r="V147" t="n">
-        <v>0.02169751455144686</v>
+        <v>0.01962657715318604</v>
       </c>
       <c r="W147" t="n">
         <v>0.01397</v>
@@ -10973,22 +10973,22 @@
         <v>0.01397</v>
       </c>
       <c r="R148" t="n">
-        <v>0.4882226959364913</v>
+        <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>0.003633725152141221</v>
+        <v>0.1006290901538872</v>
       </c>
       <c r="T148" t="n">
-        <v>0</v>
+        <v>0.003647035972099255</v>
       </c>
       <c r="U148" t="n">
-        <v>0.4918564210886325</v>
+        <v>0.01370994498748798</v>
       </c>
       <c r="V148" t="n">
-        <v>0.008551014849138523</v>
+        <v>0.01363158142457088</v>
       </c>
       <c r="W148" t="n">
-        <v>0.008551014849138523</v>
+        <v>0.01363158142457088</v>
       </c>
     </row>
     <row r="149">
@@ -11044,19 +11044,19 @@
         <v>0.005840000000000001</v>
       </c>
       <c r="R149" t="n">
-        <v>0.127930074371138</v>
+        <v>0</v>
       </c>
       <c r="S149" t="n">
-        <v>0.004682667389310335</v>
+        <v>0</v>
       </c>
       <c r="T149" t="n">
-        <v>0</v>
+        <v>0.04010975066082856</v>
       </c>
       <c r="U149" t="n">
-        <v>0.1326127417604483</v>
+        <v>0.04010975066082856</v>
       </c>
       <c r="V149" t="n">
-        <v>0.00898344821331671</v>
+        <v>0.008855163474975449</v>
       </c>
       <c r="W149" t="n">
         <v>0.005840000000000001</v>
@@ -11115,19 +11115,19 @@
         <v>0.00584</v>
       </c>
       <c r="R150" t="n">
-        <v>0.1376912650780211</v>
+        <v>0</v>
       </c>
       <c r="S150" t="n">
         <v>0</v>
       </c>
       <c r="T150" t="n">
-        <v>0</v>
+        <v>0.05386405265827099</v>
       </c>
       <c r="U150" t="n">
-        <v>0.1376912650780211</v>
+        <v>0.05386405265827099</v>
       </c>
       <c r="V150" t="n">
-        <v>0.008463944379353279</v>
+        <v>0.008284993093521579</v>
       </c>
       <c r="W150" t="n">
         <v>0.00584</v>
@@ -11189,16 +11189,16 @@
         <v>0</v>
       </c>
       <c r="S151" t="n">
-        <v>0.003454513090902056</v>
+        <v>0.003701335762880492</v>
       </c>
       <c r="T151" t="n">
-        <v>0</v>
+        <v>0.004255171619862441</v>
       </c>
       <c r="U151" t="n">
-        <v>0.003454513090902056</v>
+        <v>0.004625305196150491</v>
       </c>
       <c r="V151" t="n">
-        <v>0.008710175871975588</v>
+        <v>0.008034836239717895</v>
       </c>
       <c r="W151" t="n">
         <v>0.00584</v>
@@ -11260,16 +11260,16 @@
         <v>0</v>
       </c>
       <c r="S152" t="n">
-        <v>0.003664151080448708</v>
+        <v>0.01154731670666392</v>
       </c>
       <c r="T152" t="n">
-        <v>0</v>
+        <v>0.006825058104467541</v>
       </c>
       <c r="U152" t="n">
-        <v>0.003664151080448708</v>
+        <v>0.007979789775133932</v>
       </c>
       <c r="V152" t="n">
-        <v>0.009352261829041754</v>
+        <v>0.008658556292701751</v>
       </c>
       <c r="W152" t="n">
         <v>0.00584</v>
@@ -11328,19 +11328,19 @@
         <v>0.005840000000000001</v>
       </c>
       <c r="R153" t="n">
-        <v>0</v>
+        <v>0.4156958779610072</v>
       </c>
       <c r="S153" t="n">
-        <v>0.08490112889806611</v>
+        <v>0.02376644426620868</v>
       </c>
       <c r="T153" t="n">
-        <v>0.4156958779610072</v>
+        <v>0.04713944672190351</v>
       </c>
       <c r="U153" t="n">
-        <v>0.5005970068590733</v>
+        <v>0.0910856789446251</v>
       </c>
       <c r="V153" t="n">
-        <v>0.006077240617961254</v>
+        <v>0.00780028456661859</v>
       </c>
       <c r="W153" t="n">
         <v>0.005840000000000001</v>
@@ -11399,19 +11399,19 @@
         <v>0.00584</v>
       </c>
       <c r="R154" t="n">
-        <v>0.169559968327031</v>
+        <v>0</v>
       </c>
       <c r="S154" t="n">
-        <v>0.004433325235077001</v>
+        <v>0.009190955934168351</v>
       </c>
       <c r="T154" t="n">
-        <v>0</v>
+        <v>0.01746285381053747</v>
       </c>
       <c r="U154" t="n">
-        <v>0.173993293562108</v>
+        <v>0.01838194940395431</v>
       </c>
       <c r="V154" t="n">
-        <v>0.007645359636948863</v>
+        <v>0.00788562768046944</v>
       </c>
       <c r="W154" t="n">
         <v>0.00584</v>
@@ -11470,19 +11470,19 @@
         <v>0.005840000000000001</v>
       </c>
       <c r="R155" t="n">
-        <v>0.2529231152467473</v>
+        <v>0</v>
       </c>
       <c r="S155" t="n">
-        <v>0.00476700739387681</v>
+        <v>0.1162388682467091</v>
       </c>
       <c r="T155" t="n">
-        <v>0</v>
+        <v>0.006445117780167209</v>
       </c>
       <c r="U155" t="n">
-        <v>0.2576901226406241</v>
+        <v>0.01806900460483812</v>
       </c>
       <c r="V155" t="n">
-        <v>0.007097724229204403</v>
+        <v>0.007828609352170352</v>
       </c>
       <c r="W155" t="n">
         <v>0.005840000000000001</v>
@@ -11541,19 +11541,19 @@
         <v>0.01284</v>
       </c>
       <c r="R156" t="n">
-        <v>0.1250794515966733</v>
+        <v>0</v>
       </c>
       <c r="S156" t="n">
-        <v>0.004393119544099378</v>
+        <v>0.002421527512169711</v>
       </c>
       <c r="T156" t="n">
-        <v>0</v>
+        <v>0.009666165442943075</v>
       </c>
       <c r="U156" t="n">
-        <v>0.1294725711407727</v>
+        <v>0.009908318194160047</v>
       </c>
       <c r="V156" t="n">
-        <v>0.01858484255507203</v>
+        <v>0.01865025846535492</v>
       </c>
       <c r="W156" t="n">
         <v>0.01284</v>
@@ -11612,22 +11612,22 @@
         <v>0.01284</v>
       </c>
       <c r="R157" t="n">
-        <v>0.2189964168877171</v>
+        <v>0</v>
       </c>
       <c r="S157" t="n">
-        <v>0.005962395307954171</v>
+        <v>0</v>
       </c>
       <c r="T157" t="n">
         <v>0</v>
       </c>
       <c r="U157" t="n">
-        <v>0.2249588121956713</v>
+        <v>0</v>
       </c>
       <c r="V157" t="n">
-        <v>-0.0005709820300728622</v>
+        <v>0.0008477000209679394</v>
       </c>
       <c r="W157" t="n">
-        <v>-0.0005709820300728622</v>
+        <v>0.0008477000209679394</v>
       </c>
     </row>
     <row r="158">
@@ -11683,19 +11683,19 @@
         <v>0.01284</v>
       </c>
       <c r="R158" t="n">
-        <v>0.1262594243922475</v>
+        <v>0</v>
       </c>
       <c r="S158" t="n">
-        <v>0.004403651596205815</v>
+        <v>0.02204616628166835</v>
       </c>
       <c r="T158" t="n">
-        <v>0</v>
+        <v>0.02653377348569474</v>
       </c>
       <c r="U158" t="n">
-        <v>0.1306630759884533</v>
+        <v>0.02873839011386158</v>
       </c>
       <c r="V158" t="n">
-        <v>0.01872116297792986</v>
+        <v>0.018560086847008</v>
       </c>
       <c r="W158" t="n">
         <v>0.01284</v>
@@ -11757,16 +11757,16 @@
         <v>0</v>
       </c>
       <c r="S159" t="n">
-        <v>0.003949937478478827</v>
+        <v>0.009572427721392482</v>
       </c>
       <c r="T159" t="n">
-        <v>0</v>
+        <v>0.001932326352203972</v>
       </c>
       <c r="U159" t="n">
-        <v>0.003949937478478827</v>
+        <v>0.00288956912434322</v>
       </c>
       <c r="V159" t="n">
-        <v>0.01972041337787852</v>
+        <v>0.01826423940999401</v>
       </c>
       <c r="W159" t="n">
         <v>0.01284</v>
@@ -11828,16 +11828,16 @@
         <v>0</v>
       </c>
       <c r="S160" t="n">
-        <v>0.001939903692742329</v>
+        <v>0.02031865484858921</v>
       </c>
       <c r="T160" t="n">
-        <v>0</v>
+        <v>0.01150355116193391</v>
       </c>
       <c r="U160" t="n">
-        <v>0.001939903692742329</v>
+        <v>0.01353541664679283</v>
       </c>
       <c r="V160" t="n">
-        <v>0.01991071425925742</v>
+        <v>0.0182920387753758</v>
       </c>
       <c r="W160" t="n">
         <v>0.01284</v>
@@ -11896,19 +11896,19 @@
         <v>0.01284</v>
       </c>
       <c r="R161" t="n">
-        <v>0.2149052301923741</v>
+        <v>0</v>
       </c>
       <c r="S161" t="n">
         <v>0</v>
       </c>
       <c r="T161" t="n">
-        <v>0</v>
+        <v>0.03293871039862184</v>
       </c>
       <c r="U161" t="n">
-        <v>0.2149052301923741</v>
+        <v>0.03293871039862184</v>
       </c>
       <c r="V161" t="n">
-        <v>0.01625325353229391</v>
+        <v>0.01711991454889408</v>
       </c>
       <c r="W161" t="n">
         <v>0.01284</v>
@@ -11967,19 +11967,19 @@
         <v>0.01284</v>
       </c>
       <c r="R162" t="n">
-        <v>0.1940026899752792</v>
+        <v>0</v>
       </c>
       <c r="S162" t="n">
-        <v>0</v>
+        <v>0.009753440938673516</v>
       </c>
       <c r="T162" t="n">
-        <v>0</v>
+        <v>0.05706589884466684</v>
       </c>
       <c r="U162" t="n">
-        <v>0.1940026899752792</v>
+        <v>0.05804124293853419</v>
       </c>
       <c r="V162" t="n">
-        <v>0.01797846073748292</v>
+        <v>0.01825441661988311</v>
       </c>
       <c r="W162" t="n">
         <v>0.01284</v>
@@ -12038,19 +12038,19 @@
         <v>0.01284</v>
       </c>
       <c r="R163" t="n">
-        <v>0.08812033633977071</v>
+        <v>0</v>
       </c>
       <c r="S163" t="n">
-        <v>0.004209811684818821</v>
+        <v>0.03212011324784729</v>
       </c>
       <c r="T163" t="n">
         <v>0</v>
       </c>
       <c r="U163" t="n">
-        <v>0.09233014802458953</v>
+        <v>0.003212011324784729</v>
       </c>
       <c r="V163" t="n">
-        <v>0.02676936132223166</v>
+        <v>0.02644384909990553</v>
       </c>
       <c r="W163" t="n">
         <v>0.01284</v>
@@ -12109,19 +12109,19 @@
         <v>0.01284</v>
       </c>
       <c r="R164" t="n">
-        <v>0.2048946131068879</v>
+        <v>0</v>
       </c>
       <c r="S164" t="n">
-        <v>0.004870990511498752</v>
+        <v>0.03229826852914232</v>
       </c>
       <c r="T164" t="n">
-        <v>0</v>
+        <v>0.1088903280118871</v>
       </c>
       <c r="U164" t="n">
-        <v>0.2097656036183867</v>
+        <v>0.1121201548648014</v>
       </c>
       <c r="V164" t="n">
-        <v>0.02554076543472614</v>
+        <v>0.02532474389917056</v>
       </c>
       <c r="W164" t="n">
         <v>0.01284</v>
@@ -12183,16 +12183,16 @@
         <v>0</v>
       </c>
       <c r="S165" t="n">
-        <v>0.1698463921097211</v>
+        <v>0.02989310406191287</v>
       </c>
       <c r="T165" t="n">
-        <v>0</v>
+        <v>0.2249686753692617</v>
       </c>
       <c r="U165" t="n">
-        <v>0.1698463921097211</v>
+        <v>0.227957985775453</v>
       </c>
       <c r="V165" t="n">
-        <v>0.01861736144383074</v>
+        <v>0.01640141948361112</v>
       </c>
       <c r="W165" t="n">
         <v>0.01284</v>
@@ -12251,19 +12251,19 @@
         <v>0.01284</v>
       </c>
       <c r="R166" t="n">
-        <v>0.1149315994161021</v>
+        <v>0</v>
       </c>
       <c r="S166" t="n">
-        <v>0</v>
+        <v>0.006864603225428645</v>
       </c>
       <c r="T166" t="n">
-        <v>0</v>
+        <v>0.02518086946240761</v>
       </c>
       <c r="U166" t="n">
-        <v>0.1149315994161021</v>
+        <v>0.02586732978495047</v>
       </c>
       <c r="V166" t="n">
-        <v>0.01918092599282956</v>
+        <v>0.01885472211734193</v>
       </c>
       <c r="W166" t="n">
         <v>0.01284</v>
@@ -12322,19 +12322,19 @@
         <v>0.01284</v>
       </c>
       <c r="R167" t="n">
-        <v>0.1664807867734509</v>
+        <v>0</v>
       </c>
       <c r="S167" t="n">
-        <v>0.004449708427242571</v>
+        <v>0.006750163815085634</v>
       </c>
       <c r="T167" t="n">
-        <v>0</v>
+        <v>0.009191817859773188</v>
       </c>
       <c r="U167" t="n">
-        <v>0.1709304952006935</v>
+        <v>0.009866834241281751</v>
       </c>
       <c r="V167" t="n">
-        <v>0.01459344076858592</v>
+        <v>0.01519170907775315</v>
       </c>
       <c r="W167" t="n">
         <v>0.01284</v>
@@ -12396,19 +12396,19 @@
         <v>0</v>
       </c>
       <c r="S168" t="n">
-        <v>0.1357125963468575</v>
+        <v>0.06389018507797624</v>
       </c>
       <c r="T168" t="n">
-        <v>0</v>
+        <v>0.2977083126835975</v>
       </c>
       <c r="U168" t="n">
-        <v>0.1357125963468575</v>
+        <v>0.3040973311913951</v>
       </c>
       <c r="V168" t="n">
-        <v>0.01558216745160135</v>
+        <v>0.01195031835864586</v>
       </c>
       <c r="W168" t="n">
-        <v>0.01284</v>
+        <v>0.01195031835864586</v>
       </c>
     </row>
     <row r="169">
@@ -12464,22 +12464,22 @@
         <v>0.01284</v>
       </c>
       <c r="R169" t="n">
-        <v>0</v>
+        <v>0.5037761742147426</v>
       </c>
       <c r="S169" t="n">
-        <v>0.3548343644644216</v>
+        <v>0</v>
       </c>
       <c r="T169" t="n">
-        <v>0.5037761742147426</v>
+        <v>1</v>
       </c>
       <c r="U169" t="n">
-        <v>0.8586105386791643</v>
+        <v>1.050377617421474</v>
       </c>
       <c r="V169" t="n">
-        <v>0.0137040409129902</v>
+        <v>0.00977196252438732</v>
       </c>
       <c r="W169" t="n">
-        <v>0.01284</v>
+        <v>0.00977196252438732</v>
       </c>
     </row>
     <row r="170">
@@ -12535,19 +12535,19 @@
         <v>0.01629000069754464</v>
       </c>
       <c r="R170" t="n">
-        <v>0.1366860236896215</v>
+        <v>0</v>
       </c>
       <c r="S170" t="n">
-        <v>0.004142272810993441</v>
+        <v>0.02649402758706534</v>
       </c>
       <c r="T170" t="n">
         <v>0</v>
       </c>
       <c r="U170" t="n">
-        <v>0.140828296500615</v>
+        <v>0.002649402758706534</v>
       </c>
       <c r="V170" t="n">
-        <v>0.02011382906810461</v>
+        <v>0.02050005419834692</v>
       </c>
       <c r="W170" t="n">
         <v>0.01629000069754464</v>
@@ -12606,19 +12606,19 @@
         <v>0.01635</v>
       </c>
       <c r="R171" t="n">
-        <v>0.09958042896095887</v>
+        <v>0.3372452915977446</v>
       </c>
       <c r="S171" t="n">
-        <v>0.004947389683127801</v>
+        <v>0.02580978257564515</v>
       </c>
       <c r="T171" t="n">
-        <v>0.3372452915977446</v>
+        <v>0.2473706644999816</v>
       </c>
       <c r="U171" t="n">
-        <v>0.4417731102418313</v>
+        <v>0.2836761719173205</v>
       </c>
       <c r="V171" t="n">
-        <v>0.02262284220646699</v>
+        <v>0.02333614990936799</v>
       </c>
       <c r="W171" t="n">
         <v>0.01635</v>
@@ -12680,16 +12680,16 @@
         <v>0</v>
       </c>
       <c r="S172" t="n">
-        <v>0.5305490321148598</v>
+        <v>0.1348895664009205</v>
       </c>
       <c r="T172" t="n">
-        <v>0</v>
+        <v>0.383163416564918</v>
       </c>
       <c r="U172" t="n">
-        <v>0.5305490321148598</v>
+        <v>0.3966523732050101</v>
       </c>
       <c r="V172" t="n">
-        <v>0.0178370779711975</v>
+        <v>0.01815354894861279</v>
       </c>
       <c r="W172" t="n">
         <v>0.01629017857142857</v>
@@ -12748,22 +12748,22 @@
         <v>0.01415</v>
       </c>
       <c r="R173" t="n">
-        <v>0</v>
+        <v>0.8498392660701144</v>
       </c>
       <c r="S173" t="n">
-        <v>0.8865172639350229</v>
+        <v>0</v>
       </c>
       <c r="T173" t="n">
-        <v>0.8498392660701144</v>
+        <v>0.5229427862675664</v>
       </c>
       <c r="U173" t="n">
-        <v>1.736356530005137</v>
+        <v>0.6079267128745779</v>
       </c>
       <c r="V173" t="n">
-        <v>0.005108785865774016</v>
+        <v>0.01945632356241166</v>
       </c>
       <c r="W173" t="n">
-        <v>0.005108785865774016</v>
+        <v>0.01415</v>
       </c>
     </row>
     <row r="174">
@@ -12822,16 +12822,16 @@
         <v>0</v>
       </c>
       <c r="S174" t="n">
-        <v>0.004107333146069037</v>
+        <v>0</v>
       </c>
       <c r="T174" t="n">
         <v>0</v>
       </c>
       <c r="U174" t="n">
-        <v>0.004107333146069037</v>
+        <v>0</v>
       </c>
       <c r="V174" t="n">
-        <v>0.02215067091222092</v>
+        <v>0.02058904546047803</v>
       </c>
       <c r="W174" t="n">
         <v>0.01415</v>
@@ -12890,19 +12890,19 @@
         <v>0.01415</v>
       </c>
       <c r="R175" t="n">
-        <v>0.364777013762315</v>
+        <v>0</v>
       </c>
       <c r="S175" t="n">
-        <v>0.004706991414413331</v>
+        <v>0.08742401327924726</v>
       </c>
       <c r="T175" t="n">
-        <v>0</v>
+        <v>0.007864782492164935</v>
       </c>
       <c r="U175" t="n">
-        <v>0.3694840051767283</v>
+        <v>0.01660718382008966</v>
       </c>
       <c r="V175" t="n">
-        <v>0.01687806694058085</v>
+        <v>0.02025152974701752</v>
       </c>
       <c r="W175" t="n">
         <v>0.01415</v>
@@ -12961,19 +12961,19 @@
         <v>0.01415</v>
       </c>
       <c r="R176" t="n">
-        <v>0.3022050135250419</v>
+        <v>0</v>
       </c>
       <c r="S176" t="n">
-        <v>0.004780047077437066</v>
+        <v>0</v>
       </c>
       <c r="T176" t="n">
-        <v>0</v>
+        <v>0.1123992200289179</v>
       </c>
       <c r="U176" t="n">
-        <v>0.3069850606024789</v>
+        <v>0.1123992200289179</v>
       </c>
       <c r="V176" t="n">
-        <v>0.01804254965782163</v>
+        <v>0.01917619508617776</v>
       </c>
       <c r="W176" t="n">
         <v>0.01415</v>
@@ -13035,16 +13035,16 @@
         <v>0</v>
       </c>
       <c r="S177" t="n">
-        <v>0.2830167190893988</v>
+        <v>0.01202520291796308</v>
       </c>
       <c r="T177" t="n">
-        <v>0</v>
+        <v>0.3194504288551965</v>
       </c>
       <c r="U177" t="n">
-        <v>0.2830167190893988</v>
+        <v>0.3206529491469928</v>
       </c>
       <c r="V177" t="n">
-        <v>0.01776979974578728</v>
+        <v>0.01561750287471255</v>
       </c>
       <c r="W177" t="n">
         <v>0.01415</v>
@@ -13103,19 +13103,19 @@
         <v>0.01415</v>
       </c>
       <c r="R178" t="n">
-        <v>0.1130249439612501</v>
+        <v>0</v>
       </c>
       <c r="S178" t="n">
-        <v>0.001677689030378904</v>
+        <v>0.02008577656265096</v>
       </c>
       <c r="T178" t="n">
-        <v>0</v>
+        <v>0.02429155663968841</v>
       </c>
       <c r="U178" t="n">
-        <v>0.114702632991629</v>
+        <v>0.0263001342959535</v>
       </c>
       <c r="V178" t="n">
-        <v>0.02095557850851516</v>
+        <v>0.0205867296492992</v>
       </c>
       <c r="W178" t="n">
         <v>0.01415</v>
@@ -13174,19 +13174,19 @@
         <v>0.01415</v>
       </c>
       <c r="R179" t="n">
-        <v>0.5833955527667894</v>
+        <v>0</v>
       </c>
       <c r="S179" t="n">
-        <v>0.004781802419454806</v>
+        <v>0.06217175066759984</v>
       </c>
       <c r="T179" t="n">
-        <v>0</v>
+        <v>0.01147003747399244</v>
       </c>
       <c r="U179" t="n">
-        <v>0.5881773551862443</v>
+        <v>0.01768721254075243</v>
       </c>
       <c r="V179" t="n">
-        <v>0.01490525344752587</v>
+        <v>0.02135794475019982</v>
       </c>
       <c r="W179" t="n">
         <v>0.01415</v>
@@ -13245,19 +13245,19 @@
         <v>0.02284015151515151</v>
       </c>
       <c r="R180" t="n">
-        <v>0.02577532373567193</v>
+        <v>0</v>
       </c>
       <c r="S180" t="n">
-        <v>0.003613914863655365</v>
+        <v>0.009654403040260665</v>
       </c>
       <c r="T180" t="n">
-        <v>0</v>
+        <v>0.07019668623409725</v>
       </c>
       <c r="U180" t="n">
-        <v>0.02938923859932729</v>
+        <v>0.07116212653812332</v>
       </c>
       <c r="V180" t="n">
-        <v>0.03369753568200755</v>
+        <v>0.03012893459199546</v>
       </c>
       <c r="W180" t="n">
         <v>0.02284015151515151</v>
@@ -13319,16 +13319,16 @@
         <v>0</v>
       </c>
       <c r="S181" t="n">
-        <v>0.3112244802003898</v>
+        <v>0</v>
       </c>
       <c r="T181" t="n">
-        <v>0</v>
+        <v>0.1467218590584964</v>
       </c>
       <c r="U181" t="n">
-        <v>0.3112244802003898</v>
+        <v>0.1467218590584964</v>
       </c>
       <c r="V181" t="n">
-        <v>0.02678341087200326</v>
+        <v>0.02793027817504254</v>
       </c>
       <c r="W181" t="n">
         <v>0.0229221875</v>
@@ -13387,19 +13387,19 @@
         <v>0.004010000000000001</v>
       </c>
       <c r="R182" t="n">
-        <v>0.1955789928119222</v>
+        <v>0</v>
       </c>
       <c r="S182" t="n">
-        <v>0.08546735208035838</v>
+        <v>0</v>
       </c>
       <c r="T182" t="n">
-        <v>0</v>
+        <v>0.05997314460178504</v>
       </c>
       <c r="U182" t="n">
-        <v>0.2810463448922806</v>
+        <v>0.05997314460178504</v>
       </c>
       <c r="V182" t="n">
-        <v>0.005106791430150619</v>
+        <v>0.005534272044220335</v>
       </c>
       <c r="W182" t="n">
         <v>0.004010000000000001</v>
@@ -13458,19 +13458,19 @@
         <v>0.00401</v>
       </c>
       <c r="R183" t="n">
-        <v>0.3280255501130184</v>
+        <v>0</v>
       </c>
       <c r="S183" t="n">
-        <v>0.004681580749013703</v>
+        <v>0.09702302196733606</v>
       </c>
       <c r="T183" t="n">
         <v>0</v>
       </c>
       <c r="U183" t="n">
-        <v>0.3327071308620321</v>
+        <v>0.009702302196733606</v>
       </c>
       <c r="V183" t="n">
-        <v>0.00539733580299104</v>
+        <v>0.006233562246843717</v>
       </c>
       <c r="W183" t="n">
         <v>0.00401</v>
@@ -13532,16 +13532,16 @@
         <v>0</v>
       </c>
       <c r="S184" t="n">
-        <v>0.00413617090778895</v>
+        <v>0</v>
       </c>
       <c r="T184" t="n">
         <v>0</v>
       </c>
       <c r="U184" t="n">
-        <v>0.00413617090778895</v>
+        <v>0</v>
       </c>
       <c r="V184" t="n">
-        <v>0.006762339370002863</v>
+        <v>0.006319902496247926</v>
       </c>
       <c r="W184" t="n">
         <v>0.00401</v>
@@ -13603,16 +13603,16 @@
         <v>0</v>
       </c>
       <c r="S185" t="n">
-        <v>0.004488660302493175</v>
+        <v>0</v>
       </c>
       <c r="T185" t="n">
-        <v>0</v>
+        <v>0.01773363018578755</v>
       </c>
       <c r="U185" t="n">
-        <v>0.004488660302493175</v>
+        <v>0.01773363018578755</v>
       </c>
       <c r="V185" t="n">
-        <v>0.006852232487115775</v>
+        <v>0.006340097238788595</v>
       </c>
       <c r="W185" t="n">
         <v>0.00401</v>
@@ -13674,16 +13674,16 @@
         <v>0</v>
       </c>
       <c r="S186" t="n">
-        <v>0.004502452275489732</v>
+        <v>0</v>
       </c>
       <c r="T186" t="n">
-        <v>0</v>
+        <v>0.03114461689721026</v>
       </c>
       <c r="U186" t="n">
-        <v>0.004502452275489732</v>
+        <v>0.03114461689721026</v>
       </c>
       <c r="V186" t="n">
-        <v>0.006834940060626572</v>
+        <v>0.006269082061398302</v>
       </c>
       <c r="W186" t="n">
         <v>0.00401</v>
@@ -13742,19 +13742,19 @@
         <v>0.01106</v>
       </c>
       <c r="R187" t="n">
-        <v>0.06997142938488637</v>
+        <v>0</v>
       </c>
       <c r="S187" t="n">
-        <v>0.08646296535527442</v>
+        <v>0.08588497741583906</v>
       </c>
       <c r="T187" t="n">
-        <v>0</v>
+        <v>0.0658304838549808</v>
       </c>
       <c r="U187" t="n">
-        <v>0.1564343947401608</v>
+        <v>0.07441898159656471</v>
       </c>
       <c r="V187" t="n">
-        <v>0.01220113222177861</v>
+        <v>0.01184218940306883</v>
       </c>
       <c r="W187" t="n">
         <v>0.01106</v>
@@ -13813,22 +13813,22 @@
         <v>0.01105999805862939</v>
       </c>
       <c r="R188" t="n">
-        <v>0.4840625506345413</v>
+        <v>0</v>
       </c>
       <c r="S188" t="n">
-        <v>0.004979988892028553</v>
+        <v>0.09968345765994258</v>
       </c>
       <c r="T188" t="n">
-        <v>0</v>
+        <v>0.0229089614445912</v>
       </c>
       <c r="U188" t="n">
-        <v>0.4890425395265698</v>
+        <v>0.03287730721058546</v>
       </c>
       <c r="V188" t="n">
-        <v>0.01033740737437676</v>
+        <v>0.01411656089235565</v>
       </c>
       <c r="W188" t="n">
-        <v>0.01033740737437676</v>
+        <v>0.01105999805862939</v>
       </c>
     </row>
     <row r="189">
@@ -13887,16 +13887,16 @@
         <v>0</v>
       </c>
       <c r="S189" t="n">
-        <v>0.003982620275094773</v>
+        <v>0.003869464509886082</v>
       </c>
       <c r="T189" t="n">
-        <v>0</v>
+        <v>0.001717643178786643</v>
       </c>
       <c r="U189" t="n">
-        <v>0.003982620275094773</v>
+        <v>0.002104589629775252</v>
       </c>
       <c r="V189" t="n">
-        <v>0.0142731492120126</v>
+        <v>0.01302788694287188</v>
       </c>
       <c r="W189" t="n">
         <v>0.01106</v>
@@ -13955,19 +13955,19 @@
         <v>0.01105999595714575</v>
       </c>
       <c r="R190" t="n">
-        <v>0.1345818087324454</v>
+        <v>0</v>
       </c>
       <c r="S190" t="n">
         <v>0</v>
       </c>
       <c r="T190" t="n">
-        <v>0</v>
+        <v>0.0499217050911025</v>
       </c>
       <c r="U190" t="n">
-        <v>0.1345818087324454</v>
+        <v>0.0499217050911025</v>
       </c>
       <c r="V190" t="n">
-        <v>0.01284415262303487</v>
+        <v>0.01251446020174544</v>
       </c>
       <c r="W190" t="n">
         <v>0.01105999595714575</v>
@@ -14029,16 +14029,16 @@
         <v>0</v>
       </c>
       <c r="S191" t="n">
-        <v>0.004504374792937638</v>
+        <v>0</v>
       </c>
       <c r="T191" t="n">
-        <v>0</v>
+        <v>0.03082503676949377</v>
       </c>
       <c r="U191" t="n">
-        <v>0.004504374792937638</v>
+        <v>0.03082503676949377</v>
       </c>
       <c r="V191" t="n">
-        <v>0.01440115724290333</v>
+        <v>0.01284402026474159</v>
       </c>
       <c r="W191" t="n">
         <v>0.01105997988939165</v>
@@ -14100,16 +14100,16 @@
         <v>0</v>
       </c>
       <c r="S192" t="n">
-        <v>0.004573418245635175</v>
+        <v>0</v>
       </c>
       <c r="T192" t="n">
-        <v>0</v>
+        <v>0.008220365388094342</v>
       </c>
       <c r="U192" t="n">
-        <v>0.004573418245635175</v>
+        <v>0.008220365388094342</v>
       </c>
       <c r="V192" t="n">
-        <v>0.01414491783524991</v>
+        <v>0.01283855141723987</v>
       </c>
       <c r="W192" t="n">
         <v>0.01105998217468806</v>
@@ -14168,22 +14168,22 @@
         <v>0.01106000776548243</v>
       </c>
       <c r="R193" t="n">
-        <v>0.04472565023093786</v>
+        <v>0.1575755299451805</v>
       </c>
       <c r="S193" t="n">
-        <v>0.00473574558841805</v>
+        <v>0.03006036008324459</v>
       </c>
       <c r="T193" t="n">
-        <v>0.1575755299451805</v>
+        <v>0.3037319758363644</v>
       </c>
       <c r="U193" t="n">
-        <v>0.2070369257645364</v>
+        <v>0.3224955648392068</v>
       </c>
       <c r="V193" t="n">
-        <v>0.01217567437170416</v>
+        <v>0.009632666749957001</v>
       </c>
       <c r="W193" t="n">
-        <v>0.01106000776548243</v>
+        <v>0.009632666749957001</v>
       </c>
     </row>
     <row r="194">
@@ -14239,22 +14239,22 @@
         <v>0.01106</v>
       </c>
       <c r="R194" t="n">
-        <v>0.08049822651015193</v>
+        <v>0.2806384822434332</v>
       </c>
       <c r="S194" t="n">
-        <v>0.004985254918081772</v>
+        <v>0</v>
       </c>
       <c r="T194" t="n">
-        <v>0.2806384822434332</v>
+        <v>0.142311386608837</v>
       </c>
       <c r="U194" t="n">
-        <v>0.3661219636716669</v>
+        <v>0.1703752348331803</v>
       </c>
       <c r="V194" t="n">
-        <v>0.01030690834431678</v>
+        <v>0.01120583387719249</v>
       </c>
       <c r="W194" t="n">
-        <v>0.01030690834431678</v>
+        <v>0.01106</v>
       </c>
     </row>
     <row r="195">
@@ -14310,19 +14310,19 @@
         <v>0.01281000516795866</v>
       </c>
       <c r="R195" t="n">
-        <v>0.1854172529279746</v>
+        <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>0</v>
+        <v>0.008118497484501386</v>
       </c>
       <c r="T195" t="n">
-        <v>0</v>
+        <v>0.06718401014833586</v>
       </c>
       <c r="U195" t="n">
-        <v>0.1854172529279746</v>
+        <v>0.067995859896786</v>
       </c>
       <c r="V195" t="n">
-        <v>0.01783559335841645</v>
+        <v>0.01787340640752585</v>
       </c>
       <c r="W195" t="n">
         <v>0.01281000516795866</v>
@@ -14381,19 +14381,19 @@
         <v>0.01281</v>
       </c>
       <c r="R196" t="n">
-        <v>0.2244705477205322</v>
+        <v>0</v>
       </c>
       <c r="S196" t="n">
-        <v>0</v>
+        <v>0.0176531628387088</v>
       </c>
       <c r="T196" t="n">
-        <v>0</v>
+        <v>0.06752519193698014</v>
       </c>
       <c r="U196" t="n">
-        <v>0.2244705477205322</v>
+        <v>0.06929050822085102</v>
       </c>
       <c r="V196" t="n">
-        <v>0.01783997512907002</v>
+        <v>0.01836147642418584</v>
       </c>
       <c r="W196" t="n">
         <v>0.01281</v>
@@ -14452,19 +14452,19 @@
         <v>0.01281</v>
       </c>
       <c r="R197" t="n">
-        <v>0.1886188384509002</v>
+        <v>0</v>
       </c>
       <c r="S197" t="n">
-        <v>0.004874668370964619</v>
+        <v>0.006771675173053208</v>
       </c>
       <c r="T197" t="n">
-        <v>0</v>
+        <v>0.06786681820424412</v>
       </c>
       <c r="U197" t="n">
-        <v>0.1934935068218648</v>
+        <v>0.06854398572154943</v>
       </c>
       <c r="V197" t="n">
-        <v>0.01848282260192932</v>
+        <v>0.01861707095634927</v>
       </c>
       <c r="W197" t="n">
         <v>0.01281</v>
@@ -14523,22 +14523,22 @@
         <v>0.03094</v>
       </c>
       <c r="R198" t="n">
-        <v>0</v>
+        <v>0.1417495063143978</v>
       </c>
       <c r="S198" t="n">
-        <v>0.004911781316482289</v>
+        <v>0.06844021039427965</v>
       </c>
       <c r="T198" t="n">
-        <v>0.1417495063143978</v>
+        <v>0.3614828162343149</v>
       </c>
       <c r="U198" t="n">
-        <v>0.1466612876308801</v>
+        <v>0.3825017879051826</v>
       </c>
       <c r="V198" t="n">
-        <v>0.03964808295261163</v>
+        <v>0.0288094898150712</v>
       </c>
       <c r="W198" t="n">
-        <v>0.03094</v>
+        <v>0.0288094898150712</v>
       </c>
     </row>
     <row r="199">
@@ -14597,16 +14597,16 @@
         <v>0</v>
       </c>
       <c r="S199" t="n">
-        <v>0.004165760958945164</v>
+        <v>0.01228379930525612</v>
       </c>
       <c r="T199" t="n">
-        <v>0</v>
+        <v>0.0009436281100725363</v>
       </c>
       <c r="U199" t="n">
-        <v>0.004165760958945164</v>
+        <v>0.002172008040598149</v>
       </c>
       <c r="V199" t="n">
-        <v>0.03506259925611237</v>
+        <v>0.03158259791235252</v>
       </c>
       <c r="W199" t="n">
         <v>0.03094</v>
@@ -14668,16 +14668,16 @@
         <v>0</v>
       </c>
       <c r="S200" t="n">
-        <v>0.003374018121231614</v>
+        <v>0.0400745940482245</v>
       </c>
       <c r="T200" t="n">
-        <v>0</v>
+        <v>0.01118770465462449</v>
       </c>
       <c r="U200" t="n">
-        <v>0.003374018121231614</v>
+        <v>0.01519516405944694</v>
       </c>
       <c r="V200" t="n">
-        <v>0.03626624696329891</v>
+        <v>0.03235881264891702</v>
       </c>
       <c r="W200" t="n">
         <v>0.03094</v>
@@ -14739,16 +14739,16 @@
         <v>0</v>
       </c>
       <c r="S201" t="n">
-        <v>0.2665699166726607</v>
+        <v>0.04553666255596829</v>
       </c>
       <c r="T201" t="n">
-        <v>0</v>
+        <v>0.1553619011595113</v>
       </c>
       <c r="U201" t="n">
-        <v>0.2665699166726607</v>
+        <v>0.1599155674151082</v>
       </c>
       <c r="V201" t="n">
-        <v>0.03301134616794465</v>
+        <v>0.03276954397095037</v>
       </c>
       <c r="W201" t="n">
         <v>0.03093996212121212</v>
@@ -14810,19 +14810,19 @@
         <v>0</v>
       </c>
       <c r="S202" t="n">
-        <v>0.3630053143815464</v>
+        <v>0.0300050259045643</v>
       </c>
       <c r="T202" t="n">
-        <v>0</v>
+        <v>0.2749117154341201</v>
       </c>
       <c r="U202" t="n">
-        <v>0.3630053143815464</v>
+        <v>0.2779122180245765</v>
       </c>
       <c r="V202" t="n">
-        <v>0.02588646689029687</v>
+        <v>0.02497756219984716</v>
       </c>
       <c r="W202" t="n">
-        <v>0.02588646689029687</v>
+        <v>0.02497756219984716</v>
       </c>
     </row>
     <row r="203">
@@ -14878,19 +14878,19 @@
         <v>0.01932</v>
       </c>
       <c r="R203" t="n">
-        <v>0.4604879450188869</v>
+        <v>0</v>
       </c>
       <c r="S203" t="n">
-        <v>0.00464037200545464</v>
+        <v>0.0008162122846621291</v>
       </c>
       <c r="T203" t="n">
-        <v>0</v>
+        <v>0.01253571941309262</v>
       </c>
       <c r="U203" t="n">
-        <v>0.4651283170243415</v>
+        <v>0.01261734064155883</v>
       </c>
       <c r="V203" t="n">
-        <v>0.03159232683841622</v>
+        <v>0.03812328708245111</v>
       </c>
       <c r="W203" t="n">
         <v>0.01932</v>
@@ -14952,16 +14952,16 @@
         <v>0</v>
       </c>
       <c r="S204" t="n">
-        <v>0.02043184673557175</v>
+        <v>0</v>
       </c>
       <c r="T204" t="n">
-        <v>0</v>
+        <v>0.005387080873329397</v>
       </c>
       <c r="U204" t="n">
-        <v>0.02043184673557175</v>
+        <v>0.005387080873329397</v>
       </c>
       <c r="V204" t="n">
-        <v>0.03397031978725239</v>
+        <v>0.03204943284403044</v>
       </c>
       <c r="W204" t="n">
         <v>0.01932</v>
@@ -15020,19 +15020,19 @@
         <v>0.01932</v>
       </c>
       <c r="R205" t="n">
-        <v>0.1227584141249802</v>
+        <v>0</v>
       </c>
       <c r="S205" t="n">
-        <v>0.004591891130679038</v>
+        <v>0.0137874918677396</v>
       </c>
       <c r="T205" t="n">
-        <v>0</v>
+        <v>0.0002555752064492545</v>
       </c>
       <c r="U205" t="n">
-        <v>0.1273503052556592</v>
+        <v>0.001634324393223214</v>
       </c>
       <c r="V205" t="n">
-        <v>0.0478093474763366</v>
+        <v>0.0480266284069184</v>
       </c>
       <c r="W205" t="n">
         <v>0.01932</v>
@@ -15091,22 +15091,22 @@
         <v>0.01932</v>
       </c>
       <c r="R206" t="n">
-        <v>0</v>
+        <v>0.3642389143159938</v>
       </c>
       <c r="S206" t="n">
-        <v>0.004631344532220361</v>
+        <v>0.1929708913534568</v>
       </c>
       <c r="T206" t="n">
-        <v>0.3642389143159938</v>
+        <v>0.5277172867069335</v>
       </c>
       <c r="U206" t="n">
-        <v>0.3688702588482142</v>
+        <v>0.5834382672738786</v>
       </c>
       <c r="V206" t="n">
-        <v>0.02493048966523614</v>
+        <v>0.01857348392277183</v>
       </c>
       <c r="W206" t="n">
-        <v>0.01932</v>
+        <v>0.01857348392277183</v>
       </c>
     </row>
     <row r="207">
@@ -15162,19 +15162,19 @@
         <v>0.01932</v>
       </c>
       <c r="R207" t="n">
-        <v>0</v>
+        <v>0.2664716168230546</v>
       </c>
       <c r="S207" t="n">
-        <v>0.1024259620768389</v>
+        <v>0</v>
       </c>
       <c r="T207" t="n">
-        <v>0.2664716168230546</v>
+        <v>0.05979437530085652</v>
       </c>
       <c r="U207" t="n">
-        <v>0.3688975788998935</v>
+        <v>0.08644153698316198</v>
       </c>
       <c r="V207" t="n">
-        <v>0.02563996184183769</v>
+        <v>0.02888546075198847</v>
       </c>
       <c r="W207" t="n">
         <v>0.01932</v>
@@ -15233,19 +15233,19 @@
         <v>0.01932</v>
       </c>
       <c r="R208" t="n">
-        <v>0</v>
+        <v>0.8767216761517782</v>
       </c>
       <c r="S208" t="n">
-        <v>0.1910934698309577</v>
+        <v>0.2432361421760749</v>
       </c>
       <c r="T208" t="n">
-        <v>0.8767216761517782</v>
+        <v>0.4363733744861271</v>
       </c>
       <c r="U208" t="n">
-        <v>1.067815145982736</v>
+        <v>0.5483691563189124</v>
       </c>
       <c r="V208" t="n">
-        <v>0.02847187444579718</v>
+        <v>0.03629601914642178</v>
       </c>
       <c r="W208" t="n">
         <v>0.01932</v>
@@ -15307,16 +15307,16 @@
         <v>0</v>
       </c>
       <c r="S209" t="n">
-        <v>0.004121710233071507</v>
+        <v>0.03075949569158186</v>
       </c>
       <c r="T209" t="n">
-        <v>0</v>
+        <v>0.002135275290055638</v>
       </c>
       <c r="U209" t="n">
-        <v>0.004121710233071507</v>
+        <v>0.005211224859213824</v>
       </c>
       <c r="V209" t="n">
-        <v>0.02429981578548878</v>
+        <v>0.02195743342624653</v>
       </c>
       <c r="W209" t="n">
         <v>0.02027</v>
@@ -15378,16 +15378,16 @@
         <v>0</v>
       </c>
       <c r="S210" t="n">
-        <v>0.002863798708076626</v>
+        <v>0.01630004469285537</v>
       </c>
       <c r="T210" t="n">
-        <v>0</v>
+        <v>0.008323573323637756</v>
       </c>
       <c r="U210" t="n">
-        <v>0.002863798708076626</v>
+        <v>0.009953577792923293</v>
       </c>
       <c r="V210" t="n">
-        <v>0.03572493110584922</v>
+        <v>0.03326092338602903</v>
       </c>
       <c r="W210" t="n">
         <v>0.02027</v>
@@ -15446,19 +15446,19 @@
         <v>0.02026999862268439</v>
       </c>
       <c r="R211" t="n">
-        <v>0.09637001992880412</v>
+        <v>0</v>
       </c>
       <c r="S211" t="n">
-        <v>0.003593435873448403</v>
+        <v>0.0209206053859893</v>
       </c>
       <c r="T211" t="n">
-        <v>0</v>
+        <v>0.003346835112210789</v>
       </c>
       <c r="U211" t="n">
-        <v>0.09996345580225252</v>
+        <v>0.005438895650809719</v>
       </c>
       <c r="V211" t="n">
-        <v>0.02107452616110371</v>
+        <v>0.02067024112507366</v>
       </c>
       <c r="W211" t="n">
         <v>0.02026999862268439</v>
@@ -15517,22 +15517,22 @@
         <v>0.02027</v>
       </c>
       <c r="R212" t="n">
-        <v>0.06682854759325441</v>
+        <v>0</v>
       </c>
       <c r="S212" t="n">
-        <v>0.003721826603888534</v>
+        <v>0.03836940696974066</v>
       </c>
       <c r="T212" t="n">
-        <v>0</v>
+        <v>0.004804191611177178</v>
       </c>
       <c r="U212" t="n">
-        <v>0.07055037419714294</v>
+        <v>0.008641132308151243</v>
       </c>
       <c r="V212" t="n">
-        <v>0.0207768593943831</v>
+        <v>0.01971146182970262</v>
       </c>
       <c r="W212" t="n">
-        <v>0.02027</v>
+        <v>0.01971146182970262</v>
       </c>
     </row>
     <row r="213">
@@ -15591,16 +15591,16 @@
         <v>0</v>
       </c>
       <c r="S213" t="n">
-        <v>0.004588129683498199</v>
+        <v>0</v>
       </c>
       <c r="T213" t="n">
-        <v>0</v>
+        <v>0.3539067670536447</v>
       </c>
       <c r="U213" t="n">
-        <v>0.004588129683498199</v>
+        <v>0.3539067670536447</v>
       </c>
       <c r="V213" t="n">
-        <v>0.0313374019939005</v>
+        <v>0.02193641531663728</v>
       </c>
       <c r="W213" t="n">
         <v>0.02027</v>
@@ -15662,19 +15662,19 @@
         <v>0</v>
       </c>
       <c r="S214" t="n">
-        <v>0.004287631847605056</v>
+        <v>0</v>
       </c>
       <c r="T214" t="n">
-        <v>0</v>
+        <v>0.005333210064596194</v>
       </c>
       <c r="U214" t="n">
-        <v>0.004287631847605056</v>
+        <v>0.005333210064596194</v>
       </c>
       <c r="V214" t="n">
-        <v>0.02183898213382427</v>
+        <v>0.01949749323197601</v>
       </c>
       <c r="W214" t="n">
-        <v>0.02026997518610422</v>
+        <v>0.01949749323197601</v>
       </c>
     </row>
     <row r="215">
@@ -15733,19 +15733,19 @@
         <v>0</v>
       </c>
       <c r="S215" t="n">
-        <v>0.004045227473727264</v>
+        <v>0</v>
       </c>
       <c r="T215" t="n">
-        <v>0</v>
+        <v>0.004144496443504453</v>
       </c>
       <c r="U215" t="n">
-        <v>0.004045227473727264</v>
+        <v>0.004144496443504453</v>
       </c>
       <c r="V215" t="n">
-        <v>0.02255680939947033</v>
+        <v>0.0202344993196826</v>
       </c>
       <c r="W215" t="n">
-        <v>0.02027</v>
+        <v>0.0202344993196826</v>
       </c>
     </row>
     <row r="216">
@@ -15801,19 +15801,19 @@
         <v>0.02027</v>
       </c>
       <c r="R216" t="n">
-        <v>0.03899432379924239</v>
+        <v>0.4212562977793352</v>
       </c>
       <c r="S216" t="n">
-        <v>0.004858285178799049</v>
+        <v>0.01622719471482292</v>
       </c>
       <c r="T216" t="n">
-        <v>0.4212562977793352</v>
+        <v>0.2172295914308078</v>
       </c>
       <c r="U216" t="n">
-        <v>0.4651089067573766</v>
+        <v>0.2609779406802236</v>
       </c>
       <c r="V216" t="n">
-        <v>0.02540117468876683</v>
+        <v>0.02721861147338037</v>
       </c>
       <c r="W216" t="n">
         <v>0.02027</v>
@@ -15872,19 +15872,19 @@
         <v>0.0384</v>
       </c>
       <c r="R217" t="n">
-        <v>0</v>
+        <v>0.2452172662100087</v>
       </c>
       <c r="S217" t="n">
-        <v>0.2961287896110167</v>
+        <v>0</v>
       </c>
       <c r="T217" t="n">
-        <v>0.2452172662100087</v>
+        <v>0.2687184392399948</v>
       </c>
       <c r="U217" t="n">
-        <v>0.5413460558210255</v>
+        <v>0.2932401658609957</v>
       </c>
       <c r="V217" t="n">
-        <v>0.05277553110241637</v>
+        <v>0.05790716633093275</v>
       </c>
       <c r="W217" t="n">
         <v>0.0384</v>
@@ -15943,22 +15943,22 @@
         <v>0.0384</v>
       </c>
       <c r="R218" t="n">
-        <v>0.5433774910543786</v>
+        <v>0</v>
       </c>
       <c r="S218" t="n">
-        <v>0.003368166981172482</v>
+        <v>0.01983923011359855</v>
       </c>
       <c r="T218" t="n">
-        <v>0</v>
+        <v>0.01000894735461877</v>
       </c>
       <c r="U218" t="n">
-        <v>0.5467456580355511</v>
+        <v>0.01199287036597863</v>
       </c>
       <c r="V218" t="n">
-        <v>0.02834491816732778</v>
+        <v>0.04448379426789059</v>
       </c>
       <c r="W218" t="n">
-        <v>0.02834491816732778</v>
+        <v>0.0384</v>
       </c>
     </row>
     <row r="219">
@@ -16014,22 +16014,22 @@
         <v>0.0384</v>
       </c>
       <c r="R219" t="n">
-        <v>0.4115152643282914</v>
+        <v>0</v>
       </c>
       <c r="S219" t="n">
-        <v>0.003902376068569691</v>
+        <v>0.05746529868928577</v>
       </c>
       <c r="T219" t="n">
-        <v>0</v>
+        <v>0.0009895871993712557</v>
       </c>
       <c r="U219" t="n">
-        <v>0.4154176403968611</v>
+        <v>0.006736117068299833</v>
       </c>
       <c r="V219" t="n">
-        <v>0.03692614170543889</v>
+        <v>0.04822388125530688</v>
       </c>
       <c r="W219" t="n">
-        <v>0.03692614170543889</v>
+        <v>0.0384</v>
       </c>
     </row>
     <row r="220">
@@ -16085,19 +16085,19 @@
         <v>0.0384</v>
       </c>
       <c r="R220" t="n">
-        <v>0.1205843678699499</v>
+        <v>0</v>
       </c>
       <c r="S220" t="n">
-        <v>0.003536011113153936</v>
+        <v>0.08209623837820343</v>
       </c>
       <c r="T220" t="n">
-        <v>0</v>
+        <v>0.01147430446874353</v>
       </c>
       <c r="U220" t="n">
-        <v>0.1241203789831038</v>
+        <v>0.01968392830656388</v>
       </c>
       <c r="V220" t="n">
-        <v>0.0430435412496795</v>
+        <v>0.04265827000970986</v>
       </c>
       <c r="W220" t="n">
         <v>0.0384</v>
@@ -16156,22 +16156,22 @@
         <v>0.0384</v>
       </c>
       <c r="R221" t="n">
-        <v>0.6017962403755514</v>
+        <v>0</v>
       </c>
       <c r="S221" t="n">
-        <v>0.004455977505877229</v>
+        <v>0.04544036949985286</v>
       </c>
       <c r="T221" t="n">
         <v>0</v>
       </c>
       <c r="U221" t="n">
-        <v>0.6062522178814286</v>
+        <v>0.004544036949985286</v>
       </c>
       <c r="V221" t="n">
-        <v>0.02788072341210322</v>
+        <v>0.04659068661392188</v>
       </c>
       <c r="W221" t="n">
-        <v>0.02788072341210322</v>
+        <v>0.0384</v>
       </c>
     </row>
     <row r="222">
@@ -16227,22 +16227,22 @@
         <v>0.0384</v>
       </c>
       <c r="R222" t="n">
-        <v>0.5959174125696121</v>
+        <v>0</v>
       </c>
       <c r="S222" t="n">
-        <v>0.004962602647281544</v>
+        <v>0.06883529750982992</v>
       </c>
       <c r="T222" t="n">
-        <v>0</v>
+        <v>0.04138762669307461</v>
       </c>
       <c r="U222" t="n">
-        <v>0.6008800152168936</v>
+        <v>0.0482711564440576</v>
       </c>
       <c r="V222" t="n">
-        <v>0.03451701599442136</v>
+        <v>0.0513415652253495</v>
       </c>
       <c r="W222" t="n">
-        <v>0.03451701599442136</v>
+        <v>0.0384</v>
       </c>
     </row>
     <row r="223">
@@ -16298,19 +16298,19 @@
         <v>0.02413002450980392</v>
       </c>
       <c r="R223" t="n">
-        <v>0.1152493226273569</v>
+        <v>0</v>
       </c>
       <c r="S223" t="n">
-        <v>0.00451022593299677</v>
+        <v>0.0129266897363894</v>
       </c>
       <c r="T223" t="n">
-        <v>0</v>
+        <v>0.002996674855444414</v>
       </c>
       <c r="U223" t="n">
-        <v>0.1197595485603537</v>
+        <v>0.004289343829083354</v>
       </c>
       <c r="V223" t="n">
-        <v>0.03884336379479075</v>
+        <v>0.0388675094759991</v>
       </c>
       <c r="W223" t="n">
         <v>0.02413002450980392</v>
@@ -16372,16 +16372,16 @@
         <v>0</v>
       </c>
       <c r="S224" t="n">
-        <v>0.0040100370456575</v>
+        <v>0.01182798124104112</v>
       </c>
       <c r="T224" t="n">
-        <v>0</v>
+        <v>0.06623247031882906</v>
       </c>
       <c r="U224" t="n">
-        <v>0.0040100370456575</v>
+        <v>0.06741526844293318</v>
       </c>
       <c r="V224" t="n">
-        <v>0.04169117289206578</v>
+        <v>0.03739905427496661</v>
       </c>
       <c r="W224" t="n">
         <v>0.02413</v>
@@ -16440,19 +16440,19 @@
         <v>0.02413</v>
       </c>
       <c r="R225" t="n">
-        <v>0.1201063968017318</v>
+        <v>0</v>
       </c>
       <c r="S225" t="n">
-        <v>0</v>
+        <v>0.01956401155985898</v>
       </c>
       <c r="T225" t="n">
-        <v>0</v>
+        <v>0.0625720110924084</v>
       </c>
       <c r="U225" t="n">
-        <v>0.1201063968017318</v>
+        <v>0.0645284122483943</v>
       </c>
       <c r="V225" t="n">
-        <v>0.03380297440379898</v>
+        <v>0.0323819207875881</v>
       </c>
       <c r="W225" t="n">
         <v>0.02413</v>
@@ -16511,19 +16511,19 @@
         <v>0.02413</v>
       </c>
       <c r="R226" t="n">
-        <v>0.3067379974851469</v>
+        <v>0</v>
       </c>
       <c r="S226" t="n">
-        <v>0.004012043150820599</v>
+        <v>0.01984590586191972</v>
       </c>
       <c r="T226" t="n">
-        <v>0</v>
+        <v>0.02172584825411028</v>
       </c>
       <c r="U226" t="n">
-        <v>0.3107500406359675</v>
+        <v>0.02371043884030225</v>
       </c>
       <c r="V226" t="n">
-        <v>0.03279809389673098</v>
+        <v>0.03696220910457747</v>
       </c>
       <c r="W226" t="n">
         <v>0.02413</v>
@@ -16582,19 +16582,19 @@
         <v>0.02413</v>
       </c>
       <c r="R227" t="n">
-        <v>0.4468706519364917</v>
+        <v>0</v>
       </c>
       <c r="S227" t="n">
-        <v>0.004593897235842137</v>
+        <v>0.01910597944720586</v>
       </c>
       <c r="T227" t="n">
-        <v>0</v>
+        <v>0.04287663006977871</v>
       </c>
       <c r="U227" t="n">
-        <v>0.4514645491723339</v>
+        <v>0.0447872280144993</v>
       </c>
       <c r="V227" t="n">
-        <v>0.03009557881147159</v>
+        <v>0.03714655218752723</v>
       </c>
       <c r="W227" t="n">
         <v>0.02413</v>
@@ -16653,19 +16653,19 @@
         <v>0.02413</v>
       </c>
       <c r="R228" t="n">
-        <v>0.1676889811260058</v>
+        <v>0</v>
       </c>
       <c r="S228" t="n">
-        <v>0.003439885240754226</v>
+        <v>0</v>
       </c>
       <c r="T228" t="n">
-        <v>0</v>
+        <v>0.0138237295578727</v>
       </c>
       <c r="U228" t="n">
-        <v>0.17112886636676</v>
+        <v>0.0138237295578727</v>
       </c>
       <c r="V228" t="n">
-        <v>0.03508280568869958</v>
+        <v>0.03611642825641512</v>
       </c>
       <c r="W228" t="n">
         <v>0.02413</v>
@@ -16724,19 +16724,19 @@
         <v>0.02413000455996352</v>
       </c>
       <c r="R229" t="n">
-        <v>0.2310441503711899</v>
+        <v>0</v>
       </c>
       <c r="S229" t="n">
-        <v>0.002493923068625392</v>
+        <v>0.03157866941779767</v>
       </c>
       <c r="T229" t="n">
-        <v>0</v>
+        <v>0.00949104086669772</v>
       </c>
       <c r="U229" t="n">
-        <v>0.2335380734398153</v>
+        <v>0.01264890780847749</v>
       </c>
       <c r="V229" t="n">
-        <v>0.03366541103241466</v>
+        <v>0.03623331670088548</v>
       </c>
       <c r="W229" t="n">
         <v>0.02413000455996352</v>
@@ -16795,19 +16795,19 @@
         <v>0.02413</v>
       </c>
       <c r="R230" t="n">
-        <v>0.1336411754122784</v>
+        <v>0</v>
       </c>
       <c r="S230" t="n">
-        <v>0.003545122174103188</v>
+        <v>0.009709054774236581</v>
       </c>
       <c r="T230" t="n">
-        <v>0</v>
+        <v>0.003654592108637722</v>
       </c>
       <c r="U230" t="n">
-        <v>0.1371862975863816</v>
+        <v>0.00462549758606138</v>
       </c>
       <c r="V230" t="n">
-        <v>0.03052740606934452</v>
+        <v>0.03096394778986934</v>
       </c>
       <c r="W230" t="n">
         <v>0.02413</v>
@@ -16869,16 +16869,16 @@
         <v>0</v>
       </c>
       <c r="S231" t="n">
-        <v>0.004482892750149237</v>
+        <v>0.02755195587859838</v>
       </c>
       <c r="T231" t="n">
         <v>0</v>
       </c>
       <c r="U231" t="n">
-        <v>0.004482892750149237</v>
+        <v>0.002755195587859839</v>
       </c>
       <c r="V231" t="n">
-        <v>0.03646416221914907</v>
+        <v>0.0337437011681922</v>
       </c>
       <c r="W231" t="n">
         <v>0.02413</v>
@@ -16937,19 +16937,19 @@
         <v>0.02413</v>
       </c>
       <c r="R232" t="n">
-        <v>0.1562978776036937</v>
+        <v>0</v>
       </c>
       <c r="S232" t="n">
-        <v>0</v>
+        <v>0.02718477098795822</v>
       </c>
       <c r="T232" t="n">
-        <v>0</v>
+        <v>0.08393969847459393</v>
       </c>
       <c r="U232" t="n">
-        <v>0.1562978776036937</v>
+        <v>0.08665817557338974</v>
       </c>
       <c r="V232" t="n">
-        <v>0.03543765853478586</v>
+        <v>0.03435591416129419</v>
       </c>
       <c r="W232" t="n">
         <v>0.02413</v>
@@ -17008,19 +17008,19 @@
         <v>0.02413</v>
       </c>
       <c r="R233" t="n">
-        <v>0.1338978705616054</v>
+        <v>0</v>
       </c>
       <c r="S233" t="n">
-        <v>0.002756555669564564</v>
+        <v>0.008060497488640992</v>
       </c>
       <c r="T233" t="n">
-        <v>0</v>
+        <v>0.09488285099254301</v>
       </c>
       <c r="U233" t="n">
-        <v>0.13665442623117</v>
+        <v>0.09568890074140711</v>
       </c>
       <c r="V233" t="n">
-        <v>0.03451057077066658</v>
+        <v>0.03273691851725165</v>
       </c>
       <c r="W233" t="n">
         <v>0.02413</v>
@@ -17079,19 +17079,19 @@
         <v>0.02413</v>
       </c>
       <c r="R234" t="n">
-        <v>0.04918797226067367</v>
+        <v>0</v>
       </c>
       <c r="S234" t="n">
-        <v>0.004832790925684227</v>
+        <v>0.006627495322040518</v>
       </c>
       <c r="T234" t="n">
-        <v>0</v>
+        <v>0.04087603180155641</v>
       </c>
       <c r="U234" t="n">
-        <v>0.0540207631863579</v>
+        <v>0.04153878133376046</v>
       </c>
       <c r="V234" t="n">
-        <v>0.03636425754471748</v>
+        <v>0.03390329738333775</v>
       </c>
       <c r="W234" t="n">
         <v>0.02413</v>
@@ -17150,19 +17150,19 @@
         <v>0.02413</v>
       </c>
       <c r="R235" t="n">
-        <v>0.1989183126670088</v>
+        <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>0</v>
+        <v>0.0154492559894703</v>
       </c>
       <c r="T235" t="n">
-        <v>0</v>
+        <v>0.0546689145432071</v>
       </c>
       <c r="U235" t="n">
-        <v>0.1989183126670088</v>
+        <v>0.05621384014215413</v>
       </c>
       <c r="V235" t="n">
-        <v>0.03538446146363694</v>
+        <v>0.03606577000217877</v>
       </c>
       <c r="W235" t="n">
         <v>0.02413</v>
@@ -17224,16 +17224,16 @@
         <v>0</v>
       </c>
       <c r="S236" t="n">
-        <v>0.003661225510419142</v>
+        <v>0.01137132208308099</v>
       </c>
       <c r="T236" t="n">
-        <v>0</v>
+        <v>0.005305652390161564</v>
       </c>
       <c r="U236" t="n">
-        <v>0.003661225510419142</v>
+        <v>0.006442784598469664</v>
       </c>
       <c r="V236" t="n">
-        <v>0.04046321169319738</v>
+        <v>0.03763394228891981</v>
       </c>
       <c r="W236" t="n">
         <v>0.02413</v>
@@ -17292,19 +17292,19 @@
         <v>0.02413</v>
       </c>
       <c r="R237" t="n">
-        <v>0.3619784017879576</v>
+        <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>0.003801402108692509</v>
+        <v>0.04799794175684515</v>
       </c>
       <c r="T237" t="n">
-        <v>0</v>
+        <v>0.01192722818243364</v>
       </c>
       <c r="U237" t="n">
-        <v>0.3657798038966501</v>
+        <v>0.01672702235811815</v>
       </c>
       <c r="V237" t="n">
-        <v>0.03317017705516456</v>
+        <v>0.03883067029020643</v>
       </c>
       <c r="W237" t="n">
         <v>0.02413</v>
@@ -17363,22 +17363,22 @@
         <v>0.02412990196078432</v>
       </c>
       <c r="R238" t="n">
-        <v>0.2189964168877171</v>
+        <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>0.943108842781998</v>
+        <v>0</v>
       </c>
       <c r="T238" t="n">
-        <v>0</v>
+        <v>0.4325016990195247</v>
       </c>
       <c r="U238" t="n">
-        <v>1.162105259669715</v>
+        <v>0.4325016990195247</v>
       </c>
       <c r="V238" t="n">
-        <v>-0.02368628464242635</v>
+        <v>-0.008843161414675525</v>
       </c>
       <c r="W238" t="n">
-        <v>-0.02368628464242635</v>
+        <v>-0.008843161414675525</v>
       </c>
     </row>
     <row r="239">
@@ -17434,19 +17434,19 @@
         <v>0.02413</v>
       </c>
       <c r="R239" t="n">
-        <v>0.3943449207458295</v>
+        <v>0</v>
       </c>
       <c r="S239" t="n">
-        <v>0.004343384853596755</v>
+        <v>0.06923073596923322</v>
       </c>
       <c r="T239" t="n">
         <v>0</v>
       </c>
       <c r="U239" t="n">
-        <v>0.3986883055994263</v>
+        <v>0.006923073596923322</v>
       </c>
       <c r="V239" t="n">
-        <v>0.02882962432084128</v>
+        <v>0.03552076898557877</v>
       </c>
       <c r="W239" t="n">
         <v>0.02413</v>
@@ -17505,19 +17505,19 @@
         <v>0.005709967741935483</v>
       </c>
       <c r="R240" t="n">
-        <v>0.2998380234264274</v>
+        <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>0.00495516334063506</v>
+        <v>0.07285453839658018</v>
       </c>
       <c r="T240" t="n">
-        <v>0</v>
+        <v>0.05624334671065823</v>
       </c>
       <c r="U240" t="n">
-        <v>0.3047931867670625</v>
+        <v>0.06352880055031625</v>
       </c>
       <c r="V240" t="n">
-        <v>0.007140231709822122</v>
+        <v>0.007864226100865816</v>
       </c>
       <c r="W240" t="n">
         <v>0.005709967741935483</v>
@@ -17576,19 +17576,19 @@
         <v>0.00658428955453149</v>
       </c>
       <c r="R241" t="n">
-        <v>0.3243323090199802</v>
+        <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>0.004820336356129884</v>
+        <v>0.05031946637876035</v>
       </c>
       <c r="T241" t="n">
-        <v>0</v>
+        <v>0.01779070124058424</v>
       </c>
       <c r="U241" t="n">
-        <v>0.3291526453761101</v>
+        <v>0.02282264787846027</v>
       </c>
       <c r="V241" t="n">
-        <v>0.006811160824409956</v>
+        <v>0.008074425526053967</v>
       </c>
       <c r="W241" t="n">
         <v>0.00658428955453149</v>
@@ -17647,19 +17647,19 @@
         <v>0.00594142545771578</v>
       </c>
       <c r="R242" t="n">
-        <v>0.200881286570445</v>
+        <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>0.004806126444557801</v>
+        <v>0.1138540579858829</v>
       </c>
       <c r="T242" t="n">
-        <v>0</v>
+        <v>0.04565222125967905</v>
       </c>
       <c r="U242" t="n">
-        <v>0.2056874130150028</v>
+        <v>0.05703762705826734</v>
       </c>
       <c r="V242" t="n">
-        <v>0.007460290300593999</v>
+        <v>0.007663369589698242</v>
       </c>
       <c r="W242" t="n">
         <v>0.00594142545771578</v>
@@ -17721,16 +17721,16 @@
         <v>0</v>
       </c>
       <c r="S243" t="n">
-        <v>0.004983332400633866</v>
+        <v>0.1180520547078336</v>
       </c>
       <c r="T243" t="n">
-        <v>0</v>
+        <v>0.03424005490199922</v>
       </c>
       <c r="U243" t="n">
-        <v>0.004983332400633866</v>
+        <v>0.04604526037278257</v>
       </c>
       <c r="V243" t="n">
-        <v>0.00876113809584475</v>
+        <v>0.007732153087227367</v>
       </c>
       <c r="W243" t="n">
         <v>0.006615927419354839</v>
@@ -17789,22 +17789,22 @@
         <v>0.007116806451612903</v>
       </c>
       <c r="R244" t="n">
-        <v>0.6636937328093756</v>
+        <v>0</v>
       </c>
       <c r="S244" t="n">
-        <v>0.004899075983782586</v>
+        <v>0.08358822569870794</v>
       </c>
       <c r="T244" t="n">
-        <v>0</v>
+        <v>0.09012452957494066</v>
       </c>
       <c r="U244" t="n">
-        <v>0.6685928087931582</v>
+        <v>0.09848335214481145</v>
       </c>
       <c r="V244" t="n">
-        <v>0.00432626540592424</v>
+        <v>0.007568966391295619</v>
       </c>
       <c r="W244" t="n">
-        <v>0.00432626540592424</v>
+        <v>0.007116806451612903</v>
       </c>
     </row>
     <row r="245">
@@ -17860,19 +17860,19 @@
         <v>0.00718</v>
       </c>
       <c r="R245" t="n">
-        <v>0.1312883442825827</v>
+        <v>0</v>
       </c>
       <c r="S245" t="n">
-        <v>0.00473875474616281</v>
+        <v>0.0147408398527834</v>
       </c>
       <c r="T245" t="n">
-        <v>0</v>
+        <v>0.01096599871901272</v>
       </c>
       <c r="U245" t="n">
-        <v>0.1360270990287455</v>
+        <v>0.01244008270429106</v>
       </c>
       <c r="V245" t="n">
-        <v>0.009398266631598384</v>
+        <v>0.009463729997560255</v>
       </c>
       <c r="W245" t="n">
         <v>0.00718</v>
@@ -17931,19 +17931,19 @@
         <v>0.00718</v>
       </c>
       <c r="R246" t="n">
-        <v>0.2377867843990507</v>
+        <v>0</v>
       </c>
       <c r="S246" t="n">
-        <v>0.004714932247350756</v>
+        <v>0.01156013920450228</v>
       </c>
       <c r="T246" t="n">
-        <v>0</v>
+        <v>0.02411500973185943</v>
       </c>
       <c r="U246" t="n">
-        <v>0.2425017166464015</v>
+        <v>0.02527102365230965</v>
       </c>
       <c r="V246" t="n">
-        <v>0.008094679298889785</v>
+        <v>0.008832504263339654</v>
       </c>
       <c r="W246" t="n">
         <v>0.00718</v>
@@ -18002,19 +18002,19 @@
         <v>0.00718</v>
       </c>
       <c r="R247" t="n">
-        <v>0.1189965900914995</v>
+        <v>0</v>
       </c>
       <c r="S247" t="n">
-        <v>0.004821088645566185</v>
+        <v>0.01061900592295095</v>
       </c>
       <c r="T247" t="n">
-        <v>0</v>
+        <v>0.1740799625926794</v>
       </c>
       <c r="U247" t="n">
-        <v>0.1238176787370656</v>
+        <v>0.1751418631849745</v>
       </c>
       <c r="V247" t="n">
-        <v>0.01045690587904874</v>
+        <v>0.009266506823465045</v>
       </c>
       <c r="W247" t="n">
         <v>0.00718</v>
@@ -18073,22 +18073,22 @@
         <v>0.00718</v>
       </c>
       <c r="R248" t="n">
-        <v>0</v>
+        <v>0.4172495304565113</v>
       </c>
       <c r="S248" t="n">
-        <v>0.3403777855449341</v>
+        <v>0.03568694705971255</v>
       </c>
       <c r="T248" t="n">
-        <v>0.4172495304565113</v>
+        <v>0.2265126163033868</v>
       </c>
       <c r="U248" t="n">
-        <v>0.7576273160014454</v>
+        <v>0.2718062640550092</v>
       </c>
       <c r="V248" t="n">
-        <v>0.005948652683490497</v>
+        <v>0.008614956425218197</v>
       </c>
       <c r="W248" t="n">
-        <v>0.005948652683490497</v>
+        <v>0.00718</v>
       </c>
     </row>
     <row r="249">
@@ -18144,19 +18144,19 @@
         <v>0.00718</v>
       </c>
       <c r="R249" t="n">
-        <v>0.3677296904083679</v>
+        <v>0</v>
       </c>
       <c r="S249" t="n">
-        <v>0.004729142158922839</v>
+        <v>0.0002076275991211782</v>
       </c>
       <c r="T249" t="n">
-        <v>0</v>
+        <v>0.1830426961717502</v>
       </c>
       <c r="U249" t="n">
-        <v>0.3724588325672907</v>
+        <v>0.1830634589316623</v>
       </c>
       <c r="V249" t="n">
-        <v>0.0123014917439423</v>
+        <v>0.0128394591153984</v>
       </c>
       <c r="W249" t="n">
         <v>0.00718</v>
@@ -18215,19 +18215,19 @@
         <v>0.008575757803121248</v>
       </c>
       <c r="R250" t="n">
-        <v>0.3556337424997396</v>
+        <v>0</v>
       </c>
       <c r="S250" t="n">
-        <v>0.00424893073549959</v>
+        <v>0.005621670750041254</v>
       </c>
       <c r="T250" t="n">
-        <v>0</v>
+        <v>0.006712427222181905</v>
       </c>
       <c r="U250" t="n">
-        <v>0.3598826732352391</v>
+        <v>0.00727459429718603</v>
       </c>
       <c r="V250" t="n">
-        <v>0.009406764760643142</v>
+        <v>0.011448983057947</v>
       </c>
       <c r="W250" t="n">
         <v>0.008575757803121248</v>
@@ -18286,19 +18286,19 @@
         <v>0.008293668831168831</v>
       </c>
       <c r="R251" t="n">
-        <v>0.1438897740703215</v>
+        <v>0</v>
       </c>
       <c r="S251" t="n">
-        <v>0.001620682208659963</v>
+        <v>0.004947568490472554</v>
       </c>
       <c r="T251" t="n">
-        <v>0</v>
+        <v>0.07502327956771793</v>
       </c>
       <c r="U251" t="n">
-        <v>0.1455104562789815</v>
+        <v>0.07551803641676519</v>
       </c>
       <c r="V251" t="n">
-        <v>0.01042105074950652</v>
+        <v>0.01005217211278231</v>
       </c>
       <c r="W251" t="n">
         <v>0.008293668831168831</v>
@@ -18357,22 +18357,22 @@
         <v>0.0085725</v>
       </c>
       <c r="R252" t="n">
-        <v>0.8130175833034597</v>
+        <v>0</v>
       </c>
       <c r="S252" t="n">
-        <v>0.004737417342720818</v>
+        <v>0.07623491157670823</v>
       </c>
       <c r="T252" t="n">
         <v>0</v>
       </c>
       <c r="U252" t="n">
-        <v>0.8177550006461806</v>
+        <v>0.007623491157670823</v>
       </c>
       <c r="V252" t="n">
-        <v>0.005238339089253331</v>
+        <v>0.01120190118652729</v>
       </c>
       <c r="W252" t="n">
-        <v>0.005238339089253331</v>
+        <v>0.0085725</v>
       </c>
     </row>
     <row r="253">
@@ -18428,19 +18428,19 @@
         <v>0.008167499999999999</v>
       </c>
       <c r="R253" t="n">
-        <v>0.04960276940715619</v>
+        <v>0</v>
       </c>
       <c r="S253" t="n">
-        <v>0.1633287236101568</v>
+        <v>0.08565046117314062</v>
       </c>
       <c r="T253" t="n">
-        <v>0</v>
+        <v>0.1002084160248766</v>
       </c>
       <c r="U253" t="n">
-        <v>0.212931493017313</v>
+        <v>0.1087734621421907</v>
       </c>
       <c r="V253" t="n">
-        <v>0.01045503252731603</v>
+        <v>0.01037081314680534</v>
       </c>
       <c r="W253" t="n">
         <v>0.008167499999999999</v>
@@ -18499,22 +18499,22 @@
         <v>0.02760668459469843</v>
       </c>
       <c r="R254" t="n">
-        <v>0.4998203177972761</v>
+        <v>0</v>
       </c>
       <c r="S254" t="n">
-        <v>0.004798854313341483</v>
+        <v>0.05313070803626949</v>
       </c>
       <c r="T254" t="n">
-        <v>0</v>
+        <v>0.1747210785540401</v>
       </c>
       <c r="U254" t="n">
-        <v>0.5046191721106176</v>
+        <v>0.180034149357667</v>
       </c>
       <c r="V254" t="n">
-        <v>0.0233987378422862</v>
+        <v>0.02919932926460285</v>
       </c>
       <c r="W254" t="n">
-        <v>0.0233987378422862</v>
+        <v>0.02760668459469843</v>
       </c>
     </row>
     <row r="255">
@@ -18570,22 +18570,22 @@
         <v>0.0221635037593985</v>
       </c>
       <c r="R255" t="n">
-        <v>0</v>
+        <v>0.2832691969892603</v>
       </c>
       <c r="S255" t="n">
-        <v>0.3675062620781637</v>
+        <v>0.007473612160846454</v>
       </c>
       <c r="T255" t="n">
-        <v>0.2832691969892603</v>
+        <v>0.21321292703839</v>
       </c>
       <c r="U255" t="n">
-        <v>0.650775459067424</v>
+        <v>0.2422872079534007</v>
       </c>
       <c r="V255" t="n">
-        <v>0.01828654303248992</v>
+        <v>0.02480302748955216</v>
       </c>
       <c r="W255" t="n">
-        <v>0.01828654303248992</v>
+        <v>0.0221635037593985</v>
       </c>
     </row>
     <row r="256">
@@ -18647,13 +18647,13 @@
         <v>0</v>
       </c>
       <c r="T256" t="n">
-        <v>0</v>
+        <v>0.2111194327386061</v>
       </c>
       <c r="U256" t="n">
-        <v>0</v>
+        <v>0.2111194327386061</v>
       </c>
       <c r="V256" t="n">
-        <v>0.005226335301625026</v>
+        <v>0.004177946738382239</v>
       </c>
       <c r="W256" t="n">
         <v>0.003219975490196079</v>
@@ -18715,16 +18715,16 @@
         <v>0</v>
       </c>
       <c r="S257" t="n">
-        <v>0</v>
+        <v>0.01504822615457045</v>
       </c>
       <c r="T257" t="n">
-        <v>0</v>
+        <v>0.2309749149601281</v>
       </c>
       <c r="U257" t="n">
-        <v>0</v>
+        <v>0.2324797375755852</v>
       </c>
       <c r="V257" t="n">
-        <v>0.005053684110140677</v>
+        <v>0.003936494629711818</v>
       </c>
       <c r="W257" t="n">
         <v>0.003220036764705882</v>
@@ -18783,19 +18783,19 @@
         <v>0.003129999553012695</v>
       </c>
       <c r="R258" t="n">
-        <v>0.3201661541890938</v>
+        <v>0</v>
       </c>
       <c r="S258" t="n">
-        <v>0.003959215714858244</v>
+        <v>0.07284821584684487</v>
       </c>
       <c r="T258" t="n">
-        <v>0</v>
+        <v>0.02026502482190851</v>
       </c>
       <c r="U258" t="n">
-        <v>0.3241253699039521</v>
+        <v>0.02754984640659299</v>
       </c>
       <c r="V258" t="n">
-        <v>0.005171837635165613</v>
+        <v>0.005741829232396114</v>
       </c>
       <c r="W258" t="n">
         <v>0.003129999553012695</v>
@@ -18854,19 +18854,19 @@
         <v>0.003129999866794544</v>
       </c>
       <c r="R259" t="n">
-        <v>0.1989083483129953</v>
+        <v>0</v>
       </c>
       <c r="S259" t="n">
-        <v>0.00467063075833174</v>
+        <v>0.02617570316672336</v>
       </c>
       <c r="T259" t="n">
-        <v>0</v>
+        <v>0.05274930027953273</v>
       </c>
       <c r="U259" t="n">
-        <v>0.203578979071327</v>
+        <v>0.05536687059620506</v>
       </c>
       <c r="V259" t="n">
-        <v>0.00463091616368282</v>
+        <v>0.004736530348798081</v>
       </c>
       <c r="W259" t="n">
         <v>0.003129999866794544</v>
@@ -18925,19 +18925,19 @@
         <v>0.00313</v>
       </c>
       <c r="R260" t="n">
-        <v>0.3415129692090211</v>
+        <v>0</v>
       </c>
       <c r="S260" t="n">
-        <v>0.004782471121175913</v>
+        <v>0.04905119545724981</v>
       </c>
       <c r="T260" t="n">
-        <v>0</v>
+        <v>0.02108624352005739</v>
       </c>
       <c r="U260" t="n">
-        <v>0.346295440330197</v>
+        <v>0.02599136306578237</v>
       </c>
       <c r="V260" t="n">
-        <v>0.004395146013916133</v>
+        <v>0.005039408065836573</v>
       </c>
       <c r="W260" t="n">
         <v>0.00313</v>
@@ -18996,19 +18996,19 @@
         <v>0.00313</v>
       </c>
       <c r="R261" t="n">
-        <v>0.441394256342063</v>
+        <v>0</v>
       </c>
       <c r="S261" t="n">
-        <v>0.004656755197619988</v>
+        <v>0.08173107828985923</v>
       </c>
       <c r="T261" t="n">
         <v>0</v>
       </c>
       <c r="U261" t="n">
-        <v>0.446051011539683</v>
+        <v>0.008173107828985924</v>
       </c>
       <c r="V261" t="n">
-        <v>0.003868793428971618</v>
+        <v>0.004881061557668922</v>
       </c>
       <c r="W261" t="n">
         <v>0.00313</v>
@@ -19067,19 +19067,19 @@
         <v>0.003129999902383788</v>
       </c>
       <c r="R262" t="n">
-        <v>0.4594734279769359</v>
+        <v>0</v>
       </c>
       <c r="S262" t="n">
-        <v>0.004685425783909736</v>
+        <v>0.2135519705250888</v>
       </c>
       <c r="T262" t="n">
-        <v>0</v>
+        <v>0.008871437670540994</v>
       </c>
       <c r="U262" t="n">
-        <v>0.4641588537608456</v>
+        <v>0.03022663472304987</v>
       </c>
       <c r="V262" t="n">
-        <v>0.003835082943477111</v>
+        <v>0.004835001047963499</v>
       </c>
       <c r="W262" t="n">
         <v>0.003129999902383788</v>
@@ -19138,19 +19138,19 @@
         <v>0.00341000087535014</v>
       </c>
       <c r="R263" t="n">
-        <v>0.1287472738670276</v>
+        <v>0</v>
       </c>
       <c r="S263" t="n">
-        <v>0</v>
+        <v>0.02778682761380255</v>
       </c>
       <c r="T263" t="n">
-        <v>0</v>
+        <v>0.04417779678170808</v>
       </c>
       <c r="U263" t="n">
-        <v>0.1287472738670276</v>
+        <v>0.04695647954308833</v>
       </c>
       <c r="V263" t="n">
-        <v>0.005201659976355306</v>
+        <v>0.00509022537082986</v>
       </c>
       <c r="W263" t="n">
         <v>0.00341000087535014</v>
@@ -19209,19 +19209,19 @@
         <v>0.003409999877399897</v>
       </c>
       <c r="R264" t="n">
-        <v>0.08037016414899165</v>
+        <v>0</v>
       </c>
       <c r="S264" t="n">
-        <v>0.004081838892954437</v>
+        <v>0.01353565912806907</v>
       </c>
       <c r="T264" t="n">
-        <v>0</v>
+        <v>0.00171799876168266</v>
       </c>
       <c r="U264" t="n">
-        <v>0.08445200304194608</v>
+        <v>0.003071564674489567</v>
       </c>
       <c r="V264" t="n">
-        <v>0.004864266102756989</v>
+        <v>0.004751432216082025</v>
       </c>
       <c r="W264" t="n">
         <v>0.003409999877399897</v>
@@ -19280,22 +19280,22 @@
         <v>0.00341</v>
       </c>
       <c r="R265" t="n">
-        <v>0.8323642891888043</v>
+        <v>0</v>
       </c>
       <c r="S265" t="n">
-        <v>0.002913533398579249</v>
+        <v>0.02022331453846418</v>
       </c>
       <c r="T265" t="n">
-        <v>0</v>
+        <v>0.0535792307586318</v>
       </c>
       <c r="U265" t="n">
-        <v>0.8352778225873836</v>
+        <v>0.05560156221247822</v>
       </c>
       <c r="V265" t="n">
-        <v>0.002702320746335771</v>
+        <v>0.004970675608649477</v>
       </c>
       <c r="W265" t="n">
-        <v>0.002702320746335771</v>
+        <v>0.00341</v>
       </c>
     </row>
     <row r="266">
@@ -19357,13 +19357,13 @@
         <v>0</v>
       </c>
       <c r="T266" t="n">
-        <v>0</v>
+        <v>0.08995056064310725</v>
       </c>
       <c r="U266" t="n">
-        <v>0</v>
+        <v>0.08995056064310725</v>
       </c>
       <c r="V266" t="n">
-        <v>0.005396362193655416</v>
+        <v>0.004699289596297699</v>
       </c>
       <c r="W266" t="n">
         <v>0.00341</v>
@@ -19422,19 +19422,19 @@
         <v>0.00341</v>
       </c>
       <c r="R267" t="n">
-        <v>0.1437958326077027</v>
+        <v>0</v>
       </c>
       <c r="S267" t="n">
-        <v>0.004903589720399504</v>
+        <v>0.02804682393698902</v>
       </c>
       <c r="T267" t="n">
-        <v>0</v>
+        <v>0.1816903255228068</v>
       </c>
       <c r="U267" t="n">
-        <v>0.1486994223281022</v>
+        <v>0.1844950079165057</v>
       </c>
       <c r="V267" t="n">
-        <v>0.004556987300390957</v>
+        <v>0.00404458316796978</v>
       </c>
       <c r="W267" t="n">
         <v>0.00341</v>
@@ -19493,19 +19493,19 @@
         <v>0.003409999748402355</v>
       </c>
       <c r="R268" t="n">
-        <v>0.02273982679177053</v>
+        <v>0</v>
       </c>
       <c r="S268" t="n">
-        <v>0.001262592437042187</v>
+        <v>0.008028347740755462</v>
       </c>
       <c r="T268" t="n">
-        <v>0</v>
+        <v>0.01396338474024894</v>
       </c>
       <c r="U268" t="n">
-        <v>0.02400241922881272</v>
+        <v>0.01476621951432449</v>
       </c>
       <c r="V268" t="n">
-        <v>0.00482601712179689</v>
+        <v>0.004467171403735038</v>
       </c>
       <c r="W268" t="n">
         <v>0.003409999748402355</v>
@@ -19564,19 +19564,19 @@
         <v>0.003409982174688057</v>
       </c>
       <c r="R269" t="n">
-        <v>0.1486951739561484</v>
+        <v>0</v>
       </c>
       <c r="S269" t="n">
-        <v>0</v>
+        <v>0.04132011282990955</v>
       </c>
       <c r="T269" t="n">
-        <v>0</v>
+        <v>0.04665443165185601</v>
       </c>
       <c r="U269" t="n">
-        <v>0.1486951739561484</v>
+        <v>0.05078644293484696</v>
       </c>
       <c r="V269" t="n">
-        <v>0.005186820800774455</v>
+        <v>0.005130348683194241</v>
       </c>
       <c r="W269" t="n">
         <v>0.003409982174688057</v>
@@ -19635,22 +19635,22 @@
         <v>0.00340999649859944</v>
       </c>
       <c r="R270" t="n">
-        <v>0</v>
+        <v>0.3731364875401311</v>
       </c>
       <c r="S270" t="n">
-        <v>0.5134690527560102</v>
+        <v>0.02656486201635791</v>
       </c>
       <c r="T270" t="n">
-        <v>0.3731364875401311</v>
+        <v>0.3564491847595392</v>
       </c>
       <c r="U270" t="n">
-        <v>0.8866055402961412</v>
+        <v>0.3964193197151881</v>
       </c>
       <c r="V270" t="n">
-        <v>0.002532151322362289</v>
+        <v>0.003813343833444078</v>
       </c>
       <c r="W270" t="n">
-        <v>0.002532151322362289</v>
+        <v>0.00340999649859944</v>
       </c>
     </row>
     <row r="271">
@@ -19706,19 +19706,19 @@
         <v>0.00341</v>
       </c>
       <c r="R271" t="n">
-        <v>0.1135852364849122</v>
+        <v>0</v>
       </c>
       <c r="S271" t="n">
-        <v>0.004988514838971891</v>
+        <v>0.01534360342318041</v>
       </c>
       <c r="T271" t="n">
-        <v>0</v>
+        <v>0.03639826528884216</v>
       </c>
       <c r="U271" t="n">
-        <v>0.1185737513238841</v>
+        <v>0.0379326256311602</v>
       </c>
       <c r="V271" t="n">
-        <v>0.005345387892609511</v>
+        <v>0.005230032945656978</v>
       </c>
       <c r="W271" t="n">
         <v>0.00341</v>
@@ -19777,19 +19777,19 @@
         <v>0.00341</v>
       </c>
       <c r="R272" t="n">
-        <v>0.03498483771691854</v>
+        <v>0</v>
       </c>
       <c r="S272" t="n">
-        <v>0</v>
+        <v>0.003767913791295647</v>
       </c>
       <c r="T272" t="n">
-        <v>0</v>
+        <v>0.05918623965309333</v>
       </c>
       <c r="U272" t="n">
-        <v>0.03498483771691854</v>
+        <v>0.05956303103222289</v>
       </c>
       <c r="V272" t="n">
-        <v>0.005397130277696188</v>
+        <v>0.004922977452926279</v>
       </c>
       <c r="W272" t="n">
         <v>0.00341</v>
@@ -19851,16 +19851,16 @@
         <v>0</v>
       </c>
       <c r="S273" t="n">
-        <v>0.004319060828493981</v>
+        <v>0</v>
       </c>
       <c r="T273" t="n">
-        <v>0</v>
+        <v>0.01399076462323556</v>
       </c>
       <c r="U273" t="n">
-        <v>0.004319060828493981</v>
+        <v>0.01399076462323556</v>
       </c>
       <c r="V273" t="n">
-        <v>0.004955355553600585</v>
+        <v>0.004532033791223753</v>
       </c>
       <c r="W273" t="n">
         <v>0.003410000538677009</v>
@@ -19919,19 +19919,19 @@
         <v>0.003410000938174313</v>
       </c>
       <c r="R274" t="n">
-        <v>0.08299697118838095</v>
+        <v>0</v>
       </c>
       <c r="S274" t="n">
-        <v>0.004548759869671848</v>
+        <v>0.02143780749561205</v>
       </c>
       <c r="T274" t="n">
-        <v>0</v>
+        <v>0.01426251885144958</v>
       </c>
       <c r="U274" t="n">
-        <v>0.0875457310580528</v>
+        <v>0.01640629960101079</v>
       </c>
       <c r="V274" t="n">
-        <v>0.004561417963583902</v>
+        <v>0.004413662198636484</v>
       </c>
       <c r="W274" t="n">
         <v>0.003410000938174313</v>
@@ -19990,19 +19990,19 @@
         <v>0.00341</v>
       </c>
       <c r="R275" t="n">
-        <v>0.1588882045428408</v>
+        <v>0</v>
       </c>
       <c r="S275" t="n">
-        <v>0.003967825249516777</v>
+        <v>0</v>
       </c>
       <c r="T275" t="n">
-        <v>0</v>
+        <v>0.02583674211394915</v>
       </c>
       <c r="U275" t="n">
-        <v>0.1628560297923576</v>
+        <v>0.02583674211394915</v>
       </c>
       <c r="V275" t="n">
-        <v>0.004929566663256574</v>
+        <v>0.005006461248675226</v>
       </c>
       <c r="W275" t="n">
         <v>0.00341</v>
@@ -20061,19 +20061,19 @@
         <v>0.00341</v>
       </c>
       <c r="R276" t="n">
-        <v>0.07809386827971437</v>
+        <v>0</v>
       </c>
       <c r="S276" t="n">
-        <v>0.003391070015118292</v>
+        <v>0</v>
       </c>
       <c r="T276" t="n">
-        <v>0</v>
+        <v>0.005602386316814645</v>
       </c>
       <c r="U276" t="n">
-        <v>0.08148493829483267</v>
+        <v>0.005602386316814645</v>
       </c>
       <c r="V276" t="n">
-        <v>0.00534388728272945</v>
+        <v>0.00521230559940977</v>
       </c>
       <c r="W276" t="n">
         <v>0.00341</v>
@@ -20132,19 +20132,19 @@
         <v>0.003409999718278116</v>
       </c>
       <c r="R277" t="n">
-        <v>0.04040819253990544</v>
+        <v>0</v>
       </c>
       <c r="S277" t="n">
-        <v>0.004524268669138687</v>
+        <v>0.01202265202165455</v>
       </c>
       <c r="T277" t="n">
-        <v>0</v>
+        <v>0.02409723058706303</v>
       </c>
       <c r="U277" t="n">
-        <v>0.04493246120904412</v>
+        <v>0.02529949578922849</v>
       </c>
       <c r="V277" t="n">
-        <v>0.004701721277304715</v>
+        <v>0.004378328530539108</v>
       </c>
       <c r="W277" t="n">
         <v>0.003409999718278116</v>
@@ -20206,19 +20206,19 @@
         <v>0</v>
       </c>
       <c r="S278" t="n">
-        <v>0.4739922466543076</v>
+        <v>0</v>
       </c>
       <c r="T278" t="n">
-        <v>0</v>
+        <v>0.4394791243948979</v>
       </c>
       <c r="U278" t="n">
-        <v>0.4739922466543076</v>
+        <v>0.4394791243948979</v>
       </c>
       <c r="V278" t="n">
-        <v>-0.00120629502805486</v>
+        <v>-0.001534915970252265</v>
       </c>
       <c r="W278" t="n">
-        <v>-0.00120629502805486</v>
+        <v>-0.001534915970252265</v>
       </c>
     </row>
     <row r="279">
@@ -20274,19 +20274,19 @@
         <v>0.003289999549782771</v>
       </c>
       <c r="R279" t="n">
-        <v>0.5110739220650165</v>
+        <v>0</v>
       </c>
       <c r="S279" t="n">
-        <v>0.004147622424761854</v>
+        <v>0.06468667768385583</v>
       </c>
       <c r="T279" t="n">
         <v>0</v>
       </c>
       <c r="U279" t="n">
-        <v>0.5152215444897783</v>
+        <v>0.006468667768385583</v>
       </c>
       <c r="V279" t="n">
-        <v>0.003910209359340529</v>
+        <v>0.005207401307382136</v>
       </c>
       <c r="W279" t="n">
         <v>0.003289999549782771</v>
@@ -20345,19 +20345,19 @@
         <v>0.00329</v>
       </c>
       <c r="R280" t="n">
-        <v>0.6908582908158049</v>
+        <v>0</v>
       </c>
       <c r="S280" t="n">
-        <v>0.004408666859113453</v>
+        <v>0.08454634268580974</v>
       </c>
       <c r="T280" t="n">
         <v>0</v>
       </c>
       <c r="U280" t="n">
-        <v>0.6952669576749183</v>
+        <v>0.008454634268580974</v>
       </c>
       <c r="V280" t="n">
-        <v>0.003578810008631704</v>
+        <v>0.005461817713779922</v>
       </c>
       <c r="W280" t="n">
         <v>0.00329</v>
@@ -20416,19 +20416,19 @@
         <v>0.00329</v>
       </c>
       <c r="R281" t="n">
-        <v>0.4518644570265494</v>
+        <v>0</v>
       </c>
       <c r="S281" t="n">
-        <v>0.004333521503211424</v>
+        <v>0.0777630600468345</v>
       </c>
       <c r="T281" t="n">
-        <v>0</v>
+        <v>0.01338271787119627</v>
       </c>
       <c r="U281" t="n">
-        <v>0.4561979785297609</v>
+        <v>0.02115902387587972</v>
       </c>
       <c r="V281" t="n">
-        <v>0.004344074469094269</v>
+        <v>0.005398747791046907</v>
       </c>
       <c r="W281" t="n">
         <v>0.00329</v>
@@ -20487,19 +20487,19 @@
         <v>0.00329</v>
       </c>
       <c r="R282" t="n">
-        <v>0.6457556424585923</v>
+        <v>0</v>
       </c>
       <c r="S282" t="n">
-        <v>0.00439871992101315</v>
+        <v>0</v>
       </c>
       <c r="T282" t="n">
         <v>0</v>
       </c>
       <c r="U282" t="n">
-        <v>0.6501543623796054</v>
+        <v>0</v>
       </c>
       <c r="V282" t="n">
-        <v>0.003337801714406843</v>
+        <v>0.005100204727777114</v>
       </c>
       <c r="W282" t="n">
         <v>0.00329</v>
@@ -20558,19 +20558,19 @@
         <v>0.007739999999999999</v>
       </c>
       <c r="R283" t="n">
-        <v>0.2604861845325392</v>
+        <v>0</v>
       </c>
       <c r="S283" t="n">
-        <v>0.001300457671996158</v>
+        <v>0.01691960277892181</v>
       </c>
       <c r="T283" t="n">
-        <v>0</v>
+        <v>0.04587126032357158</v>
       </c>
       <c r="U283" t="n">
-        <v>0.2617866422045353</v>
+        <v>0.04756322060146376</v>
       </c>
       <c r="V283" t="n">
-        <v>0.01116018433708267</v>
+        <v>0.01193227925774764</v>
       </c>
       <c r="W283" t="n">
         <v>0.007739999999999999</v>
@@ -20632,16 +20632,16 @@
         <v>0</v>
       </c>
       <c r="S284" t="n">
-        <v>0.003816782248276418</v>
+        <v>0.00996871402927756</v>
       </c>
       <c r="T284" t="n">
-        <v>0</v>
+        <v>0.002597799741935747</v>
       </c>
       <c r="U284" t="n">
-        <v>0.003816782248276418</v>
+        <v>0.003594671144863503</v>
       </c>
       <c r="V284" t="n">
-        <v>0.01363457652652109</v>
+        <v>0.01275030130391871</v>
       </c>
       <c r="W284" t="n">
         <v>0.00774</v>
@@ -20700,19 +20700,19 @@
         <v>0.007739999999999999</v>
       </c>
       <c r="R285" t="n">
-        <v>0.1873296965668529</v>
+        <v>0</v>
       </c>
       <c r="S285" t="n">
-        <v>0.004203876957044494</v>
+        <v>0.03146710842829901</v>
       </c>
       <c r="T285" t="n">
         <v>0</v>
       </c>
       <c r="U285" t="n">
-        <v>0.1915335735238974</v>
+        <v>0.003146710842829901</v>
       </c>
       <c r="V285" t="n">
-        <v>0.01180166906313107</v>
+        <v>0.01237378901773973</v>
       </c>
       <c r="W285" t="n">
         <v>0.007739999999999999</v>
@@ -20771,19 +20771,19 @@
         <v>0.00774</v>
       </c>
       <c r="R286" t="n">
-        <v>0.04431144380212151</v>
+        <v>0</v>
       </c>
       <c r="S286" t="n">
-        <v>0.003788278837417058</v>
+        <v>0.01235826384148681</v>
       </c>
       <c r="T286" t="n">
-        <v>0</v>
+        <v>0.002825017212434666</v>
       </c>
       <c r="U286" t="n">
-        <v>0.04809972263953857</v>
+        <v>0.004060843596583347</v>
       </c>
       <c r="V286" t="n">
-        <v>0.01324956237491784</v>
+        <v>0.01270442893616752</v>
       </c>
       <c r="W286" t="n">
         <v>0.00774</v>
@@ -20842,19 +20842,19 @@
         <v>0.007739999999999999</v>
       </c>
       <c r="R287" t="n">
-        <v>0.2325362039392197</v>
+        <v>0</v>
       </c>
       <c r="S287" t="n">
-        <v>0.004013129791117231</v>
+        <v>0.01302230785925191</v>
       </c>
       <c r="T287" t="n">
-        <v>0</v>
+        <v>0.02050406542369698</v>
       </c>
       <c r="U287" t="n">
-        <v>0.2365493337303369</v>
+        <v>0.02180629620962217</v>
       </c>
       <c r="V287" t="n">
-        <v>0.01024938196411932</v>
+        <v>0.01102549871198686</v>
       </c>
       <c r="W287" t="n">
         <v>0.007739999999999999</v>
@@ -20916,16 +20916,16 @@
         <v>0</v>
       </c>
       <c r="S288" t="n">
-        <v>0.003850384509758831</v>
+        <v>0.0293914394873569</v>
       </c>
       <c r="T288" t="n">
-        <v>0</v>
+        <v>0.01798716079058527</v>
       </c>
       <c r="U288" t="n">
-        <v>0.003850384509758831</v>
+        <v>0.02092630473932095</v>
       </c>
       <c r="V288" t="n">
-        <v>0.01318478716726447</v>
+        <v>0.01216662518214486</v>
       </c>
       <c r="W288" t="n">
         <v>0.007739999999999999</v>
@@ -20987,16 +20987,16 @@
         <v>0</v>
       </c>
       <c r="S289" t="n">
-        <v>0.004584117473172</v>
+        <v>0</v>
       </c>
       <c r="T289" t="n">
-        <v>0</v>
+        <v>0.0434314282831525</v>
       </c>
       <c r="U289" t="n">
-        <v>0.004584117473172</v>
+        <v>0.0434314282831525</v>
       </c>
       <c r="V289" t="n">
-        <v>0.01238752558398873</v>
+        <v>0.01120085303577668</v>
       </c>
       <c r="W289" t="n">
         <v>0.007739999999999999</v>
@@ -21055,19 +21055,19 @@
         <v>0.00774</v>
       </c>
       <c r="R290" t="n">
-        <v>0.29625262921874</v>
+        <v>0</v>
       </c>
       <c r="S290" t="n">
-        <v>0.002412759397234066</v>
+        <v>0.01983522206043215</v>
       </c>
       <c r="T290" t="n">
-        <v>0</v>
+        <v>0.05194452729032051</v>
       </c>
       <c r="U290" t="n">
-        <v>0.298665388615974</v>
+        <v>0.05392804949636372</v>
       </c>
       <c r="V290" t="n">
-        <v>0.01040449838854423</v>
+        <v>0.01141277103078722</v>
       </c>
       <c r="W290" t="n">
         <v>0.00774</v>
@@ -21126,19 +21126,19 @@
         <v>0.00774</v>
       </c>
       <c r="R291" t="n">
-        <v>0.2632908616676043</v>
+        <v>0</v>
       </c>
       <c r="S291" t="n">
-        <v>0.004288634900186494</v>
+        <v>0.02213964077482506</v>
       </c>
       <c r="T291" t="n">
-        <v>0</v>
+        <v>0.006450362627882011</v>
       </c>
       <c r="U291" t="n">
-        <v>0.2675794965677908</v>
+        <v>0.008664326705364517</v>
       </c>
       <c r="V291" t="n">
-        <v>0.01136303842625763</v>
+        <v>0.01248104747845001</v>
       </c>
       <c r="W291" t="n">
         <v>0.00774</v>
@@ -21197,19 +21197,19 @@
         <v>0.00774</v>
       </c>
       <c r="R292" t="n">
-        <v>0.4470393721351336</v>
+        <v>0</v>
       </c>
       <c r="S292" t="n">
-        <v>0.004086519805001743</v>
+        <v>0.03771539999955392</v>
       </c>
       <c r="T292" t="n">
         <v>0</v>
       </c>
       <c r="U292" t="n">
-        <v>0.4511258919401354</v>
+        <v>0.003771539999955392</v>
       </c>
       <c r="V292" t="n">
-        <v>0.01029364830805332</v>
+        <v>0.01287017662952752</v>
       </c>
       <c r="W292" t="n">
         <v>0.00774</v>
@@ -21268,19 +21268,19 @@
         <v>0.007739999999999999</v>
       </c>
       <c r="R293" t="n">
-        <v>0.09280370708416047</v>
+        <v>0</v>
       </c>
       <c r="S293" t="n">
-        <v>0.04452516974470777</v>
+        <v>0</v>
       </c>
       <c r="T293" t="n">
-        <v>0</v>
+        <v>0.1095902040468</v>
       </c>
       <c r="U293" t="n">
-        <v>0.1373288768288682</v>
+        <v>0.1095902040468</v>
       </c>
       <c r="V293" t="n">
-        <v>0.0135916496953582</v>
+        <v>0.01292035266014861</v>
       </c>
       <c r="W293" t="n">
         <v>0.007739999999999999</v>
@@ -21339,19 +21339,19 @@
         <v>0.00774</v>
       </c>
       <c r="R294" t="n">
-        <v>0.1690153901438826</v>
+        <v>0</v>
       </c>
       <c r="S294" t="n">
-        <v>0.003340248684319036</v>
+        <v>0.02341577650543013</v>
       </c>
       <c r="T294" t="n">
-        <v>0</v>
+        <v>0.06009866536404807</v>
       </c>
       <c r="U294" t="n">
-        <v>0.1723556388282016</v>
+        <v>0.06244024301459108</v>
       </c>
       <c r="V294" t="n">
-        <v>0.01217688122385167</v>
+        <v>0.01214163202490622</v>
       </c>
       <c r="W294" t="n">
         <v>0.00774</v>
@@ -21410,19 +21410,19 @@
         <v>0.00774</v>
       </c>
       <c r="R295" t="n">
-        <v>0.1131328908564483</v>
+        <v>0</v>
       </c>
       <c r="S295" t="n">
-        <v>0.06843501771913285</v>
+        <v>0.05103833203315581</v>
       </c>
       <c r="T295" t="n">
-        <v>0</v>
+        <v>0.2063546219331531</v>
       </c>
       <c r="U295" t="n">
-        <v>0.1815679085755811</v>
+        <v>0.2114584551364687</v>
       </c>
       <c r="V295" t="n">
-        <v>0.01182837962971034</v>
+        <v>0.01071103243678628</v>
       </c>
       <c r="W295" t="n">
         <v>0.00774</v>
@@ -21481,19 +21481,19 @@
         <v>0.00774</v>
       </c>
       <c r="R296" t="n">
-        <v>0</v>
+        <v>0.4187658047616447</v>
       </c>
       <c r="S296" t="n">
-        <v>0.373617109168189</v>
+        <v>0.03675520585100268</v>
       </c>
       <c r="T296" t="n">
-        <v>0.4187658047616447</v>
+        <v>0.2993005239958451</v>
       </c>
       <c r="U296" t="n">
-        <v>0.7923829139298337</v>
+        <v>0.3448526250571098</v>
       </c>
       <c r="V296" t="n">
-        <v>0.008736578929284769</v>
+        <v>0.01131446900261686</v>
       </c>
       <c r="W296" t="n">
         <v>0.00774</v>
@@ -21555,16 +21555,16 @@
         <v>0</v>
       </c>
       <c r="S297" t="n">
-        <v>0.2183497519806215</v>
+        <v>0</v>
       </c>
       <c r="T297" t="n">
-        <v>0</v>
+        <v>0.7131991926490348</v>
       </c>
       <c r="U297" t="n">
-        <v>0.2183497519806215</v>
+        <v>0.7131991926490348</v>
       </c>
       <c r="V297" t="n">
-        <v>0.01373363069049097</v>
+        <v>0.009017501657174656</v>
       </c>
       <c r="W297" t="n">
         <v>0.007739999999999999</v>
@@ -21623,19 +21623,19 @@
         <v>0.00774</v>
       </c>
       <c r="R298" t="n">
-        <v>0.1881740067464311</v>
+        <v>0</v>
       </c>
       <c r="S298" t="n">
-        <v>0</v>
+        <v>0.05147224261337205</v>
       </c>
       <c r="T298" t="n">
-        <v>0</v>
+        <v>0.03071818410926719</v>
       </c>
       <c r="U298" t="n">
-        <v>0.1881740067464311</v>
+        <v>0.0358654083706044</v>
       </c>
       <c r="V298" t="n">
-        <v>0.0118394419134916</v>
+        <v>0.0121323161023777</v>
       </c>
       <c r="W298" t="n">
         <v>0.00774</v>
@@ -21694,19 +21694,19 @@
         <v>0.00664</v>
       </c>
       <c r="R299" t="n">
-        <v>0.01928691967767626</v>
+        <v>0</v>
       </c>
       <c r="S299" t="n">
-        <v>0</v>
+        <v>0.01801217372425772</v>
       </c>
       <c r="T299" t="n">
-        <v>0</v>
+        <v>0.03307907674678989</v>
       </c>
       <c r="U299" t="n">
-        <v>0.01928691967767626</v>
+        <v>0.03488029411921566</v>
       </c>
       <c r="V299" t="n">
-        <v>0.01009916120854397</v>
+        <v>0.009235543351181841</v>
       </c>
       <c r="W299" t="n">
         <v>0.00664</v>
@@ -21768,16 +21768,16 @@
         <v>0</v>
       </c>
       <c r="S300" t="n">
-        <v>0</v>
+        <v>0.01468416235296193</v>
       </c>
       <c r="T300" t="n">
-        <v>0</v>
+        <v>0.09764981929721706</v>
       </c>
       <c r="U300" t="n">
-        <v>0</v>
+        <v>0.09911823553251325</v>
       </c>
       <c r="V300" t="n">
-        <v>0.01155472129089447</v>
+        <v>0.01013649835588827</v>
       </c>
       <c r="W300" t="n">
         <v>0.00664</v>
@@ -21836,19 +21836,19 @@
         <v>0.00664</v>
       </c>
       <c r="R301" t="n">
-        <v>0.3637173422714028</v>
+        <v>0</v>
       </c>
       <c r="S301" t="n">
-        <v>0</v>
+        <v>0.01919055956647281</v>
       </c>
       <c r="T301" t="n">
-        <v>0</v>
+        <v>0.0594067899442936</v>
       </c>
       <c r="U301" t="n">
-        <v>0.3637173422714028</v>
+        <v>0.06132584590094088</v>
       </c>
       <c r="V301" t="n">
-        <v>0.009410494720164886</v>
+        <v>0.01065829640499445</v>
       </c>
       <c r="W301" t="n">
         <v>0.00664</v>
@@ -21907,19 +21907,19 @@
         <v>0.00664</v>
       </c>
       <c r="R302" t="n">
-        <v>0.0114639097941156</v>
+        <v>0</v>
       </c>
       <c r="S302" t="n">
-        <v>0.00481465239150114</v>
+        <v>0.003142107421993467</v>
       </c>
       <c r="T302" t="n">
-        <v>0</v>
+        <v>0.1297544211177126</v>
       </c>
       <c r="U302" t="n">
-        <v>0.01627856218561674</v>
+        <v>0.130068631859912</v>
       </c>
       <c r="V302" t="n">
-        <v>0.01373369599716304</v>
+        <v>0.01221805208345541</v>
       </c>
       <c r="W302" t="n">
         <v>0.00664</v>
@@ -21978,19 +21978,19 @@
         <v>0.00664</v>
       </c>
       <c r="R303" t="n">
-        <v>0.5016008522571779</v>
+        <v>0</v>
       </c>
       <c r="S303" t="n">
-        <v>0.004158070889153098</v>
+        <v>0</v>
       </c>
       <c r="T303" t="n">
-        <v>0</v>
+        <v>0.028092115527105</v>
       </c>
       <c r="U303" t="n">
-        <v>0.505758923146331</v>
+        <v>0.028092115527105</v>
       </c>
       <c r="V303" t="n">
-        <v>0.009610713467840414</v>
+        <v>0.01202234321936177</v>
       </c>
       <c r="W303" t="n">
         <v>0.00664</v>
@@ -22049,19 +22049,19 @@
         <v>0.006639991445680069</v>
       </c>
       <c r="R304" t="n">
-        <v>0.3392032487169404</v>
+        <v>0</v>
       </c>
       <c r="S304" t="n">
-        <v>0.004627666672754716</v>
+        <v>0</v>
       </c>
       <c r="T304" t="n">
-        <v>0</v>
+        <v>0.03077809982723112</v>
       </c>
       <c r="U304" t="n">
-        <v>0.3438309153896951</v>
+        <v>0.03077809982723112</v>
       </c>
       <c r="V304" t="n">
-        <v>0.01075496449211101</v>
+        <v>0.01207355563763072</v>
       </c>
       <c r="W304" t="n">
         <v>0.006639991445680069</v>
@@ -22120,19 +22120,19 @@
         <v>0.006639999999999999</v>
       </c>
       <c r="R305" t="n">
-        <v>0.2488657325526225</v>
+        <v>0</v>
       </c>
       <c r="S305" t="n">
-        <v>0.002989013105341831</v>
+        <v>0.051960310796239</v>
       </c>
       <c r="T305" t="n">
-        <v>0</v>
+        <v>0.1681447506852749</v>
       </c>
       <c r="U305" t="n">
-        <v>0.2518547456579643</v>
+        <v>0.1733407817648988</v>
       </c>
       <c r="V305" t="n">
-        <v>0.01080725830090042</v>
+        <v>0.01056851317008007</v>
       </c>
       <c r="W305" t="n">
         <v>0.006639999999999999</v>
@@ -22194,16 +22194,16 @@
         <v>0</v>
       </c>
       <c r="S306" t="n">
-        <v>0.003706279288874237</v>
+        <v>0.02336740484216168</v>
       </c>
       <c r="T306" t="n">
-        <v>0</v>
+        <v>0.007073166070102221</v>
       </c>
       <c r="U306" t="n">
-        <v>0.003706279288874237</v>
+        <v>0.009409906554318389</v>
       </c>
       <c r="V306" t="n">
-        <v>0.01112462980723414</v>
+        <v>0.01032667941695203</v>
       </c>
       <c r="W306" t="n">
         <v>0.006640003779289493</v>
@@ -22262,19 +22262,19 @@
         <v>0.00664</v>
       </c>
       <c r="R307" t="n">
-        <v>0.2222070591705678</v>
+        <v>0</v>
       </c>
       <c r="S307" t="n">
-        <v>0.001691898941950987</v>
+        <v>0.0162638154916423</v>
       </c>
       <c r="T307" t="n">
-        <v>0</v>
+        <v>0.02120296360564611</v>
       </c>
       <c r="U307" t="n">
-        <v>0.2238989581125188</v>
+        <v>0.02282934515481034</v>
       </c>
       <c r="V307" t="n">
-        <v>0.008849747372084191</v>
+        <v>0.009424771751053069</v>
       </c>
       <c r="W307" t="n">
         <v>0.00664</v>
@@ -22333,19 +22333,19 @@
         <v>0.00664</v>
       </c>
       <c r="R308" t="n">
-        <v>0.6515994721704803</v>
+        <v>0</v>
       </c>
       <c r="S308" t="n">
-        <v>0.004784142875478459</v>
+        <v>0.4757110753130921</v>
       </c>
       <c r="T308" t="n">
-        <v>0</v>
+        <v>0.4581882073599437</v>
       </c>
       <c r="U308" t="n">
-        <v>0.6563836150459588</v>
+        <v>0.5057593148912529</v>
       </c>
       <c r="V308" t="n">
-        <v>0.009958437205860295</v>
+        <v>0.01019850470781724</v>
       </c>
       <c r="W308" t="n">
         <v>0.00664</v>
@@ -22404,19 +22404,19 @@
         <v>0.00664</v>
       </c>
       <c r="R309" t="n">
-        <v>0.1552884470335766</v>
+        <v>0</v>
       </c>
       <c r="S309" t="n">
-        <v>0.002826434999413596</v>
+        <v>0.01278601799024607</v>
       </c>
       <c r="T309" t="n">
-        <v>0</v>
+        <v>0.04043466453198397</v>
       </c>
       <c r="U309" t="n">
-        <v>0.1581148820329902</v>
+        <v>0.04171326633100857</v>
       </c>
       <c r="V309" t="n">
-        <v>0.01005279677277042</v>
+        <v>0.01006562564996127</v>
       </c>
       <c r="W309" t="n">
         <v>0.00664</v>
@@ -22475,22 +22475,22 @@
         <v>0.00664</v>
       </c>
       <c r="R310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S310" t="n">
-        <v>0.004369882159293015</v>
+        <v>0</v>
       </c>
       <c r="T310" t="n">
-        <v>1</v>
+        <v>0.9418849093730318</v>
       </c>
       <c r="U310" t="n">
-        <v>1.004369882159293</v>
+        <v>1.041884909373032</v>
       </c>
       <c r="V310" t="n">
-        <v>0.006239436299204495</v>
+        <v>0.005230258667434963</v>
       </c>
       <c r="W310" t="n">
-        <v>0.006239436299204495</v>
+        <v>0.005230258667434963</v>
       </c>
     </row>
     <row r="311">
@@ -22546,19 +22546,19 @@
         <v>0.00664</v>
       </c>
       <c r="R311" t="n">
-        <v>0</v>
+        <v>0.1752676957622305</v>
       </c>
       <c r="S311" t="n">
-        <v>0.00488403019505923</v>
+        <v>0</v>
       </c>
       <c r="T311" t="n">
-        <v>0.1752676957622305</v>
+        <v>0.1381225311990655</v>
       </c>
       <c r="U311" t="n">
-        <v>0.1801517259572897</v>
+        <v>0.1556493007752885</v>
       </c>
       <c r="V311" t="n">
-        <v>0.01289367342781437</v>
+        <v>0.01229629167995255</v>
       </c>
       <c r="W311" t="n">
         <v>0.00664</v>
@@ -22617,19 +22617,19 @@
         <v>0.006640001884658877</v>
       </c>
       <c r="R312" t="n">
-        <v>0.3856905836487853</v>
+        <v>0</v>
       </c>
       <c r="S312" t="n">
-        <v>0.004161915924049131</v>
+        <v>0</v>
       </c>
       <c r="T312" t="n">
         <v>0</v>
       </c>
       <c r="U312" t="n">
-        <v>0.3898524995728344</v>
+        <v>0</v>
       </c>
       <c r="V312" t="n">
-        <v>0.01119854100242067</v>
+        <v>0.0130270842675169</v>
       </c>
       <c r="W312" t="n">
         <v>0.006640001884658877</v>
@@ -22688,19 +22688,19 @@
         <v>0.00664</v>
       </c>
       <c r="R313" t="n">
-        <v>0.2054656226696978</v>
+        <v>0</v>
       </c>
       <c r="S313" t="n">
-        <v>0.0047226223171426</v>
+        <v>0.004655425448048678</v>
       </c>
       <c r="T313" t="n">
-        <v>0</v>
+        <v>0.1292172242576874</v>
       </c>
       <c r="U313" t="n">
-        <v>0.2101882449868404</v>
+        <v>0.1296827668024923</v>
       </c>
       <c r="V313" t="n">
-        <v>0.01016250161814988</v>
+        <v>0.009936980142223646</v>
       </c>
       <c r="W313" t="n">
         <v>0.00664</v>
@@ -22759,19 +22759,19 @@
         <v>0.00774</v>
       </c>
       <c r="R314" t="n">
-        <v>0</v>
+        <v>0.457367550026473</v>
       </c>
       <c r="S314" t="n">
-        <v>0.3047231113052762</v>
+        <v>0</v>
       </c>
       <c r="T314" t="n">
-        <v>0.457367550026473</v>
+        <v>0.1973800652227926</v>
       </c>
       <c r="U314" t="n">
-        <v>0.7620906613317492</v>
+        <v>0.2431168202254399</v>
       </c>
       <c r="V314" t="n">
-        <v>0.008464824479786193</v>
+        <v>0.01159568764740623</v>
       </c>
       <c r="W314" t="n">
         <v>0.00774</v>
@@ -22830,19 +22830,19 @@
         <v>0.00774</v>
       </c>
       <c r="R315" t="n">
-        <v>0.1818796909489224</v>
+        <v>0</v>
       </c>
       <c r="S315" t="n">
-        <v>0.004643381163199178</v>
+        <v>0.0004134741855788774</v>
       </c>
       <c r="T315" t="n">
-        <v>0</v>
+        <v>0.05638157956145085</v>
       </c>
       <c r="U315" t="n">
-        <v>0.1865230721121216</v>
+        <v>0.05642292698000873</v>
       </c>
       <c r="V315" t="n">
-        <v>0.01232749607439359</v>
+        <v>0.01244847683517335</v>
       </c>
       <c r="W315" t="n">
         <v>0.00774</v>
@@ -22901,19 +22901,19 @@
         <v>0.00774</v>
       </c>
       <c r="R316" t="n">
-        <v>0.2657339523145894</v>
+        <v>0</v>
       </c>
       <c r="S316" t="n">
-        <v>0.003916000866136082</v>
+        <v>0.07571705952261681</v>
       </c>
       <c r="T316" t="n">
-        <v>0</v>
+        <v>0.001789293132316461</v>
       </c>
       <c r="U316" t="n">
-        <v>0.2696499531807254</v>
+        <v>0.009360999084578141</v>
       </c>
       <c r="V316" t="n">
-        <v>0.01034259277422781</v>
+        <v>0.01147123491638919</v>
       </c>
       <c r="W316" t="n">
         <v>0.00774</v>
@@ -22972,19 +22972,19 @@
         <v>0.00774</v>
       </c>
       <c r="R317" t="n">
-        <v>0.0511751810783995</v>
+        <v>0</v>
       </c>
       <c r="S317" t="n">
-        <v>0.1774126684955939</v>
+        <v>0.1134711077768526</v>
       </c>
       <c r="T317" t="n">
-        <v>0</v>
+        <v>0.1223759871314549</v>
       </c>
       <c r="U317" t="n">
-        <v>0.2285878495739934</v>
+        <v>0.1337230979091402</v>
       </c>
       <c r="V317" t="n">
-        <v>0.01394561105670848</v>
+        <v>0.01379386987205165</v>
       </c>
       <c r="W317" t="n">
         <v>0.00774</v>
@@ -23043,19 +23043,19 @@
         <v>0.007739999999999999</v>
       </c>
       <c r="R318" t="n">
-        <v>0.05439698870609566</v>
+        <v>0</v>
       </c>
       <c r="S318" t="n">
-        <v>0.1791101678144584</v>
+        <v>0</v>
       </c>
       <c r="T318" t="n">
-        <v>0</v>
+        <v>0.1184204829971371</v>
       </c>
       <c r="U318" t="n">
-        <v>0.2335071565205541</v>
+        <v>0.1184204829971371</v>
       </c>
       <c r="V318" t="n">
-        <v>0.01125702276186555</v>
+        <v>0.011261799252394</v>
       </c>
       <c r="W318" t="n">
         <v>0.007739999999999999</v>
@@ -23114,19 +23114,19 @@
         <v>0.007739999999999999</v>
       </c>
       <c r="R319" t="n">
-        <v>0.007415032309702613</v>
+        <v>0</v>
       </c>
       <c r="S319" t="n">
-        <v>0.1795541857572303</v>
+        <v>0</v>
       </c>
       <c r="T319" t="n">
-        <v>0</v>
+        <v>0.1272754749587413</v>
       </c>
       <c r="U319" t="n">
-        <v>0.1869692180669329</v>
+        <v>0.1272754749587413</v>
       </c>
       <c r="V319" t="n">
-        <v>0.01149354979684488</v>
+        <v>0.01106958500595949</v>
       </c>
       <c r="W319" t="n">
         <v>0.007739999999999999</v>
@@ -23185,19 +23185,19 @@
         <v>0.007739999999999999</v>
       </c>
       <c r="R320" t="n">
-        <v>0.3192221333697987</v>
+        <v>0</v>
       </c>
       <c r="S320" t="n">
-        <v>0.001938649877015308</v>
+        <v>0.05018607115047757</v>
       </c>
       <c r="T320" t="n">
-        <v>0</v>
+        <v>0.01617182121114213</v>
       </c>
       <c r="U320" t="n">
-        <v>0.321160783246814</v>
+        <v>0.02119042832618989</v>
       </c>
       <c r="V320" t="n">
-        <v>0.0121368817473092</v>
+        <v>0.01357265793185203</v>
       </c>
       <c r="W320" t="n">
         <v>0.007739999999999999</v>
@@ -23256,19 +23256,19 @@
         <v>0.00594</v>
       </c>
       <c r="R321" t="n">
-        <v>0.5488711940899854</v>
+        <v>0</v>
       </c>
       <c r="S321" t="n">
-        <v>0.01495434376308813</v>
+        <v>0.05742788004169615</v>
       </c>
       <c r="T321" t="n">
         <v>0</v>
       </c>
       <c r="U321" t="n">
-        <v>0.5638255378530735</v>
+        <v>0.005742788004169616</v>
       </c>
       <c r="V321" t="n">
-        <v>0.006872985757178146</v>
+        <v>0.009508048129329186</v>
       </c>
       <c r="W321" t="n">
         <v>0.00594</v>
@@ -23327,19 +23327,19 @@
         <v>0.00594</v>
       </c>
       <c r="R322" t="n">
-        <v>0.5889721308253258</v>
+        <v>0</v>
       </c>
       <c r="S322" t="n">
-        <v>0.004718442931386235</v>
+        <v>0.07346154948219374</v>
       </c>
       <c r="T322" t="n">
-        <v>0</v>
+        <v>0.03559340340390627</v>
       </c>
       <c r="U322" t="n">
-        <v>0.5936905737567121</v>
+        <v>0.04293955835212564</v>
       </c>
       <c r="V322" t="n">
-        <v>0.008113745338647373</v>
+        <v>0.01070525720819917</v>
       </c>
       <c r="W322" t="n">
         <v>0.00594</v>
@@ -23398,19 +23398,19 @@
         <v>0.00594</v>
       </c>
       <c r="R323" t="n">
-        <v>0.3739174020444067</v>
+        <v>0</v>
       </c>
       <c r="S323" t="n">
-        <v>0.004926910692920838</v>
+        <v>0</v>
       </c>
       <c r="T323" t="n">
-        <v>0</v>
+        <v>0.09408590082704138</v>
       </c>
       <c r="U323" t="n">
-        <v>0.3788443127373275</v>
+        <v>0.09408590082704138</v>
       </c>
       <c r="V323" t="n">
-        <v>0.009161774234365677</v>
+        <v>0.01017329003916133</v>
       </c>
       <c r="W323" t="n">
         <v>0.00594</v>
@@ -23469,19 +23469,19 @@
         <v>0.00594</v>
       </c>
       <c r="R324" t="n">
-        <v>0.3615096094153029</v>
+        <v>0</v>
       </c>
       <c r="S324" t="n">
-        <v>0</v>
+        <v>0.1031524623719301</v>
       </c>
       <c r="T324" t="n">
-        <v>0</v>
+        <v>0.09136382486297845</v>
       </c>
       <c r="U324" t="n">
-        <v>0.3615096094153029</v>
+        <v>0.1016790711001715</v>
       </c>
       <c r="V324" t="n">
-        <v>0.01026816866691922</v>
+        <v>0.01113161290255965</v>
       </c>
       <c r="W324" t="n">
         <v>0.00594</v>
@@ -23540,19 +23540,19 @@
         <v>0.00594</v>
       </c>
       <c r="R325" t="n">
-        <v>0.144583437760829</v>
+        <v>0</v>
       </c>
       <c r="S325" t="n">
-        <v>0.00491077826390085</v>
+        <v>0.07504145656598596</v>
       </c>
       <c r="T325" t="n">
-        <v>0</v>
+        <v>0.09724872179060884</v>
       </c>
       <c r="U325" t="n">
-        <v>0.1494942160247299</v>
+        <v>0.1047528674472074</v>
       </c>
       <c r="V325" t="n">
-        <v>0.01081516644041746</v>
+        <v>0.01040098088901649</v>
       </c>
       <c r="W325" t="n">
         <v>0.00594</v>
@@ -23611,19 +23611,19 @@
         <v>0.00594</v>
       </c>
       <c r="R326" t="n">
-        <v>0.6254845413463811</v>
+        <v>0</v>
       </c>
       <c r="S326" t="n">
-        <v>0.004394958473832089</v>
+        <v>0.09562813218123639</v>
       </c>
       <c r="T326" t="n">
         <v>0</v>
       </c>
       <c r="U326" t="n">
-        <v>0.6298794998202132</v>
+        <v>0.009562813218123641</v>
       </c>
       <c r="V326" t="n">
-        <v>0.008826761586729695</v>
+        <v>0.01183149354319466</v>
       </c>
       <c r="W326" t="n">
         <v>0.00594</v>
@@ -23682,19 +23682,19 @@
         <v>0.00594</v>
       </c>
       <c r="R327" t="n">
-        <v>0.1617159143517178</v>
+        <v>0</v>
       </c>
       <c r="S327" t="n">
-        <v>0.0352883928719574</v>
+        <v>0.1104490463397998</v>
       </c>
       <c r="T327" t="n">
-        <v>0</v>
+        <v>0.02502654648557434</v>
       </c>
       <c r="U327" t="n">
-        <v>0.1970043072236752</v>
+        <v>0.03607145111955432</v>
       </c>
       <c r="V327" t="n">
-        <v>0.01109341330107903</v>
+        <v>0.01136940530438606</v>
       </c>
       <c r="W327" t="n">
         <v>0.00594</v>
@@ -23753,19 +23753,19 @@
         <v>0.005940000000000001</v>
       </c>
       <c r="R328" t="n">
-        <v>0.1912531389228979</v>
+        <v>0</v>
       </c>
       <c r="S328" t="n">
-        <v>0.004497520600297067</v>
+        <v>0.08196417064764305</v>
       </c>
       <c r="T328" t="n">
-        <v>0</v>
+        <v>0.003334567502301322</v>
       </c>
       <c r="U328" t="n">
-        <v>0.1957506595231949</v>
+        <v>0.01153098456706563</v>
       </c>
       <c r="V328" t="n">
-        <v>0.01130535053445762</v>
+        <v>0.01171966624174558</v>
       </c>
       <c r="W328" t="n">
         <v>0.005940000000000001</v>
@@ -23824,22 +23824,22 @@
         <v>0.005939997858213751</v>
       </c>
       <c r="R329" t="n">
-        <v>0.2189964168877171</v>
+        <v>0</v>
       </c>
       <c r="S329" t="n">
-        <v>0.004969373252207143</v>
+        <v>0</v>
       </c>
       <c r="T329" t="n">
-        <v>0</v>
+        <v>0.01856667201522599</v>
       </c>
       <c r="U329" t="n">
-        <v>0.2239657901399243</v>
+        <v>0.01856667201522599</v>
       </c>
       <c r="V329" t="n">
-        <v>-0.0002582472482894841</v>
+        <v>0.0002818741566680882</v>
       </c>
       <c r="W329" t="n">
-        <v>-0.0002582472482894841</v>
+        <v>0.0002818741566680882</v>
       </c>
     </row>
     <row r="330">
@@ -23895,22 +23895,22 @@
         <v>0.00594</v>
       </c>
       <c r="R330" t="n">
-        <v>0.2189964168877171</v>
+        <v>0</v>
       </c>
       <c r="S330" t="n">
-        <v>0.2116792851377993</v>
+        <v>0</v>
       </c>
       <c r="T330" t="n">
-        <v>0</v>
+        <v>0.1141427318633832</v>
       </c>
       <c r="U330" t="n">
-        <v>0.4306757020255164</v>
+        <v>0.1141427318633832</v>
       </c>
       <c r="V330" t="n">
-        <v>-0.001486104218006165</v>
+        <v>-0.000285847537194543</v>
       </c>
       <c r="W330" t="n">
-        <v>-0.001486104218006165</v>
+        <v>-0.000285847537194543</v>
       </c>
     </row>
     <row r="331">
@@ -23966,19 +23966,19 @@
         <v>0.00594</v>
       </c>
       <c r="R331" t="n">
-        <v>0.5247097705471109</v>
+        <v>0</v>
       </c>
       <c r="S331" t="n">
-        <v>0.04563939398739358</v>
+        <v>0.05563260160711642</v>
       </c>
       <c r="T331" t="n">
-        <v>0</v>
+        <v>0.08879136040237756</v>
       </c>
       <c r="U331" t="n">
-        <v>0.5703491645345045</v>
+        <v>0.0943546205630892</v>
       </c>
       <c r="V331" t="n">
-        <v>0.008001061761995837</v>
+        <v>0.01014852019123459</v>
       </c>
       <c r="W331" t="n">
         <v>0.00594</v>
@@ -24037,19 +24037,19 @@
         <v>0.00594</v>
       </c>
       <c r="R332" t="n">
-        <v>0.199598510649915</v>
+        <v>0</v>
       </c>
       <c r="S332" t="n">
-        <v>0.004921310316007288</v>
+        <v>0</v>
       </c>
       <c r="T332" t="n">
-        <v>0</v>
+        <v>0.1277395106379291</v>
       </c>
       <c r="U332" t="n">
-        <v>0.2045198209659223</v>
+        <v>0.1277395106379291</v>
       </c>
       <c r="V332" t="n">
-        <v>0.01124726171548782</v>
+        <v>0.01102338759688466</v>
       </c>
       <c r="W332" t="n">
         <v>0.00594</v>
@@ -24108,19 +24108,19 @@
         <v>0.005939880952380953</v>
       </c>
       <c r="R333" t="n">
-        <v>0.004581624657106598</v>
+        <v>0</v>
       </c>
       <c r="S333" t="n">
-        <v>0.1756857463010033</v>
+        <v>0.009466454178760429</v>
       </c>
       <c r="T333" t="n">
-        <v>0</v>
+        <v>0.1055811846866448</v>
       </c>
       <c r="U333" t="n">
-        <v>0.1802673709581099</v>
+        <v>0.1065278301045208</v>
       </c>
       <c r="V333" t="n">
-        <v>0.01030132124205378</v>
+        <v>0.01005938980158396</v>
       </c>
       <c r="W333" t="n">
         <v>0.005939880952380953</v>
@@ -24179,22 +24179,22 @@
         <v>0.005939997757344696</v>
       </c>
       <c r="R334" t="n">
-        <v>0.2189964168877171</v>
+        <v>0</v>
       </c>
       <c r="S334" t="n">
-        <v>0.004959509901821813</v>
+        <v>0</v>
       </c>
       <c r="T334" t="n">
-        <v>0</v>
+        <v>0.1004685249132489</v>
       </c>
       <c r="U334" t="n">
-        <v>0.2239559267895389</v>
+        <v>0.1004685249132489</v>
       </c>
       <c r="V334" t="n">
-        <v>-0.000258188655624934</v>
+        <v>-0.0002046226706551405</v>
       </c>
       <c r="W334" t="n">
-        <v>-0.000258188655624934</v>
+        <v>-0.0002046226706551405</v>
       </c>
     </row>
     <row r="335">
@@ -24250,19 +24250,19 @@
         <v>0.00538</v>
       </c>
       <c r="R335" t="n">
-        <v>0.1411448494945635</v>
+        <v>0</v>
       </c>
       <c r="S335" t="n">
-        <v>0.004654498329311529</v>
+        <v>0.02434214018316391</v>
       </c>
       <c r="T335" t="n">
-        <v>0</v>
+        <v>0.04293556793477893</v>
       </c>
       <c r="U335" t="n">
-        <v>0.145799347823875</v>
+        <v>0.04536978195309532</v>
       </c>
       <c r="V335" t="n">
-        <v>0.007299402526102373</v>
+        <v>0.007223867379830805</v>
       </c>
       <c r="W335" t="n">
         <v>0.00538</v>
@@ -24321,19 +24321,19 @@
         <v>0.00538</v>
       </c>
       <c r="R336" t="n">
-        <v>0.2208599561938966</v>
+        <v>0</v>
       </c>
       <c r="S336" t="n">
-        <v>0</v>
+        <v>0.01753492358587617</v>
       </c>
       <c r="T336" t="n">
-        <v>0</v>
+        <v>0.03311765749099815</v>
       </c>
       <c r="U336" t="n">
-        <v>0.2208599561938966</v>
+        <v>0.03487114984958577</v>
       </c>
       <c r="V336" t="n">
-        <v>0.008069826139788449</v>
+        <v>0.008454599707264478</v>
       </c>
       <c r="W336" t="n">
         <v>0.00538</v>
@@ -24392,19 +24392,19 @@
         <v>0.00538</v>
       </c>
       <c r="R337" t="n">
-        <v>0.2917107190036234</v>
+        <v>0</v>
       </c>
       <c r="S337" t="n">
         <v>0</v>
       </c>
       <c r="T337" t="n">
-        <v>0</v>
+        <v>0.03053817026820282</v>
       </c>
       <c r="U337" t="n">
-        <v>0.2917107190036234</v>
+        <v>0.03053817026820282</v>
       </c>
       <c r="V337" t="n">
-        <v>0.007687698907742807</v>
+        <v>0.008476961009283007</v>
       </c>
       <c r="W337" t="n">
         <v>0.00538</v>
@@ -24466,19 +24466,19 @@
         <v>0</v>
       </c>
       <c r="S338" t="n">
-        <v>0.004777539445983248</v>
+        <v>0.008840504951976129</v>
       </c>
       <c r="T338" t="n">
         <v>0</v>
       </c>
       <c r="U338" t="n">
-        <v>0.004777539445983248</v>
+        <v>0.0008840504951976129</v>
       </c>
       <c r="V338" t="n">
-        <v>0.0009453319980325741</v>
+        <v>0.0003504327579314376</v>
       </c>
       <c r="W338" t="n">
-        <v>0.0009453319980325741</v>
+        <v>0.0003504327579314376</v>
       </c>
     </row>
     <row r="339">
@@ -24534,19 +24534,19 @@
         <v>0.005379999999999999</v>
       </c>
       <c r="R339" t="n">
-        <v>0.001912312513571268</v>
+        <v>0</v>
       </c>
       <c r="S339" t="n">
-        <v>0.003656962536947361</v>
+        <v>0.009210837019539392</v>
       </c>
       <c r="T339" t="n">
-        <v>0</v>
+        <v>0.002810171626529634</v>
       </c>
       <c r="U339" t="n">
-        <v>0.005569275050518629</v>
+        <v>0.003731255328483573</v>
       </c>
       <c r="V339" t="n">
-        <v>0.007992406511769128</v>
+        <v>0.007386448847217313</v>
       </c>
       <c r="W339" t="n">
         <v>0.005379999999999999</v>
@@ -24605,19 +24605,19 @@
         <v>0.01301</v>
       </c>
       <c r="R340" t="n">
-        <v>0.1782621402412406</v>
+        <v>0</v>
       </c>
       <c r="S340" t="n">
-        <v>0</v>
+        <v>0.006834895121730451</v>
       </c>
       <c r="T340" t="n">
-        <v>0</v>
+        <v>0.02249444068366158</v>
       </c>
       <c r="U340" t="n">
-        <v>0.1782621402412406</v>
+        <v>0.02317793019583462</v>
       </c>
       <c r="V340" t="n">
-        <v>0.01765098194112652</v>
+        <v>0.01817937859176534</v>
       </c>
       <c r="W340" t="n">
         <v>0.01301</v>
@@ -24676,19 +24676,19 @@
         <v>0.01300999174236168</v>
       </c>
       <c r="R341" t="n">
-        <v>0.04792707884721356</v>
+        <v>0</v>
       </c>
       <c r="S341" t="n">
-        <v>0.004784560814054206</v>
+        <v>0.02305934466204494</v>
       </c>
       <c r="T341" t="n">
-        <v>0</v>
+        <v>0.07752098272444941</v>
       </c>
       <c r="U341" t="n">
-        <v>0.05271163966126777</v>
+        <v>0.07982691719065389</v>
       </c>
       <c r="V341" t="n">
-        <v>0.02097239289852608</v>
+        <v>0.0191303753849732</v>
       </c>
       <c r="W341" t="n">
         <v>0.01300999174236168</v>
@@ -24747,19 +24747,19 @@
         <v>0.01002</v>
       </c>
       <c r="R342" t="n">
-        <v>0</v>
+        <v>0.3711127457376453</v>
       </c>
       <c r="S342" t="n">
-        <v>0.1051644627999353</v>
+        <v>0</v>
       </c>
       <c r="T342" t="n">
-        <v>0.3711127457376453</v>
+        <v>0.1520828934846992</v>
       </c>
       <c r="U342" t="n">
-        <v>0.4762772085375806</v>
+        <v>0.1891941680584637</v>
       </c>
       <c r="V342" t="n">
-        <v>0.01572030114306195</v>
+        <v>0.0174498882587042</v>
       </c>
       <c r="W342" t="n">
         <v>0.01002</v>
@@ -24818,19 +24818,19 @@
         <v>0.01002</v>
       </c>
       <c r="R343" t="n">
-        <v>0</v>
+        <v>0.4640056190432149</v>
       </c>
       <c r="S343" t="n">
-        <v>0.2782239666792621</v>
+        <v>0</v>
       </c>
       <c r="T343" t="n">
-        <v>0.4640056190432149</v>
+        <v>0.1495974579378769</v>
       </c>
       <c r="U343" t="n">
-        <v>0.742229585722477</v>
+        <v>0.1959980198421984</v>
       </c>
       <c r="V343" t="n">
-        <v>0.02198201792478246</v>
+        <v>0.02630827326494434</v>
       </c>
       <c r="W343" t="n">
         <v>0.01002</v>
@@ -24889,19 +24889,19 @@
         <v>0.01458</v>
       </c>
       <c r="R344" t="n">
-        <v>0.07255549212052628</v>
+        <v>0</v>
       </c>
       <c r="S344" t="n">
-        <v>0.004923483596600553</v>
+        <v>0</v>
       </c>
       <c r="T344" t="n">
-        <v>0</v>
+        <v>0.04547016281696337</v>
       </c>
       <c r="U344" t="n">
-        <v>0.07747897571712684</v>
+        <v>0.04547016281696337</v>
       </c>
       <c r="V344" t="n">
-        <v>0.02825189791628846</v>
+        <v>0.02704962028358292</v>
       </c>
       <c r="W344" t="n">
         <v>0.01458</v>
@@ -24963,16 +24963,16 @@
         <v>0</v>
       </c>
       <c r="S345" t="n">
-        <v>0.004939866788766123</v>
+        <v>0.04069030127733413</v>
       </c>
       <c r="T345" t="n">
-        <v>0</v>
+        <v>0.05197137379896333</v>
       </c>
       <c r="U345" t="n">
-        <v>0.004939866788766123</v>
+        <v>0.05604040392669674</v>
       </c>
       <c r="V345" t="n">
-        <v>0.03226951812446396</v>
+        <v>0.02985550616820301</v>
       </c>
       <c r="W345" t="n">
         <v>0.01458</v>
@@ -25031,19 +25031,19 @@
         <v>0.01457987012987013</v>
       </c>
       <c r="R346" t="n">
-        <v>0.01483474205582466</v>
+        <v>0</v>
       </c>
       <c r="S346" t="n">
-        <v>0</v>
+        <v>0.04081693746799792</v>
       </c>
       <c r="T346" t="n">
-        <v>0</v>
+        <v>0.3227008121068864</v>
       </c>
       <c r="U346" t="n">
-        <v>0.01483474205582466</v>
+        <v>0.3267825058536862</v>
       </c>
       <c r="V346" t="n">
-        <v>0.03224915790085405</v>
+        <v>0.026032048758764</v>
       </c>
       <c r="W346" t="n">
         <v>0.01457987012987013</v>
@@ -25105,16 +25105,16 @@
         <v>0</v>
       </c>
       <c r="S347" t="n">
-        <v>0.004839728706040214</v>
+        <v>0</v>
       </c>
       <c r="T347" t="n">
-        <v>0</v>
+        <v>0.07318136016680388</v>
       </c>
       <c r="U347" t="n">
-        <v>0.004839728706040214</v>
+        <v>0.07318136016680388</v>
       </c>
       <c r="V347" t="n">
-        <v>0.005742374382154968</v>
+        <v>0.005020270192142826</v>
       </c>
       <c r="W347" t="n">
         <v>0.00395</v>
@@ -25176,16 +25176,16 @@
         <v>0</v>
       </c>
       <c r="S348" t="n">
-        <v>0.1208822131653076</v>
+        <v>0</v>
       </c>
       <c r="T348" t="n">
-        <v>0</v>
+        <v>0.2490523049105553</v>
       </c>
       <c r="U348" t="n">
-        <v>0.1208822131653076</v>
+        <v>0.2490523049105553</v>
       </c>
       <c r="V348" t="n">
-        <v>0.005516699994613255</v>
+        <v>0.0045582733864774</v>
       </c>
       <c r="W348" t="n">
         <v>0.00395</v>
@@ -25247,19 +25247,19 @@
         <v>0</v>
       </c>
       <c r="S349" t="n">
-        <v>0.4809043655815715</v>
+        <v>0</v>
       </c>
       <c r="T349" t="n">
-        <v>0</v>
+        <v>0.8349127288453735</v>
       </c>
       <c r="U349" t="n">
-        <v>0.4809043655815715</v>
+        <v>0.8349127288453735</v>
       </c>
       <c r="V349" t="n">
-        <v>0.005741362492569011</v>
+        <v>0.003890874711934868</v>
       </c>
       <c r="W349" t="n">
-        <v>0.00395</v>
+        <v>0.003890874711934868</v>
       </c>
     </row>
     <row r="350">
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="S350" t="n">
-        <v>0.2029699467475206</v>
+        <v>0.008579636664467002</v>
       </c>
       <c r="T350" t="n">
-        <v>0</v>
+        <v>0.1548117255237846</v>
       </c>
       <c r="U350" t="n">
-        <v>0.2029699467475206</v>
+        <v>0.1556696891902313</v>
       </c>
       <c r="V350" t="n">
-        <v>0.00545494355250441</v>
+        <v>0.005189624824113577</v>
       </c>
       <c r="W350" t="n">
         <v>0.00395</v>
@@ -25386,19 +25386,19 @@
         <v>0.00395</v>
       </c>
       <c r="R351" t="n">
-        <v>0.1875767492939613</v>
+        <v>0.1967306938635476</v>
       </c>
       <c r="S351" t="n">
-        <v>0.004908437807877197</v>
+        <v>0.01305797596035546</v>
       </c>
       <c r="T351" t="n">
-        <v>0.1967306938635476</v>
+        <v>0.1569677135175283</v>
       </c>
       <c r="U351" t="n">
-        <v>0.3892158809653861</v>
+        <v>0.1779465804999186</v>
       </c>
       <c r="V351" t="n">
-        <v>0.005654017312002642</v>
+        <v>0.006036376303099114</v>
       </c>
       <c r="W351" t="n">
         <v>0.00395</v>
@@ -25457,22 +25457,22 @@
         <v>0.02669252173913043</v>
       </c>
       <c r="R352" t="n">
-        <v>0</v>
+        <v>0.5852731768158995</v>
       </c>
       <c r="S352" t="n">
-        <v>0.004852517626455111</v>
+        <v>0.03853067871065892</v>
       </c>
       <c r="T352" t="n">
-        <v>0.5852731768158995</v>
+        <v>0.2321662065572152</v>
       </c>
       <c r="U352" t="n">
-        <v>0.5901256944423546</v>
+        <v>0.2945465921098711</v>
       </c>
       <c r="V352" t="n">
-        <v>0.02464578516233108</v>
+        <v>0.02948005566806908</v>
       </c>
       <c r="W352" t="n">
-        <v>0.02464578516233108</v>
+        <v>0.02669252173913043</v>
       </c>
     </row>
     <row r="353">
@@ -25528,19 +25528,19 @@
         <v>0.03553295698924731</v>
       </c>
       <c r="R353" t="n">
-        <v>0.01389206577539523</v>
+        <v>0</v>
       </c>
       <c r="S353" t="n">
-        <v>0.004913536658500028</v>
+        <v>0.01971457807001939</v>
       </c>
       <c r="T353" t="n">
-        <v>0</v>
+        <v>0.08882069599129183</v>
       </c>
       <c r="U353" t="n">
-        <v>0.01880560243389526</v>
+        <v>0.09079215379829376</v>
       </c>
       <c r="V353" t="n">
-        <v>0.06201136464741432</v>
+        <v>0.05538602780817157</v>
       </c>
       <c r="W353" t="n">
         <v>0.03553295698924731</v>
@@ -25602,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="S354" t="n">
-        <v>0.1365536559364979</v>
+        <v>0</v>
       </c>
       <c r="T354" t="n">
-        <v>0</v>
+        <v>0.06790957704747957</v>
       </c>
       <c r="U354" t="n">
-        <v>0.1365536559364979</v>
+        <v>0.06790957704747957</v>
       </c>
       <c r="V354" t="n">
-        <v>0.03974457489057126</v>
+        <v>0.0379141904928226</v>
       </c>
       <c r="W354" t="n">
-        <v>0.03974457489057126</v>
+        <v>0.0379141904928226</v>
       </c>
     </row>
     <row r="355">
@@ -25670,19 +25670,19 @@
         <v>0.02760999776085983</v>
       </c>
       <c r="R355" t="n">
-        <v>0.2031353060657397</v>
+        <v>0</v>
       </c>
       <c r="S355" t="n">
-        <v>0.00277461061603268</v>
+        <v>0.01010366712351261</v>
       </c>
       <c r="T355" t="n">
-        <v>0</v>
+        <v>0.008362687442190042</v>
       </c>
       <c r="U355" t="n">
-        <v>0.2059099166817723</v>
+        <v>0.009373054154541302</v>
       </c>
       <c r="V355" t="n">
-        <v>0.03804615082137945</v>
+        <v>0.04031202897403659</v>
       </c>
       <c r="W355" t="n">
         <v>0.02760999776085983</v>
@@ -25741,19 +25741,19 @@
         <v>0.02761</v>
       </c>
       <c r="R356" t="n">
-        <v>0.09787592793346106</v>
+        <v>0</v>
       </c>
       <c r="S356" t="n">
-        <v>0.002061858169117414</v>
+        <v>0.03072267129664876</v>
       </c>
       <c r="T356" t="n">
-        <v>0</v>
+        <v>0.0595004860373709</v>
       </c>
       <c r="U356" t="n">
-        <v>0.09993778610257847</v>
+        <v>0.06257275316703578</v>
       </c>
       <c r="V356" t="n">
-        <v>0.04195537367775664</v>
+        <v>0.03982651779914746</v>
       </c>
       <c r="W356" t="n">
         <v>0.02761</v>
@@ -25812,19 +25812,19 @@
         <v>0.01626</v>
       </c>
       <c r="R357" t="n">
-        <v>0.1065225371261077</v>
+        <v>0</v>
       </c>
       <c r="S357" t="n">
-        <v>0.004906766053574652</v>
+        <v>0.007199340382805934</v>
       </c>
       <c r="T357" t="n">
-        <v>0</v>
+        <v>0.0516325921948666</v>
       </c>
       <c r="U357" t="n">
-        <v>0.1114293031796823</v>
+        <v>0.05235252623314719</v>
       </c>
       <c r="V357" t="n">
-        <v>0.02818859542965389</v>
+        <v>0.02728790884412937</v>
       </c>
       <c r="W357" t="n">
         <v>0.01626</v>
@@ -25883,22 +25883,22 @@
         <v>0.01626000421674046</v>
       </c>
       <c r="R358" t="n">
-        <v>0.3909593001641875</v>
+        <v>0</v>
       </c>
       <c r="S358" t="n">
-        <v>0.004213907482860213</v>
+        <v>0.02253532459294989</v>
       </c>
       <c r="T358" t="n">
-        <v>0</v>
+        <v>0.02789005554649315</v>
       </c>
       <c r="U358" t="n">
-        <v>0.3951732076470477</v>
+        <v>0.03014358800578814</v>
       </c>
       <c r="V358" t="n">
-        <v>0.01402942318237591</v>
+        <v>0.01810353087561437</v>
       </c>
       <c r="W358" t="n">
-        <v>0.01402942318237591</v>
+        <v>0.01626000421674046</v>
       </c>
     </row>
     <row r="359">
@@ -25957,16 +25957,16 @@
         <v>0</v>
       </c>
       <c r="S359" t="n">
-        <v>0.003661309098134113</v>
+        <v>0.03022530062601369</v>
       </c>
       <c r="T359" t="n">
-        <v>0</v>
+        <v>0.02169971291125949</v>
       </c>
       <c r="U359" t="n">
-        <v>0.003661309098134113</v>
+        <v>0.02472224297386087</v>
       </c>
       <c r="V359" t="n">
-        <v>0.02152687892895684</v>
+        <v>0.01932315316546235</v>
       </c>
       <c r="W359" t="n">
         <v>0.01626</v>
@@ -26025,19 +26025,19 @@
         <v>0.01626</v>
       </c>
       <c r="R360" t="n">
-        <v>0.1354906942049369</v>
+        <v>0.3127739343543807</v>
       </c>
       <c r="S360" t="n">
-        <v>0.07550511742799282</v>
+        <v>0.01228904740128812</v>
       </c>
       <c r="T360" t="n">
-        <v>0.3127739343543807</v>
+        <v>0.04276115452432561</v>
       </c>
       <c r="U360" t="n">
-        <v>0.5237697459873104</v>
+        <v>0.07526745269989249</v>
       </c>
       <c r="V360" t="n">
-        <v>0.02385926818781082</v>
+        <v>0.02929064049798905</v>
       </c>
       <c r="W360" t="n">
         <v>0.01626</v>
@@ -26096,19 +26096,19 @@
         <v>0.02560989583333333</v>
       </c>
       <c r="R361" t="n">
-        <v>0.1868640304423416</v>
+        <v>0</v>
       </c>
       <c r="S361" t="n">
-        <v>0.003318766641530635</v>
+        <v>0.01160559098839239</v>
       </c>
       <c r="T361" t="n">
-        <v>0</v>
+        <v>0.02466305187021045</v>
       </c>
       <c r="U361" t="n">
-        <v>0.1901827970838722</v>
+        <v>0.02582361096904969</v>
       </c>
       <c r="V361" t="n">
-        <v>0.03997748995237456</v>
+        <v>0.04125515818574733</v>
       </c>
       <c r="W361" t="n">
         <v>0.02560989583333333</v>
@@ -26167,19 +26167,19 @@
         <v>0.02561000600961539</v>
       </c>
       <c r="R362" t="n">
-        <v>0.05197758982038089</v>
+        <v>0</v>
       </c>
       <c r="S362" t="n">
-        <v>0.003900035612546038</v>
+        <v>0.01231635000404551</v>
       </c>
       <c r="T362" t="n">
-        <v>0</v>
+        <v>0.02582909708168679</v>
       </c>
       <c r="U362" t="n">
-        <v>0.05587762543292693</v>
+        <v>0.02706073208209134</v>
       </c>
       <c r="V362" t="n">
-        <v>0.04196830507186276</v>
+        <v>0.03977473986964675</v>
       </c>
       <c r="W362" t="n">
         <v>0.02561000600961539</v>
@@ -26238,19 +26238,19 @@
         <v>0.02561</v>
       </c>
       <c r="R363" t="n">
-        <v>0.247495347780249</v>
+        <v>0</v>
       </c>
       <c r="S363" t="n">
-        <v>0.003720071261870794</v>
+        <v>0.0105321973673339</v>
       </c>
       <c r="T363" t="n">
-        <v>0</v>
+        <v>0.002356625642771615</v>
       </c>
       <c r="U363" t="n">
-        <v>0.2512154190421197</v>
+        <v>0.003409845379505005</v>
       </c>
       <c r="V363" t="n">
-        <v>0.02687065801311918</v>
+        <v>0.03028539342842739</v>
       </c>
       <c r="W363" t="n">
         <v>0.02561</v>
@@ -26309,19 +26309,19 @@
         <v>0.02560998349834983</v>
       </c>
       <c r="R364" t="n">
-        <v>0.1508778397418635</v>
+        <v>0</v>
       </c>
       <c r="S364" t="n">
-        <v>0.004282867347842556</v>
+        <v>0.01158218720674528</v>
       </c>
       <c r="T364" t="n">
-        <v>0</v>
+        <v>0.03024890358236432</v>
       </c>
       <c r="U364" t="n">
-        <v>0.155160707089706</v>
+        <v>0.03140712230303885</v>
       </c>
       <c r="V364" t="n">
-        <v>0.03918818173027813</v>
+        <v>0.03942594555727152</v>
       </c>
       <c r="W364" t="n">
         <v>0.02560998349834983</v>
@@ -26380,22 +26380,22 @@
         <v>0.02561015625</v>
       </c>
       <c r="R365" t="n">
-        <v>0.1810840715752649</v>
+        <v>0</v>
       </c>
       <c r="S365" t="n">
-        <v>0.03458826217002664</v>
+        <v>0.01601776745911869</v>
       </c>
       <c r="T365" t="n">
-        <v>0</v>
+        <v>0.1244070766330034</v>
       </c>
       <c r="U365" t="n">
-        <v>0.2156723337452915</v>
+        <v>0.1260088533789153</v>
       </c>
       <c r="V365" t="n">
-        <v>0.02275920245559286</v>
+        <v>0.02212391498563511</v>
       </c>
       <c r="W365" t="n">
-        <v>0.02275920245559286</v>
+        <v>0.02212391498563511</v>
       </c>
     </row>
     <row r="366">
@@ -26451,16 +26451,16 @@
         <v>0</v>
       </c>
       <c r="R366" t="n">
-        <v>0.2189964168877171</v>
+        <v>0</v>
       </c>
       <c r="S366" t="n">
-        <v>0.9480255348767443</v>
+        <v>0</v>
       </c>
       <c r="T366" t="n">
-        <v>0</v>
+        <v>0.4305337254820036</v>
       </c>
       <c r="U366" t="n">
-        <v>1.167021951764462</v>
+        <v>0.4305337254820036</v>
       </c>
       <c r="V366" t="n">
         <v>0</v>
@@ -26522,19 +26522,19 @@
         <v>0.01576000191424196</v>
       </c>
       <c r="R367" t="n">
-        <v>0.1744815778471635</v>
+        <v>0</v>
       </c>
       <c r="S367" t="n">
-        <v>0.004596739218156509</v>
+        <v>0</v>
       </c>
       <c r="T367" t="n">
         <v>0</v>
       </c>
       <c r="U367" t="n">
-        <v>0.17907831706532</v>
+        <v>0</v>
       </c>
       <c r="V367" t="n">
-        <v>0.02853585283776179</v>
+        <v>0.0295540870376549</v>
       </c>
       <c r="W367" t="n">
         <v>0.01576000191424196</v>
@@ -26593,19 +26593,19 @@
         <v>0.01575999842171717</v>
       </c>
       <c r="R368" t="n">
-        <v>0.04582900392400197</v>
+        <v>0</v>
       </c>
       <c r="S368" t="n">
-        <v>0.004450042778102903</v>
+        <v>0.02458777089522407</v>
       </c>
       <c r="T368" t="n">
         <v>0</v>
       </c>
       <c r="U368" t="n">
-        <v>0.05027904670210487</v>
+        <v>0.002458777089522407</v>
       </c>
       <c r="V368" t="n">
-        <v>0.02519735458235219</v>
+        <v>0.02414696193590477</v>
       </c>
       <c r="W368" t="n">
         <v>0.01575999842171717</v>
@@ -26664,22 +26664,22 @@
         <v>0.01576002604166667</v>
       </c>
       <c r="R369" t="n">
-        <v>0</v>
+        <v>0.5970281624150112</v>
       </c>
       <c r="S369" t="n">
-        <v>0.004697128064028</v>
+        <v>0</v>
       </c>
       <c r="T369" t="n">
-        <v>0.5970281624150112</v>
+        <v>0.6595732027395884</v>
       </c>
       <c r="U369" t="n">
-        <v>0.6017252904790392</v>
+        <v>0.7192760189810895</v>
       </c>
       <c r="V369" t="n">
-        <v>0.0168827463780002</v>
+        <v>0.01322610065387984</v>
       </c>
       <c r="W369" t="n">
-        <v>0.01576002604166667</v>
+        <v>0.01322610065387984</v>
       </c>
     </row>
     <row r="370">
@@ -26738,19 +26738,19 @@
         <v>0</v>
       </c>
       <c r="S370" t="n">
-        <v>0.8082123341948859</v>
+        <v>0.09907137753822762</v>
       </c>
       <c r="T370" t="n">
-        <v>0</v>
+        <v>0.3962874478793259</v>
       </c>
       <c r="U370" t="n">
-        <v>0.8082123341948859</v>
+        <v>0.4061945856331486</v>
       </c>
       <c r="V370" t="n">
-        <v>0.01477708981071828</v>
+        <v>0.01930884932731812</v>
       </c>
       <c r="W370" t="n">
-        <v>0.01477708981071828</v>
+        <v>0.01576</v>
       </c>
     </row>
     <row r="371">
@@ -26806,19 +26806,19 @@
         <v>0.01576</v>
       </c>
       <c r="R371" t="n">
-        <v>0.05169480128044865</v>
+        <v>0</v>
       </c>
       <c r="S371" t="n">
-        <v>0.004255784928140383</v>
+        <v>0.006421139849293024</v>
       </c>
       <c r="T371" t="n">
-        <v>0</v>
+        <v>0.03376997431358064</v>
       </c>
       <c r="U371" t="n">
-        <v>0.05595058620858903</v>
+        <v>0.03441208829850995</v>
       </c>
       <c r="V371" t="n">
-        <v>0.02337412905193892</v>
+        <v>0.02190953557826863</v>
       </c>
       <c r="W371" t="n">
         <v>0.01576</v>
@@ -26877,19 +26877,19 @@
         <v>0.01575989583333333</v>
       </c>
       <c r="R372" t="n">
-        <v>0.2514201011079558</v>
+        <v>0</v>
       </c>
       <c r="S372" t="n">
-        <v>0.02583420435215333</v>
+        <v>0</v>
       </c>
       <c r="T372" t="n">
-        <v>0</v>
+        <v>0.03729397860368833</v>
       </c>
       <c r="U372" t="n">
-        <v>0.2772543054601092</v>
+        <v>0.03729397860368833</v>
       </c>
       <c r="V372" t="n">
-        <v>0.01875500959259982</v>
+        <v>0.02073273107116856</v>
       </c>
       <c r="W372" t="n">
         <v>0.01575989583333333</v>
@@ -26948,19 +26948,19 @@
         <v>0.01575999930439621</v>
       </c>
       <c r="R373" t="n">
-        <v>0.3274164906472632</v>
+        <v>0</v>
       </c>
       <c r="S373" t="n">
-        <v>0.004958841200100705</v>
+        <v>0.008567876080227929</v>
       </c>
       <c r="T373" t="n">
-        <v>0</v>
+        <v>0.08837408387400458</v>
       </c>
       <c r="U373" t="n">
-        <v>0.332375331847364</v>
+        <v>0.08923087148202738</v>
       </c>
       <c r="V373" t="n">
-        <v>0.01884855064407445</v>
+        <v>0.02087646704919226</v>
       </c>
       <c r="W373" t="n">
         <v>0.01575999930439621</v>
@@ -27022,16 +27022,16 @@
         <v>0</v>
       </c>
       <c r="S374" t="n">
-        <v>0.1710272357613656</v>
+        <v>0.01384462365999744</v>
       </c>
       <c r="T374" t="n">
-        <v>0</v>
+        <v>0.1191878308865526</v>
       </c>
       <c r="U374" t="n">
-        <v>0.1710272357613656</v>
+        <v>0.1205722932525524</v>
       </c>
       <c r="V374" t="n">
-        <v>0.02062587331587513</v>
+        <v>0.01961700300908089</v>
       </c>
       <c r="W374" t="n">
         <v>0.01576</v>
@@ -27090,22 +27090,22 @@
         <v>0.01575999348958334</v>
       </c>
       <c r="R375" t="n">
-        <v>0.6488681437273347</v>
+        <v>0</v>
       </c>
       <c r="S375" t="n">
-        <v>0.004736247114708991</v>
+        <v>0.003906562882290399</v>
       </c>
       <c r="T375" t="n">
-        <v>0</v>
+        <v>0.2551253940858564</v>
       </c>
       <c r="U375" t="n">
-        <v>0.6536043908420437</v>
+        <v>0.2555160503740855</v>
       </c>
       <c r="V375" t="n">
-        <v>0.01559274892483865</v>
+        <v>0.02006257912340407</v>
       </c>
       <c r="W375" t="n">
-        <v>0.01559274892483865</v>
+        <v>0.01575999348958334</v>
       </c>
     </row>
     <row r="376">
@@ -27161,19 +27161,19 @@
         <v>0.01576000449640288</v>
       </c>
       <c r="R376" t="n">
-        <v>0.2666654637593842</v>
+        <v>0</v>
       </c>
       <c r="S376" t="n">
-        <v>0.004337115774962097</v>
+        <v>0.02002677883485803</v>
       </c>
       <c r="T376" t="n">
-        <v>0</v>
+        <v>0.007336919683157861</v>
       </c>
       <c r="U376" t="n">
-        <v>0.2710025795343463</v>
+        <v>0.009339597566643664</v>
       </c>
       <c r="V376" t="n">
-        <v>0.01963202089791883</v>
+        <v>0.02195178995483762</v>
       </c>
       <c r="W376" t="n">
         <v>0.01576000449640288</v>
@@ -27232,19 +27232,19 @@
         <v>0.01575999898744431</v>
       </c>
       <c r="R377" t="n">
-        <v>0.1312812995711372</v>
+        <v>0</v>
       </c>
       <c r="S377" t="n">
-        <v>0.004050326324350317</v>
+        <v>0.009280934885743641</v>
       </c>
       <c r="T377" t="n">
-        <v>0</v>
+        <v>0.0006351599478537917</v>
       </c>
       <c r="U377" t="n">
-        <v>0.1353316258954875</v>
+        <v>0.001563253436428156</v>
       </c>
       <c r="V377" t="n">
-        <v>0.02116629923147622</v>
+        <v>0.02147044856115673</v>
       </c>
       <c r="W377" t="n">
         <v>0.01575999898744431</v>
@@ -27303,19 +27303,19 @@
         <v>0.01576000330687831</v>
       </c>
       <c r="R378" t="n">
-        <v>0.4145902152163532</v>
+        <v>0</v>
       </c>
       <c r="S378" t="n">
-        <v>0.004870572572923226</v>
+        <v>0.01652895668439549</v>
       </c>
       <c r="T378" t="n">
-        <v>0</v>
+        <v>0.0008680667446874235</v>
       </c>
       <c r="U378" t="n">
-        <v>0.4194607877892764</v>
+        <v>0.002520962413126973</v>
       </c>
       <c r="V378" t="n">
-        <v>0.02218982191455</v>
+        <v>0.02695675436197735</v>
       </c>
       <c r="W378" t="n">
         <v>0.01576000330687831</v>
@@ -27374,19 +27374,19 @@
         <v>0.01576005747126437</v>
       </c>
       <c r="R379" t="n">
-        <v>0.2871296697081948</v>
+        <v>0</v>
       </c>
       <c r="S379" t="n">
-        <v>0</v>
+        <v>0.04473594959404369</v>
       </c>
       <c r="T379" t="n">
-        <v>0</v>
+        <v>0.077462756025241</v>
       </c>
       <c r="U379" t="n">
-        <v>0.2871296697081948</v>
+        <v>0.08193635098464537</v>
       </c>
       <c r="V379" t="n">
-        <v>0.0241985235723767</v>
+        <v>0.02562833528873606</v>
       </c>
       <c r="W379" t="n">
         <v>0.01576005747126437</v>
@@ -27445,19 +27445,19 @@
         <v>0.01575999760536399</v>
       </c>
       <c r="R380" t="n">
-        <v>0.2446904050628358</v>
+        <v>0</v>
       </c>
       <c r="S380" t="n">
-        <v>0.004919220623128995</v>
+        <v>0.03245582082917385</v>
       </c>
       <c r="T380" t="n">
-        <v>0</v>
+        <v>0.0233754862040505</v>
       </c>
       <c r="U380" t="n">
-        <v>0.2496096256859648</v>
+        <v>0.02662106828696788</v>
       </c>
       <c r="V380" t="n">
-        <v>0.02478798663371616</v>
+        <v>0.02649824583772771</v>
       </c>
       <c r="W380" t="n">
         <v>0.01575999760536399</v>
@@ -27519,19 +27519,19 @@
         <v>0</v>
       </c>
       <c r="S381" t="n">
-        <v>0.00442245883211001</v>
+        <v>0.008840504951976129</v>
       </c>
       <c r="T381" t="n">
         <v>0</v>
       </c>
       <c r="U381" t="n">
-        <v>0.00442245883211001</v>
+        <v>0.0008840504951976129</v>
       </c>
       <c r="V381" t="n">
-        <v>0.002774818346276501</v>
+        <v>0.00102654538682108</v>
       </c>
       <c r="W381" t="n">
-        <v>0.002774818346276501</v>
+        <v>0.00102654538682108</v>
       </c>
     </row>
     <row r="382">
@@ -27587,19 +27587,19 @@
         <v>0.01575998774509804</v>
       </c>
       <c r="R382" t="n">
-        <v>0.1616347956166633</v>
+        <v>0</v>
       </c>
       <c r="S382" t="n">
-        <v>0</v>
+        <v>0.08628635193422324</v>
       </c>
       <c r="T382" t="n">
-        <v>0</v>
+        <v>0.03805705949835247</v>
       </c>
       <c r="U382" t="n">
-        <v>0.1616347956166633</v>
+        <v>0.0466856946917748</v>
       </c>
       <c r="V382" t="n">
-        <v>0.0239664467968139</v>
+        <v>0.02397400442078022</v>
       </c>
       <c r="W382" t="n">
         <v>0.01575998774509804</v>
@@ -27658,22 +27658,22 @@
         <v>0.01576</v>
       </c>
       <c r="R383" t="n">
-        <v>0</v>
+        <v>0.3073962196754393</v>
       </c>
       <c r="S383" t="n">
-        <v>0.2635637680857172</v>
+        <v>0.006653515241923125</v>
       </c>
       <c r="T383" t="n">
-        <v>0.3073962196754393</v>
+        <v>0.2354632600639961</v>
       </c>
       <c r="U383" t="n">
-        <v>0.5709599877611566</v>
+        <v>0.2668682335557324</v>
       </c>
       <c r="V383" t="n">
-        <v>0.01433904708993666</v>
+        <v>0.017327492935481</v>
       </c>
       <c r="W383" t="n">
-        <v>0.01433904708993666</v>
+        <v>0.01576</v>
       </c>
     </row>
     <row r="384">
@@ -27729,22 +27729,22 @@
         <v>0.1088795151515151</v>
       </c>
       <c r="R384" t="n">
-        <v>0.4093178751539928</v>
+        <v>0</v>
       </c>
       <c r="S384" t="n">
-        <v>0.002929415064453877</v>
+        <v>0.01551459976131108</v>
       </c>
       <c r="T384" t="n">
-        <v>0</v>
+        <v>0.01083478863041476</v>
       </c>
       <c r="U384" t="n">
-        <v>0.4122472902184467</v>
+        <v>0.01238624860654587</v>
       </c>
       <c r="V384" t="n">
-        <v>0.09773292501220013</v>
+        <v>0.1288062116066155</v>
       </c>
       <c r="W384" t="n">
-        <v>0.09773292501220013</v>
+        <v>0.1088795151515151</v>
       </c>
     </row>
   </sheetData>

--- a/data/results_inventory_impairment.xlsx
+++ b/data/results_inventory_impairment.xlsx
@@ -644,9 +644,15 @@
       <c r="W2" t="n">
         <v>0.006195009487724579</v>
       </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>0.2350182484713297</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2356377494201021</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.06630821299524432</v>
+      </c>
       <c r="AA2" t="n">
         <v>0.0344806015037594</v>
       </c>
@@ -721,11 +727,17 @@
       <c r="W3" t="n">
         <v>0</v>
       </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>0.4859597968011251</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.4910666795160765</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.05675642665705975</v>
+      </c>
       <c r="AA3" t="n">
-        <v>0.07726739130434783</v>
+        <v>0.05675642665705975</v>
       </c>
     </row>
     <row r="4">
@@ -798,9 +810,15 @@
       <c r="W4" t="n">
         <v>0</v>
       </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>0.291271484224096</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.291271484224096</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.097904535886997</v>
+      </c>
       <c r="AA4" t="n">
         <v>0.0573232</v>
       </c>
@@ -875,11 +893,17 @@
       <c r="W5" t="n">
         <v>0</v>
       </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>0.3074435329060745</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.3081714549262159</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.2224968398941504</v>
+      </c>
       <c r="AA5" t="n">
-        <v>0.2393854166666667</v>
+        <v>0.2224968398941504</v>
       </c>
     </row>
     <row r="6">
@@ -952,9 +976,15 @@
       <c r="W6" t="n">
         <v>0.06256666707178077</v>
       </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="X6" t="n">
+        <v>0.2607757335003436</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.2670324002075216</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.07053387107776218</v>
+      </c>
       <c r="AA6" t="n">
         <v>0.05095547619047619</v>
       </c>
@@ -1029,9 +1059,15 @@
       <c r="W7" t="n">
         <v>0.05923332536101219</v>
       </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>0.2701219839591886</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.2760453164952898</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.09761745136177571</v>
+      </c>
       <c r="AA7" t="n">
         <v>0.087325</v>
       </c>
@@ -1106,11 +1142,17 @@
       <c r="W8" t="n">
         <v>0</v>
       </c>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
+      <c r="X8" t="n">
+        <v>0.2517196337497027</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.2517196337497027</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.001991651445913464</v>
+      </c>
       <c r="AA8" t="n">
-        <v>0.0836490524643492</v>
+        <v>-0.001991651445913464</v>
       </c>
     </row>
     <row r="9">
@@ -1183,9 +1225,15 @@
       <c r="W9" t="n">
         <v>0.006244839500184459</v>
       </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
+      <c r="X9" t="n">
+        <v>0.2529708032052822</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.2535952871553007</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.1720818971306744</v>
+      </c>
       <c r="AA9" t="n">
         <v>0.0900512987012987</v>
       </c>
@@ -1260,9 +1308,15 @@
       <c r="W10" t="n">
         <v>0.006079915191484634</v>
       </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>0.2639225017471343</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.2645304932662828</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.1434794826798705</v>
+      </c>
       <c r="AA10" t="n">
         <v>0.12307625</v>
       </c>
@@ -1337,9 +1391,15 @@
       <c r="W11" t="n">
         <v>0.01620109366196119</v>
       </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
+      <c r="X11" t="n">
+        <v>0.2377768740491384</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.2393969834153345</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.1653194103913026</v>
+      </c>
       <c r="AA11" t="n">
         <v>0.1230761904761905</v>
       </c>
@@ -1414,9 +1474,15 @@
       <c r="W12" t="n">
         <v>0</v>
       </c>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
+      <c r="X12" t="n">
+        <v>0.3363962758892216</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.3363962758892216</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.1497566408086971</v>
+      </c>
       <c r="AA12" t="n">
         <v>0.1274941176470588</v>
       </c>
@@ -1491,9 +1557,15 @@
       <c r="W13" t="n">
         <v>0.02828140798483216</v>
       </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
+      <c r="X13" t="n">
+        <v>0.3683992577249604</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.3712273985234436</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.103079124487365</v>
+      </c>
       <c r="AA13" t="n">
         <v>0.07149</v>
       </c>
@@ -1568,9 +1640,15 @@
       <c r="W14" t="n">
         <v>0.002824721231939737</v>
       </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
+      <c r="X14" t="n">
+        <v>0.2989333080046803</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.2992157801278743</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.1437903670001534</v>
+      </c>
       <c r="AA14" t="n">
         <v>0.07229000000000001</v>
       </c>
@@ -1645,9 +1723,15 @@
       <c r="W15" t="n">
         <v>0</v>
       </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
+      <c r="X15" t="n">
+        <v>0.3277358566506996</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.3277358566506996</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.03262654704250437</v>
+      </c>
       <c r="AA15" t="n">
         <v>0.01909</v>
       </c>
@@ -1722,9 +1806,15 @@
       <c r="W16" t="n">
         <v>0</v>
       </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
+      <c r="X16" t="n">
+        <v>0.2842954916638347</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.2842954916638347</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.044724408758531</v>
+      </c>
       <c r="AA16" t="n">
         <v>0.01908986928104575</v>
       </c>
@@ -1799,9 +1889,15 @@
       <c r="W17" t="n">
         <v>0</v>
       </c>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
+      <c r="X17" t="n">
+        <v>0.3005402186542661</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.3005402186542661</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.02773587244420828</v>
+      </c>
       <c r="AA17" t="n">
         <v>0.01909</v>
       </c>
@@ -1876,9 +1972,15 @@
       <c r="W18" t="n">
         <v>0.01165959166840453</v>
       </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
+      <c r="X18" t="n">
+        <v>0.3567486773686976</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.3579146365355381</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.02754572188792553</v>
+      </c>
       <c r="AA18" t="n">
         <v>0.02312</v>
       </c>
@@ -1953,9 +2055,15 @@
       <c r="W19" t="n">
         <v>0</v>
       </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
+      <c r="X19" t="n">
+        <v>0.8650188585303507</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.8985751906761511</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.02354422130476598</v>
+      </c>
       <c r="AA19" t="n">
         <v>0.02312</v>
       </c>
@@ -2030,9 +2138,15 @@
       <c r="W20" t="n">
         <v>0.007249308450760838</v>
       </c>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
+      <c r="X20" t="n">
+        <v>0.381444001546158</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.3821689323912341</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.02676561407106201</v>
+      </c>
       <c r="AA20" t="n">
         <v>0.01909</v>
       </c>
@@ -2107,9 +2221,15 @@
       <c r="W21" t="n">
         <v>0.09613946469482695</v>
       </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
+      <c r="X21" t="n">
+        <v>0.2412295437211356</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.2508434901906183</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.04013790573925491</v>
+      </c>
       <c r="AA21" t="n">
         <v>0.02669</v>
       </c>
@@ -2184,11 +2304,17 @@
       <c r="W22" t="n">
         <v>0</v>
       </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
+      <c r="X22" t="n">
+        <v>0.2643041191190725</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.2643041191190725</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.02590864155315446</v>
+      </c>
       <c r="AA22" t="n">
-        <v>0.02669</v>
+        <v>0.02590864155315446</v>
       </c>
     </row>
     <row r="23">
@@ -2261,11 +2387,17 @@
       <c r="W23" t="n">
         <v>0</v>
       </c>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
+      <c r="X23" t="n">
+        <v>0.3950192070149643</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.3950192070149643</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.02510985585721311</v>
+      </c>
       <c r="AA23" t="n">
-        <v>0.02669</v>
+        <v>0.02510985585721311</v>
       </c>
     </row>
     <row r="24">
@@ -2338,11 +2470,17 @@
       <c r="W24" t="n">
         <v>0</v>
       </c>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
+      <c r="X24" t="n">
+        <v>0.3676785499169897</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.3676785499169897</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.02579082428397707</v>
+      </c>
       <c r="AA24" t="n">
-        <v>0.02677101851851852</v>
+        <v>0.02579082428397707</v>
       </c>
     </row>
     <row r="25">
@@ -2415,9 +2553,15 @@
       <c r="W25" t="n">
         <v>0</v>
       </c>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.03459585443570424</v>
+      </c>
       <c r="AA25" t="n">
         <v>0.01323888888888889</v>
       </c>
@@ -2492,9 +2636,15 @@
       <c r="W26" t="n">
         <v>0</v>
       </c>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
+      <c r="X26" t="n">
+        <v>0.3070232137723594</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.3070232137723594</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.02746271138839774</v>
+      </c>
       <c r="AA26" t="n">
         <v>0.01324</v>
       </c>
@@ -2569,9 +2719,15 @@
       <c r="W27" t="n">
         <v>0</v>
       </c>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
+      <c r="X27" t="n">
+        <v>0.3630565020127026</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.3630565020127026</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.02875953843916004</v>
+      </c>
       <c r="AA27" t="n">
         <v>0.01323999653859467</v>
       </c>
@@ -2646,9 +2802,15 @@
       <c r="W28" t="n">
         <v>0.01512706981883249</v>
       </c>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.001512706981883249</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.03552084890087796</v>
+      </c>
       <c r="AA28" t="n">
         <v>0.01323888888888889</v>
       </c>
@@ -2723,11 +2885,17 @@
       <c r="W29" t="n">
         <v>0.007412842701825432</v>
       </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
+      <c r="X29" t="n">
+        <v>0.3826145048296621</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.3833557890998446</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.03009083483033131</v>
+      </c>
       <c r="AA29" t="n">
-        <v>0.030375</v>
+        <v>0.03009083483033131</v>
       </c>
     </row>
     <row r="30">
@@ -2800,11 +2968,17 @@
       <c r="W30" t="n">
         <v>0.06028717640419708</v>
       </c>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
+      <c r="X30" t="n">
+        <v>0.4054257057382984</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.4114544233787181</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.02333842178711595</v>
+      </c>
       <c r="AA30" t="n">
-        <v>0.03046444444444445</v>
+        <v>0.02333842178711595</v>
       </c>
     </row>
     <row r="31">
@@ -2877,9 +3051,15 @@
       <c r="W31" t="n">
         <v>0</v>
       </c>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.04913443871317066</v>
+      </c>
       <c r="AA31" t="n">
         <v>0.01323888888888889</v>
       </c>
@@ -2954,11 +3134,17 @@
       <c r="W32" t="n">
         <v>0.002380800450143862</v>
       </c>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
+      <c r="X32" t="n">
+        <v>0.6645746151825604</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.6648126952275748</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.1387935346289413</v>
+      </c>
       <c r="AA32" t="n">
-        <v>0.2018904227782571</v>
+        <v>0.1387935346289413</v>
       </c>
     </row>
     <row r="33">
@@ -3031,9 +3217,15 @@
       <c r="W33" t="n">
         <v>0.01640792269615274</v>
       </c>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
+      <c r="X33" t="n">
+        <v>0.8397639338788276</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.8414047261484429</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.03010192786981871</v>
+      </c>
       <c r="AA33" t="n">
         <v>0.01964</v>
       </c>
@@ -3108,9 +3300,15 @@
       <c r="W34" t="n">
         <v>0.02716835545787156</v>
       </c>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
+      <c r="X34" t="n">
+        <v>0.236442900824176</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.2391597363699631</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.04354027899730878</v>
+      </c>
       <c r="AA34" t="n">
         <v>0.01964</v>
       </c>
@@ -3185,9 +3383,15 @@
       <c r="W35" t="n">
         <v>0.02114597866329074</v>
       </c>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
+      <c r="X35" t="n">
+        <v>0.4672433322925673</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.4693579301588964</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.03191038468223551</v>
+      </c>
       <c r="AA35" t="n">
         <v>0.0167</v>
       </c>
@@ -3262,9 +3466,15 @@
       <c r="W36" t="n">
         <v>0.02296294870449882</v>
       </c>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
+      <c r="X36" t="n">
+        <v>0.3236331323869985</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.3259294272574484</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.03495044967286711</v>
+      </c>
       <c r="AA36" t="n">
         <v>0.0167</v>
       </c>
@@ -3339,11 +3549,17 @@
       <c r="W37" t="n">
         <v>0</v>
       </c>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
+      <c r="X37" t="n">
+        <v>0.1934692070810611</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.2698065537451542</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.04922525578867309</v>
+      </c>
       <c r="AA37" t="n">
-        <v>0.0519075</v>
+        <v>0.04922525578867309</v>
       </c>
     </row>
     <row r="38">
@@ -3416,11 +3632,17 @@
       <c r="W38" t="n">
         <v>0</v>
       </c>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
+      <c r="X38" t="n">
+        <v>0.3827768497199058</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.4160882813722604</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.08454152571897719</v>
+      </c>
       <c r="AA38" t="n">
-        <v>0.09330766666666666</v>
+        <v>0.08454152571897719</v>
       </c>
     </row>
     <row r="39">
@@ -3493,9 +3715,15 @@
       <c r="W39" t="n">
         <v>0.02545350095144826</v>
       </c>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
+      <c r="X39" t="n">
+        <v>0.2360003056764151</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.2385456557715599</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.07125100877831457</v>
+      </c>
       <c r="AA39" t="n">
         <v>0.05072</v>
       </c>
@@ -3570,9 +3798,15 @@
       <c r="W40" t="n">
         <v>0</v>
       </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
+      <c r="X40" t="n">
+        <v>0.7134974109899559</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.7134974109899559</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.04561636052139122</v>
+      </c>
       <c r="AA40" t="n">
         <v>0.041015</v>
       </c>
@@ -3647,9 +3881,15 @@
       <c r="W41" t="n">
         <v>0</v>
       </c>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
+      <c r="X41" t="n">
+        <v>0.2660567239009284</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.2660567239009284</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.058332906110659</v>
+      </c>
       <c r="AA41" t="n">
         <v>0.03506384615384615</v>
       </c>
@@ -3724,9 +3964,15 @@
       <c r="W42" t="n">
         <v>0.005197498408933626</v>
       </c>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
+      <c r="X42" t="n">
+        <v>0.2583505731024951</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.2588703229433885</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.06425051242863368</v>
+      </c>
       <c r="AA42" t="n">
         <v>0.04348350877192982</v>
       </c>
@@ -3757,13 +4003,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3801,11 +4047,17 @@
       <c r="W43" t="n">
         <v>0</v>
       </c>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.009160336875499313</v>
+      </c>
       <c r="AA43" t="n">
-        <v>0.04019277777777778</v>
+        <v>0.009160336875499313</v>
       </c>
     </row>
     <row r="44">
@@ -3878,9 +4130,15 @@
       <c r="W44" t="n">
         <v>0.03229428511502208</v>
       </c>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
+      <c r="X44" t="n">
+        <v>0.2365594561299922</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.2397888846414944</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.03718695273746608</v>
+      </c>
       <c r="AA44" t="n">
         <v>0.03519253333333333</v>
       </c>
@@ -3955,11 +4213,17 @@
       <c r="W45" t="n">
         <v>0.01302252848661862</v>
       </c>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
+      <c r="X45" t="n">
+        <v>0.3731838755297339</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.3744861283783957</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.03458021894057346</v>
+      </c>
       <c r="AA45" t="n">
-        <v>0.0368525</v>
+        <v>0.03458021894057346</v>
       </c>
     </row>
     <row r="46">
@@ -4032,9 +4296,15 @@
       <c r="W46" t="n">
         <v>0.007919659332655871</v>
       </c>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
+      <c r="X46" t="n">
+        <v>0.3123628193412167</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.3131547852744823</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.0443657022448724</v>
+      </c>
       <c r="AA46" t="n">
         <v>0.04144</v>
       </c>
@@ -4109,9 +4379,15 @@
       <c r="W47" t="n">
         <v>0.02679997743061536</v>
       </c>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
+      <c r="X47" t="n">
+        <v>0.2823472404757876</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.2850272382188492</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.08888070128503667</v>
+      </c>
       <c r="AA47" t="n">
         <v>0.06535780303030303</v>
       </c>
@@ -4186,9 +4462,15 @@
       <c r="W48" t="n">
         <v>0.003556440318645781</v>
       </c>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
+      <c r="X48" t="n">
+        <v>0.3243691408914855</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.3247247849233501</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.08566598090432205</v>
+      </c>
       <c r="AA48" t="n">
         <v>0.06536090909090909</v>
       </c>
@@ -4263,9 +4545,15 @@
       <c r="W49" t="n">
         <v>0.006781380993487429</v>
       </c>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
+      <c r="X49" t="n">
+        <v>0.2362185656120166</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.2368967037113653</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.08209181933396105</v>
+      </c>
       <c r="AA49" t="n">
         <v>0.05782459893048128</v>
       </c>
@@ -4340,9 +4628,15 @@
       <c r="W50" t="n">
         <v>0</v>
       </c>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
+      <c r="X50" t="n">
+        <v>0.2564816380250661</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.2564816380250661</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.1101407232348012</v>
+      </c>
       <c r="AA50" t="n">
         <v>0.0644</v>
       </c>
@@ -4417,9 +4711,15 @@
       <c r="W51" t="n">
         <v>0.04026411431354488</v>
       </c>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
+      <c r="X51" t="n">
+        <v>0.3041391449841406</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.3081655564154951</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.1037503655998495</v>
+      </c>
       <c r="AA51" t="n">
         <v>0.0644</v>
       </c>
@@ -4494,9 +4794,15 @@
       <c r="W52" t="n">
         <v>0.009009570282212808</v>
       </c>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
+      <c r="X52" t="n">
+        <v>0.2428469173470156</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.2437478743752369</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.1057174162520783</v>
+      </c>
       <c r="AA52" t="n">
         <v>0.0644</v>
       </c>
@@ -4571,9 +4877,15 @@
       <c r="W53" t="n">
         <v>0.009978483517149275</v>
       </c>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
+      <c r="X53" t="n">
+        <v>0.4883312360034839</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.4893290843551988</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.1117426516127094</v>
+      </c>
       <c r="AA53" t="n">
         <v>0.0644</v>
       </c>
@@ -4648,9 +4960,15 @@
       <c r="W54" t="n">
         <v>0.0606607053200113</v>
       </c>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
+      <c r="X54" t="n">
+        <v>0.3351849332466332</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.3412510037786344</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.1076776634266864</v>
+      </c>
       <c r="AA54" t="n">
         <v>0.06440000784252216</v>
       </c>
@@ -4725,11 +5043,17 @@
       <c r="W55" t="n">
         <v>0.02686988155174378</v>
       </c>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
+      <c r="X55" t="n">
+        <v>0.5205115259106186</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.523198514065793</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.06282793176082867</v>
+      </c>
       <c r="AA55" t="n">
-        <v>0.06639009287925697</v>
+        <v>0.06282793176082867</v>
       </c>
     </row>
     <row r="56">
@@ -4802,9 +5126,15 @@
       <c r="W56" t="n">
         <v>0.0071870197711724</v>
       </c>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
+      <c r="X56" t="n">
+        <v>0.2463585397026495</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.2470772416797668</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.1577138243644444</v>
+      </c>
       <c r="AA56" t="n">
         <v>0.0698</v>
       </c>
@@ -4879,9 +5209,15 @@
       <c r="W57" t="n">
         <v>0.03065244635669405</v>
       </c>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
+      <c r="X57" t="n">
+        <v>0.2768475401191155</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.2799127847547849</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.111079151190504</v>
+      </c>
       <c r="AA57" t="n">
         <v>0.06941040596520298</v>
       </c>
@@ -4956,11 +5292,17 @@
       <c r="W58" t="n">
         <v>0</v>
       </c>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
+      <c r="X58" t="n">
+        <v>0.8247384811420462</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.8779917228247895</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.0640873382838152</v>
+      </c>
       <c r="AA58" t="n">
-        <v>0.09116357647058823</v>
+        <v>0.0640873382838152</v>
       </c>
     </row>
     <row r="59">
@@ -5033,9 +5375,15 @@
       <c r="W59" t="n">
         <v>0.006791469432082893</v>
       </c>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
+      <c r="X59" t="n">
+        <v>0.2258486310531518</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.2265277779963601</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.0973030752760613</v>
+      </c>
       <c r="AA59" t="n">
         <v>0.08800666666666666</v>
       </c>
@@ -5110,9 +5458,15 @@
       <c r="W60" t="n">
         <v>0</v>
       </c>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
+      <c r="X60" t="n">
+        <v>0.3228895860393746</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.3281189751515732</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.08999801948585327</v>
+      </c>
       <c r="AA60" t="n">
         <v>0.08846352941176472</v>
       </c>
@@ -5187,9 +5541,15 @@
       <c r="W61" t="n">
         <v>0.02552242385678162</v>
       </c>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
+      <c r="X61" t="n">
+        <v>0.2179194951040162</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.2204717374896944</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.09739737799308434</v>
+      </c>
       <c r="AA61" t="n">
         <v>0.0884635294117647</v>
       </c>
@@ -5264,9 +5624,15 @@
       <c r="W62" t="n">
         <v>0.01554073448631824</v>
       </c>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
+      <c r="X62" t="n">
+        <v>0.2360861470840769</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.2376402205327088</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.08726054567305268</v>
+      </c>
       <c r="AA62" t="n">
         <v>0.0698</v>
       </c>
@@ -5341,9 +5707,15 @@
       <c r="W63" t="n">
         <v>0.005222021067463717</v>
       </c>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
+      <c r="X63" t="n">
+        <v>0.2585674829766391</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.2590896850833855</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0.08556796471276393</v>
+      </c>
       <c r="AA63" t="n">
         <v>0.0698</v>
       </c>
@@ -5418,9 +5790,15 @@
       <c r="W64" t="n">
         <v>0.04061588363089426</v>
       </c>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
+      <c r="X64" t="n">
+        <v>0.2315749167244123</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0.2356365050875018</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0.05546206600763421</v>
+      </c>
       <c r="AA64" t="n">
         <v>0.02723</v>
       </c>
@@ -5495,9 +5873,15 @@
       <c r="W65" t="n">
         <v>0</v>
       </c>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
+      <c r="X65" t="n">
+        <v>0.2361952770518776</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.2361952770518776</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0.0775703935422981</v>
+      </c>
       <c r="AA65" t="n">
         <v>0.02723</v>
       </c>
@@ -5572,11 +5956,17 @@
       <c r="W66" t="n">
         <v>0.008840504951976129</v>
       </c>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.0008840504951976129</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0.006181917209444748</v>
+      </c>
       <c r="AA66" t="n">
-        <v>0.02723</v>
+        <v>0.006181917209444748</v>
       </c>
     </row>
     <row r="67">
@@ -5649,9 +6039,15 @@
       <c r="W67" t="n">
         <v>0.01531570160597776</v>
       </c>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
+      <c r="X67" t="n">
+        <v>0.2418631725651086</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.2433947427257064</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.08250872790784883</v>
+      </c>
       <c r="AA67" t="n">
         <v>0.03193</v>
       </c>
@@ -5726,9 +6122,15 @@
       <c r="W68" t="n">
         <v>0.06078014026645991</v>
       </c>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
+      <c r="X68" t="n">
+        <v>0.3757020776630167</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.3817800916896626</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.06921020160480336</v>
+      </c>
       <c r="AA68" t="n">
         <v>0.059919375</v>
       </c>
@@ -5803,9 +6205,15 @@
       <c r="W69" t="n">
         <v>0.07269664068827095</v>
       </c>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
+      <c r="X69" t="n">
+        <v>0.2923498458131375</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0.2996195098819646</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0.07413330693304214</v>
+      </c>
       <c r="AA69" t="n">
         <v>0.05991805555555556</v>
       </c>
@@ -5880,9 +6288,15 @@
       <c r="W70" t="n">
         <v>0.0685372963410706</v>
       </c>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
+      <c r="X70" t="n">
+        <v>0.3760635566182164</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0.3829172862523235</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0.1640397154536101</v>
+      </c>
       <c r="AA70" t="n">
         <v>0.162639375</v>
       </c>
@@ -5957,9 +6371,15 @@
       <c r="W71" t="n">
         <v>0.01785844758499477</v>
       </c>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
+      <c r="X71" t="n">
+        <v>0.2577620588122211</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0.2595479035707206</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0.08316563848610171</v>
+      </c>
       <c r="AA71" t="n">
         <v>0.064339375</v>
       </c>
@@ -6034,11 +6454,17 @@
       <c r="W72" t="n">
         <v>0.0667516151017573</v>
       </c>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
+      <c r="X72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1.006675161510176</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0.02851973766481338</v>
+      </c>
       <c r="AA72" t="n">
-        <v>0.064339375</v>
+        <v>0.02851973766481338</v>
       </c>
     </row>
     <row r="73">
@@ -6111,9 +6537,15 @@
       <c r="W73" t="n">
         <v>0</v>
       </c>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
+      <c r="X73" t="n">
+        <v>0.2885598857870508</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0.2885598857870508</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0.07283628765435914</v>
+      </c>
       <c r="AA73" t="n">
         <v>0.06410286458333334</v>
       </c>
@@ -6143,18 +6575,14 @@
       <c r="H74" t="n">
         <v>96000</v>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I74" t="n">
+        <v>100</v>
       </c>
       <c r="J74" t="n">
         <v>24744.5</v>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="K74" t="n">
+        <v>100</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -6192,9 +6620,15 @@
       <c r="W74" t="n">
         <v>0</v>
       </c>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0.2945757063330484</v>
+      </c>
       <c r="AA74" t="n">
         <v>0.161557169117647</v>
       </c>
@@ -6269,9 +6703,15 @@
       <c r="W75" t="n">
         <v>0</v>
       </c>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
+      <c r="X75" t="n">
+        <v>0.6858278451694393</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0.6858278451694393</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0.1801524896120109</v>
+      </c>
       <c r="AA75" t="n">
         <v>0.178345</v>
       </c>
@@ -6346,9 +6786,15 @@
       <c r="W76" t="n">
         <v>0.03243389487769542</v>
       </c>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0.07456552159541438</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0.4182177408384341</v>
+      </c>
       <c r="AA76" t="n">
         <v>0.3232087626128518</v>
       </c>
@@ -6423,9 +6869,15 @@
       <c r="W77" t="n">
         <v>0</v>
       </c>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
+      <c r="X77" t="n">
+        <v>0.2282715413485714</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0.2282715413485714</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0.08335466809954656</v>
+      </c>
       <c r="AA77" t="n">
         <v>0.05163</v>
       </c>
@@ -6500,9 +6952,15 @@
       <c r="W78" t="n">
         <v>0</v>
       </c>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
+      <c r="X78" t="n">
+        <v>0.2736834460836222</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0.2736834460836222</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0.4053254960375146</v>
+      </c>
       <c r="AA78" t="n">
         <v>0.39567</v>
       </c>
@@ -6577,11 +7035,17 @@
       <c r="W79" t="n">
         <v>0.03925136787780661</v>
       </c>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
+      <c r="X79" t="n">
+        <v>0.5072514472869769</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0.5111765840747575</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0.3396908211012397</v>
+      </c>
       <c r="AA79" t="n">
-        <v>0.39567</v>
+        <v>0.3396908211012397</v>
       </c>
     </row>
     <row r="80">
@@ -6654,9 +7118,15 @@
       <c r="W80" t="n">
         <v>0</v>
       </c>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
+      <c r="X80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0.1843926504308914</v>
+      </c>
       <c r="AA80" t="n">
         <v>0.1136090909090909</v>
       </c>
@@ -6731,11 +7201,17 @@
       <c r="W81" t="n">
         <v>0.04525994252246823</v>
       </c>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
+      <c r="X81" t="n">
+        <v>0.7026872438908804</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0.7072132381431273</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0.09406763908954191</v>
+      </c>
       <c r="AA81" t="n">
-        <v>0.1247427272727273</v>
+        <v>0.09406763908954191</v>
       </c>
     </row>
     <row r="82">
@@ -6808,9 +7284,15 @@
       <c r="W82" t="n">
         <v>0.04543593670996864</v>
       </c>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
+      <c r="X82" t="n">
+        <v>0.2268866033035948</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0.2314301969745916</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>0.1373631957863578</v>
+      </c>
       <c r="AA82" t="n">
         <v>0.1247427272727273</v>
       </c>
@@ -6885,9 +7367,15 @@
       <c r="W83" t="n">
         <v>0.02115847208035751</v>
       </c>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
+      <c r="X83" t="n">
+        <v>0.2361201236307531</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0.2382359708387888</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0.1223903999890476</v>
+      </c>
       <c r="AA83" t="n">
         <v>0.08565</v>
       </c>
@@ -6962,9 +7450,15 @@
       <c r="W84" t="n">
         <v>0.007929511040684333</v>
       </c>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
+      <c r="X84" t="n">
+        <v>0.2420625316403076</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0.242855482744376</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0.1371675317267979</v>
+      </c>
       <c r="AA84" t="n">
         <v>0.08565005753739931</v>
       </c>
@@ -7039,9 +7533,15 @@
       <c r="W85" t="n">
         <v>0.00466648542948596</v>
       </c>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
+      <c r="X85" t="n">
+        <v>0.2365696940960436</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0.2370363426389921</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0.1374317861934563</v>
+      </c>
       <c r="AA85" t="n">
         <v>0.08564999999999999</v>
       </c>
@@ -7116,9 +7616,15 @@
       <c r="W86" t="n">
         <v>0.02614167974843966</v>
       </c>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr"/>
+      <c r="X86" t="n">
+        <v>0.06608145815187783</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0.07756674083663667</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>0.1556102353818631</v>
+      </c>
       <c r="AA86" t="n">
         <v>0.08565</v>
       </c>
@@ -7193,9 +7699,15 @@
       <c r="W87" t="n">
         <v>0</v>
       </c>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
+      <c r="X87" t="n">
+        <v>0.2388483728257718</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0.2388483728257718</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0.1285086865021361</v>
+      </c>
       <c r="AA87" t="n">
         <v>0.08564999999999999</v>
       </c>
@@ -7270,9 +7782,15 @@
       <c r="W88" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
+      <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0.1352190158426462</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0.1471525289263172</v>
+      </c>
       <c r="AA88" t="n">
         <v>0.1247427272727273</v>
       </c>
@@ -7347,11 +7865,17 @@
       <c r="W89" t="n">
         <v>0</v>
       </c>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
+      <c r="X89" t="n">
+        <v>0.2796853693024208</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>0.2796853693024208</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>-0.006458613692900034</v>
+      </c>
       <c r="AA89" t="n">
-        <v>0.1247430303030303</v>
+        <v>-0.006458613692900034</v>
       </c>
     </row>
     <row r="90">
@@ -7424,9 +7948,15 @@
       <c r="W90" t="n">
         <v>0.03489604848853785</v>
       </c>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
+      <c r="X90" t="n">
+        <v>0.2299930947169087</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0.2334826995657624</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0.1392433709365758</v>
+      </c>
       <c r="AA90" t="n">
         <v>0.1247427272727273</v>
       </c>
@@ -7501,11 +8031,17 @@
       <c r="W91" t="n">
         <v>0</v>
       </c>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
+      <c r="X91" t="n">
+        <v>0.6080991818149422</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0.6574077431186658</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0.07862975437526203</v>
+      </c>
       <c r="AA91" t="n">
-        <v>0.1247431818181818</v>
+        <v>0.07862975437526203</v>
       </c>
     </row>
     <row r="92">
@@ -7578,9 +8114,15 @@
       <c r="W92" t="n">
         <v>0</v>
       </c>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
+      <c r="X92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>0.1440176504308914</v>
+      </c>
       <c r="AA92" t="n">
         <v>0.1136090909090909</v>
       </c>
@@ -7655,9 +8197,15 @@
       <c r="W93" t="n">
         <v>0</v>
       </c>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
+      <c r="X93" t="n">
+        <v>0.3197913074999261</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0.3197913074999261</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0.4722261850118533</v>
+      </c>
       <c r="AA93" t="n">
         <v>0.3920727272727273</v>
       </c>
@@ -7732,9 +8280,15 @@
       <c r="W94" t="n">
         <v>0</v>
       </c>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
+      <c r="X94" t="n">
+        <v>0.7935185349515583</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0.7935185349515583</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>0.09546563088258678</v>
+      </c>
       <c r="AA94" t="n">
         <v>0.08564999999999999</v>
       </c>
@@ -7809,9 +8363,15 @@
       <c r="W95" t="n">
         <v>0</v>
       </c>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
+      <c r="X95" t="n">
+        <v>0.2812724790506322</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>0.2812724790506322</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>0.3444878162266664</v>
+      </c>
       <c r="AA95" t="n">
         <v>0.2272499780412824</v>
       </c>
@@ -7886,9 +8446,15 @@
       <c r="W96" t="n">
         <v>0.004071715505251533</v>
       </c>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
+      <c r="X96" t="n">
+        <v>0.2332848820652409</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0.2336920536157661</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>0.3934260946752718</v>
+      </c>
       <c r="AA96" t="n">
         <v>0.22725</v>
       </c>
@@ -7963,9 +8529,15 @@
       <c r="W97" t="n">
         <v>0</v>
       </c>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
+      <c r="X97" t="n">
+        <v>0.2637172924056204</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0.2637172924056204</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0.34816612894887</v>
+      </c>
       <c r="AA97" t="n">
         <v>0.2272500622665006</v>
       </c>
@@ -8040,9 +8612,15 @@
       <c r="W98" t="n">
         <v>0.06003025866227112</v>
       </c>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
+      <c r="X98" t="n">
+        <v>0.4718780370230167</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0.4778810628892438</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>0.3715763390672426</v>
+      </c>
       <c r="AA98" t="n">
         <v>0.22725</v>
       </c>
@@ -8117,9 +8695,15 @@
       <c r="W99" t="n">
         <v>0.06482089825786419</v>
       </c>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
+      <c r="X99" t="n">
+        <v>0.6662833992196138</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>0.6727654890454002</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>0.29152659515874</v>
+      </c>
       <c r="AA99" t="n">
         <v>0.22725</v>
       </c>
@@ -8194,11 +8778,17 @@
       <c r="W100" t="n">
         <v>0</v>
       </c>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
+      <c r="X100" t="n">
+        <v>0.4148853613595591</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>0.4148853613595591</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>0.2198363596869536</v>
+      </c>
       <c r="AA100" t="n">
-        <v>0.22869</v>
+        <v>0.2198363596869536</v>
       </c>
     </row>
     <row r="101">
@@ -8271,9 +8861,15 @@
       <c r="W101" t="n">
         <v>0</v>
       </c>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
+      <c r="X101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>0.2400399418024357</v>
+      </c>
       <c r="AA101" t="n">
         <v>0.1360181818181818</v>
       </c>
@@ -8348,9 +8944,15 @@
       <c r="W102" t="n">
         <v>0.007253864969032776</v>
       </c>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr"/>
+      <c r="X102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0.0007253864969032777</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>0.187995474159261</v>
+      </c>
       <c r="AA102" t="n">
         <v>0.1282636363636364</v>
       </c>
@@ -8425,9 +9027,15 @@
       <c r="W103" t="n">
         <v>0.01883628588893898</v>
       </c>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
-      <c r="Z103" t="inlineStr"/>
+      <c r="X103" t="n">
+        <v>0.2926313336269906</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>0.2945149622158845</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>0.1710873320659027</v>
+      </c>
       <c r="AA103" t="n">
         <v>0.1277536363636363</v>
       </c>
@@ -8502,9 +9110,15 @@
       <c r="W104" t="n">
         <v>0</v>
       </c>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="inlineStr"/>
+      <c r="X104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0.1529234889897693</v>
+      </c>
       <c r="AA104" t="n">
         <v>0.09383337169159954</v>
       </c>
@@ -8579,9 +9193,15 @@
       <c r="W105" t="n">
         <v>0.01718349782208015</v>
       </c>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="inlineStr"/>
+      <c r="X105" t="n">
+        <v>0.4033419983840327</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>0.4050603481662408</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>0.1090295203304781</v>
+      </c>
       <c r="AA105" t="n">
         <v>0.08334999999999999</v>
       </c>
@@ -8656,9 +9276,15 @@
       <c r="W106" t="n">
         <v>0</v>
       </c>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="inlineStr"/>
+      <c r="X106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0.0493119562332472</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>0.1479082368252582</v>
+      </c>
       <c r="AA106" t="n">
         <v>0.09023</v>
       </c>
@@ -8733,11 +9359,17 @@
       <c r="W107" t="n">
         <v>0</v>
       </c>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
-      <c r="Z107" t="inlineStr"/>
+      <c r="X107" t="n">
+        <v>0.782945528648487</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>0.782945528648487</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0.0867391462528978</v>
+      </c>
       <c r="AA107" t="n">
-        <v>0.09022999999999999</v>
+        <v>0.0867391462528978</v>
       </c>
     </row>
     <row r="108">
@@ -8810,9 +9442,15 @@
       <c r="W108" t="n">
         <v>0.01531008508076474</v>
       </c>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
-      <c r="Z108" t="inlineStr"/>
+      <c r="X108" t="n">
+        <v>0.2378696907743298</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0.2394006992824063</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0.1405526352067082</v>
+      </c>
       <c r="AA108" t="n">
         <v>0.08335000000000001</v>
       </c>
@@ -8887,9 +9525,15 @@
       <c r="W109" t="n">
         <v>0</v>
       </c>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="inlineStr"/>
+      <c r="X109" t="n">
+        <v>0.740788847097299</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0.740788847097299</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>0.08537154994457438</v>
+      </c>
       <c r="AA109" t="n">
         <v>0.08335000000000001</v>
       </c>
@@ -8964,9 +9608,15 @@
       <c r="W110" t="n">
         <v>0.02651221987373751</v>
       </c>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
-      <c r="Z110" t="inlineStr"/>
+      <c r="X110" t="n">
+        <v>0.3957655659906243</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0.3984167879779981</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>0.3206013344575937</v>
+      </c>
       <c r="AA110" t="n">
         <v>0.2382300653594771</v>
       </c>
@@ -9041,9 +9691,15 @@
       <c r="W111" t="n">
         <v>0</v>
       </c>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="inlineStr"/>
+      <c r="X111" t="n">
+        <v>0.6986532602563817</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0.6986532602563817</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>0.2440248383971543</v>
+      </c>
       <c r="AA111" t="n">
         <v>0.23823</v>
       </c>
@@ -9118,9 +9774,15 @@
       <c r="W112" t="n">
         <v>0</v>
       </c>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="inlineStr"/>
+      <c r="X112" t="n">
+        <v>0.3819053850492</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>0.3819053850492</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>0.01503592062318131</v>
+      </c>
       <c r="AA112" t="n">
         <v>0.01338</v>
       </c>
@@ -9195,11 +9857,17 @@
       <c r="W113" t="n">
         <v>0</v>
       </c>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
-      <c r="Z113" t="inlineStr"/>
+      <c r="X113" t="n">
+        <v>0.4277170767333025</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0.4277170767333025</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0.0133623015844779</v>
+      </c>
       <c r="AA113" t="n">
-        <v>0.01338</v>
+        <v>0.0133623015844779</v>
       </c>
     </row>
     <row r="114">
@@ -9272,9 +9940,15 @@
       <c r="W114" t="n">
         <v>0.008243764894132265</v>
       </c>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="inlineStr"/>
+      <c r="X114" t="n">
+        <v>0.4676493632758589</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>0.4684737397652722</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>0.01617205456038808</v>
+      </c>
       <c r="AA114" t="n">
         <v>0.01338</v>
       </c>
@@ -9349,9 +10023,15 @@
       <c r="W115" t="n">
         <v>0.01490329904142571</v>
       </c>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
-      <c r="Z115" t="inlineStr"/>
+      <c r="X115" t="n">
+        <v>0.439924219925349</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0.4414145498294916</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0.0139546908181882</v>
+      </c>
       <c r="AA115" t="n">
         <v>0.01338</v>
       </c>
@@ -9426,9 +10106,15 @@
       <c r="W116" t="n">
         <v>0.00279358348665857</v>
       </c>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
-      <c r="Z116" t="inlineStr"/>
+      <c r="X116" t="n">
+        <v>0.3526151267017208</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>0.3528944850503867</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>0.01509903773529633</v>
+      </c>
       <c r="AA116" t="n">
         <v>0.01338</v>
       </c>
@@ -9503,11 +10189,17 @@
       <c r="W117" t="n">
         <v>0.01058488607732698</v>
       </c>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
-      <c r="Z117" t="inlineStr"/>
+      <c r="X117" t="n">
+        <v>0.4874171881443117</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>0.4884756767520444</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>0.01388979983881574</v>
+      </c>
       <c r="AA117" t="n">
-        <v>0.01443</v>
+        <v>0.01388979983881574</v>
       </c>
     </row>
     <row r="118">
@@ -9580,9 +10272,15 @@
       <c r="W118" t="n">
         <v>0.06793571104327958</v>
       </c>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
-      <c r="Z118" t="inlineStr"/>
+      <c r="X118" t="n">
+        <v>0.3124161467687812</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>0.3192097178731091</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>0.01747504539139622</v>
+      </c>
       <c r="AA118" t="n">
         <v>0.01443</v>
       </c>
@@ -9657,9 +10355,15 @@
       <c r="W119" t="n">
         <v>0.09321470745488747</v>
       </c>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
-      <c r="Z119" t="inlineStr"/>
+      <c r="X119" t="n">
+        <v>0.3685657653046976</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>0.3778872360501864</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>0.01689832880410099</v>
+      </c>
       <c r="AA119" t="n">
         <v>0.01443</v>
       </c>
@@ -9734,9 +10438,15 @@
       <c r="W120" t="n">
         <v>0.007090393015077145</v>
       </c>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
-      <c r="Z120" t="inlineStr"/>
+      <c r="X120" t="n">
+        <v>0.05931956283772455</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>0.06002860213923226</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>0.01966821778032496</v>
+      </c>
       <c r="AA120" t="n">
         <v>0.01443</v>
       </c>
@@ -9811,9 +10521,15 @@
       <c r="W121" t="n">
         <v>0</v>
       </c>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
-      <c r="Z121" t="inlineStr"/>
+      <c r="X121" t="n">
+        <v>0.2353795024162866</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>0.2353795024162866</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>0.01767353384599009</v>
+      </c>
       <c r="AA121" t="n">
         <v>0.01459</v>
       </c>
@@ -9888,11 +10604,17 @@
       <c r="W122" t="n">
         <v>0</v>
       </c>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
-      <c r="Z122" t="inlineStr"/>
+      <c r="X122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>0.003325207223856732</v>
+      </c>
       <c r="AA122" t="n">
-        <v>0.01459</v>
+        <v>0.003325207223856732</v>
       </c>
     </row>
     <row r="123">
@@ -9965,9 +10687,15 @@
       <c r="W123" t="n">
         <v>0</v>
       </c>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
-      <c r="Z123" t="inlineStr"/>
+      <c r="X123" t="n">
+        <v>0.2355993374235883</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>0.2355993374235883</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>0.01180420672249274</v>
+      </c>
       <c r="AA123" t="n">
         <v>0.01112</v>
       </c>
@@ -10042,11 +10770,17 @@
       <c r="W124" t="n">
         <v>0.02663654192383648</v>
       </c>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
-      <c r="Z124" t="inlineStr"/>
+      <c r="X124" t="n">
+        <v>0.4559668314651062</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>0.4586304856574898</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>0.00943169905238187</v>
+      </c>
       <c r="AA124" t="n">
-        <v>0.01112</v>
+        <v>0.00943169905238187</v>
       </c>
     </row>
     <row r="125">
@@ -10119,9 +10853,15 @@
       <c r="W125" t="n">
         <v>0.05810665377217365</v>
       </c>
-      <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
-      <c r="Z125" t="inlineStr"/>
+      <c r="X125" t="n">
+        <v>0.2409854076076019</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>0.2467960729848193</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>0.01508201452021503</v>
+      </c>
       <c r="AA125" t="n">
         <v>0.012</v>
       </c>
@@ -10196,9 +10936,15 @@
       <c r="W126" t="n">
         <v>0.008096214916105826</v>
       </c>
-      <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
-      <c r="Z126" t="inlineStr"/>
+      <c r="X126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>0.0008096214916105826</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>0.01822226362333556</v>
+      </c>
       <c r="AA126" t="n">
         <v>0.01156</v>
       </c>
@@ -10273,11 +11019,17 @@
       <c r="W127" t="n">
         <v>0</v>
       </c>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
-      <c r="Z127" t="inlineStr"/>
+      <c r="X127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>0.00297650488989506</v>
+      </c>
       <c r="AA127" t="n">
-        <v>0.01306</v>
+        <v>0.00297650488989506</v>
       </c>
     </row>
     <row r="128">
@@ -10350,9 +11102,15 @@
       <c r="W128" t="n">
         <v>0.7637658305497388</v>
       </c>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
-      <c r="Z128" t="inlineStr"/>
+      <c r="X128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>0.07637658305497388</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>0.0193930267151971</v>
+      </c>
       <c r="AA128" t="n">
         <v>0.01306</v>
       </c>
@@ -10427,9 +11185,15 @@
       <c r="W129" t="n">
         <v>0.06309786742165871</v>
       </c>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
-      <c r="Z129" t="inlineStr"/>
+      <c r="X129" t="n">
+        <v>0.2251749503859446</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>0.2314847371281105</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>0.01681146237115009</v>
+      </c>
       <c r="AA129" t="n">
         <v>0.01306</v>
       </c>
@@ -10504,9 +11268,15 @@
       <c r="W130" t="n">
         <v>0.02783382276553903</v>
       </c>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
-      <c r="Z130" t="inlineStr"/>
+      <c r="X130" t="n">
+        <v>0.235462418690791</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>0.2382458009673449</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>0.01688097964154224</v>
+      </c>
       <c r="AA130" t="n">
         <v>0.01306</v>
       </c>
@@ -10581,9 +11351,15 @@
       <c r="W131" t="n">
         <v>0.03428692595756071</v>
       </c>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
-      <c r="Z131" t="inlineStr"/>
+      <c r="X131" t="n">
+        <v>0.2694155643016412</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>0.2728442568973972</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>0.01623871445037061</v>
+      </c>
       <c r="AA131" t="n">
         <v>0.01306</v>
       </c>
@@ -10658,9 +11434,15 @@
       <c r="W132" t="n">
         <v>0</v>
       </c>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
-      <c r="Z132" t="inlineStr"/>
+      <c r="X132" t="n">
+        <v>0.2364216373562231</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>0.2364216373562231</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>0.01665681848894962</v>
+      </c>
       <c r="AA132" t="n">
         <v>0.01306</v>
       </c>
@@ -10735,9 +11517,15 @@
       <c r="W133" t="n">
         <v>0.0564600137134214</v>
       </c>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
-      <c r="Z133" t="inlineStr"/>
+      <c r="X133" t="n">
+        <v>0.2366843368147951</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>0.2423303381861372</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>0.01553868317318411</v>
+      </c>
       <c r="AA133" t="n">
         <v>0.01306</v>
       </c>
@@ -10812,9 +11600,15 @@
       <c r="W134" t="n">
         <v>0.04764293406231317</v>
       </c>
-      <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
-      <c r="Z134" t="inlineStr"/>
+      <c r="X134" t="n">
+        <v>0.24199649113402</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>0.2467607845402513</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>0.01589796514979017</v>
+      </c>
       <c r="AA134" t="n">
         <v>0.01306</v>
       </c>
@@ -10889,9 +11683,15 @@
       <c r="W135" t="n">
         <v>0.07577133082993451</v>
       </c>
-      <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
-      <c r="Z135" t="inlineStr"/>
+      <c r="X135" t="n">
+        <v>0.3629929366190867</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>0.3705700697020802</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>0.01434905736023105</v>
+      </c>
       <c r="AA135" t="n">
         <v>0.01306</v>
       </c>
@@ -10966,9 +11766,15 @@
       <c r="W136" t="n">
         <v>0</v>
       </c>
-      <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
-      <c r="Z136" t="inlineStr"/>
+      <c r="X136" t="n">
+        <v>0.2407013321759557</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>0.2407013321759557</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>0.01774543331269617</v>
+      </c>
       <c r="AA136" t="n">
         <v>0.01396</v>
       </c>
@@ -11043,11 +11849,17 @@
       <c r="W137" t="n">
         <v>0.01334751311649006</v>
       </c>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
-      <c r="Z137" t="inlineStr"/>
+      <c r="X137" t="n">
+        <v>0.4738678588534373</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>0.4752026101650863</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>0.01352575881209011</v>
+      </c>
       <c r="AA137" t="n">
-        <v>0.01396</v>
+        <v>0.01352575881209011</v>
       </c>
     </row>
     <row r="138">
@@ -11120,9 +11932,15 @@
       <c r="W138" t="n">
         <v>0.0346536211162646</v>
       </c>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
-      <c r="Z138" t="inlineStr"/>
+      <c r="X138" t="n">
+        <v>0.2773859896303468</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>0.2808513517419732</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>0.01630634133840515</v>
+      </c>
       <c r="AA138" t="n">
         <v>0.01396</v>
       </c>
@@ -11197,9 +12015,15 @@
       <c r="W139" t="n">
         <v>0</v>
       </c>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
-      <c r="Z139" t="inlineStr"/>
+      <c r="X139" t="n">
+        <v>0.2545114483383375</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>0.2545114483383375</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>0.01674581223266224</v>
+      </c>
       <c r="AA139" t="n">
         <v>0.01396</v>
       </c>
@@ -11274,9 +12098,15 @@
       <c r="W140" t="n">
         <v>0.007355744386271713</v>
       </c>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
-      <c r="Z140" t="inlineStr"/>
+      <c r="X140" t="n">
+        <v>0.2616513608605426</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>0.2623869352991698</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>0.0192339218876907</v>
+      </c>
       <c r="AA140" t="n">
         <v>0.01396</v>
       </c>
@@ -11351,9 +12181,15 @@
       <c r="W141" t="n">
         <v>0.00827623381905636</v>
       </c>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
-      <c r="Z141" t="inlineStr"/>
+      <c r="X141" t="n">
+        <v>0.4536257686455372</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>0.4544533920274428</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>0.01975852245680444</v>
+      </c>
       <c r="AA141" t="n">
         <v>0.01397</v>
       </c>
@@ -11428,9 +12264,15 @@
       <c r="W142" t="n">
         <v>0.0113697736325531</v>
       </c>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
+      <c r="X142" t="n">
+        <v>0.4741444526945076</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>0.4752814300577629</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>0.01955755476552087</v>
+      </c>
       <c r="AA142" t="n">
         <v>0.01397</v>
       </c>
@@ -11505,9 +12347,15 @@
       <c r="W143" t="n">
         <v>0.01160344936576794</v>
       </c>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr"/>
+      <c r="X143" t="n">
+        <v>0.3251267503792901</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>0.3262870953158669</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>0.01830567228853183</v>
+      </c>
       <c r="AA143" t="n">
         <v>0.01397</v>
       </c>
@@ -11582,9 +12430,15 @@
       <c r="W144" t="n">
         <v>0.03461050254425514</v>
       </c>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
-      <c r="Z144" t="inlineStr"/>
+      <c r="X144" t="n">
+        <v>0.4461980680226778</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>0.4496591182771033</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>0.01661216512776335</v>
+      </c>
       <c r="AA144" t="n">
         <v>0.01397</v>
       </c>
@@ -11659,11 +12513,17 @@
       <c r="W145" t="n">
         <v>0.02111881315787539</v>
       </c>
-      <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
-      <c r="Z145" t="inlineStr"/>
+      <c r="X145" t="n">
+        <v>0.3776112895739225</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>0.3797231708897101</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>0.01259045236404729</v>
+      </c>
       <c r="AA145" t="n">
-        <v>0.01397</v>
+        <v>0.01259045236404729</v>
       </c>
     </row>
     <row r="146">
@@ -11736,9 +12596,15 @@
       <c r="W146" t="n">
         <v>0.03600852375314537</v>
       </c>
-      <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr"/>
-      <c r="Z146" t="inlineStr"/>
+      <c r="X146" t="n">
+        <v>0.3302272825650785</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>0.3710155740713196</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>0.02038081544031815</v>
+      </c>
       <c r="AA146" t="n">
         <v>0.01397</v>
       </c>
@@ -11813,9 +12679,15 @@
       <c r="W147" t="n">
         <v>0.01995613829288603</v>
       </c>
-      <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
-      <c r="Z147" t="inlineStr"/>
+      <c r="X147" t="n">
+        <v>0.4016444086065631</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>0.4036400224358517</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>0.01691304149805212</v>
+      </c>
       <c r="AA147" t="n">
         <v>0.01397</v>
       </c>
@@ -11890,11 +12762,17 @@
       <c r="W148" t="n">
         <v>0.1006290901538872</v>
       </c>
-      <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
-      <c r="Z148" t="inlineStr"/>
+      <c r="X148" t="n">
+        <v>0.2363822605637176</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>0.2464451695791063</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>0.01264187044268727</v>
+      </c>
       <c r="AA148" t="n">
-        <v>0.01397</v>
+        <v>0.01264187044268727</v>
       </c>
     </row>
     <row r="149">
@@ -11967,9 +12845,15 @@
       <c r="W149" t="n">
         <v>0</v>
       </c>
-      <c r="X149" t="inlineStr"/>
-      <c r="Y149" t="inlineStr"/>
-      <c r="Z149" t="inlineStr"/>
+      <c r="X149" t="n">
+        <v>0.3672452926943084</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>0.3672452926943084</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>0.007890128174142873</v>
+      </c>
       <c r="AA149" t="n">
         <v>0.005840000000000001</v>
       </c>
@@ -12044,9 +12928,15 @@
       <c r="W150" t="n">
         <v>0</v>
       </c>
-      <c r="X150" t="inlineStr"/>
-      <c r="Y150" t="inlineStr"/>
-      <c r="Z150" t="inlineStr"/>
+      <c r="X150" t="n">
+        <v>0.4097771788255125</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>0.4097771788255125</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>0.007151896701347835</v>
+      </c>
       <c r="AA150" t="n">
         <v>0.00584</v>
       </c>
@@ -12121,9 +13011,15 @@
       <c r="W151" t="n">
         <v>0.003701335762880492</v>
       </c>
-      <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr"/>
-      <c r="Z151" t="inlineStr"/>
+      <c r="X151" t="n">
+        <v>0.2359143517636317</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>0.2362844853399198</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>0.007627382892321231</v>
+      </c>
       <c r="AA151" t="n">
         <v>0.00584</v>
       </c>
@@ -12198,9 +13094,15 @@
       <c r="W152" t="n">
         <v>0.01154731670666392</v>
       </c>
-      <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr"/>
-      <c r="Z152" t="inlineStr"/>
+      <c r="X152" t="n">
+        <v>0.2385155826765402</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>0.2396703143472066</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>0.008250919893843795</v>
+      </c>
       <c r="AA152" t="n">
         <v>0.00584</v>
       </c>
@@ -12275,11 +13177,17 @@
       <c r="W153" t="n">
         <v>0.02376644426620868</v>
       </c>
-      <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="inlineStr"/>
-      <c r="Z153" t="inlineStr"/>
+      <c r="X153" t="n">
+        <v>0.5588929293540685</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>0.6028391615767902</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>0.005757080492689694</v>
+      </c>
       <c r="AA153" t="n">
-        <v>0.005840000000000001</v>
+        <v>0.005757080492689694</v>
       </c>
     </row>
     <row r="154">
@@ -12352,9 +13260,15 @@
       <c r="W154" t="n">
         <v>0.009190955934168351</v>
       </c>
-      <c r="X154" t="inlineStr"/>
-      <c r="Y154" t="inlineStr"/>
-      <c r="Z154" t="inlineStr"/>
+      <c r="X154" t="n">
+        <v>0.2956051815021217</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>0.2965242770955385</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>0.007206712751393536</v>
+      </c>
       <c r="AA154" t="n">
         <v>0.00584</v>
       </c>
@@ -12429,9 +13343,15 @@
       <c r="W155" t="n">
         <v>0.1162388682467091</v>
       </c>
-      <c r="X155" t="inlineStr"/>
-      <c r="Y155" t="inlineStr"/>
-      <c r="Z155" t="inlineStr"/>
+      <c r="X155" t="n">
+        <v>0.2532363152918902</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>0.2648602021165611</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>0.007332785023344839</v>
+      </c>
       <c r="AA155" t="n">
         <v>0.005840000000000001</v>
       </c>
@@ -12506,9 +13426,15 @@
       <c r="W156" t="n">
         <v>0.002421527512169711</v>
       </c>
-      <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr"/>
-      <c r="Z156" t="inlineStr"/>
+      <c r="X156" t="n">
+        <v>0.2721412258788669</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>0.2723833786300839</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>0.0173587433534014</v>
+      </c>
       <c r="AA156" t="n">
         <v>0.01284</v>
       </c>
@@ -12583,11 +13509,17 @@
       <c r="W157" t="n">
         <v>0</v>
       </c>
-      <c r="X157" t="inlineStr"/>
-      <c r="Y157" t="inlineStr"/>
-      <c r="Z157" t="inlineStr"/>
+      <c r="X157" t="n">
+        <v>0.2294213436897299</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>0.2294213436897299</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>-1.940536796445012e-05</v>
+      </c>
       <c r="AA157" t="n">
-        <v>0.01284</v>
+        <v>-1.940536796445012e-05</v>
       </c>
     </row>
     <row r="158">
@@ -12660,9 +13592,15 @@
       <c r="W158" t="n">
         <v>0.02204616628166835</v>
       </c>
-      <c r="X158" t="inlineStr"/>
-      <c r="Y158" t="inlineStr"/>
-      <c r="Z158" t="inlineStr"/>
+      <c r="X158" t="n">
+        <v>0.3175416550915304</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>0.3197462717196973</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>0.01690221031123281</v>
+      </c>
       <c r="AA158" t="n">
         <v>0.01284</v>
       </c>
@@ -12737,9 +13675,15 @@
       <c r="W159" t="n">
         <v>0.009572427721392482</v>
       </c>
-      <c r="X159" t="inlineStr"/>
-      <c r="Y159" t="inlineStr"/>
-      <c r="Z159" t="inlineStr"/>
+      <c r="X159" t="n">
+        <v>0.2367669155739349</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>0.2377241583460742</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>0.01732762794843072</v>
+      </c>
       <c r="AA159" t="n">
         <v>0.01284</v>
       </c>
@@ -12814,9 +13758,15 @@
       <c r="W160" t="n">
         <v>0.02031865484858921</v>
       </c>
-      <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr"/>
-      <c r="Z160" t="inlineStr"/>
+      <c r="X160" t="n">
+        <v>0.2356828162236999</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>0.2377146817085588</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>0.01749224167602647</v>
+      </c>
       <c r="AA160" t="n">
         <v>0.01284</v>
       </c>
@@ -12891,9 +13841,15 @@
       <c r="W161" t="n">
         <v>0</v>
       </c>
-      <c r="X161" t="inlineStr"/>
-      <c r="Y161" t="inlineStr"/>
-      <c r="Z161" t="inlineStr"/>
+      <c r="X161" t="n">
+        <v>0.3184828729375315</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>0.3184828729375315</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>0.01553219216593822</v>
+      </c>
       <c r="AA161" t="n">
         <v>0.01284</v>
       </c>
@@ -12968,9 +13924,15 @@
       <c r="W162" t="n">
         <v>0.009753440938673516</v>
       </c>
-      <c r="X162" t="inlineStr"/>
-      <c r="Y162" t="inlineStr"/>
-      <c r="Z162" t="inlineStr"/>
+      <c r="X162" t="n">
+        <v>0.3054001023852859</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>0.3063754464791533</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>0.0171444701104653</v>
+      </c>
       <c r="AA162" t="n">
         <v>0.01284</v>
       </c>
@@ -13045,9 +14007,15 @@
       <c r="W163" t="n">
         <v>0.03212011324784729</v>
       </c>
-      <c r="X163" t="inlineStr"/>
-      <c r="Y163" t="inlineStr"/>
-      <c r="Z163" t="inlineStr"/>
+      <c r="X163" t="n">
+        <v>0.241175428757721</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>0.2443874400825058</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>0.02542582125870014</v>
+      </c>
       <c r="AA163" t="n">
         <v>0.01284</v>
       </c>
@@ -13122,9 +14090,15 @@
       <c r="W164" t="n">
         <v>0.03229826852914232</v>
       </c>
-      <c r="X164" t="inlineStr"/>
-      <c r="Y164" t="inlineStr"/>
-      <c r="Z164" t="inlineStr"/>
+      <c r="X164" t="n">
+        <v>0.4416480233961151</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>0.4448778502490293</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>0.02313079975448082</v>
+      </c>
       <c r="AA164" t="n">
         <v>0.01284</v>
       </c>
@@ -13199,11 +14173,17 @@
       <c r="W165" t="n">
         <v>0.02989310406191287</v>
       </c>
-      <c r="X165" t="inlineStr"/>
-      <c r="Y165" t="inlineStr"/>
-      <c r="Z165" t="inlineStr"/>
+      <c r="X165" t="n">
+        <v>0.9365819599669089</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>0.9395712703731002</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>0.009342969573421074</v>
+      </c>
       <c r="AA165" t="n">
-        <v>0.01284</v>
+        <v>0.009342969573421074</v>
       </c>
     </row>
     <row r="166">
@@ -13276,9 +14256,15 @@
       <c r="W166" t="n">
         <v>0.006864603225428645</v>
       </c>
-      <c r="X166" t="inlineStr"/>
-      <c r="Y166" t="inlineStr"/>
-      <c r="Z166" t="inlineStr"/>
+      <c r="X166" t="n">
+        <v>0.3601653454018328</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>0.3608518057243756</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>0.01663218611032345</v>
+      </c>
       <c r="AA166" t="n">
         <v>0.01284</v>
       </c>
@@ -13353,9 +14339,15 @@
       <c r="W167" t="n">
         <v>0.006750163815085634</v>
       </c>
-      <c r="X167" t="inlineStr"/>
-      <c r="Y167" t="inlineStr"/>
-      <c r="Z167" t="inlineStr"/>
+      <c r="X167" t="n">
+        <v>0.2561932873988049</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>0.2568683037803134</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>0.01409887487291573</v>
+      </c>
       <c r="AA167" t="n">
         <v>0.01284</v>
       </c>
@@ -13430,11 +14422,17 @@
       <c r="W168" t="n">
         <v>0.06389018507797624</v>
       </c>
-      <c r="X168" t="inlineStr"/>
-      <c r="Y168" t="inlineStr"/>
-      <c r="Z168" t="inlineStr"/>
+      <c r="X168" t="n">
+        <v>0.453550502719291</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>0.4599395212270886</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>0.0120279693026313</v>
+      </c>
       <c r="AA168" t="n">
-        <v>0.01284</v>
+        <v>0.0120279693026313</v>
       </c>
     </row>
     <row r="169">
@@ -13507,9 +14505,15 @@
       <c r="W169" t="n">
         <v>0</v>
       </c>
-      <c r="X169" t="inlineStr"/>
-      <c r="Y169" t="inlineStr"/>
-      <c r="Z169" t="inlineStr"/>
+      <c r="X169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>0.05037761742147426</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>0.02469062718843106</v>
+      </c>
       <c r="AA169" t="n">
         <v>0.01284</v>
       </c>
@@ -13584,9 +14588,15 @@
       <c r="W170" t="n">
         <v>0.02649402758706534</v>
       </c>
-      <c r="X170" t="inlineStr"/>
-      <c r="Y170" t="inlineStr"/>
-      <c r="Z170" t="inlineStr"/>
+      <c r="X170" t="n">
+        <v>0.2359296524601482</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>0.2385790552188547</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>0.01929394448330197</v>
+      </c>
       <c r="AA170" t="n">
         <v>0.01629000069754464</v>
       </c>
@@ -13661,9 +14671,15 @@
       <c r="W171" t="n">
         <v>0.02580978257564515</v>
       </c>
-      <c r="X171" t="inlineStr"/>
-      <c r="Y171" t="inlineStr"/>
-      <c r="Z171" t="inlineStr"/>
+      <c r="X171" t="n">
+        <v>0.2708462919310455</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>0.3071517993483845</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>0.02559922116232767</v>
+      </c>
       <c r="AA171" t="n">
         <v>0.01635</v>
       </c>
@@ -13738,9 +14754,15 @@
       <c r="W172" t="n">
         <v>0.1348895664009205</v>
       </c>
-      <c r="X172" t="inlineStr"/>
-      <c r="Y172" t="inlineStr"/>
-      <c r="Z172" t="inlineStr"/>
+      <c r="X172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>0.01348895664009205</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>0.02703256271055871</v>
+      </c>
       <c r="AA172" t="n">
         <v>0.01629017857142857</v>
       </c>
@@ -13815,9 +14837,15 @@
       <c r="W173" t="n">
         <v>0</v>
       </c>
-      <c r="X173" t="inlineStr"/>
-      <c r="Y173" t="inlineStr"/>
-      <c r="Z173" t="inlineStr"/>
+      <c r="X173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>0.08498392660701144</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>0.02914670425260077</v>
+      </c>
       <c r="AA173" t="n">
         <v>0.01415</v>
       </c>
@@ -13892,9 +14920,15 @@
       <c r="W174" t="n">
         <v>0</v>
       </c>
-      <c r="X174" t="inlineStr"/>
-      <c r="Y174" t="inlineStr"/>
-      <c r="Z174" t="inlineStr"/>
+      <c r="X174" t="n">
+        <v>0.237506974262794</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>0.237506974262794</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>0.01951906203916253</v>
+      </c>
       <c r="AA174" t="n">
         <v>0.01415</v>
       </c>
@@ -13969,9 +15003,15 @@
       <c r="W175" t="n">
         <v>0.08742401327924726</v>
       </c>
-      <c r="X175" t="inlineStr"/>
-      <c r="Y175" t="inlineStr"/>
-      <c r="Z175" t="inlineStr"/>
+      <c r="X175" t="n">
+        <v>0.2587397283175701</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>0.2674821296454948</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>0.01899238952809108</v>
+      </c>
       <c r="AA175" t="n">
         <v>0.01415</v>
       </c>
@@ -14046,9 +15086,15 @@
       <c r="W176" t="n">
         <v>0</v>
       </c>
-      <c r="X176" t="inlineStr"/>
-      <c r="Y176" t="inlineStr"/>
-      <c r="Z176" t="inlineStr"/>
+      <c r="X176" t="n">
+        <v>0.4854094217470206</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>0.4854094217470206</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>0.01618884099636964</v>
+      </c>
       <c r="AA176" t="n">
         <v>0.01415</v>
       </c>
@@ -14123,9 +15169,15 @@
       <c r="W177" t="n">
         <v>0.01202520291796308</v>
       </c>
-      <c r="X177" t="inlineStr"/>
-      <c r="Y177" t="inlineStr"/>
-      <c r="Z177" t="inlineStr"/>
+      <c r="X177" t="n">
+        <v>0.5446352678185822</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>0.5458377881103785</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>0.01472187766788368</v>
+      </c>
       <c r="AA177" t="n">
         <v>0.01415</v>
       </c>
@@ -14200,9 +15252,15 @@
       <c r="W178" t="n">
         <v>0.02008577656265096</v>
       </c>
-      <c r="X178" t="inlineStr"/>
-      <c r="Y178" t="inlineStr"/>
-      <c r="Z178" t="inlineStr"/>
+      <c r="X178" t="n">
+        <v>0.2398347052254719</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>0.241843282881737</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>0.0198275343613134</v>
+      </c>
       <c r="AA178" t="n">
         <v>0.01415</v>
       </c>
@@ -14277,9 +15335,15 @@
       <c r="W179" t="n">
         <v>0.06217175066759984</v>
       </c>
-      <c r="X179" t="inlineStr"/>
-      <c r="Y179" t="inlineStr"/>
-      <c r="Z179" t="inlineStr"/>
+      <c r="X179" t="n">
+        <v>0.2764463468560459</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>0.2826635219228059</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>0.01989927023694679</v>
+      </c>
       <c r="AA179" t="n">
         <v>0.01415</v>
       </c>
@@ -14354,9 +15418,15 @@
       <c r="W180" t="n">
         <v>0.009654403040260665</v>
       </c>
-      <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="inlineStr"/>
-      <c r="Z180" t="inlineStr"/>
+      <c r="X180" t="n">
+        <v>0.5167186970039352</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>0.5176841373079614</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>0.02362789111738892</v>
+      </c>
       <c r="AA180" t="n">
         <v>0.02284015151515151</v>
       </c>
@@ -14431,11 +15501,17 @@
       <c r="W181" t="n">
         <v>0</v>
       </c>
-      <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="inlineStr"/>
-      <c r="Z181" t="inlineStr"/>
+      <c r="X181" t="n">
+        <v>0.5487059843752324</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>0.5487059843752324</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>0.02242679037556452</v>
+      </c>
       <c r="AA181" t="n">
-        <v>0.0229221875</v>
+        <v>0.02242679037556452</v>
       </c>
     </row>
     <row r="182">
@@ -14508,9 +15584,15 @@
       <c r="W182" t="n">
         <v>0</v>
       </c>
-      <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="inlineStr"/>
-      <c r="Z182" t="inlineStr"/>
+      <c r="X182" t="n">
+        <v>0.5951924255251957</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>0.5951924255251957</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>0.00403722071080277</v>
+      </c>
       <c r="AA182" t="n">
         <v>0.004010000000000001</v>
       </c>
@@ -14585,9 +15667,15 @@
       <c r="W183" t="n">
         <v>0.09702302196733606</v>
       </c>
-      <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="inlineStr"/>
-      <c r="Z183" t="inlineStr"/>
+      <c r="X183" t="n">
+        <v>0.2253595712902343</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>0.2350618734869679</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>0.005979048349055189</v>
+      </c>
       <c r="AA183" t="n">
         <v>0.00401</v>
       </c>
@@ -14662,9 +15750,15 @@
       <c r="W184" t="n">
         <v>0</v>
       </c>
-      <c r="X184" t="inlineStr"/>
-      <c r="Y184" t="inlineStr"/>
-      <c r="Z184" t="inlineStr"/>
+      <c r="X184" t="n">
+        <v>0.2353615015968555</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>0.2353615015968555</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>0.006025280857929848</v>
+      </c>
       <c r="AA184" t="n">
         <v>0.00401</v>
       </c>
@@ -14739,9 +15833,15 @@
       <c r="W185" t="n">
         <v>0</v>
       </c>
-      <c r="X185" t="inlineStr"/>
-      <c r="Y185" t="inlineStr"/>
-      <c r="Z185" t="inlineStr"/>
+      <c r="X185" t="n">
+        <v>0.3010761930528256</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>0.3010761930528256</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>0.005853071544777084</v>
+      </c>
       <c r="AA185" t="n">
         <v>0.00401</v>
       </c>
@@ -14816,9 +15916,15 @@
       <c r="W186" t="n">
         <v>0</v>
       </c>
-      <c r="X186" t="inlineStr"/>
-      <c r="Y186" t="inlineStr"/>
-      <c r="Z186" t="inlineStr"/>
+      <c r="X186" t="n">
+        <v>0.337022929415665</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>0.337022929415665</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>0.005691688011284611</v>
+      </c>
       <c r="AA186" t="n">
         <v>0.00401</v>
       </c>
@@ -14893,11 +15999,17 @@
       <c r="W187" t="n">
         <v>0.08588497741583906</v>
       </c>
-      <c r="X187" t="inlineStr"/>
-      <c r="Y187" t="inlineStr"/>
-      <c r="Z187" t="inlineStr"/>
+      <c r="X187" t="n">
+        <v>0.6065369919511305</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>0.6151254896927144</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>0.007652476294578666</v>
+      </c>
       <c r="AA187" t="n">
-        <v>0.01106</v>
+        <v>0.007652476294578666</v>
       </c>
     </row>
     <row r="188">
@@ -14970,9 +16082,15 @@
       <c r="W188" t="n">
         <v>0.09968345765994258</v>
       </c>
-      <c r="X188" t="inlineStr"/>
-      <c r="Y188" t="inlineStr"/>
-      <c r="Z188" t="inlineStr"/>
+      <c r="X188" t="n">
+        <v>0.3373112800419262</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>0.3472796258079205</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>0.01242977241580576</v>
+      </c>
       <c r="AA188" t="n">
         <v>0.01105999805862939</v>
       </c>
@@ -15047,9 +16165,15 @@
       <c r="W189" t="n">
         <v>0.003869464509886082</v>
       </c>
-      <c r="X189" t="inlineStr"/>
-      <c r="Y189" t="inlineStr"/>
-      <c r="Z189" t="inlineStr"/>
+      <c r="X189" t="n">
+        <v>0.236971899905206</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>0.2373588463561946</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>0.01221647573453094</v>
+      </c>
       <c r="AA189" t="n">
         <v>0.01106</v>
       </c>
@@ -15124,11 +16248,17 @@
       <c r="W190" t="n">
         <v>0</v>
       </c>
-      <c r="X190" t="inlineStr"/>
-      <c r="Y190" t="inlineStr"/>
-      <c r="Z190" t="inlineStr"/>
+      <c r="X190" t="n">
+        <v>0.4045648165490083</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>0.4045648165490083</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>0.01038260903934792</v>
+      </c>
       <c r="AA190" t="n">
-        <v>0.01105999595714575</v>
+        <v>0.01038260903934792</v>
       </c>
     </row>
     <row r="191">
@@ -15201,9 +16331,15 @@
       <c r="W191" t="n">
         <v>0</v>
       </c>
-      <c r="X191" t="inlineStr"/>
-      <c r="Y191" t="inlineStr"/>
-      <c r="Z191" t="inlineStr"/>
+      <c r="X191" t="n">
+        <v>0.3271636556030351</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>0.3271636556030351</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>0.011357018715344</v>
+      </c>
       <c r="AA191" t="n">
         <v>0.01105997988939165</v>
       </c>
@@ -15278,9 +16414,15 @@
       <c r="W192" t="n">
         <v>0</v>
       </c>
-      <c r="X192" t="inlineStr"/>
-      <c r="Y192" t="inlineStr"/>
-      <c r="Z192" t="inlineStr"/>
+      <c r="X192" t="n">
+        <v>0.2658416141087274</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>0.2658416141087274</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>0.01177976298388637</v>
+      </c>
       <c r="AA192" t="n">
         <v>0.01105998217468806</v>
       </c>
@@ -15355,9 +16497,15 @@
       <c r="W193" t="n">
         <v>0.03006036008324459</v>
       </c>
-      <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
-      <c r="Z193" t="inlineStr"/>
+      <c r="X193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>0.01876358900284251</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>0.01478244688953794</v>
+      </c>
       <c r="AA193" t="n">
         <v>0.01106000776548243</v>
       </c>
@@ -15432,11 +16580,17 @@
       <c r="W194" t="n">
         <v>0</v>
       </c>
-      <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
-      <c r="Z194" t="inlineStr"/>
+      <c r="X194" t="n">
+        <v>0.6089780155711026</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>0.637041863795446</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>0.007835001831923084</v>
+      </c>
       <c r="AA194" t="n">
-        <v>0.01106</v>
+        <v>0.007835001831923084</v>
       </c>
     </row>
     <row r="195">
@@ -15509,9 +16663,15 @@
       <c r="W195" t="n">
         <v>0.008118497484501386</v>
       </c>
-      <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
-      <c r="Z195" t="inlineStr"/>
+      <c r="X195" t="n">
+        <v>0.3478336590403477</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>0.3486455087887979</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>0.01635209176237649</v>
+      </c>
       <c r="AA195" t="n">
         <v>0.01281000516795866</v>
       </c>
@@ -15586,9 +16746,15 @@
       <c r="W196" t="n">
         <v>0.0176531628387088</v>
       </c>
-      <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
-      <c r="Z196" t="inlineStr"/>
+      <c r="X196" t="n">
+        <v>0.4040957826977081</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>0.405861098981579</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>0.01612381512744437</v>
+      </c>
       <c r="AA196" t="n">
         <v>0.01281</v>
       </c>
@@ -15663,9 +16829,15 @@
       <c r="W197" t="n">
         <v>0.006771675173053208</v>
       </c>
-      <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
-      <c r="Z197" t="inlineStr"/>
+      <c r="X197" t="n">
+        <v>0.4476515779391745</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>0.4483287454564799</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>0.01582583615504826</v>
+      </c>
       <c r="AA197" t="n">
         <v>0.01281</v>
       </c>
@@ -15740,9 +16912,15 @@
       <c r="W198" t="n">
         <v>0.06844021039427965</v>
       </c>
-      <c r="X198" t="inlineStr"/>
-      <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
+      <c r="X198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>0.02101897167086774</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>0.04500263767471241</v>
+      </c>
       <c r="AA198" t="n">
         <v>0.03094</v>
       </c>
@@ -15817,11 +16995,17 @@
       <c r="W199" t="n">
         <v>0.01228379930525612</v>
       </c>
-      <c r="X199" t="inlineStr"/>
-      <c r="Y199" t="inlineStr"/>
-      <c r="Z199" t="inlineStr"/>
+      <c r="X199" t="n">
+        <v>0.236698287449854</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>0.2379266673803796</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>0.02929721827773119</v>
+      </c>
       <c r="AA199" t="n">
-        <v>0.03094</v>
+        <v>0.02929721827773119</v>
       </c>
     </row>
     <row r="200">
@@ -15894,11 +17078,17 @@
       <c r="W200" t="n">
         <v>0.0400745940482245</v>
       </c>
-      <c r="X200" t="inlineStr"/>
-      <c r="Y200" t="inlineStr"/>
-      <c r="Z200" t="inlineStr"/>
+      <c r="X200" t="n">
+        <v>0.2427333996794785</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>0.2467408590843009</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>0.03020365837019954</v>
+      </c>
       <c r="AA200" t="n">
-        <v>0.03094</v>
+        <v>0.03020365837019954</v>
       </c>
     </row>
     <row r="201">
@@ -15971,11 +17161,17 @@
       <c r="W201" t="n">
         <v>0.04553666255596829</v>
       </c>
-      <c r="X201" t="inlineStr"/>
-      <c r="Y201" t="inlineStr"/>
-      <c r="Z201" t="inlineStr"/>
+      <c r="X201" t="n">
+        <v>0.9778856276873078</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>0.9824392939429046</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>0.01232955442154531</v>
+      </c>
       <c r="AA201" t="n">
-        <v>0.03093996212121212</v>
+        <v>0.01232955442154531</v>
       </c>
     </row>
     <row r="202">
@@ -16048,11 +17244,17 @@
       <c r="W202" t="n">
         <v>0.0300050259045643</v>
       </c>
-      <c r="X202" t="inlineStr"/>
-      <c r="Y202" t="inlineStr"/>
-      <c r="Z202" t="inlineStr"/>
+      <c r="X202" t="n">
+        <v>0.6297361667710668</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>0.6327366693615233</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>0.01900818268918505</v>
+      </c>
       <c r="AA202" t="n">
-        <v>0.03093989898989899</v>
+        <v>0.01900818268918505</v>
       </c>
     </row>
     <row r="203">
@@ -16125,9 +17327,15 @@
       <c r="W203" t="n">
         <v>0.0008162122846621291</v>
       </c>
-      <c r="X203" t="inlineStr"/>
-      <c r="Y203" t="inlineStr"/>
-      <c r="Z203" t="inlineStr"/>
+      <c r="X203" t="n">
+        <v>0.2814101853192799</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>0.2814918065477461</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>0.03605634278348976</v>
+      </c>
       <c r="AA203" t="n">
         <v>0.01932</v>
       </c>
@@ -16202,9 +17410,15 @@
       <c r="W204" t="n">
         <v>0</v>
       </c>
-      <c r="X204" t="inlineStr"/>
-      <c r="Y204" t="inlineStr"/>
-      <c r="Z204" t="inlineStr"/>
+      <c r="X204" t="n">
+        <v>0.2747628202187566</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>0.2747628202187566</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>0.02997280394222297</v>
+      </c>
       <c r="AA204" t="n">
         <v>0.01932</v>
       </c>
@@ -16279,9 +17493,15 @@
       <c r="W205" t="n">
         <v>0.0137874918677396</v>
       </c>
-      <c r="X205" t="inlineStr"/>
-      <c r="Y205" t="inlineStr"/>
-      <c r="Z205" t="inlineStr"/>
+      <c r="X205" t="n">
+        <v>0.2381146144237136</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>0.2394933636104876</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>0.04655890215158704</v>
+      </c>
       <c r="AA205" t="n">
         <v>0.01932</v>
       </c>
@@ -16356,9 +17576,15 @@
       <c r="W206" t="n">
         <v>0.1929708913534568</v>
       </c>
-      <c r="X206" t="inlineStr"/>
-      <c r="Y206" t="inlineStr"/>
-      <c r="Z206" t="inlineStr"/>
+      <c r="X206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>0.05572098056694506</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>0.03189669228429597</v>
+      </c>
       <c r="AA206" t="n">
         <v>0.01932</v>
       </c>
@@ -16433,9 +17659,15 @@
       <c r="W207" t="n">
         <v>0</v>
       </c>
-      <c r="X207" t="inlineStr"/>
-      <c r="Y207" t="inlineStr"/>
-      <c r="Z207" t="inlineStr"/>
+      <c r="X207" t="n">
+        <v>0.633477637089811</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>0.6601247987721164</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>0.02092961051657206</v>
+      </c>
       <c r="AA207" t="n">
         <v>0.01932</v>
       </c>
@@ -16510,9 +17742,15 @@
       <c r="W208" t="n">
         <v>0.2432361421760749</v>
       </c>
-      <c r="X208" t="inlineStr"/>
-      <c r="Y208" t="inlineStr"/>
-      <c r="Z208" t="inlineStr"/>
+      <c r="X208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>0.1119957818327853</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>0.04785446312383995</v>
+      </c>
       <c r="AA208" t="n">
         <v>0.01932</v>
       </c>
@@ -16587,11 +17825,17 @@
       <c r="W209" t="n">
         <v>0.03075949569158186</v>
       </c>
-      <c r="X209" t="inlineStr"/>
-      <c r="Y209" t="inlineStr"/>
-      <c r="Z209" t="inlineStr"/>
+      <c r="X209" t="n">
+        <v>0.2473186584090534</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>0.2503946079782116</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>0.02026907191554646</v>
+      </c>
       <c r="AA209" t="n">
-        <v>0.02027</v>
+        <v>0.02026907191554646</v>
       </c>
     </row>
     <row r="210">
@@ -16664,9 +17908,15 @@
       <c r="W210" t="n">
         <v>0.01630004469285537</v>
       </c>
-      <c r="X210" t="inlineStr"/>
-      <c r="Y210" t="inlineStr"/>
-      <c r="Z210" t="inlineStr"/>
+      <c r="X210" t="n">
+        <v>0.2365862323488959</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>0.2382162368181814</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>0.03191554495270906</v>
+      </c>
       <c r="AA210" t="n">
         <v>0.02027</v>
       </c>
@@ -16741,11 +17991,17 @@
       <c r="W211" t="n">
         <v>0.0209206053859893</v>
       </c>
-      <c r="X211" t="inlineStr"/>
-      <c r="Y211" t="inlineStr"/>
-      <c r="Z211" t="inlineStr"/>
+      <c r="X211" t="n">
+        <v>0.2360324821411481</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>0.2381245426797471</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>0.01923520882242738</v>
+      </c>
       <c r="AA211" t="n">
-        <v>0.02026999862268439</v>
+        <v>0.01923520882242738</v>
       </c>
     </row>
     <row r="212">
@@ -16818,11 +18074,17 @@
       <c r="W212" t="n">
         <v>0.03836940696974066</v>
       </c>
-      <c r="X212" t="inlineStr"/>
-      <c r="Y212" t="inlineStr"/>
-      <c r="Z212" t="inlineStr"/>
+      <c r="X212" t="n">
+        <v>0.2293117637014432</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>0.2331487043984173</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>0.01844219900855493</v>
+      </c>
       <c r="AA212" t="n">
-        <v>0.02027</v>
+        <v>0.01844219900855493</v>
       </c>
     </row>
     <row r="213">
@@ -16895,9 +18157,15 @@
       <c r="W213" t="n">
         <v>0</v>
       </c>
-      <c r="X213" t="inlineStr"/>
-      <c r="Y213" t="inlineStr"/>
-      <c r="Z213" t="inlineStr"/>
+      <c r="X213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>0.03239161114993667</v>
+      </c>
       <c r="AA213" t="n">
         <v>0.02027</v>
       </c>
@@ -16972,11 +18240,17 @@
       <c r="W214" t="n">
         <v>0</v>
       </c>
-      <c r="X214" t="inlineStr"/>
-      <c r="Y214" t="inlineStr"/>
-      <c r="Z214" t="inlineStr"/>
+      <c r="X214" t="n">
+        <v>0.2376575061152864</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>0.2376575061152864</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>0.01806978716390549</v>
+      </c>
       <c r="AA214" t="n">
-        <v>0.02026997518610422</v>
+        <v>0.01806978716390549</v>
       </c>
     </row>
     <row r="215">
@@ -17049,11 +18323,17 @@
       <c r="W215" t="n">
         <v>0</v>
       </c>
-      <c r="X215" t="inlineStr"/>
-      <c r="Y215" t="inlineStr"/>
-      <c r="Z215" t="inlineStr"/>
+      <c r="X215" t="n">
+        <v>0.2501776385551902</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>0.2501776385551902</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>0.01852891319420074</v>
+      </c>
       <c r="AA215" t="n">
-        <v>0.02027</v>
+        <v>0.01852891319420074</v>
       </c>
     </row>
     <row r="216">
@@ -17126,9 +18406,15 @@
       <c r="W216" t="n">
         <v>0.01622719471482292</v>
       </c>
-      <c r="X216" t="inlineStr"/>
-      <c r="Y216" t="inlineStr"/>
-      <c r="Z216" t="inlineStr"/>
+      <c r="X216" t="n">
+        <v>0.195763186507306</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>0.2395115357567218</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>0.03093524116630177</v>
+      </c>
       <c r="AA216" t="n">
         <v>0.02027</v>
       </c>
@@ -17203,9 +18489,15 @@
       <c r="W217" t="n">
         <v>0</v>
       </c>
-      <c r="X217" t="inlineStr"/>
-      <c r="Y217" t="inlineStr"/>
-      <c r="Z217" t="inlineStr"/>
+      <c r="X217" t="n">
+        <v>0.8010317957192759</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>0.8255535223402767</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>0.04368290066169843</v>
+      </c>
       <c r="AA217" t="n">
         <v>0.0384</v>
       </c>
@@ -17280,9 +18572,15 @@
       <c r="W218" t="n">
         <v>0.01983923011359855</v>
       </c>
-      <c r="X218" t="inlineStr"/>
-      <c r="Y218" t="inlineStr"/>
-      <c r="Z218" t="inlineStr"/>
+      <c r="X218" t="n">
+        <v>0.2436659546311286</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>0.2456498776424885</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>0.04172793240804269</v>
+      </c>
       <c r="AA218" t="n">
         <v>0.0384</v>
       </c>
@@ -17357,9 +18655,15 @@
       <c r="W219" t="n">
         <v>0.05746529868928577</v>
       </c>
-      <c r="X219" t="inlineStr"/>
-      <c r="Y219" t="inlineStr"/>
-      <c r="Z219" t="inlineStr"/>
+      <c r="X219" t="n">
+        <v>0.235740643856122</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>0.2414871737250506</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>0.04542600789925772</v>
+      </c>
       <c r="AA219" t="n">
         <v>0.0384</v>
       </c>
@@ -17434,11 +18738,17 @@
       <c r="W220" t="n">
         <v>0.08209623837820343</v>
       </c>
-      <c r="X220" t="inlineStr"/>
-      <c r="Y220" t="inlineStr"/>
-      <c r="Z220" t="inlineStr"/>
+      <c r="X220" t="n">
+        <v>0.2868016557491229</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>0.2950112795869432</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>0.03830226694011337</v>
+      </c>
       <c r="AA220" t="n">
-        <v>0.0384</v>
+        <v>0.03830226694011337</v>
       </c>
     </row>
     <row r="221">
@@ -17511,9 +18821,15 @@
       <c r="W221" t="n">
         <v>0.04544036949985286</v>
       </c>
-      <c r="X221" t="inlineStr"/>
-      <c r="Y221" t="inlineStr"/>
-      <c r="Z221" t="inlineStr"/>
+      <c r="X221" t="n">
+        <v>0.2429632476425889</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>0.2475072845925742</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>0.04347746512401653</v>
+      </c>
       <c r="AA221" t="n">
         <v>0.0384</v>
       </c>
@@ -17588,9 +18904,15 @@
       <c r="W222" t="n">
         <v>0.06883529750982992</v>
       </c>
-      <c r="X222" t="inlineStr"/>
-      <c r="Y222" t="inlineStr"/>
-      <c r="Z222" t="inlineStr"/>
+      <c r="X222" t="n">
+        <v>0.4049539717640833</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>0.4118375015150663</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>0.04359718479419283</v>
+      </c>
       <c r="AA222" t="n">
         <v>0.0384</v>
       </c>
@@ -17665,9 +18987,15 @@
       <c r="W223" t="n">
         <v>0.0129266897363894</v>
       </c>
-      <c r="X223" t="inlineStr"/>
-      <c r="Y223" t="inlineStr"/>
-      <c r="Z223" t="inlineStr"/>
+      <c r="X223" t="n">
+        <v>0.2350970020563405</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>0.2363896710299795</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>0.03717332704230041</v>
+      </c>
       <c r="AA223" t="n">
         <v>0.02413002450980392</v>
       </c>
@@ -17742,9 +19070,15 @@
       <c r="W224" t="n">
         <v>0.01182798124104112</v>
       </c>
-      <c r="X224" t="inlineStr"/>
-      <c r="Y224" t="inlineStr"/>
-      <c r="Z224" t="inlineStr"/>
+      <c r="X224" t="n">
+        <v>0.4004262031515666</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>0.4016090012756707</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>0.03324135968421853</v>
+      </c>
       <c r="AA224" t="n">
         <v>0.02413</v>
       </c>
@@ -17819,9 +19153,15 @@
       <c r="W225" t="n">
         <v>0.01956401155985898</v>
       </c>
-      <c r="X225" t="inlineStr"/>
-      <c r="Y225" t="inlineStr"/>
-      <c r="Z225" t="inlineStr"/>
+      <c r="X225" t="n">
+        <v>0.3217527217871821</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>0.3237091229431679</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>0.0300342904210291</v>
+      </c>
       <c r="AA225" t="n">
         <v>0.02413</v>
       </c>
@@ -17896,9 +19236,15 @@
       <c r="W226" t="n">
         <v>0.01984590586191972</v>
       </c>
-      <c r="X226" t="inlineStr"/>
-      <c r="Y226" t="inlineStr"/>
-      <c r="Z226" t="inlineStr"/>
+      <c r="X226" t="n">
+        <v>0.2918691114292069</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>0.2938537020153989</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>0.03435005234666828</v>
+      </c>
       <c r="AA226" t="n">
         <v>0.02413</v>
       </c>
@@ -17973,9 +19319,15 @@
       <c r="W227" t="n">
         <v>0.01910597944720586</v>
       </c>
-      <c r="X227" t="inlineStr"/>
-      <c r="Y227" t="inlineStr"/>
-      <c r="Z227" t="inlineStr"/>
+      <c r="X227" t="n">
+        <v>0.3684123083190478</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>0.3703229062637684</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>0.03319777645387825</v>
+      </c>
       <c r="AA227" t="n">
         <v>0.02413</v>
       </c>
@@ -18050,9 +19402,15 @@
       <c r="W228" t="n">
         <v>0</v>
       </c>
-      <c r="X228" t="inlineStr"/>
-      <c r="Y228" t="inlineStr"/>
-      <c r="Z228" t="inlineStr"/>
+      <c r="X228" t="n">
+        <v>0.2532285524385105</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>0.2532285524385105</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>0.03424599006281121</v>
+      </c>
       <c r="AA228" t="n">
         <v>0.02413</v>
       </c>
@@ -18127,9 +19485,15 @@
       <c r="W229" t="n">
         <v>0.03157866941779767</v>
       </c>
-      <c r="X229" t="inlineStr"/>
-      <c r="Y229" t="inlineStr"/>
-      <c r="Z229" t="inlineStr"/>
+      <c r="X229" t="n">
+        <v>0.2363238704056883</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>0.239481737347468</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>0.03466624041047754</v>
+      </c>
       <c r="AA229" t="n">
         <v>0.02413000455996352</v>
       </c>
@@ -18204,9 +19568,15 @@
       <c r="W230" t="n">
         <v>0.009709054774236581</v>
       </c>
-      <c r="X230" t="inlineStr"/>
-      <c r="Y230" t="inlineStr"/>
-      <c r="Z230" t="inlineStr"/>
+      <c r="X230" t="n">
+        <v>0.2359806172801624</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>0.236951522757586</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>0.02926432098498633</v>
+      </c>
       <c r="AA230" t="n">
         <v>0.02413</v>
       </c>
@@ -18281,9 +19651,15 @@
       <c r="W231" t="n">
         <v>0.02755195587859838</v>
       </c>
-      <c r="X231" t="inlineStr"/>
-      <c r="Y231" t="inlineStr"/>
-      <c r="Z231" t="inlineStr"/>
+      <c r="X231" t="n">
+        <v>0.2369315105666077</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>0.2396867061544675</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>0.03193294400072584</v>
+      </c>
       <c r="AA231" t="n">
         <v>0.02413</v>
       </c>
@@ -18358,9 +19734,15 @@
       <c r="W232" t="n">
         <v>0.02718477098795822</v>
       </c>
-      <c r="X232" t="inlineStr"/>
-      <c r="Y232" t="inlineStr"/>
-      <c r="Z232" t="inlineStr"/>
+      <c r="X232" t="n">
+        <v>0.3357652346630418</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>0.3384837117618376</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>0.03218576415557282</v>
+      </c>
       <c r="AA232" t="n">
         <v>0.02413</v>
       </c>
@@ -18435,9 +19817,15 @@
       <c r="W233" t="n">
         <v>0.008060497488640992</v>
       </c>
-      <c r="X233" t="inlineStr"/>
-      <c r="Y233" t="inlineStr"/>
-      <c r="Z233" t="inlineStr"/>
+      <c r="X233" t="n">
+        <v>0.4287402545602756</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>0.4295463043091398</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>0.02858733955166814</v>
+      </c>
       <c r="AA233" t="n">
         <v>0.02413</v>
       </c>
@@ -18512,9 +19900,15 @@
       <c r="W234" t="n">
         <v>0.006627495322040518</v>
       </c>
-      <c r="X234" t="inlineStr"/>
-      <c r="Y234" t="inlineStr"/>
-      <c r="Z234" t="inlineStr"/>
+      <c r="X234" t="n">
+        <v>0.377672717370231</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>0.3783354669024351</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>0.02968279354307151</v>
+      </c>
       <c r="AA234" t="n">
         <v>0.02413</v>
       </c>
@@ -18589,9 +19983,15 @@
       <c r="W235" t="n">
         <v>0.0154492559894703</v>
       </c>
-      <c r="X235" t="inlineStr"/>
-      <c r="Y235" t="inlineStr"/>
-      <c r="Z235" t="inlineStr"/>
+      <c r="X235" t="n">
+        <v>0.4000467233769358</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>0.4015916489758828</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>0.03163820365752678</v>
+      </c>
       <c r="AA235" t="n">
         <v>0.02413</v>
       </c>
@@ -18666,9 +20066,15 @@
       <c r="W236" t="n">
         <v>0.01137132208308099</v>
       </c>
-      <c r="X236" t="inlineStr"/>
-      <c r="Y236" t="inlineStr"/>
-      <c r="Z236" t="inlineStr"/>
+      <c r="X236" t="n">
+        <v>0.2377064458431144</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>0.2388435780514225</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>0.03593251132540594</v>
+      </c>
       <c r="AA236" t="n">
         <v>0.02413</v>
       </c>
@@ -18743,9 +20149,15 @@
       <c r="W237" t="n">
         <v>0.04799794175684515</v>
       </c>
-      <c r="X237" t="inlineStr"/>
-      <c r="Y237" t="inlineStr"/>
-      <c r="Z237" t="inlineStr"/>
+      <c r="X237" t="n">
+        <v>0.253757889034905</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>0.2585576832105895</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>0.03690169662634217</v>
+      </c>
       <c r="AA237" t="n">
         <v>0.02413</v>
       </c>
@@ -18820,11 +20232,17 @@
       <c r="W238" t="n">
         <v>0</v>
       </c>
-      <c r="X238" t="inlineStr"/>
-      <c r="Y238" t="inlineStr"/>
-      <c r="Z238" t="inlineStr"/>
+      <c r="X238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>0.005499446491497926</v>
+      </c>
       <c r="AA238" t="n">
-        <v>0.02412990196078432</v>
+        <v>0.005499446491497926</v>
       </c>
     </row>
     <row r="239">
@@ -18897,9 +20315,15 @@
       <c r="W239" t="n">
         <v>0.06923073596923322</v>
       </c>
-      <c r="X239" t="inlineStr"/>
-      <c r="Y239" t="inlineStr"/>
-      <c r="Z239" t="inlineStr"/>
+      <c r="X239" t="n">
+        <v>0.23010616236396</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>0.2370292359608833</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>0.03387470747024229</v>
+      </c>
       <c r="AA239" t="n">
         <v>0.02413</v>
       </c>
@@ -18974,9 +20398,15 @@
       <c r="W240" t="n">
         <v>0.07285453839658018</v>
       </c>
-      <c r="X240" t="inlineStr"/>
-      <c r="Y240" t="inlineStr"/>
-      <c r="Z240" t="inlineStr"/>
+      <c r="X240" t="n">
+        <v>0.4467252670217647</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>0.4540107208614227</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>0.006558972304198049</v>
+      </c>
       <c r="AA240" t="n">
         <v>0.005709967741935483</v>
       </c>
@@ -19051,9 +20481,15 @@
       <c r="W241" t="n">
         <v>0.05031946637876035</v>
       </c>
-      <c r="X241" t="inlineStr"/>
-      <c r="Y241" t="inlineStr"/>
-      <c r="Z241" t="inlineStr"/>
+      <c r="X241" t="n">
+        <v>0.3082616701492158</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>0.3132936167870918</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>0.007227809690013236</v>
+      </c>
       <c r="AA241" t="n">
         <v>0.00658428955453149</v>
       </c>
@@ -19128,9 +20564,15 @@
       <c r="W242" t="n">
         <v>0.1138540579858829</v>
       </c>
-      <c r="X242" t="inlineStr"/>
-      <c r="Y242" t="inlineStr"/>
-      <c r="Z242" t="inlineStr"/>
+      <c r="X242" t="n">
+        <v>0.386095750802506</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>0.3974811566010943</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>0.006602505745158789</v>
+      </c>
       <c r="AA242" t="n">
         <v>0.00594142545771578</v>
       </c>
@@ -19205,11 +20647,17 @@
       <c r="W243" t="n">
         <v>0.1180520547078336</v>
       </c>
-      <c r="X243" t="inlineStr"/>
-      <c r="Y243" t="inlineStr"/>
-      <c r="Z243" t="inlineStr"/>
+      <c r="X243" t="n">
+        <v>0.3779024528282198</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>0.3897076582990031</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>0.006529558582927096</v>
+      </c>
       <c r="AA243" t="n">
-        <v>0.006615927419354839</v>
+        <v>0.006529558582927096</v>
       </c>
     </row>
     <row r="244">
@@ -19282,11 +20730,17 @@
       <c r="W244" t="n">
         <v>0.08358822569870794</v>
       </c>
-      <c r="X244" t="inlineStr"/>
-      <c r="Y244" t="inlineStr"/>
-      <c r="Z244" t="inlineStr"/>
+      <c r="X244" t="n">
+        <v>0.4575740796300563</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>0.4659329021999271</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>0.006106037231964905</v>
+      </c>
       <c r="AA244" t="n">
-        <v>0.007116806451612903</v>
+        <v>0.006106037231964905</v>
       </c>
     </row>
     <row r="245">
@@ -19359,9 +20813,15 @@
       <c r="W245" t="n">
         <v>0.0147408398527834</v>
       </c>
-      <c r="X245" t="inlineStr"/>
-      <c r="Y245" t="inlineStr"/>
-      <c r="Z245" t="inlineStr"/>
+      <c r="X245" t="n">
+        <v>0.2709620597010116</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>0.2724361436862899</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>0.008759326837952032</v>
+      </c>
       <c r="AA245" t="n">
         <v>0.00718</v>
       </c>
@@ -19436,9 +20896,15 @@
       <c r="W246" t="n">
         <v>0.01156013920450228</v>
       </c>
-      <c r="X246" t="inlineStr"/>
-      <c r="Y246" t="inlineStr"/>
-      <c r="Z246" t="inlineStr"/>
+      <c r="X246" t="n">
+        <v>0.3104201934092419</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>0.3115762073296921</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>0.007939201602778577</v>
+      </c>
       <c r="AA246" t="n">
         <v>0.00718</v>
       </c>
@@ -19513,9 +20979,15 @@
       <c r="W247" t="n">
         <v>0.01061900592295095</v>
       </c>
-      <c r="X247" t="inlineStr"/>
-      <c r="Y247" t="inlineStr"/>
-      <c r="Z247" t="inlineStr"/>
+      <c r="X247" t="n">
+        <v>0.3561112233505954</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>0.3571731239428905</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>0.009121890929465738</v>
+      </c>
       <c r="AA247" t="n">
         <v>0.00718</v>
       </c>
@@ -19590,11 +21062,17 @@
       <c r="W248" t="n">
         <v>0.03568694705971255</v>
       </c>
-      <c r="X248" t="inlineStr"/>
-      <c r="Y248" t="inlineStr"/>
-      <c r="Z248" t="inlineStr"/>
+      <c r="X248" t="n">
+        <v>0.801170964554502</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>0.8464646123061244</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>0.00565127804301772</v>
+      </c>
       <c r="AA248" t="n">
-        <v>0.00718</v>
+        <v>0.00565127804301772</v>
       </c>
     </row>
     <row r="249">
@@ -19667,9 +21145,15 @@
       <c r="W249" t="n">
         <v>0.0002076275991211782</v>
       </c>
-      <c r="X249" t="inlineStr"/>
-      <c r="Y249" t="inlineStr"/>
-      <c r="Z249" t="inlineStr"/>
+      <c r="X249" t="n">
+        <v>0.3553576640471632</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>0.3553784268070753</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>0.01276460620429546</v>
+      </c>
       <c r="AA249" t="n">
         <v>0.00718</v>
       </c>
@@ -19744,9 +21228,15 @@
       <c r="W250" t="n">
         <v>0.005621670750041254</v>
       </c>
-      <c r="X250" t="inlineStr"/>
-      <c r="Y250" t="inlineStr"/>
-      <c r="Z250" t="inlineStr"/>
+      <c r="X250" t="n">
+        <v>0.2555963352244226</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>0.2561585022994267</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>0.01070294241166547</v>
+      </c>
       <c r="AA250" t="n">
         <v>0.008575757803121248</v>
       </c>
@@ -19821,9 +21311,15 @@
       <c r="W251" t="n">
         <v>0.004947568490472554</v>
       </c>
-      <c r="X251" t="inlineStr"/>
-      <c r="Y251" t="inlineStr"/>
-      <c r="Z251" t="inlineStr"/>
+      <c r="X251" t="n">
+        <v>0.4190833774611233</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>0.4195781343101706</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>0.008541311753507126</v>
+      </c>
       <c r="AA251" t="n">
         <v>0.008293668831168831</v>
       </c>
@@ -19898,9 +21394,15 @@
       <c r="W252" t="n">
         <v>0.07623491157670823</v>
       </c>
-      <c r="X252" t="inlineStr"/>
-      <c r="Y252" t="inlineStr"/>
-      <c r="Z252" t="inlineStr"/>
+      <c r="X252" t="n">
+        <v>0.2508148675630495</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>0.2584383587207203</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>0.01043959079918066</v>
+      </c>
       <c r="AA252" t="n">
         <v>0.0085725</v>
       </c>
@@ -19975,11 +21477,17 @@
       <c r="W253" t="n">
         <v>0.08565046117314062</v>
       </c>
-      <c r="X253" t="inlineStr"/>
-      <c r="Y253" t="inlineStr"/>
-      <c r="Z253" t="inlineStr"/>
+      <c r="X253" t="n">
+        <v>0.8700941895689358</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>0.8786592356862498</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>0.005405005798827953</v>
+      </c>
       <c r="AA253" t="n">
-        <v>0.008167499999999999</v>
+        <v>0.005405005798827953</v>
       </c>
     </row>
     <row r="254">
@@ -20052,9 +21560,15 @@
       <c r="W254" t="n">
         <v>0.05313070803626949</v>
       </c>
-      <c r="X254" t="inlineStr"/>
-      <c r="Y254" t="inlineStr"/>
-      <c r="Z254" t="inlineStr"/>
+      <c r="X254" t="n">
+        <v>0.3569049469823835</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>0.3622180177860105</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>0.02863907652723277</v>
+      </c>
       <c r="AA254" t="n">
         <v>0.02760668459469843</v>
       </c>
@@ -20129,11 +21643,17 @@
       <c r="W255" t="n">
         <v>0.007473612160846454</v>
       </c>
-      <c r="X255" t="inlineStr"/>
-      <c r="Y255" t="inlineStr"/>
-      <c r="Z255" t="inlineStr"/>
+      <c r="X255" t="n">
+        <v>0.6975050329869235</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>0.7265793139019341</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>0.01765746213448292</v>
+      </c>
       <c r="AA255" t="n">
-        <v>0.0221635037593985</v>
+        <v>0.01765746213448292</v>
       </c>
     </row>
     <row r="256">
@@ -20206,9 +21726,15 @@
       <c r="W256" t="n">
         <v>0</v>
       </c>
-      <c r="X256" t="inlineStr"/>
-      <c r="Y256" t="inlineStr"/>
-      <c r="Z256" t="inlineStr"/>
+      <c r="X256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>0.005379027233142463</v>
+      </c>
       <c r="AA256" t="n">
         <v>0.003219975490196079</v>
       </c>
@@ -20283,9 +21809,15 @@
       <c r="W257" t="n">
         <v>0.01504822615457045</v>
       </c>
-      <c r="X257" t="inlineStr"/>
-      <c r="Y257" t="inlineStr"/>
-      <c r="Z257" t="inlineStr"/>
+      <c r="X257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>0.001504822615457045</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>0.005201533363162439</v>
+      </c>
       <c r="AA257" t="n">
         <v>0.003220036764705882</v>
       </c>
@@ -20360,9 +21892,15 @@
       <c r="W258" t="n">
         <v>0.07284821584684487</v>
       </c>
-      <c r="X258" t="inlineStr"/>
-      <c r="Y258" t="inlineStr"/>
-      <c r="Z258" t="inlineStr"/>
+      <c r="X258" t="n">
+        <v>0.2791446696887605</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>0.286429491273445</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>0.005438250971619607</v>
+      </c>
       <c r="AA258" t="n">
         <v>0.003129999553012695</v>
       </c>
@@ -20392,18 +21930,14 @@
       <c r="H259" t="n">
         <v>69686400</v>
       </c>
-      <c r="I259" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I259" t="n">
+        <v>100</v>
       </c>
       <c r="J259" t="n">
         <v>327748.05</v>
       </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="K259" t="n">
+        <v>100</v>
       </c>
       <c r="L259" t="n">
         <v>0</v>
@@ -20441,9 +21975,15 @@
       <c r="W259" t="n">
         <v>0.02617570316672336</v>
       </c>
-      <c r="X259" t="inlineStr"/>
-      <c r="Y259" t="inlineStr"/>
-      <c r="Z259" t="inlineStr"/>
+      <c r="X259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>0.002617570316672336</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>0.005408350614385421</v>
+      </c>
       <c r="AA259" t="n">
         <v>0.003129999866794544</v>
       </c>
@@ -20518,9 +22058,15 @@
       <c r="W260" t="n">
         <v>0.04905119545724981</v>
       </c>
-      <c r="X260" t="inlineStr"/>
-      <c r="Y260" t="inlineStr"/>
-      <c r="Z260" t="inlineStr"/>
+      <c r="X260" t="n">
+        <v>0.3221626904497243</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>0.3270678099954493</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>0.004603753771250213</v>
+      </c>
       <c r="AA260" t="n">
         <v>0.00313</v>
       </c>
@@ -20595,9 +22141,15 @@
       <c r="W261" t="n">
         <v>0.08173107828985923</v>
       </c>
-      <c r="X261" t="inlineStr"/>
-      <c r="Y261" t="inlineStr"/>
-      <c r="Z261" t="inlineStr"/>
+      <c r="X261" t="n">
+        <v>0.2366119960217066</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>0.2447851038506925</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>0.004647180994424478</v>
+      </c>
       <c r="AA261" t="n">
         <v>0.00313</v>
       </c>
@@ -20672,9 +22224,15 @@
       <c r="W262" t="n">
         <v>0.2135519705250888</v>
       </c>
-      <c r="X262" t="inlineStr"/>
-      <c r="Y262" t="inlineStr"/>
-      <c r="Z262" t="inlineStr"/>
+      <c r="X262" t="n">
+        <v>0.2844065342186999</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>0.3057617312712088</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>0.004479291191164886</v>
+      </c>
       <c r="AA262" t="n">
         <v>0.003129999902383788</v>
       </c>
@@ -20749,9 +22307,15 @@
       <c r="W263" t="n">
         <v>0.02778682761380255</v>
       </c>
-      <c r="X263" t="inlineStr"/>
-      <c r="Y263" t="inlineStr"/>
-      <c r="Z263" t="inlineStr"/>
+      <c r="X263" t="n">
+        <v>0.3043075651509424</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>0.3070862479123226</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>0.004755226894975906</v>
+      </c>
       <c r="AA263" t="n">
         <v>0.00341000087535014</v>
       </c>
@@ -20826,9 +22390,15 @@
       <c r="W264" t="n">
         <v>0.01353565912806907</v>
       </c>
-      <c r="X264" t="inlineStr"/>
-      <c r="Y264" t="inlineStr"/>
-      <c r="Z264" t="inlineStr"/>
+      <c r="X264" t="n">
+        <v>0.24180095723295</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>0.2431545231457569</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>0.004484793457561025</v>
+      </c>
       <c r="AA264" t="n">
         <v>0.003409999877399897</v>
       </c>
@@ -20903,9 +22473,15 @@
       <c r="W265" t="n">
         <v>0.02022331453846418</v>
       </c>
-      <c r="X265" t="inlineStr"/>
-      <c r="Y265" t="inlineStr"/>
-      <c r="Z265" t="inlineStr"/>
+      <c r="X265" t="n">
+        <v>0.356791316809725</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>0.3588136482635714</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>0.004488766515494779</v>
+      </c>
       <c r="AA265" t="n">
         <v>0.00341</v>
       </c>
@@ -20980,9 +22556,15 @@
       <c r="W266" t="n">
         <v>0</v>
       </c>
-      <c r="X266" t="inlineStr"/>
-      <c r="Y266" t="inlineStr"/>
-      <c r="Z266" t="inlineStr"/>
+      <c r="X266" t="n">
+        <v>0.331483514751123</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>0.331483514751123</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>0.004427706343068895</v>
+      </c>
       <c r="AA266" t="n">
         <v>0.00341</v>
       </c>
@@ -21057,9 +22639,15 @@
       <c r="W267" t="n">
         <v>0.02804682393698902</v>
       </c>
-      <c r="X267" t="inlineStr"/>
-      <c r="Y267" t="inlineStr"/>
-      <c r="Z267" t="inlineStr"/>
+      <c r="X267" t="n">
+        <v>0.4456860009624251</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>0.448490683356124</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>0.003696402035000211</v>
+      </c>
       <c r="AA267" t="n">
         <v>0.00341</v>
       </c>
@@ -21134,9 +22722,15 @@
       <c r="W268" t="n">
         <v>0.008028347740755462</v>
       </c>
-      <c r="X268" t="inlineStr"/>
-      <c r="Y268" t="inlineStr"/>
-      <c r="Z268" t="inlineStr"/>
+      <c r="X268" t="n">
+        <v>0.2482823772793432</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>0.2490852120534188</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>0.004220187777679278</v>
+      </c>
       <c r="AA268" t="n">
         <v>0.003409999748402355</v>
       </c>
@@ -21211,9 +22805,15 @@
       <c r="W269" t="n">
         <v>0.04132011282990955</v>
       </c>
-      <c r="X269" t="inlineStr"/>
-      <c r="Y269" t="inlineStr"/>
-      <c r="Z269" t="inlineStr"/>
+      <c r="X269" t="n">
+        <v>0.3881895836177018</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>0.3923215949006928</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>0.004517761137505185</v>
+      </c>
       <c r="AA269" t="n">
         <v>0.003409982174688057</v>
       </c>
@@ -21288,9 +22888,15 @@
       <c r="W270" t="n">
         <v>0.02656486201635791</v>
       </c>
-      <c r="X270" t="inlineStr"/>
-      <c r="Y270" t="inlineStr"/>
-      <c r="Z270" t="inlineStr"/>
+      <c r="X270" t="n">
+        <v>0.017854112752689</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>0.0578242477083379</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>0.005519995396869056</v>
+      </c>
       <c r="AA270" t="n">
         <v>0.00340999649859944</v>
       </c>
@@ -21365,9 +22971,15 @@
       <c r="W271" t="n">
         <v>0.01534360342318041</v>
       </c>
-      <c r="X271" t="inlineStr"/>
-      <c r="Y271" t="inlineStr"/>
-      <c r="Z271" t="inlineStr"/>
+      <c r="X271" t="n">
+        <v>0.3858102128042811</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>0.3873445731465991</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>0.004590582324908861</v>
+      </c>
       <c r="AA271" t="n">
         <v>0.00341</v>
       </c>
@@ -21442,9 +23054,15 @@
       <c r="W272" t="n">
         <v>0.003767913791295647</v>
       </c>
-      <c r="X272" t="inlineStr"/>
-      <c r="Y272" t="inlineStr"/>
-      <c r="Z272" t="inlineStr"/>
+      <c r="X272" t="n">
+        <v>0.3312208152925513</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>0.3315976066716809</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>0.004547383670275258</v>
+      </c>
       <c r="AA272" t="n">
         <v>0.00341</v>
       </c>
@@ -21519,9 +23137,15 @@
       <c r="W273" t="n">
         <v>0</v>
       </c>
-      <c r="X273" t="inlineStr"/>
-      <c r="Y273" t="inlineStr"/>
-      <c r="Z273" t="inlineStr"/>
+      <c r="X273" t="n">
+        <v>0.2831728030569443</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>0.2831728030569443</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>0.004166167102648458</v>
+      </c>
       <c r="AA273" t="n">
         <v>0.003410000538677009</v>
       </c>
@@ -21596,9 +23220,15 @@
       <c r="W274" t="n">
         <v>0.02143780749561205</v>
       </c>
-      <c r="X274" t="inlineStr"/>
-      <c r="Y274" t="inlineStr"/>
-      <c r="Z274" t="inlineStr"/>
+      <c r="X274" t="n">
+        <v>0.2932773380343223</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>0.2954211187838836</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>0.004014265675618707</v>
+      </c>
       <c r="AA274" t="n">
         <v>0.003410000938174313</v>
       </c>
@@ -21673,9 +23303,15 @@
       <c r="W275" t="n">
         <v>0</v>
       </c>
-      <c r="X275" t="inlineStr"/>
-      <c r="Y275" t="inlineStr"/>
-      <c r="Z275" t="inlineStr"/>
+      <c r="X275" t="n">
+        <v>0.2993723029885551</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>0.2993723029885551</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>0.004625749106372349</v>
+      </c>
       <c r="AA275" t="n">
         <v>0.00341</v>
       </c>
@@ -21750,9 +23386,15 @@
       <c r="W276" t="n">
         <v>0</v>
       </c>
-      <c r="X276" t="inlineStr"/>
-      <c r="Y276" t="inlineStr"/>
-      <c r="Z276" t="inlineStr"/>
+      <c r="X276" t="n">
+        <v>0.2347872754570051</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>0.2347872754570051</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>0.00498282924772125</v>
+      </c>
       <c r="AA276" t="n">
         <v>0.00341</v>
       </c>
@@ -21827,9 +23469,15 @@
       <c r="W277" t="n">
         <v>0.01202265202165455</v>
       </c>
-      <c r="X277" t="inlineStr"/>
-      <c r="Y277" t="inlineStr"/>
-      <c r="Z277" t="inlineStr"/>
+      <c r="X277" t="n">
+        <v>0.3192538705347878</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>0.3204561357369533</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>0.003923888546141089</v>
+      </c>
       <c r="AA277" t="n">
         <v>0.003409999718278116</v>
       </c>
@@ -21904,11 +23552,17 @@
       <c r="W278" t="n">
         <v>0</v>
       </c>
-      <c r="X278" t="inlineStr"/>
-      <c r="Y278" t="inlineStr"/>
-      <c r="Z278" t="inlineStr"/>
+      <c r="X278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>0.0009367101912303747</v>
+      </c>
       <c r="AA278" t="n">
-        <v>0.00411</v>
+        <v>0.0009367101912303747</v>
       </c>
     </row>
     <row r="279">
@@ -21981,9 +23635,15 @@
       <c r="W279" t="n">
         <v>0.06468667768385583</v>
       </c>
-      <c r="X279" t="inlineStr"/>
-      <c r="Y279" t="inlineStr"/>
-      <c r="Z279" t="inlineStr"/>
+      <c r="X279" t="n">
+        <v>0.2357458190917086</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>0.2422144868600941</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>0.004964414943540053</v>
+      </c>
       <c r="AA279" t="n">
         <v>0.003289999549782771</v>
       </c>
@@ -22058,9 +23718,15 @@
       <c r="W280" t="n">
         <v>0.08454634268580974</v>
       </c>
-      <c r="X280" t="inlineStr"/>
-      <c r="Y280" t="inlineStr"/>
-      <c r="Z280" t="inlineStr"/>
+      <c r="X280" t="n">
+        <v>0.2358930882956789</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>0.2443477225642599</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>0.005218346801005512</v>
+      </c>
       <c r="AA280" t="n">
         <v>0.00329</v>
       </c>
@@ -22135,9 +23801,15 @@
       <c r="W281" t="n">
         <v>0.0777630600468345</v>
       </c>
-      <c r="X281" t="inlineStr"/>
-      <c r="Y281" t="inlineStr"/>
-      <c r="Z281" t="inlineStr"/>
+      <c r="X281" t="n">
+        <v>0.2822189846373413</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>0.2899952906420247</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>0.005046893821104664</v>
+      </c>
       <c r="AA281" t="n">
         <v>0.00329</v>
       </c>
@@ -22212,9 +23884,15 @@
       <c r="W282" t="n">
         <v>0</v>
       </c>
-      <c r="X282" t="inlineStr"/>
-      <c r="Y282" t="inlineStr"/>
-      <c r="Z282" t="inlineStr"/>
+      <c r="X282" t="n">
+        <v>0.2424721627874855</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>0.2424721627874855</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>0.00483508865992466</v>
+      </c>
       <c r="AA282" t="n">
         <v>0.00329</v>
       </c>
@@ -22289,9 +23967,15 @@
       <c r="W283" t="n">
         <v>0.01691960277892181</v>
       </c>
-      <c r="X283" t="inlineStr"/>
-      <c r="Y283" t="inlineStr"/>
-      <c r="Z283" t="inlineStr"/>
+      <c r="X283" t="n">
+        <v>0.2148445051247068</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>0.2165364654025989</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>0.01187745317318145</v>
+      </c>
       <c r="AA283" t="n">
         <v>0.007739999999999999</v>
       </c>
@@ -22366,9 +24050,15 @@
       <c r="W284" t="n">
         <v>0.00996871402927756</v>
       </c>
-      <c r="X284" t="inlineStr"/>
-      <c r="Y284" t="inlineStr"/>
-      <c r="Z284" t="inlineStr"/>
+      <c r="X284" t="n">
+        <v>0.2364604516231212</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>0.237457323026049</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>0.01219323120855293</v>
+      </c>
       <c r="AA284" t="n">
         <v>0.00774</v>
       </c>
@@ -22443,9 +24133,15 @@
       <c r="W285" t="n">
         <v>0.03146710842829901</v>
       </c>
-      <c r="X285" t="inlineStr"/>
-      <c r="Y285" t="inlineStr"/>
-      <c r="Z285" t="inlineStr"/>
+      <c r="X285" t="n">
+        <v>0.2414425159160294</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>0.2445892267588593</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>0.01175805077474426</v>
+      </c>
       <c r="AA285" t="n">
         <v>0.007739999999999999</v>
       </c>
@@ -22520,9 +24216,15 @@
       <c r="W286" t="n">
         <v>0.01235826384148681</v>
       </c>
-      <c r="X286" t="inlineStr"/>
-      <c r="Y286" t="inlineStr"/>
-      <c r="Z286" t="inlineStr"/>
+      <c r="X286" t="n">
+        <v>0.2364979158285623</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>0.237733742212711</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>0.01214882753107328</v>
+      </c>
       <c r="AA286" t="n">
         <v>0.00774</v>
       </c>
@@ -22597,9 +24299,15 @@
       <c r="W287" t="n">
         <v>0.01302230785925191</v>
       </c>
-      <c r="X287" t="inlineStr"/>
-      <c r="Y287" t="inlineStr"/>
-      <c r="Z287" t="inlineStr"/>
+      <c r="X287" t="n">
+        <v>0.2882786229834406</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>0.2895808537693658</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>0.01020595046666904</v>
+      </c>
       <c r="AA287" t="n">
         <v>0.007739999999999999</v>
       </c>
@@ -22674,9 +24382,15 @@
       <c r="W288" t="n">
         <v>0.0293914394873569</v>
       </c>
-      <c r="X288" t="inlineStr"/>
-      <c r="Y288" t="inlineStr"/>
-      <c r="Z288" t="inlineStr"/>
+      <c r="X288" t="n">
+        <v>0.2769523948923014</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>0.2798915388410371</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>0.01141526110039217</v>
+      </c>
       <c r="AA288" t="n">
         <v>0.007739999999999999</v>
       </c>
@@ -22751,9 +24465,15 @@
       <c r="W289" t="n">
         <v>0</v>
       </c>
-      <c r="X289" t="inlineStr"/>
-      <c r="Y289" t="inlineStr"/>
-      <c r="Z289" t="inlineStr"/>
+      <c r="X289" t="n">
+        <v>0.3680904311665962</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>0.3680904311665962</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>0.009941019183653423</v>
+      </c>
       <c r="AA289" t="n">
         <v>0.007739999999999999</v>
       </c>
@@ -22828,9 +24548,15 @@
       <c r="W290" t="n">
         <v>0.01983522206043215</v>
       </c>
-      <c r="X290" t="inlineStr"/>
-      <c r="Y290" t="inlineStr"/>
-      <c r="Z290" t="inlineStr"/>
+      <c r="X290" t="n">
+        <v>0.3394702533224381</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>0.3414537755284813</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>0.01044034874149322</v>
+      </c>
       <c r="AA290" t="n">
         <v>0.00774</v>
       </c>
@@ -22905,9 +24631,15 @@
       <c r="W291" t="n">
         <v>0.02213964077482506</v>
       </c>
-      <c r="X291" t="inlineStr"/>
-      <c r="Y291" t="inlineStr"/>
-      <c r="Z291" t="inlineStr"/>
+      <c r="X291" t="n">
+        <v>0.2567147486366981</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>0.2589287127141806</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>0.01179702796093637</v>
+      </c>
       <c r="AA291" t="n">
         <v>0.00774</v>
       </c>
@@ -22982,9 +24714,15 @@
       <c r="W292" t="n">
         <v>0.03771539999955392</v>
       </c>
-      <c r="X292" t="inlineStr"/>
-      <c r="Y292" t="inlineStr"/>
-      <c r="Z292" t="inlineStr"/>
+      <c r="X292" t="n">
+        <v>0.2359368527879206</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>0.239708392787876</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>0.01229705221914361</v>
+      </c>
       <c r="AA292" t="n">
         <v>0.00774</v>
       </c>
@@ -23059,9 +24797,15 @@
       <c r="W293" t="n">
         <v>0</v>
       </c>
-      <c r="X293" t="inlineStr"/>
-      <c r="Y293" t="inlineStr"/>
-      <c r="Z293" t="inlineStr"/>
+      <c r="X293" t="n">
+        <v>0.7280817873981158</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>0.7280817873981158</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>0.009386254635204021</v>
+      </c>
       <c r="AA293" t="n">
         <v>0.007739999999999999</v>
       </c>
@@ -23136,9 +24880,15 @@
       <c r="W294" t="n">
         <v>0.02341577650543013</v>
       </c>
-      <c r="X294" t="inlineStr"/>
-      <c r="Y294" t="inlineStr"/>
-      <c r="Z294" t="inlineStr"/>
+      <c r="X294" t="n">
+        <v>0.4799967441017854</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>0.4823383217523284</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>0.01014464772567073</v>
+      </c>
       <c r="AA294" t="n">
         <v>0.00774</v>
       </c>
@@ -23213,11 +24963,17 @@
       <c r="W295" t="n">
         <v>0.05103833203315581</v>
       </c>
-      <c r="X295" t="inlineStr"/>
-      <c r="Y295" t="inlineStr"/>
-      <c r="Z295" t="inlineStr"/>
+      <c r="X295" t="n">
+        <v>0.7567804938170419</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>0.7618843270203575</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>0.00770376301859957</v>
+      </c>
       <c r="AA295" t="n">
-        <v>0.00774</v>
+        <v>0.00770376301859957</v>
       </c>
     </row>
     <row r="296">
@@ -23290,9 +25046,15 @@
       <c r="W296" t="n">
         <v>0.03675520585100268</v>
       </c>
-      <c r="X296" t="inlineStr"/>
-      <c r="Y296" t="inlineStr"/>
-      <c r="Z296" t="inlineStr"/>
+      <c r="X296" t="n">
+        <v>0.5716407721597752</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>0.6171928732210399</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>0.01045958231202263</v>
+      </c>
       <c r="AA296" t="n">
         <v>0.00774</v>
       </c>
@@ -23367,9 +25129,15 @@
       <c r="W297" t="n">
         <v>0</v>
       </c>
-      <c r="X297" t="inlineStr"/>
-      <c r="Y297" t="inlineStr"/>
-      <c r="Z297" t="inlineStr"/>
+      <c r="X297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>0.01579069023847278</v>
+      </c>
       <c r="AA297" t="n">
         <v>0.007739999999999999</v>
       </c>
@@ -23444,9 +25212,15 @@
       <c r="W298" t="n">
         <v>0.05147224261337205</v>
       </c>
-      <c r="X298" t="inlineStr"/>
-      <c r="Y298" t="inlineStr"/>
-      <c r="Z298" t="inlineStr"/>
+      <c r="X298" t="n">
+        <v>0.302477781855776</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>0.3076250061171132</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>0.01128192364601431</v>
+      </c>
       <c r="AA298" t="n">
         <v>0.00774</v>
       </c>
@@ -23521,9 +25295,15 @@
       <c r="W299" t="n">
         <v>0.01801217372425772</v>
       </c>
-      <c r="X299" t="inlineStr"/>
-      <c r="Y299" t="inlineStr"/>
-      <c r="Z299" t="inlineStr"/>
+      <c r="X299" t="n">
+        <v>0.3459142091633902</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>0.347715426535816</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>0.008233266153652939</v>
+      </c>
       <c r="AA299" t="n">
         <v>0.00664</v>
       </c>
@@ -23598,9 +25378,15 @@
       <c r="W300" t="n">
         <v>0.01468416235296193</v>
       </c>
-      <c r="X300" t="inlineStr"/>
-      <c r="Y300" t="inlineStr"/>
-      <c r="Z300" t="inlineStr"/>
+      <c r="X300" t="n">
+        <v>0.3947079053439286</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>0.3961763215792248</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>0.009238980746255435</v>
+      </c>
       <c r="AA300" t="n">
         <v>0.00664</v>
       </c>
@@ -23675,9 +25461,15 @@
       <c r="W301" t="n">
         <v>0.01919055956647281</v>
       </c>
-      <c r="X301" t="inlineStr"/>
-      <c r="Y301" t="inlineStr"/>
-      <c r="Z301" t="inlineStr"/>
+      <c r="X301" t="n">
+        <v>0.4105572893376055</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>0.4124763452942528</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>0.009401605170740181</v>
+      </c>
       <c r="AA301" t="n">
         <v>0.00664</v>
       </c>
@@ -23752,9 +25544,15 @@
       <c r="W302" t="n">
         <v>0.003142107421993467</v>
       </c>
-      <c r="X302" t="inlineStr"/>
-      <c r="Y302" t="inlineStr"/>
-      <c r="Z302" t="inlineStr"/>
+      <c r="X302" t="n">
+        <v>0.4919585136239624</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>0.4922727243661617</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>0.01088796499093123</v>
+      </c>
       <c r="AA302" t="n">
         <v>0.00664</v>
       </c>
@@ -23829,9 +25627,15 @@
       <c r="W303" t="n">
         <v>0</v>
       </c>
-      <c r="X303" t="inlineStr"/>
-      <c r="Y303" t="inlineStr"/>
-      <c r="Z303" t="inlineStr"/>
+      <c r="X303" t="n">
+        <v>0.3087448796458181</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>0.3087448796458181</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>0.01123375694733084</v>
+      </c>
       <c r="AA303" t="n">
         <v>0.00664</v>
       </c>
@@ -23906,9 +25710,15 @@
       <c r="W304" t="n">
         <v>0</v>
       </c>
-      <c r="X304" t="inlineStr"/>
-      <c r="Y304" t="inlineStr"/>
-      <c r="Z304" t="inlineStr"/>
+      <c r="X304" t="n">
+        <v>0.34075899948858</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>0.34075899948858</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>0.01109023181241558</v>
+      </c>
       <c r="AA304" t="n">
         <v>0.006639991445680069</v>
       </c>
@@ -23983,9 +25793,15 @@
       <c r="W305" t="n">
         <v>0.051960310796239</v>
       </c>
-      <c r="X305" t="inlineStr"/>
-      <c r="Y305" t="inlineStr"/>
-      <c r="Z305" t="inlineStr"/>
+      <c r="X305" t="n">
+        <v>0.3589358894346919</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>0.3641319205143158</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>0.01037660809050126</v>
+      </c>
       <c r="AA305" t="n">
         <v>0.006639999999999999</v>
       </c>
@@ -24060,9 +25876,15 @@
       <c r="W306" t="n">
         <v>0.02336740484216168</v>
       </c>
-      <c r="X306" t="inlineStr"/>
-      <c r="Y306" t="inlineStr"/>
-      <c r="Z306" t="inlineStr"/>
+      <c r="X306" t="n">
+        <v>0.2636405639127954</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>0.2659773043970116</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>0.009698019619179715</v>
+      </c>
       <c r="AA306" t="n">
         <v>0.006640003779289493</v>
       </c>
@@ -24137,9 +25959,15 @@
       <c r="W307" t="n">
         <v>0.0162638154916423</v>
       </c>
-      <c r="X307" t="inlineStr"/>
-      <c r="Y307" t="inlineStr"/>
-      <c r="Z307" t="inlineStr"/>
+      <c r="X307" t="n">
+        <v>0.2374229329370754</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>0.2390493144862396</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>0.009064019236409704</v>
+      </c>
       <c r="AA307" t="n">
         <v>0.00664</v>
       </c>
@@ -24214,9 +26042,15 @@
       <c r="W308" t="n">
         <v>0.4757110753130921</v>
       </c>
-      <c r="X308" t="inlineStr"/>
-      <c r="Y308" t="inlineStr"/>
-      <c r="Z308" t="inlineStr"/>
+      <c r="X308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>0.04757110753130921</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>0.01431582248640459</v>
+      </c>
       <c r="AA308" t="n">
         <v>0.00664</v>
       </c>
@@ -24291,9 +26125,15 @@
       <c r="W309" t="n">
         <v>0.01278601799024607</v>
       </c>
-      <c r="X309" t="inlineStr"/>
-      <c r="Y309" t="inlineStr"/>
-      <c r="Z309" t="inlineStr"/>
+      <c r="X309" t="n">
+        <v>0.3138843386036265</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>0.3151629404026511</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>0.009324867895842888</v>
+      </c>
       <c r="AA309" t="n">
         <v>0.00664</v>
       </c>
@@ -24368,9 +26208,15 @@
       <c r="W310" t="n">
         <v>0</v>
       </c>
-      <c r="X310" t="inlineStr"/>
-      <c r="Y310" t="inlineStr"/>
-      <c r="Z310" t="inlineStr"/>
+      <c r="X310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>0.01255932254738922</v>
+      </c>
       <c r="AA310" t="n">
         <v>0.00664</v>
       </c>
@@ -24445,9 +26291,15 @@
       <c r="W311" t="n">
         <v>0</v>
       </c>
-      <c r="X311" t="inlineStr"/>
-      <c r="Y311" t="inlineStr"/>
-      <c r="Z311" t="inlineStr"/>
+      <c r="X311" t="n">
+        <v>0.4876888317600383</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>0.5052156013362613</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>0.01105011952594501</v>
+      </c>
       <c r="AA311" t="n">
         <v>0.00664</v>
       </c>
@@ -24522,9 +26374,15 @@
       <c r="W312" t="n">
         <v>0</v>
       </c>
-      <c r="X312" t="inlineStr"/>
-      <c r="Y312" t="inlineStr"/>
-      <c r="Z312" t="inlineStr"/>
+      <c r="X312" t="n">
+        <v>0.236224528383453</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>0.236224528383453</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>0.01253350134067243</v>
+      </c>
       <c r="AA312" t="n">
         <v>0.006640001884658877</v>
       </c>
@@ -24599,9 +26457,15 @@
       <c r="W313" t="n">
         <v>0.004655425448048678</v>
       </c>
-      <c r="X313" t="inlineStr"/>
-      <c r="Y313" t="inlineStr"/>
-      <c r="Z313" t="inlineStr"/>
+      <c r="X313" t="n">
+        <v>0.4190348877537811</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>0.4195004302985859</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>0.009087538938326908</v>
+      </c>
       <c r="AA313" t="n">
         <v>0.00664</v>
       </c>
@@ -24676,11 +26540,17 @@
       <c r="W314" t="n">
         <v>0</v>
       </c>
-      <c r="X314" t="inlineStr"/>
-      <c r="Y314" t="inlineStr"/>
-      <c r="Z314" t="inlineStr"/>
+      <c r="X314" t="n">
+        <v>0.9291522342518637</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>0.974888989254511</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>0.007184797889315812</v>
+      </c>
       <c r="AA314" t="n">
-        <v>0.00774</v>
+        <v>0.007184797889315812</v>
       </c>
     </row>
     <row r="315">
@@ -24753,9 +26623,15 @@
       <c r="W315" t="n">
         <v>0.0004134741855788774</v>
       </c>
-      <c r="X315" t="inlineStr"/>
-      <c r="Y315" t="inlineStr"/>
-      <c r="Z315" t="inlineStr"/>
+      <c r="X315" t="n">
+        <v>0.4354743048568714</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>0.4355156522754293</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>0.01076732597158138</v>
+      </c>
       <c r="AA315" t="n">
         <v>0.00774</v>
       </c>
@@ -24830,9 +26706,15 @@
       <c r="W316" t="n">
         <v>0.07571705952261681</v>
       </c>
-      <c r="X316" t="inlineStr"/>
-      <c r="Y316" t="inlineStr"/>
-      <c r="Z316" t="inlineStr"/>
+      <c r="X316" t="n">
+        <v>0.2363479465016771</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>0.2439196524539388</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>0.01090877776950493</v>
+      </c>
       <c r="AA316" t="n">
         <v>0.00774</v>
       </c>
@@ -24907,9 +26789,15 @@
       <c r="W317" t="n">
         <v>0.1134711077768526</v>
       </c>
-      <c r="X317" t="inlineStr"/>
-      <c r="Y317" t="inlineStr"/>
-      <c r="Z317" t="inlineStr"/>
+      <c r="X317" t="n">
+        <v>0.9487735211996353</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>0.9601206319773206</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>0.008650579788558526</v>
+      </c>
       <c r="AA317" t="n">
         <v>0.00774</v>
       </c>
@@ -24984,11 +26872,17 @@
       <c r="W318" t="n">
         <v>0</v>
       </c>
-      <c r="X318" t="inlineStr"/>
-      <c r="Y318" t="inlineStr"/>
-      <c r="Z318" t="inlineStr"/>
+      <c r="X318" t="n">
+        <v>0.9418864358115953</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>0.9418864358115953</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>0.00614119960780469</v>
+      </c>
       <c r="AA318" t="n">
-        <v>0.007739999999999999</v>
+        <v>0.00614119960780469</v>
       </c>
     </row>
     <row r="319">
@@ -25061,11 +26955,17 @@
       <c r="W319" t="n">
         <v>0</v>
       </c>
-      <c r="X319" t="inlineStr"/>
-      <c r="Y319" t="inlineStr"/>
-      <c r="Z319" t="inlineStr"/>
+      <c r="X319" t="n">
+        <v>0.9658671837102035</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>0.9658671837102035</v>
+      </c>
+      <c r="Z319" t="n">
+        <v>0.005831912010417763</v>
+      </c>
       <c r="AA319" t="n">
-        <v>0.007739999999999999</v>
+        <v>0.005831912010417763</v>
       </c>
     </row>
     <row r="320">
@@ -25138,9 +27038,15 @@
       <c r="W320" t="n">
         <v>0.05018607115047757</v>
       </c>
-      <c r="X320" t="inlineStr"/>
-      <c r="Y320" t="inlineStr"/>
-      <c r="Z320" t="inlineStr"/>
+      <c r="X320" t="n">
+        <v>0.2805284826825227</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>0.2855470897975705</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>0.01277956420225814</v>
+      </c>
       <c r="AA320" t="n">
         <v>0.007739999999999999</v>
       </c>
@@ -25215,9 +27121,15 @@
       <c r="W321" t="n">
         <v>0.05742788004169615</v>
       </c>
-      <c r="X321" t="inlineStr"/>
-      <c r="Y321" t="inlineStr"/>
-      <c r="Z321" t="inlineStr"/>
+      <c r="X321" t="n">
+        <v>0.2503672096848235</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>0.2561099976889931</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>0.00898249214557858</v>
+      </c>
       <c r="AA321" t="n">
         <v>0.00594</v>
       </c>
@@ -25292,9 +27204,15 @@
       <c r="W322" t="n">
         <v>0.07346154948219374</v>
       </c>
-      <c r="X322" t="inlineStr"/>
-      <c r="Y322" t="inlineStr"/>
-      <c r="Z322" t="inlineStr"/>
+      <c r="X322" t="n">
+        <v>0.357936731451147</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>0.3652828863993664</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>0.009752163081375801</v>
+      </c>
       <c r="AA322" t="n">
         <v>0.00594</v>
       </c>
@@ -25369,9 +27287,15 @@
       <c r="W323" t="n">
         <v>0</v>
       </c>
-      <c r="X323" t="inlineStr"/>
-      <c r="Y323" t="inlineStr"/>
-      <c r="Z323" t="inlineStr"/>
+      <c r="X323" t="n">
+        <v>0.4579076573151379</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>0.4579076573151379</v>
+      </c>
+      <c r="Z323" t="n">
+        <v>0.008973814047399279</v>
+      </c>
       <c r="AA323" t="n">
         <v>0.00594</v>
       </c>
@@ -25446,9 +27370,15 @@
       <c r="W324" t="n">
         <v>0.1031524623719301</v>
       </c>
-      <c r="X324" t="inlineStr"/>
-      <c r="Y324" t="inlineStr"/>
-      <c r="Z324" t="inlineStr"/>
+      <c r="X324" t="n">
+        <v>0.3677852047721186</v>
+      </c>
+      <c r="Y324" t="n">
+        <v>0.3781004510093116</v>
+      </c>
+      <c r="Z324" t="n">
+        <v>0.01045129514767661</v>
+      </c>
       <c r="AA324" t="n">
         <v>0.00594</v>
       </c>
@@ -25523,9 +27453,15 @@
       <c r="W325" t="n">
         <v>0.07504145656598596</v>
       </c>
-      <c r="X325" t="inlineStr"/>
-      <c r="Y325" t="inlineStr"/>
-      <c r="Z325" t="inlineStr"/>
+      <c r="X325" t="n">
+        <v>0.4448235367014348</v>
+      </c>
+      <c r="Y325" t="n">
+        <v>0.4523276823580334</v>
+      </c>
+      <c r="Z325" t="n">
+        <v>0.00929801173022343</v>
+      </c>
       <c r="AA325" t="n">
         <v>0.00594</v>
       </c>
@@ -25600,9 +27536,15 @@
       <c r="W326" t="n">
         <v>0.09562813218123639</v>
       </c>
-      <c r="X326" t="inlineStr"/>
-      <c r="Y326" t="inlineStr"/>
-      <c r="Z326" t="inlineStr"/>
+      <c r="X326" t="n">
+        <v>0.2354389051204091</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>0.2450017183385327</v>
+      </c>
+      <c r="Z326" t="n">
+        <v>0.01139461168855667</v>
+      </c>
       <c r="AA326" t="n">
         <v>0.00594</v>
       </c>
@@ -25677,9 +27619,15 @@
       <c r="W327" t="n">
         <v>0.1104490463397998</v>
       </c>
-      <c r="X327" t="inlineStr"/>
-      <c r="Y327" t="inlineStr"/>
-      <c r="Z327" t="inlineStr"/>
+      <c r="X327" t="n">
+        <v>0.3818031178938073</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>0.3928480225277873</v>
+      </c>
+      <c r="Z327" t="n">
+        <v>0.0102117777119984</v>
+      </c>
       <c r="AA327" t="n">
         <v>0.00594</v>
       </c>
@@ -25754,9 +27702,15 @@
       <c r="W328" t="n">
         <v>0.08196417064764305</v>
       </c>
-      <c r="X328" t="inlineStr"/>
-      <c r="Y328" t="inlineStr"/>
-      <c r="Z328" t="inlineStr"/>
+      <c r="X328" t="n">
+        <v>0.2642285156774622</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>0.2724249327422265</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>0.01113158143136237</v>
+      </c>
       <c r="AA328" t="n">
         <v>0.005940000000000001</v>
       </c>
@@ -25831,11 +27785,17 @@
       <c r="W329" t="n">
         <v>0</v>
       </c>
-      <c r="X329" t="inlineStr"/>
-      <c r="Y329" t="inlineStr"/>
-      <c r="Z329" t="inlineStr"/>
+      <c r="X329" t="n">
+        <v>0.321926992220299</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>0.321926992220299</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>-0.0005584606005731238</v>
+      </c>
       <c r="AA329" t="n">
-        <v>0.005939997858213751</v>
+        <v>-0.0005584606005731238</v>
       </c>
     </row>
     <row r="330">
@@ -25908,11 +27868,17 @@
       <c r="W330" t="n">
         <v>0</v>
       </c>
-      <c r="X330" t="inlineStr"/>
-      <c r="Y330" t="inlineStr"/>
-      <c r="Z330" t="inlineStr"/>
+      <c r="X330" t="n">
+        <v>0.9521632161299043</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>0.9521632161299043</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>-0.004302063971960433</v>
+      </c>
       <c r="AA330" t="n">
-        <v>0.00594</v>
+        <v>-0.004302063971960433</v>
       </c>
     </row>
     <row r="331">
@@ -25985,9 +27951,15 @@
       <c r="W331" t="n">
         <v>0.05563260160711642</v>
       </c>
-      <c r="X331" t="inlineStr"/>
-      <c r="Y331" t="inlineStr"/>
-      <c r="Z331" t="inlineStr"/>
+      <c r="X331" t="n">
+        <v>0.6763838277600593</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>0.681947087920771</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>0.00761984617690721</v>
+      </c>
       <c r="AA331" t="n">
         <v>0.00594</v>
       </c>
@@ -26062,9 +28034,15 @@
       <c r="W332" t="n">
         <v>0</v>
       </c>
-      <c r="X332" t="inlineStr"/>
-      <c r="Y332" t="inlineStr"/>
-      <c r="Z332" t="inlineStr"/>
+      <c r="X332" t="n">
+        <v>0.4990396422202132</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>0.4990396422202132</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>0.009779490057063134</v>
+      </c>
       <c r="AA332" t="n">
         <v>0.00594</v>
       </c>
@@ -26139,9 +28117,15 @@
       <c r="W333" t="n">
         <v>0.009466454178760429</v>
       </c>
-      <c r="X333" t="inlineStr"/>
-      <c r="Y333" t="inlineStr"/>
-      <c r="Z333" t="inlineStr"/>
+      <c r="X333" t="n">
+        <v>0.8686162660410857</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>0.8695629114589617</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>0.006488658225033687</v>
+      </c>
       <c r="AA333" t="n">
         <v>0.005939880952380953</v>
       </c>
@@ -26216,11 +28200,17 @@
       <c r="W334" t="n">
         <v>0</v>
       </c>
-      <c r="X334" t="inlineStr"/>
-      <c r="Y334" t="inlineStr"/>
-      <c r="Z334" t="inlineStr"/>
+      <c r="X334" t="n">
+        <v>0.5493167184269916</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>0.5493167184269916</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>-0.001909155054800699</v>
+      </c>
       <c r="AA334" t="n">
-        <v>0.005939997757344696</v>
+        <v>-0.001909155054800699</v>
       </c>
     </row>
     <row r="335">
@@ -26293,9 +28283,15 @@
       <c r="W335" t="n">
         <v>0.02434214018316391</v>
       </c>
-      <c r="X335" t="inlineStr"/>
-      <c r="Y335" t="inlineStr"/>
-      <c r="Z335" t="inlineStr"/>
+      <c r="X335" t="n">
+        <v>0.3734267740869317</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>0.3758609881052481</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>0.006316791660557405</v>
+      </c>
       <c r="AA335" t="n">
         <v>0.00538</v>
       </c>
@@ -26370,9 +28366,15 @@
       <c r="W336" t="n">
         <v>0.01753492358587617</v>
       </c>
-      <c r="X336" t="inlineStr"/>
-      <c r="Y336" t="inlineStr"/>
-      <c r="Z336" t="inlineStr"/>
+      <c r="X336" t="n">
+        <v>0.3437246344898457</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>0.3454781268484333</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>0.007654501140835861</v>
+      </c>
       <c r="AA336" t="n">
         <v>0.00538</v>
       </c>
@@ -26447,9 +28449,15 @@
       <c r="W337" t="n">
         <v>0</v>
       </c>
-      <c r="X337" t="inlineStr"/>
-      <c r="Y337" t="inlineStr"/>
-      <c r="Z337" t="inlineStr"/>
+      <c r="X337" t="n">
+        <v>0.3426354724091456</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>0.3426354724091456</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>0.007668844493589916</v>
+      </c>
       <c r="AA337" t="n">
         <v>0.00538</v>
       </c>
@@ -26524,11 +28532,17 @@
       <c r="W338" t="n">
         <v>0.008840504951976129</v>
       </c>
-      <c r="X338" t="inlineStr"/>
-      <c r="Y338" t="inlineStr"/>
-      <c r="Z338" t="inlineStr"/>
+      <c r="X338" t="n">
+        <v>0.2432023210256575</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>0.2440863715208551</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>-8.702875936141814e-05</v>
+      </c>
       <c r="AA338" t="n">
-        <v>0.00538</v>
+        <v>-8.702875936141814e-05</v>
       </c>
     </row>
     <row r="339">
@@ -26601,9 +28615,15 @@
       <c r="W339" t="n">
         <v>0.009210837019539392</v>
       </c>
-      <c r="X339" t="inlineStr"/>
-      <c r="Y339" t="inlineStr"/>
-      <c r="Z339" t="inlineStr"/>
+      <c r="X339" t="n">
+        <v>0.2359593538122093</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>0.2368804375141633</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>0.007003073216883538</v>
+      </c>
       <c r="AA339" t="n">
         <v>0.005379999999999999</v>
       </c>
@@ -26678,9 +28698,15 @@
       <c r="W340" t="n">
         <v>0.006834895121730451</v>
       </c>
-      <c r="X340" t="inlineStr"/>
-      <c r="Y340" t="inlineStr"/>
-      <c r="Z340" t="inlineStr"/>
+      <c r="X340" t="n">
+        <v>0.2897798913239904</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>0.2904633808361635</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>0.01680818080410671</v>
+      </c>
       <c r="AA340" t="n">
         <v>0.01301</v>
       </c>
@@ -26755,9 +28781,15 @@
       <c r="W341" t="n">
         <v>0.02305934466204494</v>
       </c>
-      <c r="X341" t="inlineStr"/>
-      <c r="Y341" t="inlineStr"/>
-      <c r="Z341" t="inlineStr"/>
+      <c r="X341" t="n">
+        <v>0.4815737846416277</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>0.4838797191078322</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>0.01597983635689748</v>
+      </c>
       <c r="AA341" t="n">
         <v>0.01300999174236168</v>
       </c>
@@ -26832,9 +28864,15 @@
       <c r="W342" t="n">
         <v>0</v>
       </c>
-      <c r="X342" t="inlineStr"/>
-      <c r="Y342" t="inlineStr"/>
-      <c r="Z342" t="inlineStr"/>
+      <c r="X342" t="n">
+        <v>0.9025100933266547</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>0.9396213679004192</v>
+      </c>
+      <c r="Z342" t="n">
+        <v>0.01155274322514437</v>
+      </c>
       <c r="AA342" t="n">
         <v>0.01002</v>
       </c>
@@ -26909,9 +28947,15 @@
       <c r="W343" t="n">
         <v>0</v>
       </c>
-      <c r="X343" t="inlineStr"/>
-      <c r="Y343" t="inlineStr"/>
-      <c r="Z343" t="inlineStr"/>
+      <c r="X343" t="n">
+        <v>0.9507149939541154</v>
+      </c>
+      <c r="Y343" t="n">
+        <v>0.9971155558584369</v>
+      </c>
+      <c r="Z343" t="n">
+        <v>0.0199032110629182</v>
+      </c>
       <c r="AA343" t="n">
         <v>0.01002</v>
       </c>
@@ -26986,9 +29030,15 @@
       <c r="W344" t="n">
         <v>0</v>
       </c>
-      <c r="X344" t="inlineStr"/>
-      <c r="Y344" t="inlineStr"/>
-      <c r="Z344" t="inlineStr"/>
+      <c r="X344" t="n">
+        <v>0.4056641040906384</v>
+      </c>
+      <c r="Y344" t="n">
+        <v>0.4056641040906384</v>
+      </c>
+      <c r="Z344" t="n">
+        <v>0.02415834548599325</v>
+      </c>
       <c r="AA344" t="n">
         <v>0.01458</v>
       </c>
@@ -27063,9 +29113,15 @@
       <c r="W345" t="n">
         <v>0.04069030127733413</v>
       </c>
-      <c r="X345" t="inlineStr"/>
-      <c r="Y345" t="inlineStr"/>
-      <c r="Z345" t="inlineStr"/>
+      <c r="X345" t="n">
+        <v>0.4255588347360799</v>
+      </c>
+      <c r="Y345" t="n">
+        <v>0.4296278648638133</v>
+      </c>
+      <c r="Z345" t="n">
+        <v>0.02676895385392036</v>
+      </c>
       <c r="AA345" t="n">
         <v>0.01458</v>
       </c>
@@ -27140,9 +29196,15 @@
       <c r="W346" t="n">
         <v>0.04081693746799792</v>
       </c>
-      <c r="X346" t="inlineStr"/>
-      <c r="Y346" t="inlineStr"/>
-      <c r="Z346" t="inlineStr"/>
+      <c r="X346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y346" t="n">
+        <v>0.004081693746799792</v>
+      </c>
+      <c r="Z346" t="n">
+        <v>0.0330973165316209</v>
+      </c>
       <c r="AA346" t="n">
         <v>0.01457987012987013</v>
       </c>
@@ -27217,11 +29279,17 @@
       <c r="W347" t="n">
         <v>0</v>
       </c>
-      <c r="X347" t="inlineStr"/>
-      <c r="Y347" t="inlineStr"/>
-      <c r="Z347" t="inlineStr"/>
+      <c r="X347" t="n">
+        <v>0.5078908701447045</v>
+      </c>
+      <c r="Y347" t="n">
+        <v>0.5078908701447045</v>
+      </c>
+      <c r="Z347" t="n">
+        <v>0.003942632224534852</v>
+      </c>
       <c r="AA347" t="n">
-        <v>0.00395</v>
+        <v>0.003942632224534852</v>
       </c>
     </row>
     <row r="348">
@@ -27294,11 +29362,17 @@
       <c r="W348" t="n">
         <v>0</v>
       </c>
-      <c r="X348" t="inlineStr"/>
-      <c r="Y348" t="inlineStr"/>
-      <c r="Z348" t="inlineStr"/>
+      <c r="X348" t="n">
+        <v>0.7023282400483524</v>
+      </c>
+      <c r="Y348" t="n">
+        <v>0.7023282400483524</v>
+      </c>
+      <c r="Z348" t="n">
+        <v>0.003407298039487836</v>
+      </c>
       <c r="AA348" t="n">
-        <v>0.00395</v>
+        <v>0.003407298039487836</v>
       </c>
     </row>
     <row r="349">
@@ -27326,18 +29400,14 @@
       <c r="H349" t="n">
         <v>3960000</v>
       </c>
-      <c r="I349" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I349" t="n">
+        <v>100</v>
       </c>
       <c r="J349" t="n">
         <v>27434.88</v>
       </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="K349" t="n">
+        <v>100</v>
       </c>
       <c r="L349" t="n">
         <v>0</v>
@@ -27375,9 +29445,15 @@
       <c r="W349" t="n">
         <v>0</v>
       </c>
-      <c r="X349" t="inlineStr"/>
-      <c r="Y349" t="inlineStr"/>
-      <c r="Z349" t="inlineStr"/>
+      <c r="X349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z349" t="n">
+        <v>0.007828244587678827</v>
+      </c>
       <c r="AA349" t="n">
         <v>0.00395</v>
       </c>
@@ -27452,11 +29528,17 @@
       <c r="W350" t="n">
         <v>0.008579636664467002</v>
       </c>
-      <c r="X350" t="inlineStr"/>
-      <c r="Y350" t="inlineStr"/>
-      <c r="Z350" t="inlineStr"/>
+      <c r="X350" t="n">
+        <v>0.8589991032498032</v>
+      </c>
+      <c r="Y350" t="n">
+        <v>0.85985706691625</v>
+      </c>
+      <c r="Z350" t="n">
+        <v>0.003047549278900537</v>
+      </c>
       <c r="AA350" t="n">
-        <v>0.00395</v>
+        <v>0.003047549278900537</v>
       </c>
     </row>
     <row r="351">
@@ -27529,9 +29611,15 @@
       <c r="W351" t="n">
         <v>0.01305797596035546</v>
       </c>
-      <c r="X351" t="inlineStr"/>
-      <c r="Y351" t="inlineStr"/>
-      <c r="Z351" t="inlineStr"/>
+      <c r="X351" t="n">
+        <v>0.4932044515913947</v>
+      </c>
+      <c r="Y351" t="n">
+        <v>0.514183318573785</v>
+      </c>
+      <c r="Z351" t="n">
+        <v>0.005347705784512075</v>
+      </c>
       <c r="AA351" t="n">
         <v>0.00395</v>
       </c>
@@ -27606,9 +29694,15 @@
       <c r="W352" t="n">
         <v>0.03853067871065892</v>
       </c>
-      <c r="X352" t="inlineStr"/>
-      <c r="Y352" t="inlineStr"/>
-      <c r="Z352" t="inlineStr"/>
+      <c r="X352" t="n">
+        <v>0.1095105726265984</v>
+      </c>
+      <c r="Y352" t="n">
+        <v>0.1718909581792542</v>
+      </c>
+      <c r="Z352" t="n">
+        <v>0.037075290084104</v>
+      </c>
       <c r="AA352" t="n">
         <v>0.02669252173913043</v>
       </c>
@@ -27683,9 +29777,15 @@
       <c r="W353" t="n">
         <v>0.01971457807001939</v>
       </c>
-      <c r="X353" t="inlineStr"/>
-      <c r="Y353" t="inlineStr"/>
-      <c r="Z353" t="inlineStr"/>
+      <c r="X353" t="n">
+        <v>0.4581060038442437</v>
+      </c>
+      <c r="Y353" t="n">
+        <v>0.4600774616512456</v>
+      </c>
+      <c r="Z353" t="n">
+        <v>0.04801665112960053</v>
+      </c>
       <c r="AA353" t="n">
         <v>0.03553295698924731</v>
       </c>
@@ -27760,11 +29860,17 @@
       <c r="W354" t="n">
         <v>0</v>
       </c>
-      <c r="X354" t="inlineStr"/>
-      <c r="Y354" t="inlineStr"/>
-      <c r="Z354" t="inlineStr"/>
+      <c r="X354" t="n">
+        <v>0.7105456703711885</v>
+      </c>
+      <c r="Y354" t="n">
+        <v>0.7105456703711885</v>
+      </c>
+      <c r="Z354" t="n">
+        <v>0.01871197755953706</v>
+      </c>
       <c r="AA354" t="n">
-        <v>0.03994250617283951</v>
+        <v>0.01871197755953706</v>
       </c>
     </row>
     <row r="355">
@@ -27837,9 +29943,15 @@
       <c r="W355" t="n">
         <v>0.01010366712351261</v>
       </c>
-      <c r="X355" t="inlineStr"/>
-      <c r="Y355" t="inlineStr"/>
-      <c r="Z355" t="inlineStr"/>
+      <c r="X355" t="n">
+        <v>0.235901976200273</v>
+      </c>
+      <c r="Y355" t="n">
+        <v>0.2369123429126243</v>
+      </c>
+      <c r="Z355" t="n">
+        <v>0.0384994459452038</v>
+      </c>
       <c r="AA355" t="n">
         <v>0.02760999776085983</v>
       </c>
@@ -27914,9 +30026,15 @@
       <c r="W356" t="n">
         <v>0.03072267129664876</v>
       </c>
-      <c r="X356" t="inlineStr"/>
-      <c r="Y356" t="inlineStr"/>
-      <c r="Z356" t="inlineStr"/>
+      <c r="X356" t="n">
+        <v>0.3509814398332314</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>0.3540537069628962</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>0.03624850525162317</v>
+      </c>
       <c r="AA356" t="n">
         <v>0.02761</v>
       </c>
@@ -27991,9 +30109,15 @@
       <c r="W357" t="n">
         <v>0.007199340382805934</v>
       </c>
-      <c r="X357" t="inlineStr"/>
-      <c r="Y357" t="inlineStr"/>
-      <c r="Z357" t="inlineStr"/>
+      <c r="X357" t="n">
+        <v>0.4174723041220443</v>
+      </c>
+      <c r="Y357" t="n">
+        <v>0.4181922381603249</v>
+      </c>
+      <c r="Z357" t="n">
+        <v>0.02397168281023017</v>
+      </c>
       <c r="AA357" t="n">
         <v>0.01626</v>
       </c>
@@ -28068,11 +30192,17 @@
       <c r="W358" t="n">
         <v>0.02253532459294989</v>
       </c>
-      <c r="X358" t="inlineStr"/>
-      <c r="Y358" t="inlineStr"/>
-      <c r="Z358" t="inlineStr"/>
+      <c r="X358" t="n">
+        <v>0.3142995950068765</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>0.3165531274661715</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>0.01607883892095769</v>
+      </c>
       <c r="AA358" t="n">
-        <v>0.01626000421674046</v>
+        <v>0.01607883892095769</v>
       </c>
     </row>
     <row r="359">
@@ -28145,9 +30275,15 @@
       <c r="W359" t="n">
         <v>0.03022530062601369</v>
       </c>
-      <c r="X359" t="inlineStr"/>
-      <c r="Y359" t="inlineStr"/>
-      <c r="Z359" t="inlineStr"/>
+      <c r="X359" t="n">
+        <v>0.281098321122637</v>
+      </c>
+      <c r="Y359" t="n">
+        <v>0.2841208511852384</v>
+      </c>
+      <c r="Z359" t="n">
+        <v>0.01773765947798205</v>
+      </c>
       <c r="AA359" t="n">
         <v>0.01626</v>
       </c>
@@ -28222,9 +30358,15 @@
       <c r="W360" t="n">
         <v>0.01228904740128812</v>
       </c>
-      <c r="X360" t="inlineStr"/>
-      <c r="Y360" t="inlineStr"/>
-      <c r="Z360" t="inlineStr"/>
+      <c r="X360" t="n">
+        <v>0.52227313110219</v>
+      </c>
+      <c r="Y360" t="n">
+        <v>0.5547794292777569</v>
+      </c>
+      <c r="Z360" t="n">
+        <v>0.02412610344086968</v>
+      </c>
       <c r="AA360" t="n">
         <v>0.01626</v>
       </c>
@@ -28299,9 +30441,15 @@
       <c r="W361" t="n">
         <v>0.01160559098839239</v>
       </c>
-      <c r="X361" t="inlineStr"/>
-      <c r="Y361" t="inlineStr"/>
-      <c r="Z361" t="inlineStr"/>
+      <c r="X361" t="n">
+        <v>0.2763519550591542</v>
+      </c>
+      <c r="Y361" t="n">
+        <v>0.2775125141579934</v>
+      </c>
+      <c r="Z361" t="n">
+        <v>0.03895541177324819</v>
+      </c>
       <c r="AA361" t="n">
         <v>0.02560989583333333</v>
       </c>
@@ -28376,9 +30524,15 @@
       <c r="W362" t="n">
         <v>0.01231635000404551</v>
       </c>
-      <c r="X362" t="inlineStr"/>
-      <c r="Y362" t="inlineStr"/>
-      <c r="Z362" t="inlineStr"/>
+      <c r="X362" t="n">
+        <v>0.2963638035360192</v>
+      </c>
+      <c r="Y362" t="n">
+        <v>0.2975954385364238</v>
+      </c>
+      <c r="Z362" t="n">
+        <v>0.03699234242853049</v>
+      </c>
       <c r="AA362" t="n">
         <v>0.02561000600961539</v>
       </c>
@@ -28453,9 +30607,15 @@
       <c r="W363" t="n">
         <v>0.0105321973673339</v>
       </c>
-      <c r="X363" t="inlineStr"/>
-      <c r="Y363" t="inlineStr"/>
-      <c r="Z363" t="inlineStr"/>
+      <c r="X363" t="n">
+        <v>0.2359560911636875</v>
+      </c>
+      <c r="Y363" t="n">
+        <v>0.2370093109004209</v>
+      </c>
+      <c r="Z363" t="n">
+        <v>0.02844890816053021</v>
+      </c>
       <c r="AA363" t="n">
         <v>0.02561</v>
       </c>
@@ -28530,9 +30690,15 @@
       <c r="W364" t="n">
         <v>0.01158218720674528</v>
       </c>
-      <c r="X364" t="inlineStr"/>
-      <c r="Y364" t="inlineStr"/>
-      <c r="Z364" t="inlineStr"/>
+      <c r="X364" t="n">
+        <v>0.3219409428553581</v>
+      </c>
+      <c r="Y364" t="n">
+        <v>0.3230991615760326</v>
+      </c>
+      <c r="Z364" t="n">
+        <v>0.03610171161753525</v>
+      </c>
       <c r="AA364" t="n">
         <v>0.02560998349834983</v>
       </c>
@@ -28607,11 +30773,17 @@
       <c r="W365" t="n">
         <v>0.01601776745911869</v>
       </c>
-      <c r="X365" t="inlineStr"/>
-      <c r="Y365" t="inlineStr"/>
-      <c r="Z365" t="inlineStr"/>
+      <c r="X365" t="n">
+        <v>0.7396006805097282</v>
+      </c>
+      <c r="Y365" t="n">
+        <v>0.74120245725564</v>
+      </c>
+      <c r="Z365" t="n">
+        <v>0.01051473300572183</v>
+      </c>
       <c r="AA365" t="n">
-        <v>0.02561015625</v>
+        <v>0.01051473300572183</v>
       </c>
     </row>
     <row r="366">
@@ -28684,9 +30856,15 @@
       <c r="W366" t="n">
         <v>0</v>
       </c>
-      <c r="X366" t="inlineStr"/>
-      <c r="Y366" t="inlineStr"/>
-      <c r="Z366" t="inlineStr"/>
+      <c r="X366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z366" t="n">
+        <v>0</v>
+      </c>
       <c r="AA366" t="n">
         <v>0</v>
       </c>
@@ -28761,9 +30939,15 @@
       <c r="W367" t="n">
         <v>0</v>
       </c>
-      <c r="X367" t="inlineStr"/>
-      <c r="Y367" t="inlineStr"/>
-      <c r="Z367" t="inlineStr"/>
+      <c r="X367" t="n">
+        <v>0.2393411452576968</v>
+      </c>
+      <c r="Y367" t="n">
+        <v>0.2393411452576968</v>
+      </c>
+      <c r="Z367" t="n">
+        <v>0.02833345323649815</v>
+      </c>
       <c r="AA367" t="n">
         <v>0.01576000191424196</v>
       </c>
@@ -28838,9 +31022,15 @@
       <c r="W368" t="n">
         <v>0.02458777089522407</v>
       </c>
-      <c r="X368" t="inlineStr"/>
-      <c r="Y368" t="inlineStr"/>
-      <c r="Z368" t="inlineStr"/>
+      <c r="X368" t="n">
+        <v>0.2431315553042692</v>
+      </c>
+      <c r="Y368" t="n">
+        <v>0.2455903323937916</v>
+      </c>
+      <c r="Z368" t="n">
+        <v>0.02286659154889722</v>
+      </c>
       <c r="AA368" t="n">
         <v>0.01575999842171717</v>
       </c>
@@ -28915,9 +31105,15 @@
       <c r="W369" t="n">
         <v>0</v>
       </c>
-      <c r="X369" t="inlineStr"/>
-      <c r="Y369" t="inlineStr"/>
-      <c r="Z369" t="inlineStr"/>
+      <c r="X369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y369" t="n">
+        <v>0.05970281624150112</v>
+      </c>
+      <c r="Z369" t="n">
+        <v>0.02617237851768592</v>
+      </c>
       <c r="AA369" t="n">
         <v>0.01576002604166667</v>
       </c>
@@ -28992,9 +31188,15 @@
       <c r="W370" t="n">
         <v>0.09907137753822762</v>
       </c>
-      <c r="X370" t="inlineStr"/>
-      <c r="Y370" t="inlineStr"/>
-      <c r="Z370" t="inlineStr"/>
+      <c r="X370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y370" t="n">
+        <v>0.009907137753822763</v>
+      </c>
+      <c r="Z370" t="n">
+        <v>0.02810572230226151</v>
+      </c>
       <c r="AA370" t="n">
         <v>0.01576</v>
       </c>
@@ -29069,9 +31271,15 @@
       <c r="W371" t="n">
         <v>0.006421139849293024</v>
       </c>
-      <c r="X371" t="inlineStr"/>
-      <c r="Y371" t="inlineStr"/>
-      <c r="Z371" t="inlineStr"/>
+      <c r="X371" t="n">
+        <v>0.3282900568789331</v>
+      </c>
+      <c r="Y371" t="n">
+        <v>0.3289321708638624</v>
+      </c>
+      <c r="Z371" t="n">
+        <v>0.01981928187340389</v>
+      </c>
       <c r="AA371" t="n">
         <v>0.01576</v>
       </c>
@@ -29146,9 +31354,15 @@
       <c r="W372" t="n">
         <v>0</v>
       </c>
-      <c r="X372" t="inlineStr"/>
-      <c r="Y372" t="inlineStr"/>
-      <c r="Z372" t="inlineStr"/>
+      <c r="X372" t="n">
+        <v>0.388888127916748</v>
+      </c>
+      <c r="Y372" t="n">
+        <v>0.388888127916748</v>
+      </c>
+      <c r="Z372" t="n">
+        <v>0.01774300983523266</v>
+      </c>
       <c r="AA372" t="n">
         <v>0.01575989583333333</v>
       </c>
@@ -29223,9 +31437,15 @@
       <c r="W373" t="n">
         <v>0.008567876080227929</v>
       </c>
-      <c r="X373" t="inlineStr"/>
-      <c r="Y373" t="inlineStr"/>
-      <c r="Z373" t="inlineStr"/>
+      <c r="X373" t="n">
+        <v>0.5239079430218938</v>
+      </c>
+      <c r="Y373" t="n">
+        <v>0.5247647306299166</v>
+      </c>
+      <c r="Z373" t="n">
+        <v>0.01656383641573461</v>
+      </c>
       <c r="AA373" t="n">
         <v>0.01575999930439621</v>
       </c>
@@ -29300,11 +31520,17 @@
       <c r="W374" t="n">
         <v>0.01384462365999744</v>
       </c>
-      <c r="X374" t="inlineStr"/>
-      <c r="Y374" t="inlineStr"/>
-      <c r="Z374" t="inlineStr"/>
+      <c r="X374" t="n">
+        <v>0.9295730877849055</v>
+      </c>
+      <c r="Y374" t="n">
+        <v>0.9309575501509053</v>
+      </c>
+      <c r="Z374" t="n">
+        <v>0.009396714156728065</v>
+      </c>
       <c r="AA374" t="n">
-        <v>0.01576</v>
+        <v>0.009396714156728065</v>
       </c>
     </row>
     <row r="375">
@@ -29377,9 +31603,15 @@
       <c r="W375" t="n">
         <v>0.003906562882290399</v>
       </c>
-      <c r="X375" t="inlineStr"/>
-      <c r="Y375" t="inlineStr"/>
-      <c r="Z375" t="inlineStr"/>
+      <c r="X375" t="n">
+        <v>0.04662459743909664</v>
+      </c>
+      <c r="Y375" t="n">
+        <v>0.04701525372732568</v>
+      </c>
+      <c r="Z375" t="n">
+        <v>0.0258999320635253</v>
+      </c>
       <c r="AA375" t="n">
         <v>0.01575999348958334</v>
       </c>
@@ -29454,9 +31686,15 @@
       <c r="W376" t="n">
         <v>0.02002677883485803</v>
       </c>
-      <c r="X376" t="inlineStr"/>
-      <c r="Y376" t="inlineStr"/>
-      <c r="Z376" t="inlineStr"/>
+      <c r="X376" t="n">
+        <v>0.2546582675218219</v>
+      </c>
+      <c r="Y376" t="n">
+        <v>0.2566609454053077</v>
+      </c>
+      <c r="Z376" t="n">
+        <v>0.02060538792513071</v>
+      </c>
       <c r="AA376" t="n">
         <v>0.01576000449640288</v>
       </c>
@@ -29531,9 +31769,15 @@
       <c r="W377" t="n">
         <v>0.009280934885743641</v>
       </c>
-      <c r="X377" t="inlineStr"/>
-      <c r="Y377" t="inlineStr"/>
-      <c r="Z377" t="inlineStr"/>
+      <c r="X377" t="n">
+        <v>0.2376489557260566</v>
+      </c>
+      <c r="Y377" t="n">
+        <v>0.238577049214631</v>
+      </c>
+      <c r="Z377" t="n">
+        <v>0.02028649401212473</v>
+      </c>
       <c r="AA377" t="n">
         <v>0.01575999898744431</v>
       </c>
@@ -29608,9 +31852,15 @@
       <c r="W378" t="n">
         <v>0.01652895668439549</v>
       </c>
-      <c r="X378" t="inlineStr"/>
-      <c r="Y378" t="inlineStr"/>
-      <c r="Z378" t="inlineStr"/>
+      <c r="X378" t="n">
+        <v>0.2353937905667101</v>
+      </c>
+      <c r="Y378" t="n">
+        <v>0.2370466862351496</v>
+      </c>
+      <c r="Z378" t="n">
+        <v>0.02581201151070924</v>
+      </c>
       <c r="AA378" t="n">
         <v>0.01576000330687831</v>
       </c>
@@ -29685,9 +31935,15 @@
       <c r="W379" t="n">
         <v>0.04473594959404369</v>
       </c>
-      <c r="X379" t="inlineStr"/>
-      <c r="Y379" t="inlineStr"/>
-      <c r="Z379" t="inlineStr"/>
+      <c r="X379" t="n">
+        <v>0.3707317139027388</v>
+      </c>
+      <c r="Y379" t="n">
+        <v>0.3752053088621432</v>
+      </c>
+      <c r="Z379" t="n">
+        <v>0.02355779175842395</v>
+      </c>
       <c r="AA379" t="n">
         <v>0.01576005747126437</v>
       </c>
@@ -29762,9 +32018,15 @@
       <c r="W380" t="n">
         <v>0.03245582082917385</v>
       </c>
-      <c r="X380" t="inlineStr"/>
-      <c r="Y380" t="inlineStr"/>
-      <c r="Z380" t="inlineStr"/>
+      <c r="X380" t="n">
+        <v>0.3328640650963635</v>
+      </c>
+      <c r="Y380" t="n">
+        <v>0.3361096471792808</v>
+      </c>
+      <c r="Z380" t="n">
+        <v>0.02417208898419549</v>
+      </c>
       <c r="AA380" t="n">
         <v>0.01575999760536399</v>
       </c>
@@ -29839,11 +32101,17 @@
       <c r="W381" t="n">
         <v>0.008840504951976129</v>
       </c>
-      <c r="X381" t="inlineStr"/>
-      <c r="Y381" t="inlineStr"/>
-      <c r="Z381" t="inlineStr"/>
+      <c r="X381" t="n">
+        <v>0.243034463384463</v>
+      </c>
+      <c r="Y381" t="n">
+        <v>0.2439185138796606</v>
+      </c>
+      <c r="Z381" t="n">
+        <v>-0.0002522935509908259</v>
+      </c>
       <c r="AA381" t="n">
-        <v>0.01575998263888889</v>
+        <v>-0.0002522935509908259</v>
       </c>
     </row>
     <row r="382">
@@ -29916,9 +32184,15 @@
       <c r="W382" t="n">
         <v>0.08628635193422324</v>
       </c>
-      <c r="X382" t="inlineStr"/>
-      <c r="Y382" t="inlineStr"/>
-      <c r="Z382" t="inlineStr"/>
+      <c r="X382" t="n">
+        <v>0.2840311046284412</v>
+      </c>
+      <c r="Y382" t="n">
+        <v>0.2926597398218635</v>
+      </c>
+      <c r="Z382" t="n">
+        <v>0.02264883729633977</v>
+      </c>
       <c r="AA382" t="n">
         <v>0.01575998774509804</v>
       </c>
@@ -29993,11 +32267,17 @@
       <c r="W383" t="n">
         <v>0.006653515241923125</v>
       </c>
-      <c r="X383" t="inlineStr"/>
-      <c r="Y383" t="inlineStr"/>
-      <c r="Z383" t="inlineStr"/>
+      <c r="X383" t="n">
+        <v>0.9632897757567608</v>
+      </c>
+      <c r="Y383" t="n">
+        <v>0.9946947492484971</v>
+      </c>
+      <c r="Z383" t="n">
+        <v>0.008408329844528249</v>
+      </c>
       <c r="AA383" t="n">
-        <v>0.01576</v>
+        <v>0.008408329844528249</v>
       </c>
     </row>
     <row r="384">
@@ -30070,9 +32350,15 @@
       <c r="W384" t="n">
         <v>0.01551459976131108</v>
       </c>
-      <c r="X384" t="inlineStr"/>
-      <c r="Y384" t="inlineStr"/>
-      <c r="Z384" t="inlineStr"/>
+      <c r="X384" t="n">
+        <v>0.2369462487375169</v>
+      </c>
+      <c r="Y384" t="n">
+        <v>0.238497708713648</v>
+      </c>
+      <c r="Z384" t="n">
+        <v>0.1218137852717654</v>
+      </c>
       <c r="AA384" t="n">
         <v>0.1088795151515151</v>
       </c>

--- a/data/results_inventory_impairment.xlsx
+++ b/data/results_inventory_impairment.xlsx
@@ -645,13 +645,13 @@
         <v>0.006195009487724579</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2350182484713297</v>
+        <v>0.2114303953242995</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2356377494201021</v>
+        <v>0.212049896273072</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.06630821299524432</v>
+        <v>0.06760944194413439</v>
       </c>
       <c r="AA2" t="n">
         <v>0.0344806015037594</v>
@@ -728,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.4859597968011251</v>
+        <v>0.1270832919890055</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.4910666795160765</v>
+        <v>0.1321901747039569</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.05675642665705975</v>
+        <v>0.08557922293914952</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.05675642665705975</v>
+        <v>0.07726739130434783</v>
       </c>
     </row>
     <row r="4">
@@ -811,13 +811,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.291271484224096</v>
+        <v>0.3394477327025567</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.291271484224096</v>
+        <v>0.3394477327025567</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.097904535886997</v>
+        <v>0.09595405087382819</v>
       </c>
       <c r="AA4" t="n">
         <v>0.0573232</v>
@@ -894,16 +894,16 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.3074435329060745</v>
+        <v>0.2409473345009041</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3081714549262159</v>
+        <v>0.2416752565210455</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2224968398941504</v>
+        <v>0.2418023989212665</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2224968398941504</v>
+        <v>0.2393854166666667</v>
       </c>
     </row>
     <row r="6">
@@ -977,13 +977,13 @@
         <v>0.06256666707178077</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2607757335003436</v>
+        <v>0.3695664044866134</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2670324002075216</v>
+        <v>0.3758230711937914</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.07053387107776218</v>
+        <v>0.06571141811743807</v>
       </c>
       <c r="AA6" t="n">
         <v>0.05095547619047619</v>
@@ -1060,13 +1060,13 @@
         <v>0.05923332536101219</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2701219839591886</v>
+        <v>0.3621956899882106</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2760453164952898</v>
+        <v>0.3681190225243118</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.09761745136177571</v>
+        <v>0.09081277658038432</v>
       </c>
       <c r="AA7" t="n">
         <v>0.087325</v>
@@ -1143,16 +1143,16 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2517196337497027</v>
+        <v>0.2585025433613999</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.2517196337497027</v>
+        <v>0.2585025433613999</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.001991651445913464</v>
+        <v>-0.001375389008739429</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.001991651445913464</v>
+        <v>-0.001375389008739429</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>0.006244839500184459</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2529708032052822</v>
+        <v>0.316636712479794</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2535952871553007</v>
+        <v>0.3172611964298124</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1720818971306744</v>
+        <v>0.1676229384428256</v>
       </c>
       <c r="AA9" t="n">
         <v>0.0900512987012987</v>
@@ -1309,13 +1309,13 @@
         <v>0.006079915191484634</v>
       </c>
       <c r="X10" t="n">
-        <v>0.2639225017471343</v>
+        <v>0.2951201822773852</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.2645304932662828</v>
+        <v>0.2957281737965337</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.1434794826798705</v>
+        <v>0.1413813361964648</v>
       </c>
       <c r="AA10" t="n">
         <v>0.12307625</v>
@@ -1392,13 +1392,13 @@
         <v>0.01620109366196119</v>
       </c>
       <c r="X11" t="n">
-        <v>0.2377768740491384</v>
+        <v>0.3103582956467832</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.2393969834153345</v>
+        <v>0.3119784050129793</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.1653194103913026</v>
+        <v>0.1581279117244031</v>
       </c>
       <c r="AA11" t="n">
         <v>0.1230761904761905</v>
@@ -1475,13 +1475,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0.3363962758892216</v>
+        <v>0.4298125020742989</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.3363962758892216</v>
+        <v>0.4298125020742989</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.1497566408086971</v>
+        <v>0.1396506819994479</v>
       </c>
       <c r="AA12" t="n">
         <v>0.1274941176470588</v>
@@ -1558,13 +1558,13 @@
         <v>0.02828140798483216</v>
       </c>
       <c r="X13" t="n">
-        <v>0.3683992577249604</v>
+        <v>0.2427475178848657</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.3712273985234436</v>
+        <v>0.2455756586833489</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.103079124487365</v>
+        <v>0.1130735613864197</v>
       </c>
       <c r="AA13" t="n">
         <v>0.07149</v>
@@ -1641,13 +1641,13 @@
         <v>0.002824721231939737</v>
       </c>
       <c r="X14" t="n">
-        <v>0.2989333080046803</v>
+        <v>0.4268953737853745</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.2992157801278743</v>
+        <v>0.4271778459085684</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.1437903670001534</v>
+        <v>0.1355629034004524</v>
       </c>
       <c r="AA14" t="n">
         <v>0.07229000000000001</v>
@@ -1724,13 +1724,13 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0.3277358566506996</v>
+        <v>0.3781009786356453</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.3277358566506996</v>
+        <v>0.3781009786356453</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.03262654704250437</v>
+        <v>0.03193520317240665</v>
       </c>
       <c r="AA15" t="n">
         <v>0.01909</v>
@@ -1807,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0.2842954916638347</v>
+        <v>0.260054894501953</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2842954916638347</v>
+        <v>0.260054894501953</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.044724408758531</v>
+        <v>0.04545728304854828</v>
       </c>
       <c r="AA16" t="n">
         <v>0.01908986928104575</v>
@@ -1890,13 +1890,13 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0.3005402186542661</v>
+        <v>0.4068614175383891</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.3005402186542661</v>
+        <v>0.4068614175383891</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.02773587244420828</v>
+        <v>0.02597632706610527</v>
       </c>
       <c r="AA17" t="n">
         <v>0.01909</v>
@@ -1973,13 +1973,13 @@
         <v>0.01165959166840453</v>
       </c>
       <c r="X18" t="n">
-        <v>0.3567486773686976</v>
+        <v>0.5066434721977225</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.3579146365355381</v>
+        <v>0.507809431364563</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.02754572188792553</v>
+        <v>0.02440730563298262</v>
       </c>
       <c r="AA18" t="n">
         <v>0.02312</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.8650188585303507</v>
+        <v>0.0726773153223772</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.8985751906761511</v>
+        <v>0.1062336474681776</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.02354422130476598</v>
+        <v>0.04219030918523847</v>
       </c>
       <c r="AA19" t="n">
         <v>0.02312</v>
@@ -2139,13 +2139,13 @@
         <v>0.007249308450760838</v>
       </c>
       <c r="X20" t="n">
-        <v>0.381444001546158</v>
+        <v>0.5770087064673974</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.3821689323912341</v>
+        <v>0.5777336373124735</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.02676561407106201</v>
+        <v>0.02330241016271045</v>
       </c>
       <c r="AA20" t="n">
         <v>0.01909</v>
@@ -2222,13 +2222,13 @@
         <v>0.09613946469482695</v>
       </c>
       <c r="X21" t="n">
-        <v>0.2412295437211356</v>
+        <v>0.298839790690542</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.2508434901906183</v>
+        <v>0.3084537371600247</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.04013790573925491</v>
+        <v>0.03897795567437785</v>
       </c>
       <c r="AA21" t="n">
         <v>0.02669</v>
@@ -2305,16 +2305,16 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.2643041191190725</v>
+        <v>0.2798639659354751</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.2643041191190725</v>
+        <v>0.2798639659354751</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.02590864155315446</v>
+        <v>0.02587101666836107</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.02590864155315446</v>
+        <v>0.02587101666836107</v>
       </c>
     </row>
     <row r="23">
@@ -2388,16 +2388,16 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.3950192070149643</v>
+        <v>0.5572110237583666</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.3950192070149643</v>
+        <v>0.5572110237583666</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.02510985585721311</v>
+        <v>0.0211586236950681</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.02510985585721311</v>
+        <v>0.0211586236950681</v>
       </c>
     </row>
     <row r="24">
@@ -2471,16 +2471,16 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0.3676785499169897</v>
+        <v>0.3966639196326609</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.3676785499169897</v>
+        <v>0.3966639196326609</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.02579082428397707</v>
+        <v>0.02539367026524592</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.02579082428397707</v>
+        <v>0.02539367026524592</v>
       </c>
     </row>
     <row r="25">
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.03459585443570424</v>
+        <v>0.03478318666123874</v>
       </c>
       <c r="AA25" t="n">
         <v>0.01323888888888889</v>
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0.3070232137723594</v>
+        <v>0.391652795865995</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.3070232137723594</v>
+        <v>0.391652795865995</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.02746271138839774</v>
+        <v>0.0265295636693982</v>
       </c>
       <c r="AA26" t="n">
         <v>0.01324</v>
@@ -2720,13 +2720,13 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.3630565020127026</v>
+        <v>0.5634486451603636</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.3630565020127026</v>
+        <v>0.5634486451603636</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.02875953843916004</v>
+        <v>0.02629369505646424</v>
       </c>
       <c r="AA27" t="n">
         <v>0.01323999653859467</v>
@@ -2809,7 +2809,7 @@
         <v>0.001512706981883249</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.03552084890087796</v>
+        <v>0.03570818112641246</v>
       </c>
       <c r="AA28" t="n">
         <v>0.01323888888888889</v>
@@ -2886,16 +2886,16 @@
         <v>0.007412842701825432</v>
       </c>
       <c r="X29" t="n">
-        <v>0.3826145048296621</v>
+        <v>0.4218444744734702</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.3833557890998446</v>
+        <v>0.4225857587436527</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.03009083483033131</v>
+        <v>0.02932903522128854</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.03009083483033131</v>
+        <v>0.02932903522128854</v>
       </c>
     </row>
     <row r="30">
@@ -2969,16 +2969,16 @@
         <v>0.06028717640419708</v>
       </c>
       <c r="X30" t="n">
-        <v>0.4054257057382984</v>
+        <v>0.4779247636212863</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.4114544233787181</v>
+        <v>0.4839534812617061</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.02333842178711595</v>
+        <v>0.0215608546369013</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.02333842178711595</v>
+        <v>0.0215608546369013</v>
       </c>
     </row>
     <row r="31">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.04913443871317066</v>
+        <v>0.04932177093870516</v>
       </c>
       <c r="AA31" t="n">
         <v>0.01323888888888889</v>
@@ -3135,16 +3135,16 @@
         <v>0.002380800450143862</v>
       </c>
       <c r="X32" t="n">
-        <v>0.6645746151825604</v>
+        <v>0.1706415085776429</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.6648126952275748</v>
+        <v>0.1708795886226573</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.1387935346289413</v>
+        <v>0.241370677530801</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.1387935346289413</v>
+        <v>0.2018904227782571</v>
       </c>
     </row>
     <row r="33">
@@ -3218,13 +3218,13 @@
         <v>0.01640792269615274</v>
       </c>
       <c r="X33" t="n">
-        <v>0.8397639338788276</v>
+        <v>0.6680119243345043</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.8414047261484429</v>
+        <v>0.6696527166041195</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.03010192786981871</v>
+        <v>0.03375304622678225</v>
       </c>
       <c r="AA33" t="n">
         <v>0.01964</v>
@@ -3301,13 +3301,13 @@
         <v>0.02716835545787156</v>
       </c>
       <c r="X34" t="n">
-        <v>0.236442900824176</v>
+        <v>0.2868452540486597</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.2391597363699631</v>
+        <v>0.2895620895944468</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.04354027899730878</v>
+        <v>0.04282828566949295</v>
       </c>
       <c r="AA34" t="n">
         <v>0.01964</v>
@@ -3384,13 +3384,13 @@
         <v>0.02114597866329074</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4672433322925673</v>
+        <v>0.9672697832024557</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4693579301588964</v>
+        <v>0.9693843810687848</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.03191038468223551</v>
+        <v>0.0237962504090092</v>
       </c>
       <c r="AA35" t="n">
         <v>0.0167</v>
@@ -3467,13 +3467,13 @@
         <v>0.02296294870449882</v>
       </c>
       <c r="X36" t="n">
-        <v>0.3236331323869985</v>
+        <v>0.4312394072644848</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.3259294272574484</v>
+        <v>0.4335357021349347</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.03495044967286711</v>
+        <v>0.03338973233938192</v>
       </c>
       <c r="AA36" t="n">
         <v>0.0167</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1934692070810611</v>
+        <v>0.305117612590184</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.2698065537451542</v>
+        <v>0.3814549592542771</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.04922525578867309</v>
+        <v>0.04416436494154117</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.04922525578867309</v>
+        <v>0.04416436494154117</v>
       </c>
     </row>
     <row r="38">
@@ -3633,16 +3633,16 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.3827768497199058</v>
+        <v>0.400623456174467</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4160882813722604</v>
+        <v>0.4339348878268217</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.08454152571897719</v>
+        <v>0.08419661772390324</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.08454152571897719</v>
+        <v>0.08419661772390324</v>
       </c>
     </row>
     <row r="39">
@@ -3716,13 +3716,13 @@
         <v>0.02545350095144826</v>
       </c>
       <c r="X39" t="n">
-        <v>0.2360003056764151</v>
+        <v>0.2635398441962995</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.2385456557715599</v>
+        <v>0.2660851942914443</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.07125100877831457</v>
+        <v>0.07057189884670929</v>
       </c>
       <c r="AA39" t="n">
         <v>0.05072</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.7134974109899559</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.7134974109899559</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.04561636052139122</v>
+        <v>0.07546082511743026</v>
       </c>
       <c r="AA40" t="n">
         <v>0.041015</v>
@@ -3882,13 +3882,13 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.2660567239009284</v>
+        <v>0.1907497465052657</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.2660567239009284</v>
+        <v>0.1907497465052657</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.058332906110659</v>
+        <v>0.06146961696217775</v>
       </c>
       <c r="AA41" t="n">
         <v>0.03506384615384615</v>
@@ -3965,13 +3965,13 @@
         <v>0.005197498408933626</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2583505731024951</v>
+        <v>0.2256357893556815</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.2588703229433885</v>
+        <v>0.2261555391965749</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.06425051242863368</v>
+        <v>0.06628836406124543</v>
       </c>
       <c r="AA42" t="n">
         <v>0.04348350877192982</v>
@@ -4054,10 +4054,10 @@
         <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.009160336875499313</v>
+        <v>0.009729070594372346</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.009160336875499313</v>
+        <v>0.009729070594372346</v>
       </c>
     </row>
     <row r="44">
@@ -4131,13 +4131,13 @@
         <v>0.03229428511502208</v>
       </c>
       <c r="X44" t="n">
-        <v>0.2365594561299922</v>
+        <v>0.2714012087431237</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.2397888846414944</v>
+        <v>0.2746306372546259</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.03718695273746608</v>
+        <v>0.03645876272156547</v>
       </c>
       <c r="AA44" t="n">
         <v>0.03519253333333333</v>
@@ -4214,16 +4214,16 @@
         <v>0.01302252848661862</v>
       </c>
       <c r="X45" t="n">
-        <v>0.3731838755297339</v>
+        <v>0.3374994109097267</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.3744861283783957</v>
+        <v>0.3388016637583885</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.03458021894057346</v>
+        <v>0.03641674896986511</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.03458021894057346</v>
+        <v>0.03641674896986511</v>
       </c>
     </row>
     <row r="46">
@@ -4297,13 +4297,13 @@
         <v>0.007919659332655871</v>
       </c>
       <c r="X46" t="n">
-        <v>0.3123628193412167</v>
+        <v>0.2644078519815976</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.3131547852744823</v>
+        <v>0.2651998179148631</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.0443657022448724</v>
+        <v>0.04693933818906867</v>
       </c>
       <c r="AA46" t="n">
         <v>0.04144</v>
@@ -4380,13 +4380,13 @@
         <v>0.02679997743061536</v>
       </c>
       <c r="X47" t="n">
-        <v>0.2823472404757876</v>
+        <v>0.3471842462323826</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.2850272382188492</v>
+        <v>0.3498642439754442</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.08888070128503667</v>
+        <v>0.08556791956229497</v>
       </c>
       <c r="AA47" t="n">
         <v>0.06535780303030303</v>
@@ -4463,13 +4463,13 @@
         <v>0.003556440318645781</v>
       </c>
       <c r="X48" t="n">
-        <v>0.3243691408914855</v>
+        <v>0.3897994084407532</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.3247247849233501</v>
+        <v>0.3901550524726178</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.08566598090432205</v>
+        <v>0.08231426561502751</v>
       </c>
       <c r="AA48" t="n">
         <v>0.06536090909090909</v>
@@ -4546,13 +4546,13 @@
         <v>0.006781380993487429</v>
       </c>
       <c r="X49" t="n">
-        <v>0.2362185656120166</v>
+        <v>0.2334497292139524</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.2368967037113653</v>
+        <v>0.2341278673133011</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.08209181933396105</v>
+        <v>0.08307015277042899</v>
       </c>
       <c r="AA49" t="n">
         <v>0.05782459893048128</v>
@@ -4629,13 +4629,13 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>0.2564816380250661</v>
+        <v>0.2979779872103774</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.2564816380250661</v>
+        <v>0.2979779872103774</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.1101407232348012</v>
+        <v>0.1083796278220451</v>
       </c>
       <c r="AA50" t="n">
         <v>0.0644</v>
@@ -4712,13 +4712,13 @@
         <v>0.04026411431354488</v>
       </c>
       <c r="X51" t="n">
-        <v>0.3041391449841406</v>
+        <v>0.3502690607408696</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.3081655564154951</v>
+        <v>0.3542954721722241</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.1037503655998495</v>
+        <v>0.1016908684998942</v>
       </c>
       <c r="AA51" t="n">
         <v>0.0644</v>
@@ -4795,13 +4795,13 @@
         <v>0.009009570282212808</v>
       </c>
       <c r="X52" t="n">
-        <v>0.2428469173470156</v>
+        <v>0.3359399205687461</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.2437478743752369</v>
+        <v>0.3368408775969674</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.1057174162520783</v>
+        <v>0.1006334963193768</v>
       </c>
       <c r="AA52" t="n">
         <v>0.0644</v>
@@ -4878,13 +4878,13 @@
         <v>0.009978483517149275</v>
       </c>
       <c r="X53" t="n">
-        <v>0.4883312360034839</v>
+        <v>0.3453569508848933</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.4893290843551988</v>
+        <v>0.3463547992366082</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.1117426516127094</v>
+        <v>0.1218614650491246</v>
       </c>
       <c r="AA53" t="n">
         <v>0.0644</v>
@@ -4961,13 +4961,13 @@
         <v>0.0606607053200113</v>
       </c>
       <c r="X54" t="n">
-        <v>0.3351849332466332</v>
+        <v>0.3276118732892213</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.3412510037786344</v>
+        <v>0.3336779438212224</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.1076776634266864</v>
+        <v>0.1090766381330865</v>
       </c>
       <c r="AA54" t="n">
         <v>0.06440000784252216</v>
@@ -5044,16 +5044,16 @@
         <v>0.02686988155174378</v>
       </c>
       <c r="X55" t="n">
-        <v>0.5205115259106186</v>
+        <v>0.2951862198813389</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.523198514065793</v>
+        <v>0.2978732080365132</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.06282793176082867</v>
+        <v>0.07872672933796919</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.06282793176082867</v>
+        <v>0.06639009287925697</v>
       </c>
     </row>
     <row r="56">
@@ -5127,13 +5127,13 @@
         <v>0.0071870197711724</v>
       </c>
       <c r="X56" t="n">
-        <v>0.2463585397026495</v>
+        <v>0.2586286692356172</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.2470772416797668</v>
+        <v>0.2593473712127345</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.1577138243644444</v>
+        <v>0.1578450495922902</v>
       </c>
       <c r="AA56" t="n">
         <v>0.0698</v>
@@ -5210,13 +5210,13 @@
         <v>0.03065244635669405</v>
       </c>
       <c r="X57" t="n">
-        <v>0.2768475401191155</v>
+        <v>0.369069890094984</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.2799127847547849</v>
+        <v>0.3721351347306535</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.111079151190504</v>
+        <v>0.1056601278959499</v>
       </c>
       <c r="AA57" t="n">
         <v>0.06941040596520298</v>
@@ -5293,16 +5293,16 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>0.8247384811420462</v>
+        <v>0.0352761491594844</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.8779917228247895</v>
+        <v>0.08852939084222772</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.0640873382838152</v>
+        <v>0.1373475259755544</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.0640873382838152</v>
+        <v>0.09116357647058823</v>
       </c>
     </row>
     <row r="59">
@@ -5376,13 +5376,13 @@
         <v>0.006791469432082893</v>
       </c>
       <c r="X59" t="n">
-        <v>0.2258486310531518</v>
+        <v>0.1490462771895704</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.2265277779963601</v>
+        <v>0.1497254241327787</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.0973030752760613</v>
+        <v>0.1053075017129646</v>
       </c>
       <c r="AA59" t="n">
         <v>0.08800666666666666</v>
@@ -5459,13 +5459,13 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>0.3228895860393746</v>
+        <v>0.2722078534009387</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.3281189751515732</v>
+        <v>0.2774372425131373</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.08999801948585327</v>
+        <v>0.09573327638802703</v>
       </c>
       <c r="AA60" t="n">
         <v>0.08846352941176472</v>
@@ -5542,13 +5542,13 @@
         <v>0.02552242385678162</v>
       </c>
       <c r="X61" t="n">
-        <v>0.2179194951040162</v>
+        <v>0.1422727058126307</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.2204717374896944</v>
+        <v>0.1448249481983089</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.09739737799308434</v>
+        <v>0.1053411319187427</v>
       </c>
       <c r="AA61" t="n">
         <v>0.0884635294117647</v>
@@ -5625,13 +5625,13 @@
         <v>0.01554073448631824</v>
       </c>
       <c r="X62" t="n">
-        <v>0.2360861470840769</v>
+        <v>0.2962557400977484</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.2376402205327088</v>
+        <v>0.2978098135463802</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.08726054567305268</v>
+        <v>0.08404838834994535</v>
       </c>
       <c r="AA62" t="n">
         <v>0.0698</v>
@@ -5708,13 +5708,13 @@
         <v>0.005222021067463717</v>
       </c>
       <c r="X63" t="n">
-        <v>0.2585674829766391</v>
+        <v>0.367382744051123</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.2590896850833855</v>
+        <v>0.3679049461578694</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.08556796471276393</v>
+        <v>0.07896033975901187</v>
       </c>
       <c r="AA63" t="n">
         <v>0.0698</v>
@@ -5791,13 +5791,13 @@
         <v>0.04061588363089426</v>
       </c>
       <c r="X64" t="n">
-        <v>0.2315749167244123</v>
+        <v>0.1450061696715121</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.2356365050875018</v>
+        <v>0.1490677580346016</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.05546206600763421</v>
+        <v>0.05820464149606798</v>
       </c>
       <c r="AA64" t="n">
         <v>0.02723</v>
@@ -5874,13 +5874,13 @@
         <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>0.2361952770518776</v>
+        <v>0.3158419664893581</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.2361952770518776</v>
+        <v>0.3158419664893581</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.0775703935422981</v>
+        <v>0.07578692269509879</v>
       </c>
       <c r="AA65" t="n">
         <v>0.02723</v>
@@ -5957,16 +5957,16 @@
         <v>0.008840504951976129</v>
       </c>
       <c r="X66" t="n">
-        <v>0</v>
+        <v>0.3575256330229155</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.0008840504951976129</v>
+        <v>0.3584096835181131</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.006181917209444748</v>
+        <v>-0.003168197271585948</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.006181917209444748</v>
+        <v>-0.003168197271585948</v>
       </c>
     </row>
     <row r="67">
@@ -6040,13 +6040,13 @@
         <v>0.01531570160597776</v>
       </c>
       <c r="X67" t="n">
-        <v>0.2418631725651086</v>
+        <v>0.2714030785337118</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.2433947427257064</v>
+        <v>0.2729346486943096</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.08250872790784883</v>
+        <v>0.08201733290793686</v>
       </c>
       <c r="AA67" t="n">
         <v>0.03193</v>
@@ -6123,13 +6123,13 @@
         <v>0.06078014026645991</v>
       </c>
       <c r="X68" t="n">
-        <v>0.3757020776630167</v>
+        <v>0.4763955298916409</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.3817800916896626</v>
+        <v>0.4824735439182869</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.06921020160480336</v>
+        <v>0.06402458085249287</v>
       </c>
       <c r="AA68" t="n">
         <v>0.059919375</v>
@@ -6206,13 +6206,13 @@
         <v>0.07269664068827095</v>
       </c>
       <c r="X69" t="n">
-        <v>0.2923498458131375</v>
+        <v>0.3128958564463176</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.2996195098819646</v>
+        <v>0.3201655205151447</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.07413330693304214</v>
+        <v>0.07375007922796624</v>
       </c>
       <c r="AA69" t="n">
         <v>0.05991805555555556</v>
@@ -6289,16 +6289,16 @@
         <v>0.0685372963410706</v>
       </c>
       <c r="X70" t="n">
-        <v>0.3760635566182164</v>
+        <v>0.475106224290645</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.3829172862523235</v>
+        <v>0.481959953924752</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.1640397154536101</v>
+        <v>0.1502328489694198</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.162639375</v>
+        <v>0.1502328489694198</v>
       </c>
     </row>
     <row r="71">
@@ -6372,13 +6372,13 @@
         <v>0.01785844758499477</v>
       </c>
       <c r="X71" t="n">
-        <v>0.2577620588122211</v>
+        <v>0.3291985605842109</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.2595479035707206</v>
+        <v>0.3309844053427104</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.08316563848610171</v>
+        <v>0.07947987023201408</v>
       </c>
       <c r="AA71" t="n">
         <v>0.064339375</v>
@@ -6455,16 +6455,16 @@
         <v>0.0667516151017573</v>
       </c>
       <c r="X72" t="n">
-        <v>1</v>
+        <v>0.05665907432532324</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.006675161510176</v>
+        <v>0.06333423583549898</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.02851973766481338</v>
+        <v>0.09012411485675212</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.02851973766481338</v>
+        <v>0.064339375</v>
       </c>
     </row>
     <row r="73">
@@ -6538,13 +6538,13 @@
         <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>0.2885598857870508</v>
+        <v>0.3418646070186755</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.2885598857870508</v>
+        <v>0.3418646070186755</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.07283628765435914</v>
+        <v>0.07032636729251239</v>
       </c>
       <c r="AA73" t="n">
         <v>0.06410286458333334</v>
@@ -6621,16 +6621,16 @@
         <v>0</v>
       </c>
       <c r="X74" t="n">
-        <v>0</v>
+        <v>0.847979693394289</v>
       </c>
       <c r="Y74" t="n">
-        <v>0</v>
+        <v>0.847979693394289</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.2945757063330484</v>
+        <v>0.1598645653109493</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.161557169117647</v>
+        <v>0.1598645653109493</v>
       </c>
     </row>
     <row r="75">
@@ -6704,13 +6704,13 @@
         <v>0</v>
       </c>
       <c r="X75" t="n">
-        <v>0.6858278451694393</v>
+        <v>0.1567725068711616</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.6858278451694393</v>
+        <v>0.1567725068711616</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.1801524896120109</v>
+        <v>0.2770304719096259</v>
       </c>
       <c r="AA75" t="n">
         <v>0.178345</v>
@@ -6793,7 +6793,7 @@
         <v>0.07456552159541438</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.4182177408384341</v>
+        <v>0.4227911923811337</v>
       </c>
       <c r="AA76" t="n">
         <v>0.3232087626128518</v>
@@ -6870,13 +6870,13 @@
         <v>0</v>
       </c>
       <c r="X77" t="n">
-        <v>0.2282715413485714</v>
+        <v>0.1405827550828875</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.2282715413485714</v>
+        <v>0.1405827550828875</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.08335466809954656</v>
+        <v>0.08861261223044982</v>
       </c>
       <c r="AA77" t="n">
         <v>0.05163</v>
@@ -6953,13 +6953,13 @@
         <v>0</v>
       </c>
       <c r="X78" t="n">
-        <v>0.2736834460836222</v>
+        <v>0.2343800350220275</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.2736834460836222</v>
+        <v>0.2343800350220275</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.4053254960375146</v>
+        <v>0.426475465404762</v>
       </c>
       <c r="AA78" t="n">
         <v>0.39567</v>
@@ -7036,16 +7036,16 @@
         <v>0.03925136787780661</v>
       </c>
       <c r="X79" t="n">
-        <v>0.5072514472869769</v>
+        <v>0.1153084557412281</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.5111765840747575</v>
+        <v>0.1192335925290087</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.3396908211012397</v>
+        <v>0.5003696932786523</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.3396908211012397</v>
+        <v>0.39567</v>
       </c>
     </row>
     <row r="80">
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.1843926504308914</v>
+        <v>0.1860002357818654</v>
       </c>
       <c r="AA80" t="n">
         <v>0.1136090909090909</v>
@@ -7202,16 +7202,16 @@
         <v>0.04525994252246823</v>
       </c>
       <c r="X81" t="n">
-        <v>0.7026872438908804</v>
+        <v>0.1936017720855308</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.7072132381431273</v>
+        <v>0.1981277663377776</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.09406763908954191</v>
+        <v>0.1593374772010077</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.09406763908954191</v>
+        <v>0.1247427272727273</v>
       </c>
     </row>
     <row r="82">
@@ -7285,16 +7285,16 @@
         <v>0.04543593670996864</v>
       </c>
       <c r="X82" t="n">
-        <v>0.2268866033035948</v>
+        <v>0.5729097855362943</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.2314301969745916</v>
+        <v>0.5774533792072912</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.1373631957863578</v>
+        <v>0.09596444827860631</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.1247427272727273</v>
+        <v>0.09596444827860631</v>
       </c>
     </row>
     <row r="83">
@@ -7368,13 +7368,13 @@
         <v>0.02115847208035751</v>
       </c>
       <c r="X83" t="n">
-        <v>0.2361201236307531</v>
+        <v>0.270865258768181</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.2382359708387888</v>
+        <v>0.2729811059762168</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.1223903999890476</v>
+        <v>0.1206264392656873</v>
       </c>
       <c r="AA83" t="n">
         <v>0.08565</v>
@@ -7451,13 +7451,13 @@
         <v>0.007929511040684333</v>
       </c>
       <c r="X84" t="n">
-        <v>0.2420625316403076</v>
+        <v>0.3752757250569829</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.242855482744376</v>
+        <v>0.3760686761610513</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.1371675317267979</v>
+        <v>0.1269697749612421</v>
       </c>
       <c r="AA84" t="n">
         <v>0.08565005753739931</v>
@@ -7534,13 +7534,13 @@
         <v>0.00466648542948596</v>
       </c>
       <c r="X85" t="n">
-        <v>0.2365696940960436</v>
+        <v>0.2815064919766648</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.2370363426389921</v>
+        <v>0.2819731405196134</v>
       </c>
       <c r="Z85" t="n">
-        <v>0.1374317861934563</v>
+        <v>0.1347949095561415</v>
       </c>
       <c r="AA85" t="n">
         <v>0.08564999999999999</v>
@@ -7617,13 +7617,13 @@
         <v>0.02614167974843966</v>
       </c>
       <c r="X86" t="n">
-        <v>0.06608145815187783</v>
+        <v>0.5015986922004703</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.07756674083663667</v>
+        <v>0.5130839748852291</v>
       </c>
       <c r="Z86" t="n">
-        <v>0.1556102353818631</v>
+        <v>0.1195201443867616</v>
       </c>
       <c r="AA86" t="n">
         <v>0.08565</v>
@@ -7700,13 +7700,13 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>0.2388483728257718</v>
+        <v>0.2817147186557973</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.2388483728257718</v>
+        <v>0.2817147186557973</v>
       </c>
       <c r="Z87" t="n">
-        <v>0.1285086865021361</v>
+        <v>0.1260491440829548</v>
       </c>
       <c r="AA87" t="n">
         <v>0.08564999999999999</v>
@@ -7789,7 +7789,7 @@
         <v>0.1352190158426462</v>
       </c>
       <c r="Z88" t="n">
-        <v>0.1471525289263172</v>
+        <v>0.1489176568698605</v>
       </c>
       <c r="AA88" t="n">
         <v>0.1247427272727273</v>
@@ -7866,16 +7866,16 @@
         <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>0.2796853693024208</v>
+        <v>0.3212550102419904</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.2796853693024208</v>
+        <v>0.3212550102419904</v>
       </c>
       <c r="Z89" t="n">
-        <v>-0.006458613692900034</v>
+        <v>-0.009879004440844162</v>
       </c>
       <c r="AA89" t="n">
-        <v>-0.006458613692900034</v>
+        <v>-0.009879004440844162</v>
       </c>
     </row>
     <row r="90">
@@ -7949,13 +7949,13 @@
         <v>0.03489604848853785</v>
       </c>
       <c r="X90" t="n">
-        <v>0.2299930947169087</v>
+        <v>0.1512900258953247</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.2334826995657624</v>
+        <v>0.1547796307441785</v>
       </c>
       <c r="Z90" t="n">
-        <v>0.1392433709365758</v>
+        <v>0.1508261343296567</v>
       </c>
       <c r="AA90" t="n">
         <v>0.1247427272727273</v>
@@ -8032,16 +8032,16 @@
         <v>0</v>
       </c>
       <c r="X91" t="n">
-        <v>0.6080991818149422</v>
+        <v>0.9200186877070236</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.6574077431186658</v>
+        <v>0.9693272490107472</v>
       </c>
       <c r="Z91" t="n">
-        <v>0.07862975437526203</v>
+        <v>0.04148505711455706</v>
       </c>
       <c r="AA91" t="n">
-        <v>0.07862975437526203</v>
+        <v>0.04148505711455706</v>
       </c>
     </row>
     <row r="92">
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="Z92" t="n">
-        <v>0.1440176504308914</v>
+        <v>0.1456252357818654</v>
       </c>
       <c r="AA92" t="n">
         <v>0.1136090909090909</v>
@@ -8198,13 +8198,13 @@
         <v>0</v>
       </c>
       <c r="X93" t="n">
-        <v>0.3197913074999261</v>
+        <v>0.2590579561565554</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.3197913074999261</v>
+        <v>0.2590579561565554</v>
       </c>
       <c r="Z93" t="n">
-        <v>0.4722261850118533</v>
+        <v>0.501585962483632</v>
       </c>
       <c r="AA93" t="n">
         <v>0.3920727272727273</v>
@@ -8281,13 +8281,13 @@
         <v>0</v>
       </c>
       <c r="X94" t="n">
-        <v>0.7935185349515583</v>
+        <v>0.3473241405645671</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.7935185349515583</v>
+        <v>0.3473241405645671</v>
       </c>
       <c r="Z94" t="n">
-        <v>0.09546563088258678</v>
+        <v>0.134894140862993</v>
       </c>
       <c r="AA94" t="n">
         <v>0.08564999999999999</v>
@@ -8364,13 +8364,13 @@
         <v>0</v>
       </c>
       <c r="X95" t="n">
-        <v>0.2812724790506322</v>
+        <v>0.3656509780045909</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.2812724790506322</v>
+        <v>0.3656509780045909</v>
       </c>
       <c r="Z95" t="n">
-        <v>0.3444878162266664</v>
+        <v>0.328528424815406</v>
       </c>
       <c r="AA95" t="n">
         <v>0.2272499780412824</v>
@@ -8447,13 +8447,13 @@
         <v>0.004071715505251533</v>
       </c>
       <c r="X96" t="n">
-        <v>0.2332848820652409</v>
+        <v>0.1786869625069165</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.2336920536157661</v>
+        <v>0.1790941340574417</v>
       </c>
       <c r="Z96" t="n">
-        <v>0.3934260946752718</v>
+        <v>0.4090490928288031</v>
       </c>
       <c r="AA96" t="n">
         <v>0.22725</v>
@@ -8530,13 +8530,13 @@
         <v>0</v>
       </c>
       <c r="X97" t="n">
-        <v>0.2637172924056204</v>
+        <v>0.1999603349423873</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.2637172924056204</v>
+        <v>0.1999603349423873</v>
       </c>
       <c r="Z97" t="n">
-        <v>0.34816612894887</v>
+        <v>0.3658705233172946</v>
       </c>
       <c r="AA97" t="n">
         <v>0.2272500622665006</v>
@@ -8613,13 +8613,13 @@
         <v>0.06003025866227112</v>
       </c>
       <c r="X98" t="n">
-        <v>0.4718780370230167</v>
+        <v>0.802441751029989</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.4778810628892438</v>
+        <v>0.8084447768962162</v>
       </c>
       <c r="Z98" t="n">
-        <v>0.3715763390672426</v>
+        <v>0.2996713559930603</v>
       </c>
       <c r="AA98" t="n">
         <v>0.22725</v>
@@ -8696,13 +8696,13 @@
         <v>0.06482089825786419</v>
       </c>
       <c r="X99" t="n">
-        <v>0.6662833992196138</v>
+        <v>0.1476893191654767</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.6727654890454002</v>
+        <v>0.1541714089912631</v>
       </c>
       <c r="Z99" t="n">
-        <v>0.29152659515874</v>
+        <v>0.4125927207849448</v>
       </c>
       <c r="AA99" t="n">
         <v>0.22725</v>
@@ -8779,16 +8779,16 @@
         <v>0</v>
       </c>
       <c r="X100" t="n">
-        <v>0.4148853613595591</v>
+        <v>0</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.4148853613595591</v>
+        <v>0</v>
       </c>
       <c r="Z100" t="n">
-        <v>0.2198363596869536</v>
+        <v>0.3179524901220316</v>
       </c>
       <c r="AA100" t="n">
-        <v>0.2198363596869536</v>
+        <v>0.22869</v>
       </c>
     </row>
     <row r="101">
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Z101" t="n">
-        <v>0.2400399418024357</v>
+        <v>0.2419646190866859</v>
       </c>
       <c r="AA101" t="n">
         <v>0.1360181818181818</v>
@@ -8951,7 +8951,7 @@
         <v>0.0007253864969032777</v>
       </c>
       <c r="Z102" t="n">
-        <v>0.187995474159261</v>
+        <v>0.1898104234844505</v>
       </c>
       <c r="AA102" t="n">
         <v>0.1282636363636364</v>
@@ -9028,13 +9028,13 @@
         <v>0.01883628588893898</v>
       </c>
       <c r="X103" t="n">
-        <v>0.2926313336269906</v>
+        <v>0.3760966481156527</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.2945149622158845</v>
+        <v>0.3779802767045466</v>
       </c>
       <c r="Z103" t="n">
-        <v>0.1710873320659027</v>
+        <v>0.162232067379898</v>
       </c>
       <c r="AA103" t="n">
         <v>0.1277536363636363</v>
@@ -9111,13 +9111,13 @@
         <v>0</v>
       </c>
       <c r="X104" t="n">
-        <v>0</v>
+        <v>0.1011248192730534</v>
       </c>
       <c r="Y104" t="n">
-        <v>0</v>
+        <v>0.1011248192730534</v>
       </c>
       <c r="Z104" t="n">
-        <v>0.1529234889897693</v>
+        <v>0.144762362250241</v>
       </c>
       <c r="AA104" t="n">
         <v>0.09383337169159954</v>
@@ -9194,13 +9194,13 @@
         <v>0.01718349782208015</v>
       </c>
       <c r="X105" t="n">
-        <v>0.4033419983840327</v>
+        <v>0.128445434432457</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.4050603481662408</v>
+        <v>0.1301637842146651</v>
       </c>
       <c r="Z105" t="n">
-        <v>0.1090295203304781</v>
+        <v>0.1331215636986174</v>
       </c>
       <c r="AA105" t="n">
         <v>0.08334999999999999</v>
@@ -9283,7 +9283,7 @@
         <v>0.0493119562332472</v>
       </c>
       <c r="Z106" t="n">
-        <v>0.1479082368252582</v>
+        <v>0.149185004600246</v>
       </c>
       <c r="AA106" t="n">
         <v>0.09023</v>
@@ -9360,16 +9360,16 @@
         <v>0</v>
       </c>
       <c r="X107" t="n">
-        <v>0.782945528648487</v>
+        <v>0.3095038013480085</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.782945528648487</v>
+        <v>0.3095038013480085</v>
       </c>
       <c r="Z107" t="n">
-        <v>0.0867391462528978</v>
+        <v>0.1307345610822078</v>
       </c>
       <c r="AA107" t="n">
-        <v>0.0867391462528978</v>
+        <v>0.09022999999999999</v>
       </c>
     </row>
     <row r="108">
@@ -9443,13 +9443,13 @@
         <v>0.01531008508076474</v>
       </c>
       <c r="X108" t="n">
-        <v>0.2378696907743298</v>
+        <v>0.24114315256977</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.2394006992824063</v>
+        <v>0.2426741610778465</v>
       </c>
       <c r="Z108" t="n">
-        <v>0.1405526352067082</v>
+        <v>0.1414592069288338</v>
       </c>
       <c r="AA108" t="n">
         <v>0.08335000000000001</v>
@@ -9526,13 +9526,13 @@
         <v>0</v>
       </c>
       <c r="X109" t="n">
-        <v>0.740788847097299</v>
+        <v>0.2401635522825531</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.740788847097299</v>
+        <v>0.2401635522825531</v>
       </c>
       <c r="Z109" t="n">
-        <v>0.08537154994457438</v>
+        <v>0.128278083030159</v>
       </c>
       <c r="AA109" t="n">
         <v>0.08335000000000001</v>
@@ -9609,13 +9609,13 @@
         <v>0.02651221987373751</v>
       </c>
       <c r="X110" t="n">
-        <v>0.3957655659906243</v>
+        <v>0.542754652835769</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.3984167879779981</v>
+        <v>0.5454058748231427</v>
       </c>
       <c r="Z110" t="n">
-        <v>0.3206013344575937</v>
+        <v>0.2889551051655136</v>
       </c>
       <c r="AA110" t="n">
         <v>0.2382300653594771</v>
@@ -9692,13 +9692,13 @@
         <v>0</v>
       </c>
       <c r="X111" t="n">
-        <v>0.6986532602563817</v>
+        <v>0.1930070086975433</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.6986532602563817</v>
+        <v>0.1930070086975433</v>
       </c>
       <c r="Z111" t="n">
-        <v>0.2440248383971543</v>
+        <v>0.3678559344553387</v>
       </c>
       <c r="AA111" t="n">
         <v>0.23823</v>
@@ -9775,16 +9775,16 @@
         <v>0</v>
       </c>
       <c r="X112" t="n">
-        <v>0.3819053850492</v>
+        <v>0.5916650599924435</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.3819053850492</v>
+        <v>0.5916650599924435</v>
       </c>
       <c r="Z112" t="n">
-        <v>0.01503592062318131</v>
+        <v>0.01241866514095825</v>
       </c>
       <c r="AA112" t="n">
-        <v>0.01338</v>
+        <v>0.01241866514095825</v>
       </c>
     </row>
     <row r="113">
@@ -9858,16 +9858,16 @@
         <v>0</v>
       </c>
       <c r="X113" t="n">
-        <v>0.4277170767333025</v>
+        <v>0.4527652014293528</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.4277170767333025</v>
+        <v>0.4527652014293528</v>
       </c>
       <c r="Z113" t="n">
-        <v>0.0133623015844779</v>
+        <v>0.01321648664456228</v>
       </c>
       <c r="AA113" t="n">
-        <v>0.0133623015844779</v>
+        <v>0.01321648664456228</v>
       </c>
     </row>
     <row r="114">
@@ -9941,16 +9941,16 @@
         <v>0.008243764894132265</v>
       </c>
       <c r="X114" t="n">
-        <v>0.4676493632758589</v>
+        <v>0.9285282321593187</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.4684737397652722</v>
+        <v>0.9293526086487319</v>
       </c>
       <c r="Z114" t="n">
-        <v>0.01617205456038808</v>
+        <v>0.01019482426324493</v>
       </c>
       <c r="AA114" t="n">
-        <v>0.01338</v>
+        <v>0.01019482426324493</v>
       </c>
     </row>
     <row r="115">
@@ -10024,16 +10024,16 @@
         <v>0.01490329904142571</v>
       </c>
       <c r="X115" t="n">
-        <v>0.439924219925349</v>
+        <v>0.8469030764726927</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.4414145498294916</v>
+        <v>0.8483934063768352</v>
       </c>
       <c r="Z115" t="n">
-        <v>0.0139546908181882</v>
+        <v>0.008698642686102273</v>
       </c>
       <c r="AA115" t="n">
-        <v>0.01338</v>
+        <v>0.008698642686102273</v>
       </c>
     </row>
     <row r="116">
@@ -10107,16 +10107,16 @@
         <v>0.00279358348665857</v>
       </c>
       <c r="X116" t="n">
-        <v>0.3526151267017208</v>
+        <v>0.5285469640613925</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.3528944850503867</v>
+        <v>0.5288263224100583</v>
       </c>
       <c r="Z116" t="n">
-        <v>0.01509903773529633</v>
+        <v>0.01293439871994146</v>
       </c>
       <c r="AA116" t="n">
-        <v>0.01338</v>
+        <v>0.01293439871994146</v>
       </c>
     </row>
     <row r="117">
@@ -10190,16 +10190,16 @@
         <v>0.01058488607732698</v>
       </c>
       <c r="X117" t="n">
-        <v>0.4874171881443117</v>
+        <v>0.9833434804885439</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.4884756767520444</v>
+        <v>0.9844019690962766</v>
       </c>
       <c r="Z117" t="n">
-        <v>0.01388979983881574</v>
+        <v>0.006937770063286082</v>
       </c>
       <c r="AA117" t="n">
-        <v>0.01388979983881574</v>
+        <v>0.006937770063286082</v>
       </c>
     </row>
     <row r="118">
@@ -10273,13 +10273,13 @@
         <v>0.06793571104327958</v>
       </c>
       <c r="X118" t="n">
-        <v>0.3124161467687812</v>
+        <v>0.4448970376440264</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.3192097178731091</v>
+        <v>0.4516906087483544</v>
       </c>
       <c r="Z118" t="n">
-        <v>0.01747504539139622</v>
+        <v>0.01576753275906404</v>
       </c>
       <c r="AA118" t="n">
         <v>0.01443</v>
@@ -10356,13 +10356,13 @@
         <v>0.09321470745488747</v>
       </c>
       <c r="X119" t="n">
-        <v>0.3685657653046976</v>
+        <v>0.5524405930346816</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.3778872360501864</v>
+        <v>0.5617620637801704</v>
       </c>
       <c r="Z119" t="n">
-        <v>0.01689832880410099</v>
+        <v>0.01444920166295494</v>
       </c>
       <c r="AA119" t="n">
         <v>0.01443</v>
@@ -10439,13 +10439,13 @@
         <v>0.007090393015077145</v>
       </c>
       <c r="X120" t="n">
-        <v>0.05931956283772455</v>
+        <v>0.3663253774735364</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.06002860213923226</v>
+        <v>0.3670344167750442</v>
       </c>
       <c r="Z120" t="n">
-        <v>0.01966821778032496</v>
+        <v>0.0154423104981278</v>
       </c>
       <c r="AA120" t="n">
         <v>0.01443</v>
@@ -10522,13 +10522,13 @@
         <v>0</v>
       </c>
       <c r="X121" t="n">
-        <v>0.2353795024162866</v>
+        <v>0.2237176391837055</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.2353795024162866</v>
+        <v>0.2237176391837055</v>
       </c>
       <c r="Z121" t="n">
-        <v>0.01767353384599009</v>
+        <v>0.01805013107709088</v>
       </c>
       <c r="AA121" t="n">
         <v>0.01459</v>
@@ -10611,10 +10611,10 @@
         <v>0</v>
       </c>
       <c r="Z122" t="n">
-        <v>0.003325207223856732</v>
+        <v>0.003531657870394164</v>
       </c>
       <c r="AA122" t="n">
-        <v>0.003325207223856732</v>
+        <v>0.003531657870394164</v>
       </c>
     </row>
     <row r="123">
@@ -10688,13 +10688,13 @@
         <v>0</v>
       </c>
       <c r="X123" t="n">
-        <v>0.2355993374235883</v>
+        <v>0.286971039960952</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.2355993374235883</v>
+        <v>0.286971039960952</v>
       </c>
       <c r="Z123" t="n">
-        <v>0.01180420672249274</v>
+        <v>0.01139030302629482</v>
       </c>
       <c r="AA123" t="n">
         <v>0.01112</v>
@@ -10771,16 +10771,16 @@
         <v>0.02663654192383648</v>
       </c>
       <c r="X124" t="n">
-        <v>0.4559668314651062</v>
+        <v>0.8765935662120682</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.4586304856574898</v>
+        <v>0.8792572204044519</v>
       </c>
       <c r="Z124" t="n">
-        <v>0.00943169905238187</v>
+        <v>0.004911679398013215</v>
       </c>
       <c r="AA124" t="n">
-        <v>0.00943169905238187</v>
+        <v>0.004911679398013215</v>
       </c>
     </row>
     <row r="125">
@@ -10854,13 +10854,13 @@
         <v>0.05810665377217365</v>
       </c>
       <c r="X125" t="n">
-        <v>0.2409854076076019</v>
+        <v>0.3054859613360452</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.2467960729848193</v>
+        <v>0.3112966267132626</v>
       </c>
       <c r="Z125" t="n">
-        <v>0.01508201452021503</v>
+        <v>0.01447780964096028</v>
       </c>
       <c r="AA125" t="n">
         <v>0.012</v>
@@ -10943,7 +10943,7 @@
         <v>0.0008096214916105826</v>
       </c>
       <c r="Z126" t="n">
-        <v>0.01822226362333556</v>
+        <v>0.01838583932408763</v>
       </c>
       <c r="AA126" t="n">
         <v>0.01156</v>
@@ -11026,10 +11026,10 @@
         <v>0</v>
       </c>
       <c r="Z127" t="n">
-        <v>0.00297650488989506</v>
+        <v>0.003161305811332952</v>
       </c>
       <c r="AA127" t="n">
-        <v>0.00297650488989506</v>
+        <v>0.003161305811332952</v>
       </c>
     </row>
     <row r="128">
@@ -11109,7 +11109,7 @@
         <v>0.07637658305497388</v>
       </c>
       <c r="Z128" t="n">
-        <v>0.0193930267151971</v>
+        <v>0.01957782763663499</v>
       </c>
       <c r="AA128" t="n">
         <v>0.01306</v>
@@ -11186,13 +11186,13 @@
         <v>0.06309786742165871</v>
       </c>
       <c r="X129" t="n">
-        <v>0.2251749503859446</v>
+        <v>0.1339357345325716</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.2314847371281105</v>
+        <v>0.1402455212747374</v>
       </c>
       <c r="Z129" t="n">
-        <v>0.01681146237115009</v>
+        <v>0.01818784745163303</v>
       </c>
       <c r="AA129" t="n">
         <v>0.01306</v>
@@ -11269,13 +11269,13 @@
         <v>0.02783382276553903</v>
       </c>
       <c r="X130" t="n">
-        <v>0.235462418690791</v>
+        <v>0.3104252681460307</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.2382458009673449</v>
+        <v>0.3132086504225846</v>
       </c>
       <c r="Z130" t="n">
-        <v>0.01688097964154224</v>
+        <v>0.0160867657490947</v>
       </c>
       <c r="AA130" t="n">
         <v>0.01306</v>
@@ -11352,13 +11352,13 @@
         <v>0.03428692595756071</v>
       </c>
       <c r="X131" t="n">
-        <v>0.2694155643016412</v>
+        <v>0.3184660475988339</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.2728442568973972</v>
+        <v>0.32189474019459</v>
       </c>
       <c r="Z131" t="n">
-        <v>0.01623871445037061</v>
+        <v>0.01578291605994717</v>
       </c>
       <c r="AA131" t="n">
         <v>0.01306</v>
@@ -11435,13 +11435,13 @@
         <v>0</v>
       </c>
       <c r="X132" t="n">
-        <v>0.2364216373562231</v>
+        <v>0.2710596319988652</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.2364216373562231</v>
+        <v>0.2710596319988652</v>
       </c>
       <c r="Z132" t="n">
-        <v>0.01665681848894962</v>
+        <v>0.0163892472003546</v>
       </c>
       <c r="AA132" t="n">
         <v>0.01306</v>
@@ -11518,13 +11518,13 @@
         <v>0.0564600137134214</v>
       </c>
       <c r="X133" t="n">
-        <v>0.2366843368147951</v>
+        <v>0.2314105525966355</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.2423303381861372</v>
+        <v>0.2370565539679776</v>
       </c>
       <c r="Z133" t="n">
-        <v>0.01553868317318411</v>
+        <v>0.01579235971651116</v>
       </c>
       <c r="AA133" t="n">
         <v>0.01306</v>
@@ -11601,13 +11601,13 @@
         <v>0.04764293406231317</v>
       </c>
       <c r="X134" t="n">
-        <v>0.24199649113402</v>
+        <v>0.2901728863621595</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.2467607845402513</v>
+        <v>0.2949371797683908</v>
       </c>
       <c r="Z134" t="n">
-        <v>0.01589796514979017</v>
+        <v>0.01545358234954856</v>
       </c>
       <c r="AA134" t="n">
         <v>0.01306</v>
@@ -11684,16 +11684,16 @@
         <v>0.07577133082993451</v>
       </c>
       <c r="X135" t="n">
-        <v>0.3629929366190867</v>
+        <v>0.5493024894944328</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.3705700697020802</v>
+        <v>0.5568796225774263</v>
       </c>
       <c r="Z135" t="n">
-        <v>0.01434905736023105</v>
+        <v>0.01210065552111693</v>
       </c>
       <c r="AA135" t="n">
-        <v>0.01306</v>
+        <v>0.01210065552111693</v>
       </c>
     </row>
     <row r="136">
@@ -11767,13 +11767,13 @@
         <v>0</v>
       </c>
       <c r="X136" t="n">
-        <v>0.2407013321759557</v>
+        <v>0.2866481611225746</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.2407013321759557</v>
+        <v>0.2866481611225746</v>
       </c>
       <c r="Z136" t="n">
-        <v>0.01774543331269617</v>
+        <v>0.01730155163445076</v>
       </c>
       <c r="AA136" t="n">
         <v>0.01396</v>
@@ -11850,16 +11850,16 @@
         <v>0.01334751311649006</v>
       </c>
       <c r="X137" t="n">
-        <v>0.4738678588534373</v>
+        <v>0.6860272716606421</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.4752026101650863</v>
+        <v>0.6873620229722911</v>
       </c>
       <c r="Z137" t="n">
-        <v>0.01352575881209011</v>
+        <v>0.01076154946315092</v>
       </c>
       <c r="AA137" t="n">
-        <v>0.01352575881209011</v>
+        <v>0.01076154946315092</v>
       </c>
     </row>
     <row r="138">
@@ -11933,13 +11933,13 @@
         <v>0.0346536211162646</v>
       </c>
       <c r="X138" t="n">
-        <v>0.2773859896303468</v>
+        <v>0.3112126199645955</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.2808513517419732</v>
+        <v>0.3146779820762219</v>
       </c>
       <c r="Z138" t="n">
-        <v>0.01630634133840515</v>
+        <v>0.01603165763278842</v>
       </c>
       <c r="AA138" t="n">
         <v>0.01396</v>
@@ -12016,13 +12016,13 @@
         <v>0</v>
       </c>
       <c r="X139" t="n">
-        <v>0.2545114483383375</v>
+        <v>0.3065646605244328</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.2545114483383375</v>
+        <v>0.3065646605244328</v>
       </c>
       <c r="Z139" t="n">
-        <v>0.01674581223266224</v>
+        <v>0.01621668544439374</v>
       </c>
       <c r="AA139" t="n">
         <v>0.01396</v>
@@ -12099,13 +12099,13 @@
         <v>0.007355744386271713</v>
       </c>
       <c r="X140" t="n">
-        <v>0.2616513608605426</v>
+        <v>0.296926824937924</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.2623869352991698</v>
+        <v>0.2976623993765511</v>
       </c>
       <c r="Z140" t="n">
-        <v>0.0192339218876907</v>
+        <v>0.01893901246301984</v>
       </c>
       <c r="AA140" t="n">
         <v>0.01396</v>
@@ -12182,13 +12182,13 @@
         <v>0.00827623381905636</v>
       </c>
       <c r="X141" t="n">
-        <v>0.4536257686455372</v>
+        <v>0.7752629849838393</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.4544533920274428</v>
+        <v>0.7760906083657449</v>
       </c>
       <c r="Z141" t="n">
-        <v>0.01975852245680444</v>
+        <v>0.01546292809987898</v>
       </c>
       <c r="AA141" t="n">
         <v>0.01397</v>
@@ -12265,13 +12265,13 @@
         <v>0.0113697736325531</v>
       </c>
       <c r="X142" t="n">
-        <v>0.4741444526945076</v>
+        <v>0.8153092674003243</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.4752814300577629</v>
+        <v>0.8164462447635796</v>
       </c>
       <c r="Z142" t="n">
-        <v>0.01955755476552087</v>
+        <v>0.01498915985940123</v>
       </c>
       <c r="AA142" t="n">
         <v>0.01397</v>
@@ -12348,13 +12348,13 @@
         <v>0.01160344936576794</v>
       </c>
       <c r="X143" t="n">
-        <v>0.3251267503792901</v>
+        <v>0.3364898939730998</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.3262870953158669</v>
+        <v>0.3376502389096766</v>
       </c>
       <c r="Z143" t="n">
-        <v>0.01830567228853183</v>
+        <v>0.01834460672784693</v>
       </c>
       <c r="AA143" t="n">
         <v>0.01397</v>
@@ -12431,16 +12431,16 @@
         <v>0.03461050254425514</v>
       </c>
       <c r="X144" t="n">
-        <v>0.4461980680226778</v>
+        <v>0.9524419188861896</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.4496591182771033</v>
+        <v>0.9559029691406151</v>
       </c>
       <c r="Z144" t="n">
-        <v>0.01661216512776335</v>
+        <v>0.009737616086520715</v>
       </c>
       <c r="AA144" t="n">
-        <v>0.01397</v>
+        <v>0.009737616086520715</v>
       </c>
     </row>
     <row r="145">
@@ -12514,16 +12514,16 @@
         <v>0.02111881315787539</v>
       </c>
       <c r="X145" t="n">
-        <v>0.3776112895739225</v>
+        <v>0.504136677952411</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.3797231708897101</v>
+        <v>0.5062485592681986</v>
       </c>
       <c r="Z145" t="n">
-        <v>0.01259045236404729</v>
+        <v>0.01102057024372043</v>
       </c>
       <c r="AA145" t="n">
-        <v>0.01259045236404729</v>
+        <v>0.01102057024372043</v>
       </c>
     </row>
     <row r="146">
@@ -12597,13 +12597,13 @@
         <v>0.03600852375314537</v>
       </c>
       <c r="X146" t="n">
-        <v>0.3302272825650785</v>
+        <v>0.4922845003666702</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.3710155740713196</v>
+        <v>0.5330727918729112</v>
       </c>
       <c r="Z146" t="n">
-        <v>0.02038081544031815</v>
+        <v>0.01831455366295054</v>
       </c>
       <c r="AA146" t="n">
         <v>0.01397</v>
@@ -12680,13 +12680,13 @@
         <v>0.01995613829288603</v>
       </c>
       <c r="X147" t="n">
-        <v>0.4016444086065631</v>
+        <v>0.5220407727385552</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.4036400224358517</v>
+        <v>0.5240363865678438</v>
       </c>
       <c r="Z147" t="n">
-        <v>0.01691304149805212</v>
+        <v>0.01542878184644881</v>
       </c>
       <c r="AA147" t="n">
         <v>0.01397</v>
@@ -12763,16 +12763,16 @@
         <v>0.1006290901538872</v>
       </c>
       <c r="X148" t="n">
-        <v>0.2363822605637176</v>
+        <v>0.2804980799162946</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.2464451695791063</v>
+        <v>0.2905609889316833</v>
       </c>
       <c r="Z148" t="n">
-        <v>0.01264187044268727</v>
+        <v>0.01222325000165239</v>
       </c>
       <c r="AA148" t="n">
-        <v>0.01264187044268727</v>
+        <v>0.01222325000165239</v>
       </c>
     </row>
     <row r="149">
@@ -12846,13 +12846,13 @@
         <v>0</v>
       </c>
       <c r="X149" t="n">
-        <v>0.3672452926943084</v>
+        <v>0.5080204029849167</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.3672452926943084</v>
+        <v>0.5080204029849167</v>
       </c>
       <c r="Z149" t="n">
-        <v>0.007890128174142873</v>
+        <v>0.00715063838924919</v>
       </c>
       <c r="AA149" t="n">
         <v>0.005840000000000001</v>
@@ -12929,13 +12929,13 @@
         <v>0</v>
       </c>
       <c r="X150" t="n">
-        <v>0.4097771788255125</v>
+        <v>0.5421150994641477</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.4097771788255125</v>
+        <v>0.5421150994641477</v>
       </c>
       <c r="Z150" t="n">
-        <v>0.007151896701347835</v>
+        <v>0.006461680104021674</v>
       </c>
       <c r="AA150" t="n">
         <v>0.00584</v>
@@ -13012,13 +13012,13 @@
         <v>0.003701335762880492</v>
       </c>
       <c r="X151" t="n">
-        <v>0.2359143517636317</v>
+        <v>0.2909390755508861</v>
       </c>
       <c r="Y151" t="n">
-        <v>0.2362844853399198</v>
+        <v>0.2913092091271741</v>
       </c>
       <c r="Z151" t="n">
-        <v>0.007627382892321231</v>
+        <v>0.007388675364607134</v>
       </c>
       <c r="AA151" t="n">
         <v>0.00584</v>
@@ -13095,13 +13095,13 @@
         <v>0.01154731670666392</v>
       </c>
       <c r="X152" t="n">
-        <v>0.2385155826765402</v>
+        <v>0.3031794896551072</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.2396703143472066</v>
+        <v>0.3043342213257736</v>
       </c>
       <c r="Z152" t="n">
-        <v>0.008250919893843795</v>
+        <v>0.007955919536292431</v>
       </c>
       <c r="AA152" t="n">
         <v>0.00584</v>
@@ -13178,16 +13178,16 @@
         <v>0.02376644426620868</v>
       </c>
       <c r="X153" t="n">
-        <v>0.5588929293540685</v>
+        <v>0.1200267023094082</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.6028391615767902</v>
+        <v>0.1639729345321297</v>
       </c>
       <c r="Z153" t="n">
-        <v>0.005757080492689694</v>
+        <v>0.00840269611783398</v>
       </c>
       <c r="AA153" t="n">
-        <v>0.005757080492689694</v>
+        <v>0.005840000000000001</v>
       </c>
     </row>
     <row r="154">
@@ -13261,13 +13261,13 @@
         <v>0.009190955934168351</v>
       </c>
       <c r="X154" t="n">
-        <v>0.2956051815021217</v>
+        <v>0.3591605099207902</v>
       </c>
       <c r="Y154" t="n">
-        <v>0.2965242770955385</v>
+        <v>0.360079605514207</v>
       </c>
       <c r="Z154" t="n">
-        <v>0.007206712751393536</v>
+        <v>0.006918186492631981</v>
       </c>
       <c r="AA154" t="n">
         <v>0.00584</v>
@@ -13344,13 +13344,13 @@
         <v>0.1162388682467091</v>
       </c>
       <c r="X155" t="n">
-        <v>0.2532363152918902</v>
+        <v>0.217657477906618</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.2648602021165611</v>
+        <v>0.229281364731289</v>
       </c>
       <c r="Z155" t="n">
-        <v>0.007332785023344839</v>
+        <v>0.007623202292878296</v>
       </c>
       <c r="AA155" t="n">
         <v>0.005840000000000001</v>
@@ -13427,13 +13427,13 @@
         <v>0.002421527512169711</v>
       </c>
       <c r="X156" t="n">
-        <v>0.2721412258788669</v>
+        <v>0.3242385160967933</v>
       </c>
       <c r="Y156" t="n">
-        <v>0.2723833786300839</v>
+        <v>0.3244806688480103</v>
       </c>
       <c r="Z156" t="n">
-        <v>0.0173587433534014</v>
+        <v>0.01687150203607387</v>
       </c>
       <c r="AA156" t="n">
         <v>0.01284</v>
@@ -13510,16 +13510,16 @@
         <v>0</v>
       </c>
       <c r="X157" t="n">
-        <v>0.2294213436897299</v>
+        <v>0.1040253744181285</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.2294213436897299</v>
+        <v>0.1040253744181285</v>
       </c>
       <c r="Z157" t="n">
-        <v>-1.940536796445012e-05</v>
+        <v>0.00177236676655355</v>
       </c>
       <c r="AA157" t="n">
-        <v>-1.940536796445012e-05</v>
+        <v>0.00177236676655355</v>
       </c>
     </row>
     <row r="158">
@@ -13593,13 +13593,13 @@
         <v>0.02204616628166835</v>
       </c>
       <c r="X158" t="n">
-        <v>0.3175416550915304</v>
+        <v>0.4115041075687126</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.3197462717196973</v>
+        <v>0.4137087241968794</v>
       </c>
       <c r="Z158" t="n">
-        <v>0.01690221031123281</v>
+        <v>0.01587742031049643</v>
       </c>
       <c r="AA158" t="n">
         <v>0.01284</v>
@@ -13676,13 +13676,13 @@
         <v>0.009572427721392482</v>
       </c>
       <c r="X159" t="n">
-        <v>0.2367669155739349</v>
+        <v>0.2922048387885676</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.2377241583460742</v>
+        <v>0.2931620815607069</v>
       </c>
       <c r="Z159" t="n">
-        <v>0.01732762794843072</v>
+        <v>0.01679749290342548</v>
       </c>
       <c r="AA159" t="n">
         <v>0.01284</v>
@@ -13759,13 +13759,13 @@
         <v>0.02031865484858921</v>
       </c>
       <c r="X160" t="n">
-        <v>0.2356828162236999</v>
+        <v>0.2815351337688556</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.2377146817085588</v>
+        <v>0.2835669992537145</v>
       </c>
       <c r="Z160" t="n">
-        <v>0.01749224167602647</v>
+        <v>0.01708518580781731</v>
       </c>
       <c r="AA160" t="n">
         <v>0.01284</v>
@@ -13842,13 +13842,13 @@
         <v>0</v>
       </c>
       <c r="X161" t="n">
-        <v>0.3184828729375315</v>
+        <v>0.3861498321841699</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.3184828729375315</v>
+        <v>0.3861498321841699</v>
       </c>
       <c r="Z161" t="n">
-        <v>0.01553219216593822</v>
+        <v>0.01484503629828202</v>
       </c>
       <c r="AA161" t="n">
         <v>0.01284</v>
@@ -13925,13 +13925,13 @@
         <v>0.009753440938673516</v>
       </c>
       <c r="X162" t="n">
-        <v>0.3054001023852859</v>
+        <v>0.5421386418274619</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.3063754464791533</v>
+        <v>0.5431139859213292</v>
       </c>
       <c r="Z162" t="n">
-        <v>0.0171444701104653</v>
+        <v>0.0142864351530984</v>
       </c>
       <c r="AA162" t="n">
         <v>0.01284</v>
@@ -14008,13 +14008,13 @@
         <v>0.03212011324784729</v>
       </c>
       <c r="X163" t="n">
-        <v>0.241175428757721</v>
+        <v>0.2927797993944172</v>
       </c>
       <c r="Y163" t="n">
-        <v>0.2443874400825058</v>
+        <v>0.2959918107192019</v>
       </c>
       <c r="Z163" t="n">
-        <v>0.02542582125870014</v>
+        <v>0.0249449090287956</v>
       </c>
       <c r="AA163" t="n">
         <v>0.01284</v>
@@ -14091,13 +14091,13 @@
         <v>0.03229826852914232</v>
       </c>
       <c r="X164" t="n">
-        <v>0.4416480233961151</v>
+        <v>0.9653332325912829</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.4448778502490293</v>
+        <v>0.9685630594441972</v>
       </c>
       <c r="Z164" t="n">
-        <v>0.02313079975448082</v>
+        <v>0.0165883695574855</v>
       </c>
       <c r="AA164" t="n">
         <v>0.01284</v>
@@ -14174,16 +14174,16 @@
         <v>0.02989310406191287</v>
       </c>
       <c r="X165" t="n">
-        <v>0.9365819599669089</v>
+        <v>0.6616967066231</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.9395712703731002</v>
+        <v>0.6646860170292913</v>
       </c>
       <c r="Z165" t="n">
-        <v>0.009342969573421074</v>
+        <v>0.01305418411542622</v>
       </c>
       <c r="AA165" t="n">
-        <v>0.009342969573421074</v>
+        <v>0.01284</v>
       </c>
     </row>
     <row r="166">
@@ -14257,13 +14257,13 @@
         <v>0.006864603225428645</v>
       </c>
       <c r="X166" t="n">
-        <v>0.3601653454018328</v>
+        <v>0.3171576191395504</v>
       </c>
       <c r="Y166" t="n">
-        <v>0.3608518057243756</v>
+        <v>0.3178440794620933</v>
       </c>
       <c r="Z166" t="n">
-        <v>0.01663218611032345</v>
+        <v>0.01736609320460179</v>
       </c>
       <c r="AA166" t="n">
         <v>0.01284</v>
@@ -14340,13 +14340,13 @@
         <v>0.006750163815085634</v>
       </c>
       <c r="X167" t="n">
-        <v>0.2561932873988049</v>
+        <v>0.2612936307665881</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.2568683037803134</v>
+        <v>0.2619686471480966</v>
       </c>
       <c r="Z167" t="n">
-        <v>0.01409887487291573</v>
+        <v>0.01421507435314403</v>
       </c>
       <c r="AA167" t="n">
         <v>0.01284</v>
@@ -14423,16 +14423,16 @@
         <v>0.06389018507797624</v>
       </c>
       <c r="X168" t="n">
-        <v>0.453550502719291</v>
+        <v>0.6222776964536914</v>
       </c>
       <c r="Y168" t="n">
-        <v>0.4599395212270886</v>
+        <v>0.628666714961489</v>
       </c>
       <c r="Z168" t="n">
-        <v>0.0120279693026313</v>
+        <v>0.01004320002415224</v>
       </c>
       <c r="AA168" t="n">
-        <v>0.0120279693026313</v>
+        <v>0.01004320002415224</v>
       </c>
     </row>
     <row r="169">
@@ -14512,7 +14512,7 @@
         <v>0.05037761742147426</v>
       </c>
       <c r="Z169" t="n">
-        <v>0.02469062718843106</v>
+        <v>0.0248723150775017</v>
       </c>
       <c r="AA169" t="n">
         <v>0.01284</v>
@@ -14589,13 +14589,13 @@
         <v>0.02649402758706534</v>
       </c>
       <c r="X170" t="n">
-        <v>0.2359296524601482</v>
+        <v>0.260727339189829</v>
       </c>
       <c r="Y170" t="n">
-        <v>0.2385790552188547</v>
+        <v>0.2633767419485356</v>
       </c>
       <c r="Z170" t="n">
-        <v>0.01929394448330197</v>
+        <v>0.01912049605569637</v>
       </c>
       <c r="AA170" t="n">
         <v>0.01629000069754464</v>
@@ -14672,13 +14672,13 @@
         <v>0.02580978257564515</v>
       </c>
       <c r="X171" t="n">
-        <v>0.2708462919310455</v>
+        <v>0.645921623392984</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.3071517993483845</v>
+        <v>0.6822271308103229</v>
       </c>
       <c r="Z171" t="n">
-        <v>0.02559922116232767</v>
+        <v>0.01969809439840044</v>
       </c>
       <c r="AA171" t="n">
         <v>0.01635</v>
@@ -14761,7 +14761,7 @@
         <v>0.01348895664009205</v>
       </c>
       <c r="Z172" t="n">
-        <v>0.02703256271055871</v>
+        <v>0.02726307113401872</v>
       </c>
       <c r="AA172" t="n">
         <v>0.01629017857142857</v>
@@ -14844,7 +14844,7 @@
         <v>0.08498392660701144</v>
       </c>
       <c r="Z173" t="n">
-        <v>0.02914670425260077</v>
+        <v>0.02934692883440369</v>
       </c>
       <c r="AA173" t="n">
         <v>0.01415</v>
@@ -14921,13 +14921,13 @@
         <v>0</v>
       </c>
       <c r="X174" t="n">
-        <v>0.237506974262794</v>
+        <v>0.292716566476346</v>
       </c>
       <c r="Y174" t="n">
-        <v>0.237506974262794</v>
+        <v>0.292716566476346</v>
       </c>
       <c r="Z174" t="n">
-        <v>0.01951906203916253</v>
+        <v>0.01893807089114369</v>
       </c>
       <c r="AA174" t="n">
         <v>0.01415</v>
@@ -15004,13 +15004,13 @@
         <v>0.08742401327924726</v>
       </c>
       <c r="X175" t="n">
-        <v>0.2587397283175701</v>
+        <v>0.2449844673521178</v>
       </c>
       <c r="Y175" t="n">
-        <v>0.2674821296454948</v>
+        <v>0.2537268686800425</v>
       </c>
       <c r="Z175" t="n">
-        <v>0.01899238952809108</v>
+        <v>0.01938725105255515</v>
       </c>
       <c r="AA175" t="n">
         <v>0.01415</v>
@@ -15087,16 +15087,16 @@
         <v>0</v>
       </c>
       <c r="X176" t="n">
-        <v>0.4854094217470206</v>
+        <v>0.9419931041273205</v>
       </c>
       <c r="Y176" t="n">
-        <v>0.4854094217470206</v>
+        <v>0.9419931041273205</v>
       </c>
       <c r="Z176" t="n">
-        <v>0.01618884099636964</v>
+        <v>0.009928406472491316</v>
       </c>
       <c r="AA176" t="n">
-        <v>0.01415</v>
+        <v>0.009928406472491316</v>
       </c>
     </row>
     <row r="177">
@@ -15170,13 +15170,13 @@
         <v>0.01202520291796308</v>
       </c>
       <c r="X177" t="n">
-        <v>0.5446352678185822</v>
+        <v>0.4340961923117015</v>
       </c>
       <c r="Y177" t="n">
-        <v>0.5458377881103785</v>
+        <v>0.4352987126034978</v>
       </c>
       <c r="Z177" t="n">
-        <v>0.01472187766788368</v>
+        <v>0.01648623016810897</v>
       </c>
       <c r="AA177" t="n">
         <v>0.01415</v>
@@ -15253,13 +15253,13 @@
         <v>0.02008577656265096</v>
       </c>
       <c r="X178" t="n">
-        <v>0.2398347052254719</v>
+        <v>0.3577669209992653</v>
       </c>
       <c r="Y178" t="n">
-        <v>0.241843282881737</v>
+        <v>0.3597754986555304</v>
       </c>
       <c r="Z178" t="n">
-        <v>0.0198275343613134</v>
+        <v>0.01835901808991714</v>
       </c>
       <c r="AA178" t="n">
         <v>0.01415</v>
@@ -15336,13 +15336,13 @@
         <v>0.06217175066759984</v>
       </c>
       <c r="X179" t="n">
-        <v>0.2764463468560459</v>
+        <v>0.2622802852637511</v>
       </c>
       <c r="Y179" t="n">
-        <v>0.2826635219228059</v>
+        <v>0.2684974603305111</v>
       </c>
       <c r="Z179" t="n">
-        <v>0.01989927023694679</v>
+        <v>0.02029994459028069</v>
       </c>
       <c r="AA179" t="n">
         <v>0.01415</v>
@@ -15419,16 +15419,16 @@
         <v>0.009654403040260665</v>
       </c>
       <c r="X180" t="n">
-        <v>0.5167186970039352</v>
+        <v>0.6247813460511956</v>
       </c>
       <c r="Y180" t="n">
-        <v>0.5176841373079614</v>
+        <v>0.6257467863552217</v>
       </c>
       <c r="Z180" t="n">
-        <v>0.02362789111738892</v>
+        <v>0.02148291534429199</v>
       </c>
       <c r="AA180" t="n">
-        <v>0.02284015151515151</v>
+        <v>0.02148291534429199</v>
       </c>
     </row>
     <row r="181">
@@ -15502,16 +15502,16 @@
         <v>0</v>
       </c>
       <c r="X181" t="n">
-        <v>0.5487059843752324</v>
+        <v>0</v>
       </c>
       <c r="Y181" t="n">
-        <v>0.5487059843752324</v>
+        <v>0</v>
       </c>
       <c r="Z181" t="n">
-        <v>0.02242679037556452</v>
+        <v>0.03532868415731186</v>
       </c>
       <c r="AA181" t="n">
-        <v>0.02242679037556452</v>
+        <v>0.0229221875</v>
       </c>
     </row>
     <row r="182">
@@ -15585,13 +15585,13 @@
         <v>0</v>
       </c>
       <c r="X182" t="n">
-        <v>0.5951924255251957</v>
+        <v>0.175415933853948</v>
       </c>
       <c r="Y182" t="n">
-        <v>0.5951924255251957</v>
+        <v>0.175415933853948</v>
       </c>
       <c r="Z182" t="n">
-        <v>0.00403722071080277</v>
+        <v>0.005777266532371239</v>
       </c>
       <c r="AA182" t="n">
         <v>0.004010000000000001</v>
@@ -15668,13 +15668,13 @@
         <v>0.09702302196733606</v>
       </c>
       <c r="X183" t="n">
-        <v>0.2253595712902343</v>
+        <v>0.1327487574710351</v>
       </c>
       <c r="Y183" t="n">
-        <v>0.2350618734869679</v>
+        <v>0.1424510596677687</v>
       </c>
       <c r="Z183" t="n">
-        <v>0.005979048349055189</v>
+        <v>0.006407159802436943</v>
       </c>
       <c r="AA183" t="n">
         <v>0.00401</v>
@@ -15751,13 +15751,13 @@
         <v>0</v>
       </c>
       <c r="X184" t="n">
-        <v>0.2353615015968555</v>
+        <v>0.2021671127887854</v>
       </c>
       <c r="Y184" t="n">
-        <v>0.2353615015968555</v>
+        <v>0.2021671127887854</v>
       </c>
       <c r="Z184" t="n">
-        <v>0.006025280857929848</v>
+        <v>0.006215132447016974</v>
       </c>
       <c r="AA184" t="n">
         <v>0.00401</v>
@@ -15834,13 +15834,13 @@
         <v>0</v>
       </c>
       <c r="X185" t="n">
-        <v>0.3010761930528256</v>
+        <v>0.3667170986017494</v>
       </c>
       <c r="Y185" t="n">
-        <v>0.3010761930528256</v>
+        <v>0.3667170986017494</v>
       </c>
       <c r="Z185" t="n">
-        <v>0.005853071544777084</v>
+        <v>0.005646593603492665</v>
       </c>
       <c r="AA185" t="n">
         <v>0.00401</v>
@@ -15917,13 +15917,13 @@
         <v>0</v>
       </c>
       <c r="X186" t="n">
-        <v>0.337022929415665</v>
+        <v>0.4698776948728685</v>
       </c>
       <c r="Y186" t="n">
-        <v>0.337022929415665</v>
+        <v>0.4698776948728685</v>
       </c>
       <c r="Z186" t="n">
-        <v>0.005691688011284611</v>
+        <v>0.00521568249176799</v>
       </c>
       <c r="AA186" t="n">
         <v>0.00401</v>
@@ -16000,16 +16000,16 @@
         <v>0.08588497741583906</v>
       </c>
       <c r="X187" t="n">
-        <v>0.6065369919511305</v>
+        <v>0.2340887726426859</v>
       </c>
       <c r="Y187" t="n">
-        <v>0.6151254896927144</v>
+        <v>0.2426772703842698</v>
       </c>
       <c r="Z187" t="n">
-        <v>0.007652476294578666</v>
+        <v>0.01192825422732019</v>
       </c>
       <c r="AA187" t="n">
-        <v>0.007652476294578666</v>
+        <v>0.01106</v>
       </c>
     </row>
     <row r="188">
@@ -16083,13 +16083,13 @@
         <v>0.09968345765994258</v>
       </c>
       <c r="X188" t="n">
-        <v>0.3373112800419262</v>
+        <v>0.3119782992104341</v>
       </c>
       <c r="Y188" t="n">
-        <v>0.3472796258079205</v>
+        <v>0.3219466449764283</v>
       </c>
       <c r="Z188" t="n">
-        <v>0.01242977241580576</v>
+        <v>0.01286645573434081</v>
       </c>
       <c r="AA188" t="n">
         <v>0.01105999805862939</v>
@@ -16166,13 +16166,13 @@
         <v>0.003869464509886082</v>
       </c>
       <c r="X189" t="n">
-        <v>0.236971899905206</v>
+        <v>0.2531810343571046</v>
       </c>
       <c r="Y189" t="n">
-        <v>0.2373588463561946</v>
+        <v>0.2535679808080932</v>
       </c>
       <c r="Z189" t="n">
-        <v>0.01221647573453094</v>
+        <v>0.01219370333468307</v>
       </c>
       <c r="AA189" t="n">
         <v>0.01106</v>
@@ -16249,16 +16249,16 @@
         <v>0</v>
       </c>
       <c r="X190" t="n">
-        <v>0.4045648165490083</v>
+        <v>0.5318003996847362</v>
       </c>
       <c r="Y190" t="n">
-        <v>0.4045648165490083</v>
+        <v>0.5318003996847362</v>
       </c>
       <c r="Z190" t="n">
-        <v>0.01038260903934792</v>
+        <v>0.009131884574244836</v>
       </c>
       <c r="AA190" t="n">
-        <v>0.01038260903934792</v>
+        <v>0.009131884574244836</v>
       </c>
     </row>
     <row r="191">
@@ -16332,16 +16332,16 @@
         <v>0</v>
       </c>
       <c r="X191" t="n">
-        <v>0.3271636556030351</v>
+        <v>0.4026942492508194</v>
       </c>
       <c r="Y191" t="n">
-        <v>0.3271636556030351</v>
+        <v>0.4026942492508194</v>
       </c>
       <c r="Z191" t="n">
-        <v>0.011357018715344</v>
+        <v>0.01067815221118775</v>
       </c>
       <c r="AA191" t="n">
-        <v>0.01105997988939165</v>
+        <v>0.01067815221118775</v>
       </c>
     </row>
     <row r="192">
@@ -16415,13 +16415,13 @@
         <v>0</v>
       </c>
       <c r="X192" t="n">
-        <v>0.2658416141087274</v>
+        <v>0.2742324116554755</v>
       </c>
       <c r="Y192" t="n">
-        <v>0.2658416141087274</v>
+        <v>0.2742324116554755</v>
       </c>
       <c r="Z192" t="n">
-        <v>0.01177976298388637</v>
+        <v>0.01184346128754726</v>
       </c>
       <c r="AA192" t="n">
         <v>0.01105998217468806</v>
@@ -16498,13 +16498,13 @@
         <v>0.03006036008324459</v>
       </c>
       <c r="X193" t="n">
-        <v>0</v>
+        <v>0.07377581729290261</v>
       </c>
       <c r="Y193" t="n">
-        <v>0.01876358900284251</v>
+        <v>0.09253940629574511</v>
       </c>
       <c r="Z193" t="n">
-        <v>0.01478244688953794</v>
+        <v>0.01412298651444647</v>
       </c>
       <c r="AA193" t="n">
         <v>0.01106000776548243</v>
@@ -16581,16 +16581,16 @@
         <v>0</v>
       </c>
       <c r="X194" t="n">
-        <v>0.6089780155711026</v>
+        <v>0.9199400290166002</v>
       </c>
       <c r="Y194" t="n">
-        <v>0.637041863795446</v>
+        <v>0.9480038772409436</v>
       </c>
       <c r="Z194" t="n">
-        <v>0.007835001831923084</v>
+        <v>0.004552262590406009</v>
       </c>
       <c r="AA194" t="n">
-        <v>0.007835001831923084</v>
+        <v>0.004552262590406009</v>
       </c>
     </row>
     <row r="195">
@@ -16664,13 +16664,13 @@
         <v>0.008118497484501386</v>
       </c>
       <c r="X195" t="n">
-        <v>0.3478336590403477</v>
+        <v>0.5986345344287303</v>
       </c>
       <c r="Y195" t="n">
-        <v>0.3486455087887979</v>
+        <v>0.5994463841771804</v>
       </c>
       <c r="Z195" t="n">
-        <v>0.01635209176237649</v>
+        <v>0.01332059471030705</v>
       </c>
       <c r="AA195" t="n">
         <v>0.01281000516795866</v>
@@ -16747,13 +16747,13 @@
         <v>0.0176531628387088</v>
       </c>
       <c r="X196" t="n">
-        <v>0.4040957826977081</v>
+        <v>0.597510790285265</v>
       </c>
       <c r="Y196" t="n">
-        <v>0.405861098981579</v>
+        <v>0.5992761065691359</v>
       </c>
       <c r="Z196" t="n">
-        <v>0.01612381512744437</v>
+        <v>0.01382743226490469</v>
       </c>
       <c r="AA196" t="n">
         <v>0.01281</v>
@@ -16830,16 +16830,16 @@
         <v>0.006771675173053208</v>
       </c>
       <c r="X197" t="n">
-        <v>0.4476515779391745</v>
+        <v>0.7066147709121947</v>
       </c>
       <c r="Y197" t="n">
-        <v>0.4483287454564799</v>
+        <v>0.7072919384295</v>
       </c>
       <c r="Z197" t="n">
-        <v>0.01582583615504826</v>
+        <v>0.01268978103772079</v>
       </c>
       <c r="AA197" t="n">
-        <v>0.01281</v>
+        <v>0.01268978103772079</v>
       </c>
     </row>
     <row r="198">
@@ -16919,7 +16919,7 @@
         <v>0.02101897167086774</v>
       </c>
       <c r="Z198" t="n">
-        <v>0.04500263767471241</v>
+        <v>0.0454404432267253</v>
       </c>
       <c r="AA198" t="n">
         <v>0.03094</v>
@@ -16996,16 +16996,16 @@
         <v>0.01228379930525612</v>
       </c>
       <c r="X199" t="n">
-        <v>0.236698287449854</v>
+        <v>0.2307210248220224</v>
       </c>
       <c r="Y199" t="n">
-        <v>0.2379266673803796</v>
+        <v>0.231949404752548</v>
       </c>
       <c r="Z199" t="n">
-        <v>0.02929721827773119</v>
+        <v>0.0299199603354492</v>
       </c>
       <c r="AA199" t="n">
-        <v>0.02929721827773119</v>
+        <v>0.0299199603354492</v>
       </c>
     </row>
     <row r="200">
@@ -17079,16 +17079,16 @@
         <v>0.0400745940482245</v>
       </c>
       <c r="X200" t="n">
-        <v>0.2427333996794785</v>
+        <v>0.3182414177568147</v>
       </c>
       <c r="Y200" t="n">
-        <v>0.2467408590843009</v>
+        <v>0.3222488771616371</v>
       </c>
       <c r="Z200" t="n">
-        <v>0.03020365837019954</v>
+        <v>0.02830524584289966</v>
       </c>
       <c r="AA200" t="n">
-        <v>0.03020365837019954</v>
+        <v>0.02830524584289966</v>
       </c>
     </row>
     <row r="201">
@@ -17162,16 +17162,16 @@
         <v>0.04553666255596829</v>
       </c>
       <c r="X201" t="n">
-        <v>0.9778856276873078</v>
+        <v>0.009384223990373641</v>
       </c>
       <c r="Y201" t="n">
-        <v>0.9824392939429046</v>
+        <v>0.01393789024597047</v>
       </c>
       <c r="Z201" t="n">
-        <v>0.01232955442154531</v>
+        <v>0.04273275618229169</v>
       </c>
       <c r="AA201" t="n">
-        <v>0.01232955442154531</v>
+        <v>0.03093996212121212</v>
       </c>
     </row>
     <row r="202">
@@ -17245,16 +17245,16 @@
         <v>0.0300050259045643</v>
       </c>
       <c r="X202" t="n">
-        <v>0.6297361667710668</v>
+        <v>0.05669910484200535</v>
       </c>
       <c r="Y202" t="n">
-        <v>0.6327366693615233</v>
+        <v>0.05969960743246178</v>
       </c>
       <c r="Z202" t="n">
-        <v>0.01900818268918505</v>
+        <v>0.03717569562544381</v>
       </c>
       <c r="AA202" t="n">
-        <v>0.01900818268918505</v>
+        <v>0.03093989898989899</v>
       </c>
     </row>
     <row r="203">
@@ -17328,13 +17328,13 @@
         <v>0.0008162122846621291</v>
       </c>
       <c r="X203" t="n">
-        <v>0.2814101853192799</v>
+        <v>0.2990870280005815</v>
       </c>
       <c r="Y203" t="n">
-        <v>0.2814918065477461</v>
+        <v>0.2991686492290477</v>
       </c>
       <c r="Z203" t="n">
-        <v>0.03605634278348976</v>
+        <v>0.03598820702532041</v>
       </c>
       <c r="AA203" t="n">
         <v>0.01932</v>
@@ -17411,13 +17411,13 @@
         <v>0</v>
       </c>
       <c r="X204" t="n">
-        <v>0.2747628202187566</v>
+        <v>0.1696894452063604</v>
       </c>
       <c r="Y204" t="n">
-        <v>0.2747628202187566</v>
+        <v>0.1696894452063604</v>
       </c>
       <c r="Z204" t="n">
-        <v>0.02997280394222297</v>
+        <v>0.03227620238989586</v>
       </c>
       <c r="AA204" t="n">
         <v>0.01932</v>
@@ -17494,13 +17494,13 @@
         <v>0.0137874918677396</v>
       </c>
       <c r="X205" t="n">
-        <v>0.2381146144237136</v>
+        <v>0.2216243236298143</v>
       </c>
       <c r="Y205" t="n">
-        <v>0.2394933636104876</v>
+        <v>0.2230030728165883</v>
       </c>
       <c r="Z205" t="n">
-        <v>0.04655890215158704</v>
+        <v>0.04715087541215857</v>
       </c>
       <c r="AA205" t="n">
         <v>0.01932</v>
@@ -17583,7 +17583,7 @@
         <v>0.05572098056694506</v>
       </c>
       <c r="Z206" t="n">
-        <v>0.03189669228429597</v>
+        <v>0.03217007312672937</v>
       </c>
       <c r="AA206" t="n">
         <v>0.01932</v>
@@ -17660,13 +17660,13 @@
         <v>0</v>
       </c>
       <c r="X207" t="n">
-        <v>0.633477637089811</v>
+        <v>0.1278671591978378</v>
       </c>
       <c r="Y207" t="n">
-        <v>0.6601247987721164</v>
+        <v>0.1545143208801432</v>
       </c>
       <c r="Z207" t="n">
-        <v>0.02092961051657206</v>
+        <v>0.03097138579187838</v>
       </c>
       <c r="AA207" t="n">
         <v>0.01932</v>
@@ -17749,7 +17749,7 @@
         <v>0.1119957818327853</v>
       </c>
       <c r="Z208" t="n">
-        <v>0.04785446312383995</v>
+        <v>0.04812784396627334</v>
       </c>
       <c r="AA208" t="n">
         <v>0.01932</v>
@@ -17826,16 +17826,16 @@
         <v>0.03075949569158186</v>
       </c>
       <c r="X209" t="n">
-        <v>0.2473186584090534</v>
+        <v>0.3072775606813976</v>
       </c>
       <c r="Y209" t="n">
-        <v>0.2503946079782116</v>
+        <v>0.3103535102505557</v>
       </c>
       <c r="Z209" t="n">
-        <v>0.02026907191554646</v>
+        <v>0.01934052844868712</v>
       </c>
       <c r="AA209" t="n">
-        <v>0.02026907191554646</v>
+        <v>0.01934052844868712</v>
       </c>
     </row>
     <row r="210">
@@ -17909,13 +17909,13 @@
         <v>0.01630004469285537</v>
       </c>
       <c r="X210" t="n">
-        <v>0.2365862323488959</v>
+        <v>0.2728124756847545</v>
       </c>
       <c r="Y210" t="n">
-        <v>0.2382162368181814</v>
+        <v>0.27444248015404</v>
       </c>
       <c r="Z210" t="n">
-        <v>0.03191554495270906</v>
+        <v>0.03146806248249229</v>
       </c>
       <c r="AA210" t="n">
         <v>0.02027</v>
@@ -17992,16 +17992,16 @@
         <v>0.0209206053859893</v>
       </c>
       <c r="X211" t="n">
-        <v>0.2360324821411481</v>
+        <v>0.2888194129477983</v>
       </c>
       <c r="Y211" t="n">
-        <v>0.2381245426797471</v>
+        <v>0.2909114734863973</v>
       </c>
       <c r="Z211" t="n">
-        <v>0.01923520882242738</v>
+        <v>0.0184520412703927</v>
       </c>
       <c r="AA211" t="n">
-        <v>0.01923520882242738</v>
+        <v>0.0184520412703927</v>
       </c>
     </row>
     <row r="212">
@@ -18075,16 +18075,16 @@
         <v>0.03836940696974066</v>
       </c>
       <c r="X212" t="n">
-        <v>0.2293117637014432</v>
+        <v>0.1874717486328323</v>
       </c>
       <c r="Y212" t="n">
-        <v>0.2331487043984173</v>
+        <v>0.1913086893298064</v>
       </c>
       <c r="Z212" t="n">
-        <v>0.01844219900855493</v>
+        <v>0.01957711959619676</v>
       </c>
       <c r="AA212" t="n">
-        <v>0.01844219900855493</v>
+        <v>0.01957711959619676</v>
       </c>
     </row>
     <row r="213">
@@ -18164,7 +18164,7 @@
         <v>0</v>
       </c>
       <c r="Z213" t="n">
-        <v>0.03239161114993667</v>
+        <v>0.03267843463213774</v>
       </c>
       <c r="AA213" t="n">
         <v>0.02027</v>
@@ -18241,16 +18241,16 @@
         <v>0</v>
       </c>
       <c r="X214" t="n">
-        <v>0.2376575061152864</v>
+        <v>0.2318414543367178</v>
       </c>
       <c r="Y214" t="n">
-        <v>0.2376575061152864</v>
+        <v>0.2318414543367178</v>
       </c>
       <c r="Z214" t="n">
-        <v>0.01806978716390549</v>
+        <v>0.01847450152021898</v>
       </c>
       <c r="AA214" t="n">
-        <v>0.01806978716390549</v>
+        <v>0.01847450152021898</v>
       </c>
     </row>
     <row r="215">
@@ -18324,16 +18324,16 @@
         <v>0</v>
       </c>
       <c r="X215" t="n">
-        <v>0.2501776385551902</v>
+        <v>0.3129666535172226</v>
       </c>
       <c r="Y215" t="n">
-        <v>0.2501776385551902</v>
+        <v>0.3129666535172226</v>
       </c>
       <c r="Z215" t="n">
-        <v>0.01852891319420074</v>
+        <v>0.01754300334312142</v>
       </c>
       <c r="AA215" t="n">
-        <v>0.01852891319420074</v>
+        <v>0.01754300334312142</v>
       </c>
     </row>
     <row r="216">
@@ -18407,13 +18407,13 @@
         <v>0.01622719471482292</v>
       </c>
       <c r="X216" t="n">
-        <v>0.195763186507306</v>
+        <v>0.688289463300834</v>
       </c>
       <c r="Y216" t="n">
-        <v>0.2395115357567218</v>
+        <v>0.7320378125502498</v>
       </c>
       <c r="Z216" t="n">
-        <v>0.03093524116630177</v>
+        <v>0.02123855701789803</v>
       </c>
       <c r="AA216" t="n">
         <v>0.02027</v>
@@ -18490,13 +18490,13 @@
         <v>0</v>
       </c>
       <c r="X217" t="n">
-        <v>0.8010317957192759</v>
+        <v>0.284617313572423</v>
       </c>
       <c r="Y217" t="n">
-        <v>0.8255535223402767</v>
+        <v>0.3091390401934239</v>
       </c>
       <c r="Z217" t="n">
-        <v>0.04368290066169843</v>
+        <v>0.06405658242569463</v>
       </c>
       <c r="AA217" t="n">
         <v>0.0384</v>
@@ -18573,13 +18573,13 @@
         <v>0.01983923011359855</v>
       </c>
       <c r="X218" t="n">
-        <v>0.2436659546311286</v>
+        <v>0.3328210248772663</v>
       </c>
       <c r="Y218" t="n">
-        <v>0.2456498776424885</v>
+        <v>0.3348049478886261</v>
       </c>
       <c r="Z218" t="n">
-        <v>0.04172793240804269</v>
+        <v>0.03884774336014805</v>
       </c>
       <c r="AA218" t="n">
         <v>0.0384</v>
@@ -18656,13 +18656,13 @@
         <v>0.05746529868928577</v>
       </c>
       <c r="X219" t="n">
-        <v>0.235740643856122</v>
+        <v>0.2370260436756735</v>
       </c>
       <c r="Y219" t="n">
-        <v>0.2414871737250506</v>
+        <v>0.242772573544602</v>
       </c>
       <c r="Z219" t="n">
-        <v>0.04542600789925772</v>
+        <v>0.04592001419574399</v>
       </c>
       <c r="AA219" t="n">
         <v>0.0384</v>
@@ -18739,16 +18739,16 @@
         <v>0.08209623837820343</v>
       </c>
       <c r="X220" t="n">
-        <v>0.2868016557491229</v>
+        <v>0.2369941722451938</v>
       </c>
       <c r="Y220" t="n">
-        <v>0.2950112795869432</v>
+        <v>0.2452037960830142</v>
       </c>
       <c r="Z220" t="n">
-        <v>0.03830226694011337</v>
+        <v>0.0407582399562213</v>
       </c>
       <c r="AA220" t="n">
-        <v>0.03830226694011337</v>
+        <v>0.0384</v>
       </c>
     </row>
     <row r="221">
@@ -18822,13 +18822,13 @@
         <v>0.04544036949985286</v>
       </c>
       <c r="X221" t="n">
-        <v>0.2429632476425889</v>
+        <v>0.2866318429501691</v>
       </c>
       <c r="Y221" t="n">
-        <v>0.2475072845925742</v>
+        <v>0.2911758799001544</v>
       </c>
       <c r="Z221" t="n">
-        <v>0.04347746512401653</v>
+        <v>0.04234395671376251</v>
       </c>
       <c r="AA221" t="n">
         <v>0.0384</v>
@@ -18905,13 +18905,13 @@
         <v>0.06883529750982992</v>
       </c>
       <c r="X222" t="n">
-        <v>0.4049539717640833</v>
+        <v>0.4345736688355245</v>
       </c>
       <c r="Y222" t="n">
-        <v>0.4118375015150663</v>
+        <v>0.4414571985865075</v>
       </c>
       <c r="Z222" t="n">
-        <v>0.04359718479419283</v>
+        <v>0.04300315407620654</v>
       </c>
       <c r="AA222" t="n">
         <v>0.0384</v>
@@ -18988,13 +18988,13 @@
         <v>0.0129266897363894</v>
       </c>
       <c r="X223" t="n">
-        <v>0.2350970020563405</v>
+        <v>0.1923274248092399</v>
       </c>
       <c r="Y223" t="n">
-        <v>0.2363896710299795</v>
+        <v>0.1936200937828789</v>
       </c>
       <c r="Z223" t="n">
-        <v>0.03717332704230041</v>
+        <v>0.03854680138646349</v>
       </c>
       <c r="AA223" t="n">
         <v>0.02413002450980392</v>
@@ -19071,13 +19071,13 @@
         <v>0.01182798124104112</v>
       </c>
       <c r="X224" t="n">
-        <v>0.4004262031515666</v>
+        <v>0.6797481749037811</v>
       </c>
       <c r="Y224" t="n">
-        <v>0.4016090012756707</v>
+        <v>0.6809309730278853</v>
       </c>
       <c r="Z224" t="n">
-        <v>0.03324135968421853</v>
+        <v>0.02684276355593686</v>
       </c>
       <c r="AA224" t="n">
         <v>0.02413</v>
@@ -19154,13 +19154,13 @@
         <v>0.01956401155985898</v>
       </c>
       <c r="X225" t="n">
-        <v>0.3217527217871821</v>
+        <v>0.5768110186079435</v>
       </c>
       <c r="Y225" t="n">
-        <v>0.3237091229431679</v>
+        <v>0.5787674197639294</v>
       </c>
       <c r="Z225" t="n">
-        <v>0.0300342904210291</v>
+        <v>0.02422117676884338</v>
       </c>
       <c r="AA225" t="n">
         <v>0.02413</v>
@@ -19237,13 +19237,13 @@
         <v>0.01984590586191972</v>
       </c>
       <c r="X226" t="n">
-        <v>0.2918691114292069</v>
+        <v>0.3887468863205992</v>
       </c>
       <c r="Y226" t="n">
-        <v>0.2938537020153989</v>
+        <v>0.3907314769067912</v>
       </c>
       <c r="Z226" t="n">
-        <v>0.03435005234666828</v>
+        <v>0.03235383468863824</v>
       </c>
       <c r="AA226" t="n">
         <v>0.02413</v>
@@ -19320,13 +19320,13 @@
         <v>0.01910597944720586</v>
       </c>
       <c r="X227" t="n">
-        <v>0.3684123083190478</v>
+        <v>0.5268973838102566</v>
       </c>
       <c r="Y227" t="n">
-        <v>0.3703229062637684</v>
+        <v>0.5288079817549772</v>
       </c>
       <c r="Z227" t="n">
-        <v>0.03319777645387825</v>
+        <v>0.02971497463237464</v>
       </c>
       <c r="AA227" t="n">
         <v>0.02413</v>
@@ -19403,13 +19403,13 @@
         <v>0</v>
       </c>
       <c r="X228" t="n">
-        <v>0.2532285524385105</v>
+        <v>0.3418166723872342</v>
       </c>
       <c r="Y228" t="n">
-        <v>0.2532285524385105</v>
+        <v>0.3418166723872342</v>
       </c>
       <c r="Z228" t="n">
-        <v>0.03424599006281121</v>
+        <v>0.03244980177854777</v>
       </c>
       <c r="AA228" t="n">
         <v>0.02413</v>
@@ -19486,13 +19486,13 @@
         <v>0.03157866941779767</v>
       </c>
       <c r="X229" t="n">
-        <v>0.2363238704056883</v>
+        <v>0.2926718614831936</v>
       </c>
       <c r="Y229" t="n">
-        <v>0.239481737347468</v>
+        <v>0.2958297284249733</v>
       </c>
       <c r="Z229" t="n">
-        <v>0.03466624041047754</v>
+        <v>0.03364800624345596</v>
       </c>
       <c r="AA229" t="n">
         <v>0.02413000455996352</v>
@@ -19569,13 +19569,13 @@
         <v>0.009709054774236581</v>
       </c>
       <c r="X230" t="n">
-        <v>0.2359806172801624</v>
+        <v>0.2899093308797147</v>
       </c>
       <c r="Y230" t="n">
-        <v>0.236951522757586</v>
+        <v>0.2908802363571384</v>
       </c>
       <c r="Z230" t="n">
-        <v>0.02926432098498633</v>
+        <v>0.02830446417592839</v>
       </c>
       <c r="AA230" t="n">
         <v>0.02413</v>
@@ -19652,13 +19652,13 @@
         <v>0.02755195587859838</v>
       </c>
       <c r="X231" t="n">
-        <v>0.2369315105666077</v>
+        <v>0.2129043002506326</v>
       </c>
       <c r="Y231" t="n">
-        <v>0.2396867061544675</v>
+        <v>0.2156594958384924</v>
       </c>
       <c r="Z231" t="n">
-        <v>0.03193294400072584</v>
+        <v>0.03285416363574958</v>
       </c>
       <c r="AA231" t="n">
         <v>0.02413</v>
@@ -19735,13 +19735,13 @@
         <v>0.02718477098795822</v>
       </c>
       <c r="X232" t="n">
-        <v>0.3357652346630418</v>
+        <v>0.6015713805093114</v>
       </c>
       <c r="Y232" t="n">
-        <v>0.3384837117618376</v>
+        <v>0.6042898576081072</v>
       </c>
       <c r="Z232" t="n">
-        <v>0.03218576415557282</v>
+        <v>0.0261133049064016</v>
       </c>
       <c r="AA232" t="n">
         <v>0.02413</v>
@@ -19818,16 +19818,16 @@
         <v>0.008060497488640992</v>
       </c>
       <c r="X233" t="n">
-        <v>0.4287402545602756</v>
+        <v>0.8576244982002628</v>
       </c>
       <c r="Y233" t="n">
-        <v>0.4295463043091398</v>
+        <v>0.8584305479491269</v>
       </c>
       <c r="Z233" t="n">
-        <v>0.02858733955166814</v>
+        <v>0.01857980580273451</v>
       </c>
       <c r="AA233" t="n">
-        <v>0.02413</v>
+        <v>0.01857980580273451</v>
       </c>
     </row>
     <row r="234">
@@ -19901,13 +19901,13 @@
         <v>0.006627495322040518</v>
       </c>
       <c r="X234" t="n">
-        <v>0.377672717370231</v>
+        <v>0.4899020471954691</v>
       </c>
       <c r="Y234" t="n">
-        <v>0.3783354669024351</v>
+        <v>0.4905647967276732</v>
       </c>
       <c r="Z234" t="n">
-        <v>0.02968279354307151</v>
+        <v>0.02731614286448777</v>
       </c>
       <c r="AA234" t="n">
         <v>0.02413</v>
@@ -19984,13 +19984,13 @@
         <v>0.0154492559894703</v>
       </c>
       <c r="X235" t="n">
-        <v>0.4000467233769358</v>
+        <v>0.5413410061606625</v>
       </c>
       <c r="Y235" t="n">
-        <v>0.4015916489758828</v>
+        <v>0.5428859317596095</v>
       </c>
       <c r="Z235" t="n">
-        <v>0.03163820365752678</v>
+        <v>0.02857021566405472</v>
       </c>
       <c r="AA235" t="n">
         <v>0.02413</v>
@@ -20067,13 +20067,13 @@
         <v>0.01137132208308099</v>
       </c>
       <c r="X236" t="n">
-        <v>0.2377064458431144</v>
+        <v>0.2824075610591803</v>
       </c>
       <c r="Y236" t="n">
-        <v>0.2388435780514225</v>
+        <v>0.2835446932674884</v>
       </c>
       <c r="Z236" t="n">
-        <v>0.03593251132540594</v>
+        <v>0.03519531646534153</v>
       </c>
       <c r="AA236" t="n">
         <v>0.02413</v>
@@ -20150,13 +20150,13 @@
         <v>0.04799794175684515</v>
       </c>
       <c r="X237" t="n">
-        <v>0.253757889034905</v>
+        <v>0.3256637214773539</v>
       </c>
       <c r="Y237" t="n">
-        <v>0.2585576832105895</v>
+        <v>0.3304635156530384</v>
       </c>
       <c r="Z237" t="n">
-        <v>0.03690169662634217</v>
+        <v>0.03550805193960514</v>
       </c>
       <c r="AA237" t="n">
         <v>0.02413</v>
@@ -20239,10 +20239,10 @@
         <v>0</v>
       </c>
       <c r="Z238" t="n">
-        <v>0.005499446491497926</v>
+        <v>0.005840888154327861</v>
       </c>
       <c r="AA238" t="n">
-        <v>0.005499446491497926</v>
+        <v>0.005840888154327861</v>
       </c>
     </row>
     <row r="239">
@@ -20316,13 +20316,13 @@
         <v>0.06923073596923322</v>
       </c>
       <c r="X239" t="n">
-        <v>0.23010616236396</v>
+        <v>0.2026739960191308</v>
       </c>
       <c r="Y239" t="n">
-        <v>0.2370292359608833</v>
+        <v>0.2095970696160541</v>
       </c>
       <c r="Z239" t="n">
-        <v>0.03387470747024229</v>
+        <v>0.03487808869424228</v>
       </c>
       <c r="AA239" t="n">
         <v>0.02413</v>
@@ -20399,13 +20399,13 @@
         <v>0.07285453839658018</v>
       </c>
       <c r="X240" t="n">
-        <v>0.4467252670217647</v>
+        <v>0.5625689936791304</v>
       </c>
       <c r="Y240" t="n">
-        <v>0.4540107208614227</v>
+        <v>0.5698544475187884</v>
       </c>
       <c r="Z240" t="n">
-        <v>0.006558972304198049</v>
+        <v>0.005978305245499904</v>
       </c>
       <c r="AA240" t="n">
         <v>0.005709967741935483</v>
@@ -20482,13 +20482,13 @@
         <v>0.05031946637876035</v>
       </c>
       <c r="X241" t="n">
-        <v>0.3082616701492158</v>
+        <v>0.3193631221287294</v>
       </c>
       <c r="Y241" t="n">
-        <v>0.3132936167870918</v>
+        <v>0.3243950687666055</v>
       </c>
       <c r="Z241" t="n">
-        <v>0.007227809690013236</v>
+        <v>0.007247883181607248</v>
       </c>
       <c r="AA241" t="n">
         <v>0.00658428955453149</v>
@@ -20565,16 +20565,16 @@
         <v>0.1138540579858829</v>
       </c>
       <c r="X242" t="n">
-        <v>0.386095750802506</v>
+        <v>0.5533066460389102</v>
       </c>
       <c r="Y242" t="n">
-        <v>0.3974811566010943</v>
+        <v>0.5646920518374985</v>
       </c>
       <c r="Z242" t="n">
-        <v>0.006602505745158789</v>
+        <v>0.005693106719746024</v>
       </c>
       <c r="AA242" t="n">
-        <v>0.00594142545771578</v>
+        <v>0.005693106719746024</v>
       </c>
     </row>
     <row r="243">
@@ -20648,16 +20648,16 @@
         <v>0.1180520547078336</v>
       </c>
       <c r="X243" t="n">
-        <v>0.3779024528282198</v>
+        <v>0.391970405294533</v>
       </c>
       <c r="Y243" t="n">
-        <v>0.3897076582990031</v>
+        <v>0.4037756107653163</v>
       </c>
       <c r="Z243" t="n">
-        <v>0.006529558582927096</v>
+        <v>0.006530102376815826</v>
       </c>
       <c r="AA243" t="n">
-        <v>0.006529558582927096</v>
+        <v>0.006530102376815826</v>
       </c>
     </row>
     <row r="244">
@@ -20731,16 +20731,16 @@
         <v>0.08358822569870794</v>
       </c>
       <c r="X244" t="n">
-        <v>0.4575740796300563</v>
+        <v>0.8713250912680907</v>
       </c>
       <c r="Y244" t="n">
-        <v>0.4659329021999271</v>
+        <v>0.8796839138379614</v>
       </c>
       <c r="Z244" t="n">
-        <v>0.006106037231964905</v>
+        <v>0.003262155221320488</v>
       </c>
       <c r="AA244" t="n">
-        <v>0.006106037231964905</v>
+        <v>0.003262155221320488</v>
       </c>
     </row>
     <row r="245">
@@ -20814,13 +20814,13 @@
         <v>0.0147408398527834</v>
       </c>
       <c r="X245" t="n">
-        <v>0.2709620597010116</v>
+        <v>0.2564539328006612</v>
       </c>
       <c r="Y245" t="n">
-        <v>0.2724361436862899</v>
+        <v>0.2579280167859395</v>
       </c>
       <c r="Z245" t="n">
-        <v>0.008759326837952032</v>
+        <v>0.008965093245446018</v>
       </c>
       <c r="AA245" t="n">
         <v>0.00718</v>
@@ -20897,13 +20897,13 @@
         <v>0.01156013920450228</v>
       </c>
       <c r="X246" t="n">
-        <v>0.3104201934092419</v>
+        <v>0.3371782318809748</v>
       </c>
       <c r="Y246" t="n">
-        <v>0.3115762073296921</v>
+        <v>0.3383342458014251</v>
       </c>
       <c r="Z246" t="n">
-        <v>0.007939201602778577</v>
+        <v>0.007848676942901003</v>
       </c>
       <c r="AA246" t="n">
         <v>0.00718</v>
@@ -20980,16 +20980,16 @@
         <v>0.01061900592295095</v>
       </c>
       <c r="X247" t="n">
-        <v>0.3561112233505954</v>
+        <v>0.9113813175708854</v>
       </c>
       <c r="Y247" t="n">
-        <v>0.3571731239428905</v>
+        <v>0.9124432181631804</v>
       </c>
       <c r="Z247" t="n">
-        <v>0.009121890929465738</v>
+        <v>0.005236649709313525</v>
       </c>
       <c r="AA247" t="n">
-        <v>0.00718</v>
+        <v>0.005236649709313525</v>
       </c>
     </row>
     <row r="248">
@@ -21063,16 +21063,16 @@
         <v>0.03568694705971255</v>
       </c>
       <c r="X248" t="n">
-        <v>0.801170964554502</v>
+        <v>0.0135162912091753</v>
       </c>
       <c r="Y248" t="n">
-        <v>0.8464646123061244</v>
+        <v>0.05880993896079768</v>
       </c>
       <c r="Z248" t="n">
-        <v>0.00565127804301772</v>
+        <v>0.01140823665398663</v>
       </c>
       <c r="AA248" t="n">
-        <v>0.00565127804301772</v>
+        <v>0.00718</v>
       </c>
     </row>
     <row r="249">
@@ -21146,13 +21146,13 @@
         <v>0.0002076275991211782</v>
       </c>
       <c r="X249" t="n">
-        <v>0.3553576640471632</v>
+        <v>0.8979019972210662</v>
       </c>
       <c r="Y249" t="n">
-        <v>0.3553784268070753</v>
+        <v>0.8979227599809784</v>
       </c>
       <c r="Z249" t="n">
-        <v>0.01276460620429546</v>
+        <v>0.008970735948456307</v>
       </c>
       <c r="AA249" t="n">
         <v>0.00718</v>
@@ -21229,13 +21229,13 @@
         <v>0.005621670750041254</v>
       </c>
       <c r="X250" t="n">
-        <v>0.2555963352244226</v>
+        <v>0.2967718872905531</v>
       </c>
       <c r="Y250" t="n">
-        <v>0.2561585022994267</v>
+        <v>0.2973340543655573</v>
       </c>
       <c r="Z250" t="n">
-        <v>0.01070294241166547</v>
+        <v>0.01047117908434947</v>
       </c>
       <c r="AA250" t="n">
         <v>0.008575757803121248</v>
@@ -21312,16 +21312,16 @@
         <v>0.004947568490472554</v>
       </c>
       <c r="X251" t="n">
-        <v>0.4190833774611233</v>
+        <v>0.6704301584983235</v>
       </c>
       <c r="Y251" t="n">
-        <v>0.4195781343101706</v>
+        <v>0.6709249153473708</v>
       </c>
       <c r="Z251" t="n">
-        <v>0.008541311753507126</v>
+        <v>0.006574081423962073</v>
       </c>
       <c r="AA251" t="n">
-        <v>0.008293668831168831</v>
+        <v>0.006574081423962073</v>
       </c>
     </row>
     <row r="252">
@@ -21395,13 +21395,13 @@
         <v>0.07623491157670823</v>
       </c>
       <c r="X252" t="n">
-        <v>0.2508148675630495</v>
+        <v>0.2437668087268396</v>
       </c>
       <c r="Y252" t="n">
-        <v>0.2584383587207203</v>
+        <v>0.2513902998845104</v>
       </c>
       <c r="Z252" t="n">
-        <v>0.01043959079918066</v>
+        <v>0.01062131241977354</v>
       </c>
       <c r="AA252" t="n">
         <v>0.0085725</v>
@@ -21478,16 +21478,16 @@
         <v>0.08565046117314062</v>
       </c>
       <c r="X253" t="n">
-        <v>0.8700941895689358</v>
+        <v>0.1188965838798468</v>
       </c>
       <c r="Y253" t="n">
-        <v>0.8786592356862498</v>
+        <v>0.1274616299971609</v>
       </c>
       <c r="Z253" t="n">
-        <v>0.005405005798827953</v>
+        <v>0.01165598356992789</v>
       </c>
       <c r="AA253" t="n">
-        <v>0.005405005798827953</v>
+        <v>0.008167499999999999</v>
       </c>
     </row>
     <row r="254">
@@ -21561,16 +21561,16 @@
         <v>0.05313070803626949</v>
       </c>
       <c r="X254" t="n">
-        <v>0.3569049469823835</v>
+        <v>0.9105770101513055</v>
       </c>
       <c r="Y254" t="n">
-        <v>0.3622180177860105</v>
+        <v>0.9158900809549325</v>
       </c>
       <c r="Z254" t="n">
-        <v>0.02863907652723277</v>
+        <v>0.01374466515904997</v>
       </c>
       <c r="AA254" t="n">
-        <v>0.02760668459469843</v>
+        <v>0.01374466515904997</v>
       </c>
     </row>
     <row r="255">
@@ -21644,16 +21644,16 @@
         <v>0.007473612160846454</v>
       </c>
       <c r="X255" t="n">
-        <v>0.6975050329869235</v>
+        <v>0</v>
       </c>
       <c r="Y255" t="n">
-        <v>0.7265793139019341</v>
+        <v>0.02907428091501068</v>
       </c>
       <c r="Z255" t="n">
-        <v>0.01765746213448292</v>
+        <v>0.03343023439426416</v>
       </c>
       <c r="AA255" t="n">
-        <v>0.01765746213448292</v>
+        <v>0.0221635037593985</v>
       </c>
     </row>
     <row r="256">
@@ -21733,7 +21733,7 @@
         <v>0</v>
       </c>
       <c r="Z256" t="n">
-        <v>0.005379027233142463</v>
+        <v>0.005424590360064031</v>
       </c>
       <c r="AA256" t="n">
         <v>0.003219975490196079</v>
@@ -21816,7 +21816,7 @@
         <v>0.001504822615457045</v>
       </c>
       <c r="Z257" t="n">
-        <v>0.005201533363162439</v>
+        <v>0.005247097357127335</v>
       </c>
       <c r="AA257" t="n">
         <v>0.003220036764705882</v>
@@ -21893,13 +21893,13 @@
         <v>0.07284821584684487</v>
       </c>
       <c r="X258" t="n">
-        <v>0.2791446696887605</v>
+        <v>0.3429441561118758</v>
       </c>
       <c r="Y258" t="n">
-        <v>0.286429491273445</v>
+        <v>0.3502289776965603</v>
       </c>
       <c r="Z258" t="n">
-        <v>0.005438250971619607</v>
+        <v>0.00528284856180563</v>
       </c>
       <c r="AA258" t="n">
         <v>0.003129999553012695</v>
@@ -21976,13 +21976,13 @@
         <v>0.02617570316672336</v>
       </c>
       <c r="X259" t="n">
-        <v>0</v>
+        <v>0.5420360583165587</v>
       </c>
       <c r="Y259" t="n">
-        <v>0.002617570316672336</v>
+        <v>0.544653628633231</v>
       </c>
       <c r="Z259" t="n">
-        <v>0.005408350614385421</v>
+        <v>0.003756067782669625</v>
       </c>
       <c r="AA259" t="n">
         <v>0.003129999866794544</v>
@@ -22059,13 +22059,13 @@
         <v>0.04905119545724981</v>
       </c>
       <c r="X260" t="n">
-        <v>0.3221626904497243</v>
+        <v>0.3801332710239784</v>
       </c>
       <c r="Y260" t="n">
-        <v>0.3270678099954493</v>
+        <v>0.3850383905697034</v>
       </c>
       <c r="Z260" t="n">
-        <v>0.004603753771250213</v>
+        <v>0.004466595814550547</v>
       </c>
       <c r="AA260" t="n">
         <v>0.00313</v>
@@ -22142,13 +22142,13 @@
         <v>0.08173107828985923</v>
       </c>
       <c r="X261" t="n">
-        <v>0.2366119960217066</v>
+        <v>0.200837691680626</v>
       </c>
       <c r="Y261" t="n">
-        <v>0.2447851038506925</v>
+        <v>0.209010799509612</v>
       </c>
       <c r="Z261" t="n">
-        <v>0.004647180994424478</v>
+        <v>0.00480344452750981</v>
       </c>
       <c r="AA261" t="n">
         <v>0.00313</v>
@@ -22225,13 +22225,13 @@
         <v>0.2135519705250888</v>
       </c>
       <c r="X262" t="n">
-        <v>0.2844065342186999</v>
+        <v>0.3244630609483314</v>
       </c>
       <c r="Y262" t="n">
-        <v>0.3057617312712088</v>
+        <v>0.3458182580008403</v>
       </c>
       <c r="Z262" t="n">
-        <v>0.004479291191164886</v>
+        <v>0.004398204225527771</v>
       </c>
       <c r="AA262" t="n">
         <v>0.003129999902383788</v>
@@ -22308,13 +22308,13 @@
         <v>0.02778682761380255</v>
       </c>
       <c r="X263" t="n">
-        <v>0.3043075651509424</v>
+        <v>0.4582729245781295</v>
       </c>
       <c r="Y263" t="n">
-        <v>0.3070862479123226</v>
+        <v>0.4610516073395098</v>
       </c>
       <c r="Z263" t="n">
-        <v>0.004755226894975906</v>
+        <v>0.004278456898634368</v>
       </c>
       <c r="AA263" t="n">
         <v>0.00341000087535014</v>
@@ -22391,13 +22391,13 @@
         <v>0.01353565912806907</v>
       </c>
       <c r="X264" t="n">
-        <v>0.24180095723295</v>
+        <v>0.297540711184199</v>
       </c>
       <c r="Y264" t="n">
-        <v>0.2431545231457569</v>
+        <v>0.2988942770970059</v>
       </c>
       <c r="Z264" t="n">
-        <v>0.004484793457561025</v>
+        <v>0.004342972903378592</v>
       </c>
       <c r="AA264" t="n">
         <v>0.003409999877399897</v>
@@ -22474,13 +22474,13 @@
         <v>0.02022331453846418</v>
       </c>
       <c r="X265" t="n">
-        <v>0.356791316809725</v>
+        <v>0.5444993374354555</v>
       </c>
       <c r="Y265" t="n">
-        <v>0.3588136482635714</v>
+        <v>0.546521668889302</v>
       </c>
       <c r="Z265" t="n">
-        <v>0.004488766515494779</v>
+        <v>0.003896934166853474</v>
       </c>
       <c r="AA265" t="n">
         <v>0.00341</v>
@@ -22557,13 +22557,13 @@
         <v>0</v>
       </c>
       <c r="X266" t="n">
-        <v>0.331483514751123</v>
+        <v>0.5923262009463095</v>
       </c>
       <c r="Y266" t="n">
-        <v>0.331483514751123</v>
+        <v>0.5923262009463095</v>
       </c>
       <c r="Z266" t="n">
-        <v>0.004427706343068895</v>
+        <v>0.003586484784835746</v>
       </c>
       <c r="AA266" t="n">
         <v>0.00341</v>
@@ -22640,16 +22640,16 @@
         <v>0.02804682393698902</v>
       </c>
       <c r="X267" t="n">
-        <v>0.4456860009624251</v>
+        <v>0.9345149191653408</v>
       </c>
       <c r="Y267" t="n">
-        <v>0.448490683356124</v>
+        <v>0.9373196015590397</v>
       </c>
       <c r="Z267" t="n">
-        <v>0.003696402035000211</v>
+        <v>0.002077747425620705</v>
       </c>
       <c r="AA267" t="n">
-        <v>0.00341</v>
+        <v>0.002077747425620705</v>
       </c>
     </row>
     <row r="268">
@@ -22723,13 +22723,13 @@
         <v>0.008028347740755462</v>
       </c>
       <c r="X268" t="n">
-        <v>0.2482823772793432</v>
+        <v>0.2937963705409903</v>
       </c>
       <c r="Y268" t="n">
-        <v>0.2490852120534188</v>
+        <v>0.2945992053150658</v>
       </c>
       <c r="Z268" t="n">
-        <v>0.004220187777679278</v>
+        <v>0.004113237070240567</v>
       </c>
       <c r="AA268" t="n">
         <v>0.003409999748402355</v>
@@ -22806,13 +22806,13 @@
         <v>0.04132011282990955</v>
       </c>
       <c r="X269" t="n">
-        <v>0.3881895836177018</v>
+        <v>0.4920062415309641</v>
       </c>
       <c r="Y269" t="n">
-        <v>0.3923215949006928</v>
+        <v>0.496138252813955</v>
       </c>
       <c r="Z269" t="n">
-        <v>0.004517761137505185</v>
+        <v>0.004211999934046922</v>
       </c>
       <c r="AA269" t="n">
         <v>0.003409982174688057</v>
@@ -22889,13 +22889,13 @@
         <v>0.02656486201635791</v>
       </c>
       <c r="X270" t="n">
-        <v>0.017854112752689</v>
+        <v>0</v>
       </c>
       <c r="Y270" t="n">
-        <v>0.0578242477083379</v>
+        <v>0.0399701349556489</v>
       </c>
       <c r="Z270" t="n">
-        <v>0.005519995396869056</v>
+        <v>0.005629129810988428</v>
       </c>
       <c r="AA270" t="n">
         <v>0.00340999649859944</v>
@@ -22972,13 +22972,13 @@
         <v>0.01534360342318041</v>
       </c>
       <c r="X271" t="n">
-        <v>0.3858102128042811</v>
+        <v>0.400998689149312</v>
       </c>
       <c r="Y271" t="n">
-        <v>0.3873445731465991</v>
+        <v>0.40253304949163</v>
       </c>
       <c r="Z271" t="n">
-        <v>0.004590582324908861</v>
+        <v>0.004587041622264742</v>
       </c>
       <c r="AA271" t="n">
         <v>0.00341</v>
@@ -23055,13 +23055,13 @@
         <v>0.003767913791295647</v>
       </c>
       <c r="X272" t="n">
-        <v>0.3312208152925513</v>
+        <v>0.5548164169483428</v>
       </c>
       <c r="Y272" t="n">
-        <v>0.3315976066716809</v>
+        <v>0.5551932083274724</v>
       </c>
       <c r="Z272" t="n">
-        <v>0.004547383670275258</v>
+        <v>0.003833174670321444</v>
       </c>
       <c r="AA272" t="n">
         <v>0.00341</v>
@@ -23138,13 +23138,13 @@
         <v>0</v>
       </c>
       <c r="X273" t="n">
-        <v>0.2831728030569443</v>
+        <v>0.3523803092863107</v>
       </c>
       <c r="Y273" t="n">
-        <v>0.2831728030569443</v>
+        <v>0.3523803092863107</v>
       </c>
       <c r="Z273" t="n">
-        <v>0.004166167102648458</v>
+        <v>0.003978421478440622</v>
       </c>
       <c r="AA273" t="n">
         <v>0.003410000538677009</v>
@@ -23221,13 +23221,13 @@
         <v>0.02143780749561205</v>
       </c>
       <c r="X274" t="n">
-        <v>0.2932773380343223</v>
+        <v>0.3499214496724403</v>
       </c>
       <c r="Y274" t="n">
-        <v>0.2954211187838836</v>
+        <v>0.3520652304220016</v>
       </c>
       <c r="Z274" t="n">
-        <v>0.004014265675618707</v>
+        <v>0.003869361216758415</v>
       </c>
       <c r="AA274" t="n">
         <v>0.003410000938174313</v>
@@ -23304,13 +23304,13 @@
         <v>0</v>
       </c>
       <c r="X275" t="n">
-        <v>0.2993723029885551</v>
+        <v>0.4048796094959355</v>
       </c>
       <c r="Y275" t="n">
-        <v>0.2993723029885551</v>
+        <v>0.4048796094959355</v>
       </c>
       <c r="Z275" t="n">
-        <v>0.004625749106372349</v>
+        <v>0.004314221192874618</v>
       </c>
       <c r="AA275" t="n">
         <v>0.00341</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="X276" t="n">
-        <v>0.2347872754570051</v>
+        <v>0.2261323887377922</v>
       </c>
       <c r="Y276" t="n">
-        <v>0.2347872754570051</v>
+        <v>0.2261323887377922</v>
       </c>
       <c r="Z276" t="n">
-        <v>0.00498282924772125</v>
+        <v>0.005060594413126202</v>
       </c>
       <c r="AA276" t="n">
         <v>0.00341</v>
@@ -23470,13 +23470,13 @@
         <v>0.01202265202165455</v>
       </c>
       <c r="X277" t="n">
-        <v>0.3192538705347878</v>
+        <v>0.4128499318397587</v>
       </c>
       <c r="Y277" t="n">
-        <v>0.3204561357369533</v>
+        <v>0.4140521970419241</v>
       </c>
       <c r="Z277" t="n">
-        <v>0.003923888546141089</v>
+        <v>0.003652978001165227</v>
       </c>
       <c r="AA277" t="n">
         <v>0.003409999718278116</v>
@@ -23559,10 +23559,10 @@
         <v>0</v>
       </c>
       <c r="Z278" t="n">
-        <v>0.0009367101912303747</v>
+        <v>0.0009948672959095278</v>
       </c>
       <c r="AA278" t="n">
-        <v>0.0009367101912303747</v>
+        <v>0.0009948672959095278</v>
       </c>
     </row>
     <row r="279">
@@ -23636,13 +23636,13 @@
         <v>0.06468667768385583</v>
       </c>
       <c r="X279" t="n">
-        <v>0.2357458190917086</v>
+        <v>0.234195265715728</v>
       </c>
       <c r="Y279" t="n">
-        <v>0.2422144868600941</v>
+        <v>0.2406639334841136</v>
       </c>
       <c r="Z279" t="n">
-        <v>0.004964414943540053</v>
+        <v>0.005016070241115873</v>
       </c>
       <c r="AA279" t="n">
         <v>0.003289999549782771</v>
@@ -23719,13 +23719,13 @@
         <v>0.08454634268580974</v>
       </c>
       <c r="X280" t="n">
-        <v>0.2358930882956789</v>
+        <v>0.2350724524730041</v>
       </c>
       <c r="Y280" t="n">
-        <v>0.2443477225642599</v>
+        <v>0.2435270867415851</v>
       </c>
       <c r="Z280" t="n">
-        <v>0.005218346801005512</v>
+        <v>0.005267600676899682</v>
       </c>
       <c r="AA280" t="n">
         <v>0.00329</v>
@@ -23802,13 +23802,13 @@
         <v>0.0777630600468345</v>
       </c>
       <c r="X281" t="n">
-        <v>0.2822189846373413</v>
+        <v>0.3543091682589279</v>
       </c>
       <c r="Y281" t="n">
-        <v>0.2899952906420247</v>
+        <v>0.3620854742636113</v>
       </c>
       <c r="Z281" t="n">
-        <v>0.005046893821104664</v>
+        <v>0.004856271101027214</v>
       </c>
       <c r="AA281" t="n">
         <v>0.00329</v>
@@ -23885,13 +23885,13 @@
         <v>0</v>
       </c>
       <c r="X282" t="n">
-        <v>0.2424721627874855</v>
+        <v>0.3064487335079689</v>
       </c>
       <c r="Y282" t="n">
-        <v>0.2424721627874855</v>
+        <v>0.3064487335079689</v>
       </c>
       <c r="Z282" t="n">
-        <v>0.00483508865992466</v>
+        <v>0.00467115972629184</v>
       </c>
       <c r="AA282" t="n">
         <v>0.00329</v>
@@ -23968,13 +23968,13 @@
         <v>0.01691960277892181</v>
       </c>
       <c r="X283" t="n">
-        <v>0.2148445051247068</v>
+        <v>0.3590928574976924</v>
       </c>
       <c r="Y283" t="n">
-        <v>0.2165364654025989</v>
+        <v>0.3607848177755846</v>
       </c>
       <c r="Z283" t="n">
-        <v>0.01187745317318145</v>
+        <v>0.01087049306455339</v>
       </c>
       <c r="AA283" t="n">
         <v>0.007739999999999999</v>
@@ -24051,13 +24051,13 @@
         <v>0.00996871402927756</v>
       </c>
       <c r="X284" t="n">
-        <v>0.2364604516231212</v>
+        <v>0.3004734777216789</v>
       </c>
       <c r="Y284" t="n">
-        <v>0.237457323026049</v>
+        <v>0.3014703491246066</v>
       </c>
       <c r="Z284" t="n">
-        <v>0.01219323120855293</v>
+        <v>0.01180729252528893</v>
       </c>
       <c r="AA284" t="n">
         <v>0.00774</v>
@@ -24134,13 +24134,13 @@
         <v>0.03146710842829901</v>
       </c>
       <c r="X285" t="n">
-        <v>0.2414425159160294</v>
+        <v>0.2962139247809592</v>
       </c>
       <c r="Y285" t="n">
-        <v>0.2445892267588593</v>
+        <v>0.2993606356237891</v>
       </c>
       <c r="Z285" t="n">
-        <v>0.01175805077474426</v>
+        <v>0.01144364220886854</v>
       </c>
       <c r="AA285" t="n">
         <v>0.007739999999999999</v>
@@ -24217,13 +24217,13 @@
         <v>0.01235826384148681</v>
       </c>
       <c r="X286" t="n">
-        <v>0.2364979158285623</v>
+        <v>0.3009852903999384</v>
       </c>
       <c r="Y286" t="n">
-        <v>0.237733742212711</v>
+        <v>0.3022211167840871</v>
       </c>
       <c r="Z286" t="n">
-        <v>0.01214882753107328</v>
+        <v>0.01175921739062968</v>
       </c>
       <c r="AA286" t="n">
         <v>0.00774</v>
@@ -24300,13 +24300,13 @@
         <v>0.01302230785925191</v>
       </c>
       <c r="X287" t="n">
-        <v>0.2882786229834406</v>
+        <v>0.3806589371506863</v>
       </c>
       <c r="Y287" t="n">
-        <v>0.2895808537693658</v>
+        <v>0.3819611679366115</v>
       </c>
       <c r="Z287" t="n">
-        <v>0.01020595046666904</v>
+        <v>0.009600448973753397</v>
       </c>
       <c r="AA287" t="n">
         <v>0.007739999999999999</v>
@@ -24383,13 +24383,13 @@
         <v>0.0293914394873569</v>
       </c>
       <c r="X288" t="n">
-        <v>0.2769523948923014</v>
+        <v>0.3642678429122634</v>
       </c>
       <c r="Y288" t="n">
-        <v>0.2798915388410371</v>
+        <v>0.3672069868609991</v>
       </c>
       <c r="Z288" t="n">
-        <v>0.01141526110039217</v>
+        <v>0.01084896167145651</v>
       </c>
       <c r="AA288" t="n">
         <v>0.007739999999999999</v>
@@ -24466,13 +24466,13 @@
         <v>0</v>
       </c>
       <c r="X289" t="n">
-        <v>0.3680904311665962</v>
+        <v>0.5135732560792522</v>
       </c>
       <c r="Y289" t="n">
-        <v>0.3680904311665962</v>
+        <v>0.5135732560792522</v>
       </c>
       <c r="Z289" t="n">
-        <v>0.009941019183653423</v>
+        <v>0.008924504257568308</v>
       </c>
       <c r="AA289" t="n">
         <v>0.007739999999999999</v>
@@ -24549,13 +24549,13 @@
         <v>0.01983522206043215</v>
       </c>
       <c r="X290" t="n">
-        <v>0.3394702533224381</v>
+        <v>0.5348507930483055</v>
       </c>
       <c r="Y290" t="n">
-        <v>0.3414537755284813</v>
+        <v>0.5368343152543488</v>
       </c>
       <c r="Z290" t="n">
-        <v>0.01044034874149322</v>
+        <v>0.009037625502753851</v>
       </c>
       <c r="AA290" t="n">
         <v>0.00774</v>
@@ -24632,13 +24632,13 @@
         <v>0.02213964077482506</v>
       </c>
       <c r="X291" t="n">
-        <v>0.2567147486366981</v>
+        <v>0.2960379944847127</v>
       </c>
       <c r="Y291" t="n">
-        <v>0.2589287127141806</v>
+        <v>0.2982519585621952</v>
       </c>
       <c r="Z291" t="n">
-        <v>0.01179702796093637</v>
+        <v>0.01160218817681158</v>
       </c>
       <c r="AA291" t="n">
         <v>0.00774</v>
@@ -24715,13 +24715,13 @@
         <v>0.03771539999955392</v>
       </c>
       <c r="X292" t="n">
-        <v>0.2359368527879206</v>
+        <v>0.2961086215746551</v>
       </c>
       <c r="Y292" t="n">
-        <v>0.239708392787876</v>
+        <v>0.2998801615746105</v>
       </c>
       <c r="Z292" t="n">
-        <v>0.01229705221914361</v>
+        <v>0.01194084486747313</v>
       </c>
       <c r="AA292" t="n">
         <v>0.00774</v>
@@ -24798,13 +24798,13 @@
         <v>0</v>
       </c>
       <c r="X293" t="n">
-        <v>0.7280817873981158</v>
+        <v>0.6653852085201087</v>
       </c>
       <c r="Y293" t="n">
-        <v>0.7280817873981158</v>
+        <v>0.6653852085201087</v>
       </c>
       <c r="Z293" t="n">
-        <v>0.009386254635204021</v>
+        <v>0.009981048294458639</v>
       </c>
       <c r="AA293" t="n">
         <v>0.007739999999999999</v>
@@ -24881,13 +24881,13 @@
         <v>0.02341577650543013</v>
       </c>
       <c r="X294" t="n">
-        <v>0.4799967441017854</v>
+        <v>0.5500538053489354</v>
       </c>
       <c r="Y294" t="n">
-        <v>0.4823383217523284</v>
+        <v>0.5523953829994784</v>
       </c>
       <c r="Z294" t="n">
-        <v>0.01014464772567073</v>
+        <v>0.009711928210356628</v>
       </c>
       <c r="AA294" t="n">
         <v>0.00774</v>
@@ -24964,16 +24964,16 @@
         <v>0.05103833203315581</v>
       </c>
       <c r="X295" t="n">
-        <v>0.7567804938170419</v>
+        <v>0.8846078711299531</v>
       </c>
       <c r="Y295" t="n">
-        <v>0.7618843270203575</v>
+        <v>0.8897117043332686</v>
       </c>
       <c r="Z295" t="n">
-        <v>0.00770376301859957</v>
+        <v>0.00682390125693648</v>
       </c>
       <c r="AA295" t="n">
-        <v>0.00770376301859957</v>
+        <v>0.00682390125693648</v>
       </c>
     </row>
     <row r="296">
@@ -25047,13 +25047,13 @@
         <v>0.03675520585100268</v>
       </c>
       <c r="X296" t="n">
-        <v>0.5716407721597752</v>
+        <v>0.08413785677038632</v>
       </c>
       <c r="Y296" t="n">
-        <v>0.6171928732210399</v>
+        <v>0.129689957831651</v>
       </c>
       <c r="Z296" t="n">
-        <v>0.01045958231202263</v>
+        <v>0.01434237701587534</v>
       </c>
       <c r="AA296" t="n">
         <v>0.00774</v>
@@ -25136,7 +25136,7 @@
         <v>0</v>
       </c>
       <c r="Z297" t="n">
-        <v>0.01579069023847278</v>
+        <v>0.01590021237721162</v>
       </c>
       <c r="AA297" t="n">
         <v>0.007739999999999999</v>
@@ -25213,13 +25213,13 @@
         <v>0.05147224261337205</v>
       </c>
       <c r="X298" t="n">
-        <v>0.302477781855776</v>
+        <v>0.3841888468096295</v>
       </c>
       <c r="Y298" t="n">
-        <v>0.3076250061171132</v>
+        <v>0.3893360710709667</v>
       </c>
       <c r="Z298" t="n">
-        <v>0.01128192364601431</v>
+        <v>0.01075900214201033</v>
       </c>
       <c r="AA298" t="n">
         <v>0.00774</v>
@@ -25296,13 +25296,13 @@
         <v>0.01801217372425772</v>
       </c>
       <c r="X299" t="n">
-        <v>0.3459142091633902</v>
+        <v>0.4256794999602032</v>
       </c>
       <c r="Y299" t="n">
-        <v>0.347715426535816</v>
+        <v>0.4274807173326289</v>
       </c>
       <c r="Z299" t="n">
-        <v>0.008233266153652939</v>
+        <v>0.007797581599664675</v>
       </c>
       <c r="AA299" t="n">
         <v>0.00664</v>
@@ -25379,13 +25379,13 @@
         <v>0.01468416235296193</v>
       </c>
       <c r="X300" t="n">
-        <v>0.3947079053439286</v>
+        <v>0.6529658044623147</v>
       </c>
       <c r="Y300" t="n">
-        <v>0.3961763215792248</v>
+        <v>0.6544342206976108</v>
       </c>
       <c r="Z300" t="n">
-        <v>0.009238980746255435</v>
+        <v>0.007618105273011926</v>
       </c>
       <c r="AA300" t="n">
         <v>0.00664</v>
@@ -25462,13 +25462,13 @@
         <v>0.01919055956647281</v>
       </c>
       <c r="X301" t="n">
-        <v>0.4105572893376055</v>
+        <v>0.5538674982248676</v>
       </c>
       <c r="Y301" t="n">
-        <v>0.4124763452942528</v>
+        <v>0.5557865541815149</v>
       </c>
       <c r="Z301" t="n">
-        <v>0.009401605170740181</v>
+        <v>0.008543982360631334</v>
       </c>
       <c r="AA301" t="n">
         <v>0.00664</v>
@@ -25545,13 +25545,13 @@
         <v>0.003142107421993467</v>
       </c>
       <c r="X302" t="n">
-        <v>0.4919585136239624</v>
+        <v>0.977031279939225</v>
       </c>
       <c r="Y302" t="n">
-        <v>0.4922727243661617</v>
+        <v>0.9773454906814244</v>
       </c>
       <c r="Z302" t="n">
-        <v>0.01088796499093123</v>
+        <v>0.007761038799500463</v>
       </c>
       <c r="AA302" t="n">
         <v>0.00664</v>
@@ -25628,13 +25628,13 @@
         <v>0</v>
       </c>
       <c r="X303" t="n">
-        <v>0.3087448796458181</v>
+        <v>0.4045303836083618</v>
       </c>
       <c r="Y303" t="n">
-        <v>0.3087448796458181</v>
+        <v>0.4045303836083618</v>
       </c>
       <c r="Z303" t="n">
-        <v>0.01123375694733084</v>
+        <v>0.01069169817792212</v>
       </c>
       <c r="AA303" t="n">
         <v>0.00664</v>
@@ -25711,13 +25711,13 @@
         <v>0</v>
       </c>
       <c r="X304" t="n">
-        <v>0.34075899948858</v>
+        <v>0.4522654573994349</v>
       </c>
       <c r="Y304" t="n">
-        <v>0.34075899948858</v>
+        <v>0.4522654573994349</v>
       </c>
       <c r="Z304" t="n">
-        <v>0.01109023181241558</v>
+        <v>0.01044378674160711</v>
       </c>
       <c r="AA304" t="n">
         <v>0.006639991445680069</v>
@@ -25794,13 +25794,13 @@
         <v>0.051960310796239</v>
       </c>
       <c r="X305" t="n">
-        <v>0.3589358894346919</v>
+        <v>0.9301956604115231</v>
       </c>
       <c r="Y305" t="n">
-        <v>0.3641319205143158</v>
+        <v>0.935391691491147</v>
       </c>
       <c r="Z305" t="n">
-        <v>0.01037660809050126</v>
+        <v>0.006677400188117677</v>
       </c>
       <c r="AA305" t="n">
         <v>0.006639999999999999</v>
@@ -25877,13 +25877,13 @@
         <v>0.02336740484216168</v>
       </c>
       <c r="X306" t="n">
-        <v>0.2636405639127954</v>
+        <v>0.2102764795599805</v>
       </c>
       <c r="Y306" t="n">
-        <v>0.2659773043970116</v>
+        <v>0.2126132200441967</v>
       </c>
       <c r="Z306" t="n">
-        <v>0.009698019619179715</v>
+        <v>0.01014631437134081</v>
       </c>
       <c r="AA306" t="n">
         <v>0.006640003779289493</v>
@@ -25960,13 +25960,13 @@
         <v>0.0162638154916423</v>
       </c>
       <c r="X307" t="n">
-        <v>0.2374229329370754</v>
+        <v>0.3581970578250162</v>
       </c>
       <c r="Y307" t="n">
-        <v>0.2390493144862396</v>
+        <v>0.3598234393741804</v>
       </c>
       <c r="Z307" t="n">
-        <v>0.009064019236409704</v>
+        <v>0.00835603602405635</v>
       </c>
       <c r="AA307" t="n">
         <v>0.00664</v>
@@ -26049,7 +26049,7 @@
         <v>0.04757110753130921</v>
       </c>
       <c r="Z308" t="n">
-        <v>0.01431582248640459</v>
+        <v>0.01440977946330716</v>
       </c>
       <c r="AA308" t="n">
         <v>0.00664</v>
@@ -26126,13 +26126,13 @@
         <v>0.01278601799024607</v>
       </c>
       <c r="X309" t="n">
-        <v>0.3138843386036265</v>
+        <v>0.4740477528368017</v>
       </c>
       <c r="Y309" t="n">
-        <v>0.3151629404026511</v>
+        <v>0.4753263546358263</v>
       </c>
       <c r="Z309" t="n">
-        <v>0.009324867895842888</v>
+        <v>0.008355339802237178</v>
       </c>
       <c r="AA309" t="n">
         <v>0.00664</v>
@@ -26215,7 +26215,7 @@
         <v>0.1</v>
       </c>
       <c r="Z310" t="n">
-        <v>0.01255932254738922</v>
+        <v>0.01265327952429179</v>
       </c>
       <c r="AA310" t="n">
         <v>0.00664</v>
@@ -26292,13 +26292,13 @@
         <v>0</v>
       </c>
       <c r="X311" t="n">
-        <v>0.4876888317600383</v>
+        <v>0.9858011077404358</v>
       </c>
       <c r="Y311" t="n">
-        <v>0.5052156013362613</v>
+        <v>1.003327877316659</v>
       </c>
       <c r="Z311" t="n">
-        <v>0.01105011952594501</v>
+        <v>0.007836610990337747</v>
       </c>
       <c r="AA311" t="n">
         <v>0.00664</v>
@@ -26375,13 +26375,13 @@
         <v>0</v>
       </c>
       <c r="X312" t="n">
-        <v>0.236224528383453</v>
+        <v>0.279830989628739</v>
       </c>
       <c r="Y312" t="n">
-        <v>0.236224528383453</v>
+        <v>0.279830989628739</v>
       </c>
       <c r="Z312" t="n">
-        <v>0.01253350134067243</v>
+        <v>0.0123379113593912</v>
       </c>
       <c r="AA312" t="n">
         <v>0.006640001884658877</v>
@@ -26458,16 +26458,16 @@
         <v>0.004655425448048678</v>
       </c>
       <c r="X313" t="n">
-        <v>0.4190348877537811</v>
+        <v>1</v>
       </c>
       <c r="Y313" t="n">
-        <v>0.4195004302985859</v>
+        <v>1.000465542544805</v>
       </c>
       <c r="Z313" t="n">
-        <v>0.009087538938326908</v>
+        <v>0.005323887569914588</v>
       </c>
       <c r="AA313" t="n">
-        <v>0.00664</v>
+        <v>0.005323887569914588</v>
       </c>
     </row>
     <row r="314">
@@ -26541,16 +26541,16 @@
         <v>0</v>
       </c>
       <c r="X314" t="n">
-        <v>0.9291522342518637</v>
+        <v>0.03813199931140709</v>
       </c>
       <c r="Y314" t="n">
-        <v>0.974888989254511</v>
+        <v>0.0838687543140544</v>
       </c>
       <c r="Z314" t="n">
-        <v>0.007184797889315812</v>
+        <v>0.01419081664649379</v>
       </c>
       <c r="AA314" t="n">
-        <v>0.007184797889315812</v>
+        <v>0.00774</v>
       </c>
     </row>
     <row r="315">
@@ -26624,13 +26624,13 @@
         <v>0.0004134741855788774</v>
       </c>
       <c r="X315" t="n">
-        <v>0.4354743048568714</v>
+        <v>0.5597178180036781</v>
       </c>
       <c r="Y315" t="n">
-        <v>0.4355156522754293</v>
+        <v>0.559759165422236</v>
       </c>
       <c r="Z315" t="n">
-        <v>0.01076732597158138</v>
+        <v>0.009915203318563943</v>
       </c>
       <c r="AA315" t="n">
         <v>0.00774</v>
@@ -26707,13 +26707,13 @@
         <v>0.07571705952261681</v>
       </c>
       <c r="X316" t="n">
-        <v>0.2363479465016771</v>
+        <v>0.2980044192500551</v>
       </c>
       <c r="Y316" t="n">
-        <v>0.2439196524539388</v>
+        <v>0.3055761252023168</v>
       </c>
       <c r="Z316" t="n">
-        <v>0.01090877776950493</v>
+        <v>0.01054107880917133</v>
       </c>
       <c r="AA316" t="n">
         <v>0.00774</v>
@@ -26790,13 +26790,13 @@
         <v>0.1134711077768526</v>
       </c>
       <c r="X317" t="n">
-        <v>0.9487735211996353</v>
+        <v>0.1705823552026731</v>
       </c>
       <c r="Y317" t="n">
-        <v>0.9601206319773206</v>
+        <v>0.1819294659803583</v>
       </c>
       <c r="Z317" t="n">
-        <v>0.008650579788558526</v>
+        <v>0.01478330155211386</v>
       </c>
       <c r="AA317" t="n">
         <v>0.00774</v>
@@ -26873,16 +26873,16 @@
         <v>0</v>
       </c>
       <c r="X318" t="n">
-        <v>0.9418864358115953</v>
+        <v>0.1489712305946014</v>
       </c>
       <c r="Y318" t="n">
-        <v>0.9418864358115953</v>
+        <v>0.1489712305946014</v>
       </c>
       <c r="Z318" t="n">
-        <v>0.00614119960780469</v>
+        <v>0.01238788543492307</v>
       </c>
       <c r="AA318" t="n">
-        <v>0.00614119960780469</v>
+        <v>0.007739999999999999</v>
       </c>
     </row>
     <row r="319">
@@ -26956,16 +26956,16 @@
         <v>0</v>
       </c>
       <c r="X319" t="n">
-        <v>0.9658671837102035</v>
+        <v>0.1820002314290805</v>
       </c>
       <c r="Y319" t="n">
-        <v>0.9658671837102035</v>
+        <v>0.1820002314290805</v>
       </c>
       <c r="Z319" t="n">
-        <v>0.005831912010417763</v>
+        <v>0.0120085643598125</v>
       </c>
       <c r="AA319" t="n">
-        <v>0.005831912010417763</v>
+        <v>0.007739999999999999</v>
       </c>
     </row>
     <row r="320">
@@ -27039,13 +27039,13 @@
         <v>0.05018607115047757</v>
       </c>
       <c r="X320" t="n">
-        <v>0.2805284826825227</v>
+        <v>0.2921196783263267</v>
       </c>
       <c r="Y320" t="n">
-        <v>0.2855470897975705</v>
+        <v>0.2971382854413744</v>
       </c>
       <c r="Z320" t="n">
-        <v>0.01277956420225814</v>
+        <v>0.01279937048671394</v>
       </c>
       <c r="AA320" t="n">
         <v>0.007739999999999999</v>
@@ -27122,13 +27122,13 @@
         <v>0.05742788004169615</v>
       </c>
       <c r="X321" t="n">
-        <v>0.2503672096848235</v>
+        <v>0.1363436848481561</v>
       </c>
       <c r="Y321" t="n">
-        <v>0.2561099976889931</v>
+        <v>0.1420864728523257</v>
       </c>
       <c r="Z321" t="n">
-        <v>0.00898249214557858</v>
+        <v>0.00974384375702424</v>
       </c>
       <c r="AA321" t="n">
         <v>0.00594</v>
@@ -27205,13 +27205,13 @@
         <v>0.07346154948219374</v>
       </c>
       <c r="X322" t="n">
-        <v>0.357936731451147</v>
+        <v>0.5095393528663273</v>
       </c>
       <c r="Y322" t="n">
-        <v>0.3652828863993664</v>
+        <v>0.5168855078145467</v>
       </c>
       <c r="Z322" t="n">
-        <v>0.009752163081375801</v>
+        <v>0.008935695384085488</v>
       </c>
       <c r="AA322" t="n">
         <v>0.00594</v>
@@ -27288,13 +27288,13 @@
         <v>0</v>
       </c>
       <c r="X323" t="n">
-        <v>0.4579076573151379</v>
+        <v>0.8974155542014683</v>
       </c>
       <c r="Y323" t="n">
-        <v>0.4579076573151379</v>
+        <v>0.8974155542014683</v>
       </c>
       <c r="Z323" t="n">
-        <v>0.008973814047399279</v>
+        <v>0.006447189013810333</v>
       </c>
       <c r="AA323" t="n">
         <v>0.00594</v>
@@ -27371,13 +27371,13 @@
         <v>0.1031524623719301</v>
       </c>
       <c r="X324" t="n">
-        <v>0.3677852047721186</v>
+        <v>0.593014028911297</v>
       </c>
       <c r="Y324" t="n">
-        <v>0.3781004510093116</v>
+        <v>0.60332927514849</v>
       </c>
       <c r="Z324" t="n">
-        <v>0.01045129514767661</v>
+        <v>0.009197487806205745</v>
       </c>
       <c r="AA324" t="n">
         <v>0.00594</v>
@@ -27454,13 +27454,13 @@
         <v>0.07504145656598596</v>
       </c>
       <c r="X325" t="n">
-        <v>0.4448235367014348</v>
+        <v>0.9201803396024153</v>
       </c>
       <c r="Y325" t="n">
-        <v>0.4523276823580334</v>
+        <v>0.9276844852590139</v>
       </c>
       <c r="Z325" t="n">
-        <v>0.00929801173022343</v>
+        <v>0.006558444194907463</v>
       </c>
       <c r="AA325" t="n">
         <v>0.00594</v>
@@ -27537,13 +27537,13 @@
         <v>0.09562813218123639</v>
       </c>
       <c r="X326" t="n">
-        <v>0.2354389051204091</v>
+        <v>0.2752828090135975</v>
       </c>
       <c r="Y326" t="n">
-        <v>0.2450017183385327</v>
+        <v>0.2848456222317211</v>
       </c>
       <c r="Z326" t="n">
-        <v>0.01139461168855667</v>
+        <v>0.01124199077334699</v>
       </c>
       <c r="AA326" t="n">
         <v>0.00594</v>
@@ -27620,13 +27620,13 @@
         <v>0.1104490463397998</v>
       </c>
       <c r="X327" t="n">
-        <v>0.3818031178938073</v>
+        <v>0.1723832185104848</v>
       </c>
       <c r="Y327" t="n">
-        <v>0.3928480225277873</v>
+        <v>0.1834281231444647</v>
       </c>
       <c r="Z327" t="n">
-        <v>0.0102117777119984</v>
+        <v>0.01153978378825119</v>
       </c>
       <c r="AA327" t="n">
         <v>0.00594</v>
@@ -27703,13 +27703,13 @@
         <v>0.08196417064764305</v>
       </c>
       <c r="X328" t="n">
-        <v>0.2642285156774622</v>
+        <v>0.3297339156257846</v>
       </c>
       <c r="Y328" t="n">
-        <v>0.2724249327422265</v>
+        <v>0.3379303326905489</v>
       </c>
       <c r="Z328" t="n">
-        <v>0.01113158143136237</v>
+        <v>0.01082653122958519</v>
       </c>
       <c r="AA328" t="n">
         <v>0.005940000000000001</v>
@@ -27786,16 +27786,16 @@
         <v>0</v>
       </c>
       <c r="X329" t="n">
-        <v>0.321926992220299</v>
+        <v>0.2626635923343175</v>
       </c>
       <c r="Y329" t="n">
-        <v>0.321926992220299</v>
+        <v>0.2626635923343175</v>
       </c>
       <c r="Z329" t="n">
-        <v>-0.0005584606005731238</v>
+        <v>-0.0001223842885706628</v>
       </c>
       <c r="AA329" t="n">
-        <v>-0.0005584606005731238</v>
+        <v>-0.0001223842885706628</v>
       </c>
     </row>
     <row r="330">
@@ -27869,16 +27869,16 @@
         <v>0</v>
       </c>
       <c r="X330" t="n">
-        <v>0.9521632161299043</v>
+        <v>0.01879097045828604</v>
       </c>
       <c r="Y330" t="n">
-        <v>0.9521632161299043</v>
+        <v>0.01879097045828604</v>
       </c>
       <c r="Z330" t="n">
-        <v>-0.004302063971960433</v>
+        <v>0.001326219041244836</v>
       </c>
       <c r="AA330" t="n">
-        <v>-0.004302063971960433</v>
+        <v>0.001326219041244836</v>
       </c>
     </row>
     <row r="331">
@@ -27952,13 +27952,13 @@
         <v>0.05563260160711642</v>
       </c>
       <c r="X331" t="n">
-        <v>0.6763838277600593</v>
+        <v>0.5407599262401609</v>
       </c>
       <c r="Y331" t="n">
-        <v>0.681947087920771</v>
+        <v>0.5463231864008725</v>
       </c>
       <c r="Z331" t="n">
-        <v>0.00761984617690721</v>
+        <v>0.008509504025851263</v>
       </c>
       <c r="AA331" t="n">
         <v>0.00594</v>
@@ -28035,13 +28035,13 @@
         <v>0</v>
       </c>
       <c r="X332" t="n">
-        <v>0.4990396422202132</v>
+        <v>0.9644132956219236</v>
       </c>
       <c r="Y332" t="n">
-        <v>0.4990396422202132</v>
+        <v>0.9644132956219236</v>
       </c>
       <c r="Z332" t="n">
-        <v>0.009779490057063134</v>
+        <v>0.00709922242977283</v>
       </c>
       <c r="AA332" t="n">
         <v>0.00594</v>
@@ -28118,13 +28118,13 @@
         <v>0.009466454178760429</v>
       </c>
       <c r="X333" t="n">
-        <v>0.8686162660410857</v>
+        <v>0.09431742168456481</v>
       </c>
       <c r="Y333" t="n">
-        <v>0.8695629114589617</v>
+        <v>0.09526406710244086</v>
       </c>
       <c r="Z333" t="n">
-        <v>0.006488658225033687</v>
+        <v>0.0111719513714521</v>
       </c>
       <c r="AA333" t="n">
         <v>0.005939880952380953</v>
@@ -28201,16 +28201,16 @@
         <v>0</v>
       </c>
       <c r="X334" t="n">
-        <v>0.5493167184269916</v>
+        <v>0.7802464868440897</v>
       </c>
       <c r="Y334" t="n">
-        <v>0.5493167184269916</v>
+        <v>0.7802464868440897</v>
       </c>
       <c r="Z334" t="n">
-        <v>-0.001909155054800699</v>
+        <v>-0.003196825519120438</v>
       </c>
       <c r="AA334" t="n">
-        <v>-0.001909155054800699</v>
+        <v>-0.003196825519120438</v>
       </c>
     </row>
     <row r="335">
@@ -28284,13 +28284,13 @@
         <v>0.02434214018316391</v>
       </c>
       <c r="X335" t="n">
-        <v>0.3734267740869317</v>
+        <v>0.5299034971330798</v>
       </c>
       <c r="Y335" t="n">
-        <v>0.3758609881052481</v>
+        <v>0.5323377111513962</v>
       </c>
       <c r="Z335" t="n">
-        <v>0.006316791660557405</v>
+        <v>0.005551074682095611</v>
       </c>
       <c r="AA335" t="n">
         <v>0.00538</v>
@@ -28367,13 +28367,13 @@
         <v>0.01753492358587617</v>
       </c>
       <c r="X336" t="n">
-        <v>0.3437246344898457</v>
+        <v>0.3865347540738806</v>
       </c>
       <c r="Y336" t="n">
-        <v>0.3454781268484333</v>
+        <v>0.3882882464324682</v>
       </c>
       <c r="Z336" t="n">
-        <v>0.007654501140835861</v>
+        <v>0.007500310489000235</v>
       </c>
       <c r="AA336" t="n">
         <v>0.00538</v>
@@ -28450,13 +28450,13 @@
         <v>0</v>
       </c>
       <c r="X337" t="n">
-        <v>0.3426354724091456</v>
+        <v>0.3722765809536246</v>
       </c>
       <c r="Y337" t="n">
-        <v>0.3426354724091456</v>
+        <v>0.3722765809536246</v>
       </c>
       <c r="Z337" t="n">
-        <v>0.007668844493589916</v>
+        <v>0.007585503121147101</v>
       </c>
       <c r="AA337" t="n">
         <v>0.00538</v>
@@ -28533,16 +28533,16 @@
         <v>0.008840504951976129</v>
       </c>
       <c r="X338" t="n">
-        <v>0.2432023210256575</v>
+        <v>0.219705238562544</v>
       </c>
       <c r="Y338" t="n">
-        <v>0.2440863715208551</v>
+        <v>0.2205892890577416</v>
       </c>
       <c r="Z338" t="n">
-        <v>-8.702875936141814e-05</v>
+        <v>0.0001155133358166155</v>
       </c>
       <c r="AA338" t="n">
-        <v>-8.702875936141814e-05</v>
+        <v>0.0001155133358166155</v>
       </c>
     </row>
     <row r="339">
@@ -28616,13 +28616,13 @@
         <v>0.009210837019539392</v>
       </c>
       <c r="X339" t="n">
-        <v>0.2359593538122093</v>
+        <v>0.2889839545195536</v>
       </c>
       <c r="Y339" t="n">
-        <v>0.2368804375141633</v>
+        <v>0.2899050382215075</v>
       </c>
       <c r="Z339" t="n">
-        <v>0.007003073216883538</v>
+        <v>0.006793928656604509</v>
       </c>
       <c r="AA339" t="n">
         <v>0.005379999999999999</v>
@@ -28699,13 +28699,13 @@
         <v>0.006834895121730451</v>
       </c>
       <c r="X340" t="n">
-        <v>0.2897798913239904</v>
+        <v>0.3511076618196454</v>
       </c>
       <c r="Y340" t="n">
-        <v>0.2904633808361635</v>
+        <v>0.3517911513318184</v>
       </c>
       <c r="Z340" t="n">
-        <v>0.01680818080410671</v>
+        <v>0.01619439992403994</v>
       </c>
       <c r="AA340" t="n">
         <v>0.01301</v>
@@ -28782,16 +28782,16 @@
         <v>0.02305934466204494</v>
       </c>
       <c r="X341" t="n">
-        <v>0.4815737846416277</v>
+        <v>0.7346139500741266</v>
       </c>
       <c r="Y341" t="n">
-        <v>0.4838797191078322</v>
+        <v>0.7369198845403311</v>
       </c>
       <c r="Z341" t="n">
-        <v>0.01597983635689748</v>
+        <v>0.01287187919136974</v>
       </c>
       <c r="AA341" t="n">
-        <v>0.01300999174236168</v>
+        <v>0.01287187919136974</v>
       </c>
     </row>
     <row r="342">
@@ -28865,13 +28865,13 @@
         <v>0</v>
       </c>
       <c r="X342" t="n">
-        <v>0.9025100933266547</v>
+        <v>0.6554326531814253</v>
       </c>
       <c r="Y342" t="n">
-        <v>0.9396213679004192</v>
+        <v>0.6925439277551898</v>
       </c>
       <c r="Z342" t="n">
-        <v>0.01155274322514437</v>
+        <v>0.01417024364958086</v>
       </c>
       <c r="AA342" t="n">
         <v>0.01002</v>
@@ -28948,13 +28948,13 @@
         <v>0</v>
       </c>
       <c r="X343" t="n">
-        <v>0.9507149939541154</v>
+        <v>0</v>
       </c>
       <c r="Y343" t="n">
-        <v>0.9971155558584369</v>
+        <v>0.04640056190432149</v>
       </c>
       <c r="Z343" t="n">
-        <v>0.0199032110629182</v>
+        <v>0.02957115977651973</v>
       </c>
       <c r="AA343" t="n">
         <v>0.01002</v>
@@ -29031,13 +29031,13 @@
         <v>0</v>
       </c>
       <c r="X344" t="n">
-        <v>0.4056641040906384</v>
+        <v>0.5341003270986158</v>
       </c>
       <c r="Y344" t="n">
-        <v>0.4056641040906384</v>
+        <v>0.5341003270986158</v>
       </c>
       <c r="Z344" t="n">
-        <v>0.02415834548599325</v>
+        <v>0.02249205449960313</v>
       </c>
       <c r="AA344" t="n">
         <v>0.01458</v>
@@ -29114,13 +29114,13 @@
         <v>0.04069030127733413</v>
       </c>
       <c r="X345" t="n">
-        <v>0.4255588347360799</v>
+        <v>0.5885074086415006</v>
       </c>
       <c r="Y345" t="n">
-        <v>0.4296278648638133</v>
+        <v>0.592576438769234</v>
       </c>
       <c r="Z345" t="n">
-        <v>0.02676895385392036</v>
+        <v>0.02459947279144552</v>
       </c>
       <c r="AA345" t="n">
         <v>0.01458</v>
@@ -29197,13 +29197,13 @@
         <v>0.04081693746799792</v>
       </c>
       <c r="X346" t="n">
-        <v>0</v>
+        <v>0.1178009715856847</v>
       </c>
       <c r="Y346" t="n">
-        <v>0.004081693746799792</v>
+        <v>0.1218826653324845</v>
       </c>
       <c r="Z346" t="n">
-        <v>0.0330973165316209</v>
+        <v>0.03158610097211385</v>
       </c>
       <c r="AA346" t="n">
         <v>0.01457987012987013</v>
@@ -29280,16 +29280,16 @@
         <v>0</v>
       </c>
       <c r="X347" t="n">
-        <v>0.5078908701447045</v>
+        <v>0.639010962369742</v>
       </c>
       <c r="Y347" t="n">
-        <v>0.5078908701447045</v>
+        <v>0.639010962369742</v>
       </c>
       <c r="Z347" t="n">
-        <v>0.003942632224534852</v>
+        <v>0.003480600941385286</v>
       </c>
       <c r="AA347" t="n">
-        <v>0.003942632224534852</v>
+        <v>0.003480600941385286</v>
       </c>
     </row>
     <row r="348">
@@ -29363,16 +29363,16 @@
         <v>0</v>
       </c>
       <c r="X348" t="n">
-        <v>0.7023282400483524</v>
+        <v>0.783721917604533</v>
       </c>
       <c r="Y348" t="n">
-        <v>0.7023282400483524</v>
+        <v>0.783721917604533</v>
       </c>
       <c r="Z348" t="n">
-        <v>0.003407298039487836</v>
+        <v>0.003141686094280254</v>
       </c>
       <c r="AA348" t="n">
-        <v>0.003407298039487836</v>
+        <v>0.003141686094280254</v>
       </c>
     </row>
     <row r="349">
@@ -29452,7 +29452,7 @@
         <v>0</v>
       </c>
       <c r="Z349" t="n">
-        <v>0.007828244587678827</v>
+        <v>0.00788413766881816</v>
       </c>
       <c r="AA349" t="n">
         <v>0.00395</v>
@@ -29529,16 +29529,16 @@
         <v>0.008579636664467002</v>
       </c>
       <c r="X350" t="n">
-        <v>0.8589991032498032</v>
+        <v>0.1967488846167951</v>
       </c>
       <c r="Y350" t="n">
-        <v>0.85985706691625</v>
+        <v>0.1976068482832418</v>
       </c>
       <c r="Z350" t="n">
-        <v>0.003047549278900537</v>
+        <v>0.005719330723640252</v>
       </c>
       <c r="AA350" t="n">
-        <v>0.003047549278900537</v>
+        <v>0.00395</v>
       </c>
     </row>
     <row r="351">
@@ -29612,16 +29612,16 @@
         <v>0.01305797596035546</v>
       </c>
       <c r="X351" t="n">
-        <v>0.4932044515913947</v>
+        <v>0.9757387022046998</v>
       </c>
       <c r="Y351" t="n">
-        <v>0.514183318573785</v>
+        <v>0.9967175691870901</v>
       </c>
       <c r="Z351" t="n">
-        <v>0.005347705784512075</v>
+        <v>0.003497588575728852</v>
       </c>
       <c r="AA351" t="n">
-        <v>0.00395</v>
+        <v>0.003497588575728852</v>
       </c>
     </row>
     <row r="352">
@@ -29695,16 +29695,16 @@
         <v>0.03853067871065892</v>
       </c>
       <c r="X352" t="n">
-        <v>0.1095105726265984</v>
+        <v>0.5716294039358327</v>
       </c>
       <c r="Y352" t="n">
-        <v>0.1718909581792542</v>
+        <v>0.6340097894884885</v>
       </c>
       <c r="Z352" t="n">
-        <v>0.037075290084104</v>
+        <v>0.02511787624303681</v>
       </c>
       <c r="AA352" t="n">
-        <v>0.02669252173913043</v>
+        <v>0.02511787624303681</v>
       </c>
     </row>
     <row r="353">
@@ -29778,16 +29778,16 @@
         <v>0.01971457807001939</v>
       </c>
       <c r="X353" t="n">
-        <v>0.4581060038442437</v>
+        <v>0.8664890478928586</v>
       </c>
       <c r="Y353" t="n">
-        <v>0.4600774616512456</v>
+        <v>0.8684605056998606</v>
       </c>
       <c r="Z353" t="n">
-        <v>0.04801665112960053</v>
+        <v>0.03400839055942761</v>
       </c>
       <c r="AA353" t="n">
-        <v>0.03553295698924731</v>
+        <v>0.03400839055942761</v>
       </c>
     </row>
     <row r="354">
@@ -29861,16 +29861,16 @@
         <v>0</v>
       </c>
       <c r="X354" t="n">
-        <v>0.7105456703711885</v>
+        <v>0.05725825721833711</v>
       </c>
       <c r="Y354" t="n">
-        <v>0.7105456703711885</v>
+        <v>0.05725825721833711</v>
       </c>
       <c r="Z354" t="n">
-        <v>0.01871197755953706</v>
+        <v>0.04537110643087541</v>
       </c>
       <c r="AA354" t="n">
-        <v>0.01871197755953706</v>
+        <v>0.03994250617283951</v>
       </c>
     </row>
     <row r="355">
@@ -29944,13 +29944,13 @@
         <v>0.01010366712351261</v>
       </c>
       <c r="X355" t="n">
-        <v>0.235901976200273</v>
+        <v>0.2650209733135414</v>
       </c>
       <c r="Y355" t="n">
-        <v>0.2369123429126243</v>
+        <v>0.2660313400258926</v>
       </c>
       <c r="Z355" t="n">
-        <v>0.0384994459452038</v>
+        <v>0.03808615603051418</v>
       </c>
       <c r="AA355" t="n">
         <v>0.02760999776085983</v>
@@ -30027,13 +30027,13 @@
         <v>0.03072267129664876</v>
       </c>
       <c r="X356" t="n">
-        <v>0.3509814398332314</v>
+        <v>0.6030253976630252</v>
       </c>
       <c r="Y356" t="n">
-        <v>0.3540537069628962</v>
+        <v>0.6060976647926901</v>
       </c>
       <c r="Z356" t="n">
-        <v>0.03624850525162317</v>
+        <v>0.02968025713803293</v>
       </c>
       <c r="AA356" t="n">
         <v>0.02761</v>
@@ -30110,13 +30110,13 @@
         <v>0.007199340382805934</v>
       </c>
       <c r="X357" t="n">
-        <v>0.4174723041220443</v>
+        <v>0.5701487847614787</v>
       </c>
       <c r="Y357" t="n">
-        <v>0.4181922381603249</v>
+        <v>0.5708687187997593</v>
       </c>
       <c r="Z357" t="n">
-        <v>0.02397168281023017</v>
+        <v>0.02171924462726727</v>
       </c>
       <c r="AA357" t="n">
         <v>0.01626</v>
@@ -30193,16 +30193,16 @@
         <v>0.02253532459294989</v>
       </c>
       <c r="X358" t="n">
-        <v>0.3142995950068765</v>
+        <v>0.4190875532417557</v>
       </c>
       <c r="Y358" t="n">
-        <v>0.3165531274661715</v>
+        <v>0.4213410857010507</v>
       </c>
       <c r="Z358" t="n">
-        <v>0.01607883892095769</v>
+        <v>0.01460506773009674</v>
       </c>
       <c r="AA358" t="n">
-        <v>0.01607883892095769</v>
+        <v>0.01460506773009674</v>
       </c>
     </row>
     <row r="359">
@@ -30276,13 +30276,13 @@
         <v>0.03022530062601369</v>
       </c>
       <c r="X359" t="n">
-        <v>0.281098321122637</v>
+        <v>0.3780299265932963</v>
       </c>
       <c r="Y359" t="n">
-        <v>0.2841208511852384</v>
+        <v>0.3810524566558977</v>
       </c>
       <c r="Z359" t="n">
-        <v>0.01773765947798205</v>
+        <v>0.01639163296526345</v>
       </c>
       <c r="AA359" t="n">
         <v>0.01626</v>
@@ -30359,13 +30359,13 @@
         <v>0.01228904740128812</v>
       </c>
       <c r="X360" t="n">
-        <v>0.52227313110219</v>
+        <v>0.1308451406713576</v>
       </c>
       <c r="Y360" t="n">
-        <v>0.5547794292777569</v>
+        <v>0.1633514388469244</v>
       </c>
       <c r="Z360" t="n">
-        <v>0.02412610344086968</v>
+        <v>0.03072080395750933</v>
       </c>
       <c r="AA360" t="n">
         <v>0.01626</v>
@@ -30442,13 +30442,13 @@
         <v>0.01160559098839239</v>
       </c>
       <c r="X361" t="n">
-        <v>0.2763519550591542</v>
+        <v>0.3677313750053277</v>
       </c>
       <c r="Y361" t="n">
-        <v>0.2775125141579934</v>
+        <v>0.3688919341041669</v>
       </c>
       <c r="Z361" t="n">
-        <v>0.03895541177324819</v>
+        <v>0.03697757814098521</v>
       </c>
       <c r="AA361" t="n">
         <v>0.02560989583333333</v>
@@ -30525,13 +30525,13 @@
         <v>0.01231635000404551</v>
       </c>
       <c r="X362" t="n">
-        <v>0.2963638035360192</v>
+        <v>0.3914599524639739</v>
       </c>
       <c r="Y362" t="n">
-        <v>0.2975954385364238</v>
+        <v>0.3926915874643785</v>
       </c>
       <c r="Z362" t="n">
-        <v>0.03699234242853049</v>
+        <v>0.03491931483587384</v>
       </c>
       <c r="AA362" t="n">
         <v>0.02561000600961539</v>
@@ -30608,13 +30608,13 @@
         <v>0.0105321973673339</v>
       </c>
       <c r="X363" t="n">
-        <v>0.2359560911636875</v>
+        <v>0.2725539346407051</v>
       </c>
       <c r="Y363" t="n">
-        <v>0.2370093109004209</v>
+        <v>0.2736071543774385</v>
       </c>
       <c r="Z363" t="n">
-        <v>0.02844890816053021</v>
+        <v>0.0278740226569264</v>
       </c>
       <c r="AA363" t="n">
         <v>0.02561</v>
@@ -30691,13 +30691,13 @@
         <v>0.01158218720674528</v>
       </c>
       <c r="X364" t="n">
-        <v>0.3219409428553581</v>
+        <v>0.4298436935809281</v>
       </c>
       <c r="Y364" t="n">
-        <v>0.3230991615760326</v>
+        <v>0.4310019123016026</v>
       </c>
       <c r="Z364" t="n">
-        <v>0.03610171161753525</v>
+        <v>0.03370070898636867</v>
       </c>
       <c r="AA364" t="n">
         <v>0.02560998349834983</v>
@@ -30774,16 +30774,16 @@
         <v>0.01601776745911869</v>
       </c>
       <c r="X365" t="n">
-        <v>0.7396006805097282</v>
+        <v>0.7737194728533391</v>
       </c>
       <c r="Y365" t="n">
-        <v>0.74120245725564</v>
+        <v>0.775321249599251</v>
       </c>
       <c r="Z365" t="n">
-        <v>0.01051473300572183</v>
+        <v>0.01000333288154375</v>
       </c>
       <c r="AA365" t="n">
-        <v>0.01051473300572183</v>
+        <v>0.01000333288154375</v>
       </c>
     </row>
     <row r="366">
@@ -30940,13 +30940,13 @@
         <v>0</v>
       </c>
       <c r="X367" t="n">
-        <v>0.2393411452576968</v>
+        <v>0.2343995828327217</v>
       </c>
       <c r="Y367" t="n">
-        <v>0.2393411452576968</v>
+        <v>0.2343995828327217</v>
       </c>
       <c r="Z367" t="n">
-        <v>0.02833345323649815</v>
+        <v>0.02863433861553428</v>
       </c>
       <c r="AA367" t="n">
         <v>0.01576000191424196</v>
@@ -31023,13 +31023,13 @@
         <v>0.02458777089522407</v>
       </c>
       <c r="X368" t="n">
-        <v>0.2431315553042692</v>
+        <v>0.2771650932024741</v>
       </c>
       <c r="Y368" t="n">
-        <v>0.2455903323937916</v>
+        <v>0.2796238702919965</v>
       </c>
       <c r="Z368" t="n">
-        <v>0.02286659154889722</v>
+        <v>0.0225532293416755</v>
       </c>
       <c r="AA368" t="n">
         <v>0.01575999842171717</v>
@@ -31112,7 +31112,7 @@
         <v>0.05970281624150112</v>
       </c>
       <c r="Z369" t="n">
-        <v>0.02617237851768592</v>
+        <v>0.02639538520485171</v>
       </c>
       <c r="AA369" t="n">
         <v>0.01576002604166667</v>
@@ -31195,7 +31195,7 @@
         <v>0.009907137753822763</v>
       </c>
       <c r="Z370" t="n">
-        <v>0.02810572230226151</v>
+        <v>0.02832872862093389</v>
       </c>
       <c r="AA370" t="n">
         <v>0.01576</v>
@@ -31272,13 +31272,13 @@
         <v>0.006421139849293024</v>
       </c>
       <c r="X371" t="n">
-        <v>0.3282900568789331</v>
+        <v>0.4375666936242308</v>
       </c>
       <c r="Y371" t="n">
-        <v>0.3289321708638624</v>
+        <v>0.4382088076091601</v>
       </c>
       <c r="Z371" t="n">
-        <v>0.01981928187340389</v>
+        <v>0.01832008839697037</v>
       </c>
       <c r="AA371" t="n">
         <v>0.01576</v>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="X372" t="n">
-        <v>0.388888127916748</v>
+        <v>0.2767319817098783</v>
       </c>
       <c r="Y372" t="n">
-        <v>0.388888127916748</v>
+        <v>0.2767319817098783</v>
       </c>
       <c r="Z372" t="n">
-        <v>0.01774300983523266</v>
+        <v>0.01973358386121975</v>
       </c>
       <c r="AA372" t="n">
         <v>0.01575989583333333</v>
@@ -31438,16 +31438,16 @@
         <v>0.008567876080227929</v>
       </c>
       <c r="X373" t="n">
-        <v>0.5239079430218938</v>
+        <v>0.732133672858974</v>
       </c>
       <c r="Y373" t="n">
-        <v>0.5247647306299166</v>
+        <v>0.7329904604669968</v>
       </c>
       <c r="Z373" t="n">
-        <v>0.01656383641573461</v>
+        <v>0.01350520536717431</v>
       </c>
       <c r="AA373" t="n">
-        <v>0.01575999930439621</v>
+        <v>0.01350520536717431</v>
       </c>
     </row>
     <row r="374">
@@ -31521,16 +31521,16 @@
         <v>0.01384462365999744</v>
       </c>
       <c r="X374" t="n">
-        <v>0.9295730877849055</v>
+        <v>0.1751659768485079</v>
       </c>
       <c r="Y374" t="n">
-        <v>0.9309575501509053</v>
+        <v>0.1765504392145076</v>
       </c>
       <c r="Z374" t="n">
-        <v>0.009396714156728065</v>
+        <v>0.02150917654375806</v>
       </c>
       <c r="AA374" t="n">
-        <v>0.009396714156728065</v>
+        <v>0.01576</v>
       </c>
     </row>
     <row r="375">
@@ -31604,13 +31604,13 @@
         <v>0.003906562882290399</v>
       </c>
       <c r="X375" t="n">
-        <v>0.04662459743909664</v>
+        <v>0.4733444566042214</v>
       </c>
       <c r="Y375" t="n">
-        <v>0.04701525372732568</v>
+        <v>0.4737351128924505</v>
       </c>
       <c r="Z375" t="n">
-        <v>0.0258999320635253</v>
+        <v>0.01939783608775603</v>
       </c>
       <c r="AA375" t="n">
         <v>0.01575999348958334</v>
@@ -31687,13 +31687,13 @@
         <v>0.02002677883485803</v>
       </c>
       <c r="X376" t="n">
-        <v>0.2546582675218219</v>
+        <v>0.2780990536012442</v>
       </c>
       <c r="Y376" t="n">
-        <v>0.2566609454053077</v>
+        <v>0.28010173148473</v>
       </c>
       <c r="Z376" t="n">
-        <v>0.02060538792513071</v>
+        <v>0.02045896741341693</v>
       </c>
       <c r="AA376" t="n">
         <v>0.01576000449640288</v>
@@ -31770,13 +31770,13 @@
         <v>0.009280934885743641</v>
       </c>
       <c r="X377" t="n">
-        <v>0.2376489557260566</v>
+        <v>0.2952278652171654</v>
       </c>
       <c r="Y377" t="n">
-        <v>0.238577049214631</v>
+        <v>0.2961559587057397</v>
       </c>
       <c r="Z377" t="n">
-        <v>0.02028649401212473</v>
+        <v>0.01960205676119127</v>
       </c>
       <c r="AA377" t="n">
         <v>0.01575999898744431</v>
@@ -31853,13 +31853,13 @@
         <v>0.01652895668439549</v>
       </c>
       <c r="X378" t="n">
-        <v>0.2353937905667101</v>
+        <v>0.1730120630814649</v>
       </c>
       <c r="Y378" t="n">
-        <v>0.2370466862351496</v>
+        <v>0.1746649587499044</v>
       </c>
       <c r="Z378" t="n">
-        <v>0.02581201151070924</v>
+        <v>0.02701815410763067</v>
       </c>
       <c r="AA378" t="n">
         <v>0.01576000330687831</v>
@@ -31936,13 +31936,13 @@
         <v>0.04473594959404369</v>
       </c>
       <c r="X379" t="n">
-        <v>0.3707317139027388</v>
+        <v>0.6919812798266126</v>
       </c>
       <c r="Y379" t="n">
-        <v>0.3752053088621432</v>
+        <v>0.696454874786017</v>
       </c>
       <c r="Z379" t="n">
-        <v>0.02355779175842395</v>
+        <v>0.01871788726874418</v>
       </c>
       <c r="AA379" t="n">
         <v>0.01576005747126437</v>
@@ -32019,13 +32019,13 @@
         <v>0.03245582082917385</v>
       </c>
       <c r="X380" t="n">
-        <v>0.3328640650963635</v>
+        <v>0.3474924217174986</v>
       </c>
       <c r="Y380" t="n">
-        <v>0.3361096471792808</v>
+        <v>0.350738003800416</v>
       </c>
       <c r="Z380" t="n">
-        <v>0.02417208898419549</v>
+        <v>0.02416455240366391</v>
       </c>
       <c r="AA380" t="n">
         <v>0.01575999760536399</v>
@@ -32102,16 +32102,16 @@
         <v>0.008840504951976129</v>
       </c>
       <c r="X381" t="n">
-        <v>0.243034463384463</v>
+        <v>0.2990073069291421</v>
       </c>
       <c r="Y381" t="n">
-        <v>0.2439185138796606</v>
+        <v>0.2998913574243398</v>
       </c>
       <c r="Z381" t="n">
-        <v>-0.0002522935509908259</v>
+        <v>-0.0009114185204941168</v>
       </c>
       <c r="AA381" t="n">
-        <v>-0.0002522935509908259</v>
+        <v>-0.0009114185204941168</v>
       </c>
     </row>
     <row r="382">
@@ -32185,13 +32185,13 @@
         <v>0.08628635193422324</v>
       </c>
       <c r="X382" t="n">
-        <v>0.2840311046284412</v>
+        <v>0.4151871700749195</v>
       </c>
       <c r="Y382" t="n">
-        <v>0.2926597398218635</v>
+        <v>0.4238158052683418</v>
       </c>
       <c r="Z382" t="n">
-        <v>0.02264883729633977</v>
+        <v>0.02080482545747171</v>
       </c>
       <c r="AA382" t="n">
         <v>0.01575998774509804</v>
@@ -32268,16 +32268,16 @@
         <v>0.006653515241923125</v>
       </c>
       <c r="X383" t="n">
-        <v>0.9632897757567608</v>
+        <v>0.3035537877346581</v>
       </c>
       <c r="Y383" t="n">
-        <v>0.9946947492484971</v>
+        <v>0.3349587612263944</v>
       </c>
       <c r="Z383" t="n">
-        <v>0.008408329844528249</v>
+        <v>0.01902877533442896</v>
       </c>
       <c r="AA383" t="n">
-        <v>0.008408329844528249</v>
+        <v>0.01576</v>
       </c>
     </row>
     <row r="384">
@@ -32351,13 +32351,13 @@
         <v>0.01551459976131108</v>
       </c>
       <c r="X384" t="n">
-        <v>0.2369462487375169</v>
+        <v>0.3182183003459069</v>
       </c>
       <c r="Y384" t="n">
-        <v>0.238497708713648</v>
+        <v>0.319769760322038</v>
       </c>
       <c r="Z384" t="n">
-        <v>0.1218137852717654</v>
+        <v>0.1145055848554458</v>
       </c>
       <c r="AA384" t="n">
         <v>0.1088795151515151</v>
